--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5EB45F3-41AD-4DCC-BC55-23ACE5F3FEC5}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7415522-0B2F-4004-BEAB-11B562CF8C5B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-27645" yWindow="-90" windowWidth="13830" windowHeight="6045" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$A$1:$J$289</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$XFB$1090</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$XFB$1093</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3896" uniqueCount="1566">
   <si>
     <t>File ID</t>
   </si>
@@ -4746,6 +4746,15 @@
   </si>
   <si>
     <t>Domestic Violence Survivors Not Identified as Currently Fleeing</t>
+  </si>
+  <si>
+    <t>Veteran - Domestic Violence Survivor Not Identified as Currently Fleeing</t>
+  </si>
+  <si>
+    <t>Parenting Youth 18-24 - Domestic Violence Survivor Not Identified as Currently Fleeing</t>
+  </si>
+  <si>
+    <t>Parenting Child - Domestic Violence Survivor Not Identified as Currently Fleeing</t>
   </si>
 </sst>
 </file>
@@ -4979,6 +4988,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13520,11 +13533,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N1090"/>
+  <dimension ref="A1:N1093"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G551" sqref="G551"/>
+      <pane ySplit="1" topLeftCell="A867" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D892" sqref="D892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24895,11 +24908,11 @@
       <c r="B805" t="s">
         <v>313</v>
       </c>
-      <c r="C805" s="13">
-        <v>5153</v>
-      </c>
-      <c r="D805" t="s">
-        <v>1384</v>
+      <c r="C805" s="34">
+        <v>5097</v>
+      </c>
+      <c r="D805" s="29" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.45">
@@ -24910,10 +24923,10 @@
         <v>313</v>
       </c>
       <c r="C806" s="13">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="D806" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.45">
@@ -24924,10 +24937,10 @@
         <v>313</v>
       </c>
       <c r="C807" s="13">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="D807" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.45">
@@ -24937,11 +24950,11 @@
       <c r="B808" t="s">
         <v>313</v>
       </c>
-      <c r="C808" s="34">
-        <v>5156</v>
-      </c>
-      <c r="D808" s="29" t="s">
-        <v>1387</v>
+      <c r="C808" s="13">
+        <v>5155</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.45">
@@ -24952,10 +24965,10 @@
         <v>313</v>
       </c>
       <c r="C809" s="34">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="D809" s="29" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.45">
@@ -24966,10 +24979,10 @@
         <v>313</v>
       </c>
       <c r="C810" s="34">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="D810" s="29" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.45">
@@ -24980,10 +24993,10 @@
         <v>313</v>
       </c>
       <c r="C811" s="34">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="D811" s="29" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -24994,10 +25007,10 @@
         <v>313</v>
       </c>
       <c r="C812" s="34">
-        <v>5160</v>
+        <v>5159</v>
       </c>
       <c r="D812" s="29" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.45">
@@ -25008,10 +25021,10 @@
         <v>313</v>
       </c>
       <c r="C813" s="34">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="D813" s="29" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.45">
@@ -25022,10 +25035,10 @@
         <v>313</v>
       </c>
       <c r="C814" s="34">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="D814" s="29" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.45">
@@ -25036,10 +25049,10 @@
         <v>313</v>
       </c>
       <c r="C815" s="34">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="D815" s="29" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.45">
@@ -25050,10 +25063,10 @@
         <v>313</v>
       </c>
       <c r="C816" s="34">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="D816" s="29" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.45">
@@ -25064,10 +25077,10 @@
         <v>313</v>
       </c>
       <c r="C817" s="34">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="D817" s="29" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.45">
@@ -25078,10 +25091,10 @@
         <v>313</v>
       </c>
       <c r="C818" s="34">
-        <v>5166</v>
+        <v>5165</v>
       </c>
       <c r="D818" s="29" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.45">
@@ -25092,10 +25105,10 @@
         <v>313</v>
       </c>
       <c r="C819" s="34">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="D819" s="29" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.45">
@@ -25106,10 +25119,10 @@
         <v>313</v>
       </c>
       <c r="C820" s="34">
-        <v>5168</v>
+        <v>5167</v>
       </c>
       <c r="D820" s="29" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.45">
@@ -25120,10 +25133,10 @@
         <v>313</v>
       </c>
       <c r="C821" s="34">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.45">
@@ -25134,10 +25147,10 @@
         <v>313</v>
       </c>
       <c r="C822" s="34">
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="D822" s="29" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.45">
@@ -25148,10 +25161,10 @@
         <v>313</v>
       </c>
       <c r="C823" s="34">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="D823" s="29" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.45">
@@ -25162,10 +25175,10 @@
         <v>313</v>
       </c>
       <c r="C824" s="34">
-        <v>5172</v>
+        <v>5171</v>
       </c>
       <c r="D824" s="29" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.45">
@@ -25176,10 +25189,10 @@
         <v>313</v>
       </c>
       <c r="C825" s="34">
-        <v>5173</v>
+        <v>5172</v>
       </c>
       <c r="D825" s="29" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.45">
@@ -25190,10 +25203,10 @@
         <v>313</v>
       </c>
       <c r="C826" s="34">
-        <v>5174</v>
+        <v>5173</v>
       </c>
       <c r="D826" s="29" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.45">
@@ -25204,10 +25217,10 @@
         <v>313</v>
       </c>
       <c r="C827" s="34">
-        <v>5175</v>
+        <v>5174</v>
       </c>
       <c r="D827" s="29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.45">
@@ -25218,10 +25231,10 @@
         <v>313</v>
       </c>
       <c r="C828" s="34">
-        <v>5176</v>
+        <v>5175</v>
       </c>
       <c r="D828" s="29" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.45">
@@ -25232,10 +25245,10 @@
         <v>313</v>
       </c>
       <c r="C829" s="34">
-        <v>5177</v>
+        <v>5176</v>
       </c>
       <c r="D829" s="29" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.45">
@@ -25246,10 +25259,10 @@
         <v>313</v>
       </c>
       <c r="C830" s="34">
-        <v>5178</v>
+        <v>5177</v>
       </c>
       <c r="D830" s="29" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.45">
@@ -25260,10 +25273,10 @@
         <v>313</v>
       </c>
       <c r="C831" s="34">
-        <v>5179</v>
+        <v>5178</v>
       </c>
       <c r="D831" s="29" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.45">
@@ -25274,10 +25287,10 @@
         <v>313</v>
       </c>
       <c r="C832" s="34">
-        <v>5180</v>
+        <v>5179</v>
       </c>
       <c r="D832" s="29" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.45">
@@ -25288,10 +25301,10 @@
         <v>313</v>
       </c>
       <c r="C833" s="34">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="D833" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.45">
@@ -25302,10 +25315,10 @@
         <v>313</v>
       </c>
       <c r="C834" s="34">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="D834" s="29" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.45">
@@ -25316,10 +25329,10 @@
         <v>313</v>
       </c>
       <c r="C835" s="34">
-        <v>5183</v>
+        <v>5182</v>
       </c>
       <c r="D835" s="29" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.45">
@@ -25330,10 +25343,10 @@
         <v>313</v>
       </c>
       <c r="C836" s="34">
-        <v>5184</v>
+        <v>5183</v>
       </c>
       <c r="D836" s="29" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.45">
@@ -25344,10 +25357,10 @@
         <v>313</v>
       </c>
       <c r="C837" s="34">
-        <v>5185</v>
+        <v>5184</v>
       </c>
       <c r="D837" s="29" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.45">
@@ -25357,11 +25370,11 @@
       <c r="B838" t="s">
         <v>313</v>
       </c>
-      <c r="C838" s="13">
-        <v>5253</v>
-      </c>
-      <c r="D838" t="s">
-        <v>1417</v>
+      <c r="C838" s="34">
+        <v>5185</v>
+      </c>
+      <c r="D838" s="29" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.45">
@@ -25371,11 +25384,11 @@
       <c r="B839" t="s">
         <v>313</v>
       </c>
-      <c r="C839" s="13">
-        <v>5254</v>
-      </c>
-      <c r="D839" t="s">
-        <v>1418</v>
+      <c r="C839" s="34">
+        <v>5197</v>
+      </c>
+      <c r="D839" s="29" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.45">
@@ -25386,10 +25399,10 @@
         <v>313</v>
       </c>
       <c r="C840" s="13">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="D840" t="s">
-        <v>392</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.45">
@@ -25399,11 +25412,11 @@
       <c r="B841" t="s">
         <v>313</v>
       </c>
-      <c r="C841" s="34">
-        <v>5256</v>
-      </c>
-      <c r="D841" s="29" t="s">
-        <v>1419</v>
+      <c r="C841" s="13">
+        <v>5254</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.45">
@@ -25413,11 +25426,11 @@
       <c r="B842" t="s">
         <v>313</v>
       </c>
-      <c r="C842" s="34">
-        <v>5257</v>
-      </c>
-      <c r="D842" s="29" t="s">
-        <v>1420</v>
+      <c r="C842" s="13">
+        <v>5255</v>
+      </c>
+      <c r="D842" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.45">
@@ -25428,10 +25441,10 @@
         <v>313</v>
       </c>
       <c r="C843" s="34">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="D843" s="29" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.45">
@@ -25442,10 +25455,10 @@
         <v>313</v>
       </c>
       <c r="C844" s="34">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="D844" s="29" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.45">
@@ -25456,10 +25469,10 @@
         <v>313</v>
       </c>
       <c r="C845" s="34">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="D845" s="29" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25470,10 +25483,10 @@
         <v>313</v>
       </c>
       <c r="C846" s="34">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="D846" s="29" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.45">
@@ -25484,10 +25497,10 @@
         <v>313</v>
       </c>
       <c r="C847" s="34">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="D847" s="29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.45">
@@ -25498,10 +25511,10 @@
         <v>313</v>
       </c>
       <c r="C848" s="34">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D848" s="29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.45">
@@ -25512,10 +25525,10 @@
         <v>313</v>
       </c>
       <c r="C849" s="34">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="D849" s="29" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.45">
@@ -25526,10 +25539,10 @@
         <v>313</v>
       </c>
       <c r="C850" s="34">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="D850" s="29" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.45">
@@ -25540,10 +25553,10 @@
         <v>313</v>
       </c>
       <c r="C851" s="34">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="D851" s="29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.45">
@@ -25554,10 +25567,10 @@
         <v>313</v>
       </c>
       <c r="C852" s="34">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="D852" s="29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.45">
@@ -25568,10 +25581,10 @@
         <v>313</v>
       </c>
       <c r="C853" s="34">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="D853" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.45">
@@ -25582,10 +25595,10 @@
         <v>313</v>
       </c>
       <c r="C854" s="34">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="D854" s="29" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.45">
@@ -25596,10 +25609,10 @@
         <v>313</v>
       </c>
       <c r="C855" s="34">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="D855" s="29" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.45">
@@ -25610,10 +25623,10 @@
         <v>313</v>
       </c>
       <c r="C856" s="34">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="D856" s="29" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.45">
@@ -25624,10 +25637,10 @@
         <v>313</v>
       </c>
       <c r="C857" s="34">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="D857" s="29" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.45">
@@ -25638,10 +25651,10 @@
         <v>313</v>
       </c>
       <c r="C858" s="34">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="D858" s="29" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.45">
@@ -25652,10 +25665,10 @@
         <v>313</v>
       </c>
       <c r="C859" s="34">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D859" s="29" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.45">
@@ -25666,10 +25679,10 @@
         <v>313</v>
       </c>
       <c r="C860" s="34">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="D860" s="29" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.45">
@@ -25680,10 +25693,10 @@
         <v>313</v>
       </c>
       <c r="C861" s="34">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="D861" s="29" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.45">
@@ -25694,10 +25707,10 @@
         <v>313</v>
       </c>
       <c r="C862" s="34">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="D862" s="29" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.45">
@@ -25708,10 +25721,10 @@
         <v>313</v>
       </c>
       <c r="C863" s="34">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="D863" s="29" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.45">
@@ -25722,10 +25735,10 @@
         <v>313</v>
       </c>
       <c r="C864" s="34">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="D864" s="29" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.45">
@@ -25736,10 +25749,10 @@
         <v>313</v>
       </c>
       <c r="C865" s="34">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="D865" s="29" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.45">
@@ -25750,10 +25763,10 @@
         <v>313</v>
       </c>
       <c r="C866" s="34">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="D866" s="29" t="s">
-        <v>391</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.45">
@@ -25764,10 +25777,10 @@
         <v>313</v>
       </c>
       <c r="C867" s="34">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="D867" s="29" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.45">
@@ -25778,10 +25791,10 @@
         <v>313</v>
       </c>
       <c r="C868" s="34">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="D868" s="29" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.45">
@@ -25792,10 +25805,10 @@
         <v>313</v>
       </c>
       <c r="C869" s="34">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="D869" s="29" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.45">
@@ -25806,10 +25819,10 @@
         <v>313</v>
       </c>
       <c r="C870" s="34">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="D870" s="29" t="s">
-        <v>1446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.45">
@@ -25819,11 +25832,11 @@
       <c r="B871" t="s">
         <v>313</v>
       </c>
-      <c r="C871" s="13">
-        <v>5253</v>
-      </c>
-      <c r="D871" t="s">
-        <v>428</v>
+      <c r="C871" s="34">
+        <v>5284</v>
+      </c>
+      <c r="D871" s="29" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.45">
@@ -25833,11 +25846,11 @@
       <c r="B872" t="s">
         <v>313</v>
       </c>
-      <c r="C872" s="13">
-        <v>5254</v>
-      </c>
-      <c r="D872" t="s">
-        <v>429</v>
+      <c r="C872" s="34">
+        <v>5285</v>
+      </c>
+      <c r="D872" s="29" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.45">
@@ -25848,10 +25861,10 @@
         <v>313</v>
       </c>
       <c r="C873" s="13">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="D873" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.45">
@@ -25861,11 +25874,11 @@
       <c r="B874" t="s">
         <v>313</v>
       </c>
-      <c r="C874" s="34">
-        <v>5256</v>
-      </c>
-      <c r="D874" s="29" t="s">
-        <v>1135</v>
+      <c r="C874" s="13">
+        <v>5254</v>
+      </c>
+      <c r="D874" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.45">
@@ -25875,11 +25888,11 @@
       <c r="B875" t="s">
         <v>313</v>
       </c>
-      <c r="C875" s="34">
-        <v>5257</v>
-      </c>
-      <c r="D875" s="29" t="s">
-        <v>1136</v>
+      <c r="C875" s="13">
+        <v>5255</v>
+      </c>
+      <c r="D875" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.45">
@@ -25890,10 +25903,10 @@
         <v>313</v>
       </c>
       <c r="C876" s="34">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="D876" s="29" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.45">
@@ -25904,10 +25917,10 @@
         <v>313</v>
       </c>
       <c r="C877" s="34">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="D877" s="29" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
@@ -25918,10 +25931,10 @@
         <v>313</v>
       </c>
       <c r="C878" s="34">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="D878" s="29" t="s">
-        <v>430</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
@@ -25932,10 +25945,10 @@
         <v>313</v>
       </c>
       <c r="C879" s="34">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="D879" s="29" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.45">
@@ -25946,10 +25959,10 @@
         <v>313</v>
       </c>
       <c r="C880" s="34">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="D880" s="29" t="s">
-        <v>1140</v>
+        <v>430</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.45">
@@ -25960,10 +25973,10 @@
         <v>313</v>
       </c>
       <c r="C881" s="34">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="D881" s="29" t="s">
-        <v>431</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.45">
@@ -25974,10 +25987,10 @@
         <v>313</v>
       </c>
       <c r="C882" s="34">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="D882" s="29" t="s">
-        <v>432</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.45">
@@ -25988,10 +26001,10 @@
         <v>313</v>
       </c>
       <c r="C883" s="34">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="D883" s="29" t="s">
-        <v>1141</v>
+        <v>431</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.45">
@@ -26002,10 +26015,10 @@
         <v>313</v>
       </c>
       <c r="C884" s="34">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="D884" s="29" t="s">
-        <v>1142</v>
+        <v>432</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.45">
@@ -26016,10 +26029,10 @@
         <v>313</v>
       </c>
       <c r="C885" s="34">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="D885" s="29" t="s">
-        <v>389</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.45">
@@ -26030,10 +26043,10 @@
         <v>313</v>
       </c>
       <c r="C886" s="34">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="D886" s="29" t="s">
-        <v>390</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.45">
@@ -26044,10 +26057,10 @@
         <v>313</v>
       </c>
       <c r="C887" s="34">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="D887" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.45">
@@ -26058,10 +26071,10 @@
         <v>313</v>
       </c>
       <c r="C888" s="34">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="D888" s="29" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.45">
@@ -26072,52 +26085,52 @@
         <v>313</v>
       </c>
       <c r="C889" s="34">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="D889" s="29" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A890">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B890" t="s">
-        <v>316</v>
-      </c>
-      <c r="C890">
-        <v>1</v>
-      </c>
-      <c r="D890" t="s">
-        <v>435</v>
+        <v>313</v>
+      </c>
+      <c r="C890" s="34">
+        <v>5270</v>
+      </c>
+      <c r="D890" s="29" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A891">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B891" t="s">
-        <v>316</v>
-      </c>
-      <c r="C891">
-        <v>2</v>
-      </c>
-      <c r="D891" t="s">
-        <v>436</v>
+        <v>313</v>
+      </c>
+      <c r="C891" s="34">
+        <v>5271</v>
+      </c>
+      <c r="D891" s="29" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A892">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B892" t="s">
-        <v>316</v>
-      </c>
-      <c r="C892">
-        <v>3</v>
-      </c>
-      <c r="D892" t="s">
-        <v>437</v>
+        <v>313</v>
+      </c>
+      <c r="C892" s="34">
+        <v>5291</v>
+      </c>
+      <c r="D892" s="29" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.45">
@@ -26128,10 +26141,10 @@
         <v>316</v>
       </c>
       <c r="C893">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D893" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.45">
@@ -26142,10 +26155,10 @@
         <v>316</v>
       </c>
       <c r="C894">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D894" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.45">
@@ -26156,10 +26169,10 @@
         <v>316</v>
       </c>
       <c r="C895">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D895" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.45">
@@ -26170,10 +26183,10 @@
         <v>316</v>
       </c>
       <c r="C896">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D896" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.45">
@@ -26184,10 +26197,10 @@
         <v>316</v>
       </c>
       <c r="C897">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D897" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.45">
@@ -26198,10 +26211,10 @@
         <v>316</v>
       </c>
       <c r="C898">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D898" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.45">
@@ -26212,10 +26225,10 @@
         <v>316</v>
       </c>
       <c r="C899">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D899" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.45">
@@ -26226,10 +26239,10 @@
         <v>316</v>
       </c>
       <c r="C900">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D900" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.45">
@@ -26240,10 +26253,10 @@
         <v>316</v>
       </c>
       <c r="C901">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D901" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.45">
@@ -26254,10 +26267,10 @@
         <v>316</v>
       </c>
       <c r="C902">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D902" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.45">
@@ -26268,10 +26281,10 @@
         <v>316</v>
       </c>
       <c r="C903">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D903" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.45">
@@ -26282,10 +26295,10 @@
         <v>316</v>
       </c>
       <c r="C904">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D904" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.45">
@@ -26296,10 +26309,10 @@
         <v>316</v>
       </c>
       <c r="C905">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D905" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.45">
@@ -26310,10 +26323,10 @@
         <v>316</v>
       </c>
       <c r="C906">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D906" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.45">
@@ -26324,10 +26337,10 @@
         <v>316</v>
       </c>
       <c r="C907">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D907" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.45">
@@ -26338,10 +26351,10 @@
         <v>316</v>
       </c>
       <c r="C908">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D908" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.45">
@@ -26352,10 +26365,10 @@
         <v>316</v>
       </c>
       <c r="C909">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D909" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.45">
@@ -26366,10 +26379,10 @@
         <v>316</v>
       </c>
       <c r="C910">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D910" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.45">
@@ -26380,10 +26393,10 @@
         <v>316</v>
       </c>
       <c r="C911">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D911" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.45">
@@ -26394,10 +26407,10 @@
         <v>316</v>
       </c>
       <c r="C912">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D912" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.45">
@@ -26408,10 +26421,10 @@
         <v>316</v>
       </c>
       <c r="C913">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D913" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.45">
@@ -26422,10 +26435,10 @@
         <v>316</v>
       </c>
       <c r="C914">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D914" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.45">
@@ -26436,10 +26449,10 @@
         <v>316</v>
       </c>
       <c r="C915">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D915" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.45">
@@ -26450,10 +26463,10 @@
         <v>316</v>
       </c>
       <c r="C916">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D916" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.45">
@@ -26464,10 +26477,10 @@
         <v>316</v>
       </c>
       <c r="C917">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D917" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.45">
@@ -26478,10 +26491,10 @@
         <v>316</v>
       </c>
       <c r="C918">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D918" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.45">
@@ -26492,10 +26505,10 @@
         <v>316</v>
       </c>
       <c r="C919">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D919" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.45">
@@ -26506,10 +26519,10 @@
         <v>316</v>
       </c>
       <c r="C920">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D920" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.45">
@@ -26520,10 +26533,10 @@
         <v>316</v>
       </c>
       <c r="C921">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D921" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.45">
@@ -26534,10 +26547,10 @@
         <v>316</v>
       </c>
       <c r="C922">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D922" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.45">
@@ -26548,10 +26561,10 @@
         <v>316</v>
       </c>
       <c r="C923">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D923" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.45">
@@ -26562,10 +26575,10 @@
         <v>316</v>
       </c>
       <c r="C924">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D924" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.45">
@@ -26576,10 +26589,10 @@
         <v>316</v>
       </c>
       <c r="C925">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D925" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.45">
@@ -26590,10 +26603,10 @@
         <v>316</v>
       </c>
       <c r="C926">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D926" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.45">
@@ -26604,10 +26617,10 @@
         <v>316</v>
       </c>
       <c r="C927">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D927" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.45">
@@ -26618,10 +26631,10 @@
         <v>316</v>
       </c>
       <c r="C928">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D928" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.45">
@@ -26632,10 +26645,10 @@
         <v>316</v>
       </c>
       <c r="C929">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D929" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.45">
@@ -26646,10 +26659,10 @@
         <v>316</v>
       </c>
       <c r="C930">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D930" t="s">
-        <v>675</v>
+        <v>472</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.45">
@@ -26660,52 +26673,52 @@
         <v>316</v>
       </c>
       <c r="C931">
+        <v>56</v>
+      </c>
+      <c r="D931" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A932">
+        <v>33</v>
+      </c>
+      <c r="B932" t="s">
+        <v>316</v>
+      </c>
+      <c r="C932">
+        <v>57</v>
+      </c>
+      <c r="D932" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A933">
+        <v>33</v>
+      </c>
+      <c r="B933" t="s">
+        <v>316</v>
+      </c>
+      <c r="C933">
+        <v>63</v>
+      </c>
+      <c r="D933" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A934">
+        <v>33</v>
+      </c>
+      <c r="B934" t="s">
+        <v>316</v>
+      </c>
+      <c r="C934">
         <v>64</v>
       </c>
-      <c r="D931" t="s">
+      <c r="D934" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A932" s="29">
-        <v>33</v>
-      </c>
-      <c r="B932" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="C932" s="29">
-        <v>65</v>
-      </c>
-      <c r="D932" s="29" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A933" s="29">
-        <v>33</v>
-      </c>
-      <c r="B933" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="C933" s="29">
-        <v>66</v>
-      </c>
-      <c r="D933" s="29" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A934" s="29">
-        <v>33</v>
-      </c>
-      <c r="B934" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="C934" s="29">
-        <v>101</v>
-      </c>
-      <c r="D934" s="29" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.45">
@@ -26716,10 +26729,10 @@
         <v>316</v>
       </c>
       <c r="C935" s="29">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>1470</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.45">
@@ -26730,10 +26743,10 @@
         <v>316</v>
       </c>
       <c r="C936" s="29">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>1471</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.45">
@@ -26744,10 +26757,10 @@
         <v>316</v>
       </c>
       <c r="C937" s="29">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.45">
@@ -26758,10 +26771,10 @@
         <v>316</v>
       </c>
       <c r="C938" s="29">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.45">
@@ -26772,10 +26785,10 @@
         <v>316</v>
       </c>
       <c r="C939" s="29">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.45">
@@ -26786,10 +26799,10 @@
         <v>316</v>
       </c>
       <c r="C940" s="29">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.45">
@@ -26800,10 +26813,10 @@
         <v>316</v>
       </c>
       <c r="C941" s="29">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.45">
@@ -26814,10 +26827,10 @@
         <v>316</v>
       </c>
       <c r="C942" s="29">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.45">
@@ -26828,10 +26841,10 @@
         <v>316</v>
       </c>
       <c r="C943" s="29">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.45">
@@ -26842,10 +26855,10 @@
         <v>316</v>
       </c>
       <c r="C944" s="29">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.45">
@@ -26856,10 +26869,10 @@
         <v>316</v>
       </c>
       <c r="C945" s="29">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.45">
@@ -26870,10 +26883,10 @@
         <v>316</v>
       </c>
       <c r="C946" s="29">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.45">
@@ -26884,10 +26897,10 @@
         <v>316</v>
       </c>
       <c r="C947" s="29">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D947" s="29" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.45">
@@ -26898,10 +26911,10 @@
         <v>316</v>
       </c>
       <c r="C948" s="29">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.45">
@@ -26912,10 +26925,10 @@
         <v>316</v>
       </c>
       <c r="C949" s="29">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.45">
@@ -26926,10 +26939,10 @@
         <v>316</v>
       </c>
       <c r="C950" s="29">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D950" s="29" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.45">
@@ -26940,10 +26953,10 @@
         <v>316</v>
       </c>
       <c r="C951" s="29">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.45">
@@ -26954,10 +26967,10 @@
         <v>316</v>
       </c>
       <c r="C952" s="29">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>1504</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.45">
@@ -26968,10 +26981,10 @@
         <v>316</v>
       </c>
       <c r="C953" s="29">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>1505</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.45">
@@ -26982,10 +26995,10 @@
         <v>316</v>
       </c>
       <c r="C954" s="29">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D954" s="29" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.45">
@@ -26996,10 +27009,10 @@
         <v>316</v>
       </c>
       <c r="C955" s="29">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>1489</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.45">
@@ -27010,10 +27023,10 @@
         <v>316</v>
       </c>
       <c r="C956" s="29">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D956" s="29" t="s">
-        <v>1490</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.45">
@@ -27024,10 +27037,10 @@
         <v>316</v>
       </c>
       <c r="C957" s="29">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.45">
@@ -27038,10 +27051,10 @@
         <v>316</v>
       </c>
       <c r="C958" s="29">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.45">
@@ -27052,10 +27065,10 @@
         <v>316</v>
       </c>
       <c r="C959" s="29">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>1507</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.45">
@@ -27066,10 +27079,10 @@
         <v>316</v>
       </c>
       <c r="C960" s="29">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D960" s="29" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.45">
@@ -27080,10 +27093,10 @@
         <v>316</v>
       </c>
       <c r="C961" s="29">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D961" s="29" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.45">
@@ -27094,10 +27107,10 @@
         <v>316</v>
       </c>
       <c r="C962" s="29">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D962" s="29" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.45">
@@ -27108,10 +27121,10 @@
         <v>316</v>
       </c>
       <c r="C963" s="29">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D963" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.45">
@@ -27122,10 +27135,10 @@
         <v>316</v>
       </c>
       <c r="C964" s="29">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D964" s="29" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.45">
@@ -27136,10 +27149,10 @@
         <v>316</v>
       </c>
       <c r="C965" s="29">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D965" s="29" t="s">
-        <v>1492</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.45">
@@ -27150,10 +27163,10 @@
         <v>316</v>
       </c>
       <c r="C966" s="29">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D966" s="29" t="s">
-        <v>1493</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.45">
@@ -27164,10 +27177,10 @@
         <v>316</v>
       </c>
       <c r="C967" s="29">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D967" s="29" t="s">
-        <v>1494</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.45">
@@ -27178,10 +27191,10 @@
         <v>316</v>
       </c>
       <c r="C968" s="29">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D968" s="29" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.45">
@@ -27192,10 +27205,10 @@
         <v>316</v>
       </c>
       <c r="C969" s="29">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D969" s="29" t="s">
-        <v>1468</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.45">
@@ -27206,12 +27219,11 @@
         <v>316</v>
       </c>
       <c r="C970" s="29">
-        <v>901</v>
+        <v>134</v>
       </c>
       <c r="D970" s="29" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E970" s="3"/>
+        <v>1494</v>
+      </c>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A971" s="29">
@@ -27221,12 +27233,11 @@
         <v>316</v>
       </c>
       <c r="C971" s="29">
-        <v>902</v>
-      </c>
-      <c r="D971" s="28" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E971" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D971" s="29" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A972" s="29">
@@ -27236,12 +27247,11 @@
         <v>316</v>
       </c>
       <c r="C972" s="29">
-        <v>903</v>
-      </c>
-      <c r="D972" s="28" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E972" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="D972" s="29" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A973" s="29">
@@ -27251,10 +27261,10 @@
         <v>316</v>
       </c>
       <c r="C973" s="29">
-        <v>904</v>
-      </c>
-      <c r="D973" s="28" t="s">
-        <v>1539</v>
+        <v>901</v>
+      </c>
+      <c r="D973" s="29" t="s">
+        <v>1536</v>
       </c>
       <c r="E973" s="3"/>
     </row>
@@ -27266,10 +27276,10 @@
         <v>316</v>
       </c>
       <c r="C974" s="29">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D974" s="28" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E974" s="3"/>
     </row>
@@ -27281,10 +27291,10 @@
         <v>316</v>
       </c>
       <c r="C975" s="29">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D975" s="28" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E975" s="3"/>
     </row>
@@ -27296,10 +27306,10 @@
         <v>316</v>
       </c>
       <c r="C976" s="29">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D976" s="28" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="E976" s="3"/>
     </row>
@@ -27311,10 +27321,10 @@
         <v>316</v>
       </c>
       <c r="C977" s="29">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D977" s="28" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E977" s="3"/>
     </row>
@@ -27326,10 +27336,10 @@
         <v>316</v>
       </c>
       <c r="C978" s="29">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D978" s="28" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E978" s="3"/>
     </row>
@@ -27341,10 +27351,10 @@
         <v>316</v>
       </c>
       <c r="C979" s="29">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D979" s="28" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="E979" s="3"/>
     </row>
@@ -27356,10 +27366,10 @@
         <v>316</v>
       </c>
       <c r="C980" s="29">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D980" s="28" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="E980" s="3"/>
     </row>
@@ -27371,10 +27381,10 @@
         <v>316</v>
       </c>
       <c r="C981" s="29">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D981" s="28" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E981" s="3"/>
     </row>
@@ -27386,10 +27396,10 @@
         <v>316</v>
       </c>
       <c r="C982" s="29">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D982" s="28" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E982" s="3"/>
     </row>
@@ -27401,10 +27411,10 @@
         <v>316</v>
       </c>
       <c r="C983" s="29">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D983" s="28" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="E983" s="3"/>
     </row>
@@ -27416,10 +27426,10 @@
         <v>316</v>
       </c>
       <c r="C984" s="29">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D984" s="28" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E984" s="3"/>
     </row>
@@ -27431,10 +27441,10 @@
         <v>316</v>
       </c>
       <c r="C985" s="29">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D985" s="28" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="E985" s="3"/>
     </row>
@@ -27446,10 +27456,10 @@
         <v>316</v>
       </c>
       <c r="C986" s="29">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D986" s="28" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E986" s="3"/>
     </row>
@@ -27461,10 +27471,10 @@
         <v>316</v>
       </c>
       <c r="C987" s="29">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D987" s="28" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E987" s="3"/>
     </row>
@@ -27476,10 +27486,10 @@
         <v>316</v>
       </c>
       <c r="C988" s="29">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D988" s="28" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="E988" s="3"/>
     </row>
@@ -27491,81 +27501,84 @@
         <v>316</v>
       </c>
       <c r="C989" s="29">
-        <v>920</v>
-      </c>
-      <c r="D989" s="29" t="s">
-        <v>1555</v>
+        <v>917</v>
+      </c>
+      <c r="D989" s="28" t="s">
+        <v>1552</v>
       </c>
       <c r="E989" s="3"/>
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A990" s="29">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B990" s="29" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C990" s="29">
-        <v>0</v>
-      </c>
-      <c r="D990" s="29" t="s">
-        <v>1102</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="D990" s="28" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E990" s="3"/>
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A991" s="29">
+        <v>33</v>
+      </c>
+      <c r="B991" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C991" s="29">
+        <v>919</v>
+      </c>
+      <c r="D991" s="28" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E991" s="3"/>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A992" s="29">
+        <v>33</v>
+      </c>
+      <c r="B992" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C992" s="29">
+        <v>920</v>
+      </c>
+      <c r="D992" s="29" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E992" s="3"/>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A993" s="29">
         <v>34</v>
       </c>
-      <c r="B991" s="29" t="s">
+      <c r="B993" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C991" s="29">
+      <c r="C993" s="29">
+        <v>0</v>
+      </c>
+      <c r="D993" s="29" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A994" s="29">
+        <v>34</v>
+      </c>
+      <c r="B994" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C994" s="29">
         <v>1</v>
       </c>
-      <c r="D991" s="29" t="s">
+      <c r="D994" s="29" t="s">
         <v>1103</v>
-      </c>
-    </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A992">
-        <v>34</v>
-      </c>
-      <c r="B992" t="s">
-        <v>330</v>
-      </c>
-      <c r="C992">
-        <v>2</v>
-      </c>
-      <c r="D992" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A993">
-        <v>34</v>
-      </c>
-      <c r="B993" t="s">
-        <v>330</v>
-      </c>
-      <c r="C993">
-        <v>3</v>
-      </c>
-      <c r="D993" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A994">
-        <v>34</v>
-      </c>
-      <c r="B994" t="s">
-        <v>330</v>
-      </c>
-      <c r="C994">
-        <v>8</v>
-      </c>
-      <c r="D994" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.45">
@@ -27576,10 +27589,10 @@
         <v>330</v>
       </c>
       <c r="C995">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D995" t="s">
-        <v>677</v>
+        <v>636</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.45">
@@ -27590,10 +27603,10 @@
         <v>330</v>
       </c>
       <c r="C996">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D996" t="s">
-        <v>678</v>
+        <v>571</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.45">
@@ -27604,164 +27617,164 @@
         <v>330</v>
       </c>
       <c r="C997">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D997" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A998" s="29">
-        <v>35</v>
-      </c>
-      <c r="B998" s="29" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C998" s="29">
-        <v>1</v>
-      </c>
-      <c r="D998" s="29" t="s">
-        <v>1105</v>
+      <c r="A998">
+        <v>34</v>
+      </c>
+      <c r="B998" t="s">
+        <v>330</v>
+      </c>
+      <c r="C998">
+        <v>9</v>
+      </c>
+      <c r="D998" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A999" s="29">
-        <v>35</v>
-      </c>
-      <c r="B999" s="29" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C999" s="29">
-        <v>2</v>
-      </c>
-      <c r="D999" s="29" t="s">
-        <v>1106</v>
+      <c r="A999">
+        <v>34</v>
+      </c>
+      <c r="B999" t="s">
+        <v>330</v>
+      </c>
+      <c r="C999">
+        <v>10</v>
+      </c>
+      <c r="D999" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1000">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1000" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C1000">
+        <v>13</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1001" s="29">
+        <v>35</v>
+      </c>
+      <c r="B1001" s="29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1001" s="29">
         <v>1</v>
       </c>
-      <c r="D1000" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1001">
-        <v>36</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1001">
-        <v>3</v>
-      </c>
-      <c r="D1001" t="s">
-        <v>511</v>
+      <c r="D1001" s="29" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1002">
-        <v>36</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1002">
-        <v>4</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>512</v>
+      <c r="A1002" s="29">
+        <v>35</v>
+      </c>
+      <c r="B1002" s="29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1002" s="29">
+        <v>2</v>
+      </c>
+      <c r="D1002" s="29" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1003">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1003" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C1003">
         <v>1</v>
       </c>
       <c r="D1003" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1004">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1004" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C1004">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1004" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1005">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1005" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C1005">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1005" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1006">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1006" t="s">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="C1006">
         <v>1</v>
       </c>
       <c r="D1006" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1007">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1007" t="s">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="C1007">
         <v>2</v>
       </c>
       <c r="D1007" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1008">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1008" t="s">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="C1008">
         <v>3</v>
       </c>
       <c r="D1008" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.45">
@@ -27772,10 +27785,10 @@
         <v>20</v>
       </c>
       <c r="C1009">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1009" t="s">
-        <v>680</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.45">
@@ -27786,10 +27799,10 @@
         <v>20</v>
       </c>
       <c r="C1010">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1010" t="s">
-        <v>681</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.45">
@@ -27800,10 +27813,10 @@
         <v>20</v>
       </c>
       <c r="C1011">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1011" t="s">
-        <v>682</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.45">
@@ -27814,10 +27827,10 @@
         <v>20</v>
       </c>
       <c r="C1012">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1012" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.45">
@@ -27828,10 +27841,10 @@
         <v>20</v>
       </c>
       <c r="C1013">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1013" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.45">
@@ -27842,10 +27855,10 @@
         <v>20</v>
       </c>
       <c r="C1014">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1014" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.45">
@@ -27856,10 +27869,10 @@
         <v>20</v>
       </c>
       <c r="C1015">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1015" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.45">
@@ -27870,10 +27883,10 @@
         <v>20</v>
       </c>
       <c r="C1016">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1016" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.45">
@@ -27884,10 +27897,10 @@
         <v>20</v>
       </c>
       <c r="C1017">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1017" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.45">
@@ -27898,10 +27911,10 @@
         <v>20</v>
       </c>
       <c r="C1018">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1018" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.45">
@@ -27912,10 +27925,10 @@
         <v>20</v>
       </c>
       <c r="C1019">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1019" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.45">
@@ -27926,10 +27939,10 @@
         <v>20</v>
       </c>
       <c r="C1020">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1020" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.45">
@@ -27940,10 +27953,10 @@
         <v>20</v>
       </c>
       <c r="C1021">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1021" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.45">
@@ -27954,10 +27967,10 @@
         <v>20</v>
       </c>
       <c r="C1022">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1022" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.45">
@@ -27968,10 +27981,10 @@
         <v>20</v>
       </c>
       <c r="C1023">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1023" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.45">
@@ -27982,10 +27995,10 @@
         <v>20</v>
       </c>
       <c r="C1024">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1024" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.45">
@@ -27996,10 +28009,10 @@
         <v>20</v>
       </c>
       <c r="C1025">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1025" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.45">
@@ -28010,10 +28023,10 @@
         <v>20</v>
       </c>
       <c r="C1026">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1026" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.45">
@@ -28024,10 +28037,10 @@
         <v>20</v>
       </c>
       <c r="C1027">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1027" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.45">
@@ -28038,10 +28051,10 @@
         <v>20</v>
       </c>
       <c r="C1028">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1028" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.45">
@@ -28052,10 +28065,10 @@
         <v>20</v>
       </c>
       <c r="C1029">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1029" t="s">
-        <v>485</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.45">
@@ -28066,10 +28079,10 @@
         <v>20</v>
       </c>
       <c r="C1030">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1030" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.45">
@@ -28080,10 +28093,10 @@
         <v>20</v>
       </c>
       <c r="C1031">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1031" t="s">
-        <v>486</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.45">
@@ -28094,10 +28107,10 @@
         <v>20</v>
       </c>
       <c r="C1032">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1032" t="s">
-        <v>701</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.45">
@@ -28108,10 +28121,10 @@
         <v>20</v>
       </c>
       <c r="C1033">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1033" t="s">
-        <v>487</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.45">
@@ -28122,10 +28135,10 @@
         <v>20</v>
       </c>
       <c r="C1034">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1034" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.45">
@@ -28136,10 +28149,10 @@
         <v>20</v>
       </c>
       <c r="C1035">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D1035" t="s">
-        <v>512</v>
+        <v>701</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.45">
@@ -28150,10 +28163,10 @@
         <v>20</v>
       </c>
       <c r="C1036">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1036" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.45">
@@ -28164,10 +28177,10 @@
         <v>20</v>
       </c>
       <c r="C1037">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1037" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.45">
@@ -28178,10 +28191,10 @@
         <v>20</v>
       </c>
       <c r="C1038">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1038" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.45">
@@ -28192,10 +28205,10 @@
         <v>20</v>
       </c>
       <c r="C1039">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1039" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.45">
@@ -28206,10 +28219,10 @@
         <v>20</v>
       </c>
       <c r="C1040">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D1040" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.45">
@@ -28220,10 +28233,10 @@
         <v>20</v>
       </c>
       <c r="C1041">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1041" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.45">
@@ -28234,10 +28247,10 @@
         <v>20</v>
       </c>
       <c r="C1042">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1042" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.45">
@@ -28248,10 +28261,10 @@
         <v>20</v>
       </c>
       <c r="C1043">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1043" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.45">
@@ -28262,10 +28275,10 @@
         <v>20</v>
       </c>
       <c r="C1044">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1044" t="s">
-        <v>702</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.45">
@@ -28276,10 +28289,10 @@
         <v>20</v>
       </c>
       <c r="C1045">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1045" t="s">
-        <v>703</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.45">
@@ -28290,10 +28303,10 @@
         <v>20</v>
       </c>
       <c r="C1046">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1046" t="s">
-        <v>704</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.45">
@@ -28304,10 +28317,10 @@
         <v>20</v>
       </c>
       <c r="C1047">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1047" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.45">
@@ -28318,10 +28331,10 @@
         <v>20</v>
       </c>
       <c r="C1048">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1048" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.45">
@@ -28332,10 +28345,10 @@
         <v>20</v>
       </c>
       <c r="C1049">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1049" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.45">
@@ -28346,10 +28359,10 @@
         <v>20</v>
       </c>
       <c r="C1050">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1050" t="s">
-        <v>497</v>
+        <v>705</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.45">
@@ -28360,10 +28373,10 @@
         <v>20</v>
       </c>
       <c r="C1051">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1051" t="s">
-        <v>498</v>
+        <v>706</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.45">
@@ -28374,10 +28387,10 @@
         <v>20</v>
       </c>
       <c r="C1052">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1052" t="s">
-        <v>499</v>
+        <v>707</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.45">
@@ -28387,11 +28400,11 @@
       <c r="B1053" t="s">
         <v>20</v>
       </c>
-      <c r="C1053" s="29">
-        <v>53</v>
-      </c>
-      <c r="D1053" s="29" t="s">
-        <v>1519</v>
+      <c r="C1053">
+        <v>50</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.45">
@@ -28401,11 +28414,11 @@
       <c r="B1054" t="s">
         <v>20</v>
       </c>
-      <c r="C1054" s="29">
-        <v>54</v>
-      </c>
-      <c r="D1054" s="29" t="s">
-        <v>1518</v>
+      <c r="C1054">
+        <v>51</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.45">
@@ -28415,179 +28428,179 @@
       <c r="B1055" t="s">
         <v>20</v>
       </c>
-      <c r="C1055" s="29">
-        <v>55</v>
-      </c>
-      <c r="D1055" s="29" t="s">
-        <v>1517</v>
+      <c r="C1055">
+        <v>52</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1056">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1056" t="s">
-        <v>500</v>
-      </c>
-      <c r="C1056">
-        <v>1</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>501</v>
+        <v>20</v>
+      </c>
+      <c r="C1056" s="29">
+        <v>53</v>
+      </c>
+      <c r="D1056" s="29" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1057">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1057" t="s">
-        <v>500</v>
-      </c>
-      <c r="C1057">
-        <v>3</v>
-      </c>
-      <c r="D1057" t="s">
-        <v>502</v>
+        <v>20</v>
+      </c>
+      <c r="C1057" s="29">
+        <v>54</v>
+      </c>
+      <c r="D1057" s="29" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1058">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1058" t="s">
-        <v>500</v>
-      </c>
-      <c r="C1058">
-        <v>4</v>
-      </c>
-      <c r="D1058" t="s">
-        <v>503</v>
+        <v>20</v>
+      </c>
+      <c r="C1058" s="29">
+        <v>55</v>
+      </c>
+      <c r="D1058" s="29" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1059">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1059" t="s">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="C1059">
         <v>1</v>
       </c>
       <c r="D1059" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1060">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1060" t="s">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="C1060">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1060" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1061">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1061" t="s">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="C1061">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1061" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1062">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1062" t="s">
-        <v>504</v>
+        <v>351</v>
       </c>
       <c r="C1062">
         <v>1</v>
       </c>
       <c r="D1062" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1063">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1063" t="s">
-        <v>504</v>
+        <v>351</v>
       </c>
       <c r="C1063">
         <v>2</v>
       </c>
       <c r="D1063" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1064">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1064" t="s">
-        <v>504</v>
+        <v>351</v>
       </c>
       <c r="C1064">
         <v>3</v>
       </c>
       <c r="D1064" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1065">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1065" t="s">
-        <v>348</v>
+        <v>504</v>
       </c>
       <c r="C1065">
         <v>1</v>
       </c>
       <c r="D1065" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1066">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1066" t="s">
-        <v>348</v>
+        <v>504</v>
       </c>
       <c r="C1066">
         <v>2</v>
       </c>
       <c r="D1066" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1067">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1067" t="s">
-        <v>348</v>
+        <v>504</v>
       </c>
       <c r="C1067">
         <v>3</v>
       </c>
       <c r="D1067" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.45">
@@ -28598,52 +28611,52 @@
         <v>348</v>
       </c>
       <c r="C1068">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D1068" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1069">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1069" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1069" s="29">
-        <v>0</v>
-      </c>
-      <c r="D1069" s="29" t="s">
-        <v>1522</v>
+        <v>348</v>
+      </c>
+      <c r="C1069">
+        <v>2</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1070">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1070" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1070" s="29">
-        <v>1</v>
-      </c>
-      <c r="D1070" s="29" t="s">
-        <v>708</v>
+        <v>348</v>
+      </c>
+      <c r="C1070">
+        <v>3</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1071">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1071" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1071" s="29">
-        <v>2</v>
-      </c>
-      <c r="D1071" s="29" t="s">
-        <v>711</v>
+        <v>348</v>
+      </c>
+      <c r="C1071">
+        <v>99</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.45">
@@ -28654,10 +28667,10 @@
         <v>75</v>
       </c>
       <c r="C1072" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1072" s="29" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.45">
@@ -28668,10 +28681,10 @@
         <v>75</v>
       </c>
       <c r="C1073" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1073" s="29" t="s">
-        <v>1524</v>
+        <v>708</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.45">
@@ -28682,60 +28695,60 @@
         <v>75</v>
       </c>
       <c r="C1074" s="29">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1074" s="29" t="s">
-        <v>1525</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1075">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1075" t="s">
-        <v>758</v>
-      </c>
-      <c r="C1075">
-        <v>0</v>
-      </c>
-      <c r="D1075" t="s">
-        <v>476</v>
+        <v>75</v>
+      </c>
+      <c r="C1075" s="29">
+        <v>3</v>
+      </c>
+      <c r="D1075" s="29" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1076">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1076" t="s">
-        <v>758</v>
-      </c>
-      <c r="C1076">
-        <v>1</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>477</v>
+        <v>75</v>
+      </c>
+      <c r="C1076" s="29">
+        <v>4</v>
+      </c>
+      <c r="D1076" s="29" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1077">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1077" t="s">
-        <v>758</v>
-      </c>
-      <c r="C1077">
-        <v>-1</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>512</v>
+        <v>75</v>
+      </c>
+      <c r="C1077" s="29">
+        <v>9</v>
+      </c>
+      <c r="D1077" s="29" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1078">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1078" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C1078">
         <v>0</v>
@@ -28746,10 +28759,10 @@
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1079">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1079" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C1079">
         <v>1</v>
@@ -28760,58 +28773,58 @@
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1080">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1080" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C1080">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D1080" t="s">
-        <v>760</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1081">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1081" t="s">
-        <v>199</v>
+        <v>759</v>
       </c>
       <c r="C1081">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1081" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1082">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1082" t="s">
-        <v>199</v>
+        <v>759</v>
       </c>
       <c r="C1082">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1082" t="s">
-        <v>763</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1083">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1083" t="s">
-        <v>199</v>
+        <v>759</v>
       </c>
       <c r="C1083">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1083" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.45">
@@ -28822,98 +28835,140 @@
         <v>199</v>
       </c>
       <c r="C1084">
+        <v>-1</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1085">
+        <v>46</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1085">
+        <v>0</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1086">
+        <v>46</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1086">
+        <v>1</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1087">
+        <v>46</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1087">
         <v>99</v>
       </c>
-      <c r="D1084" t="s">
+      <c r="D1087" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1085" s="29">
-        <v>47</v>
-      </c>
-      <c r="B1085" s="29" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C1085" s="29">
-        <v>0</v>
-      </c>
-      <c r="D1085" s="29" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1086" s="29">
-        <v>47</v>
-      </c>
-      <c r="B1086" s="29" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C1086" s="29">
-        <v>1</v>
-      </c>
-      <c r="D1086" s="29" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1087" s="29">
-        <v>47</v>
-      </c>
-      <c r="B1087" s="29" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C1087" s="29">
-        <v>2</v>
-      </c>
-      <c r="D1087" s="29" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1088" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1088" s="29" t="s">
-        <v>80</v>
+        <v>1128</v>
       </c>
       <c r="C1088" s="29">
         <v>0</v>
       </c>
       <c r="D1088" s="29" t="s">
-        <v>1520</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1089" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1089" s="29" t="s">
-        <v>80</v>
+        <v>1128</v>
       </c>
       <c r="C1089" s="29">
         <v>1</v>
       </c>
       <c r="D1089" s="29" t="s">
-        <v>410</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1090" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1090" s="29" t="s">
-        <v>80</v>
+        <v>1128</v>
       </c>
       <c r="C1090" s="29">
         <v>2</v>
       </c>
       <c r="D1090" s="29" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1091" s="29">
+        <v>48</v>
+      </c>
+      <c r="B1091" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1091" s="29">
+        <v>0</v>
+      </c>
+      <c r="D1091" s="29" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1092" s="29">
+        <v>48</v>
+      </c>
+      <c r="B1092" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1092" s="29">
+        <v>1</v>
+      </c>
+      <c r="D1092" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1093" s="29">
+        <v>48</v>
+      </c>
+      <c r="B1093" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1093" s="29">
+        <v>2</v>
+      </c>
+      <c r="D1093" s="29" t="s">
         <v>1521</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFB1090" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}"/>
+  <autoFilter ref="A1:XFB1093" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C219:D257">
     <sortCondition ref="C219:C257"/>
   </sortState>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE66420B-07EB-4BA0-AF20-8F7A44D7F029}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429A88ED-6771-47E5-AB28-9E51A32ED4E9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1559">
   <si>
     <t>File ID</t>
   </si>
@@ -3293,12 +3293,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>For all Project IDs in Project.csv, all records of HMIS data element 2.08 HMIS Participation, exported in the HMIS CSV format.</t>
-  </si>
-  <si>
-    <t>For all Project IDs in Project.csv where RRHSubType = 1 and ResidentialAffiliation = 1, all records of HMIS field 2.02B Residential Affiliation , exported in the HMIS CSV format.</t>
-  </si>
-  <si>
     <t>lsa_HMISParticipation</t>
   </si>
   <si>
@@ -4732,6 +4726,15 @@
   </si>
   <si>
     <t>Chronically Homeless Household - Parenting Children</t>
+  </si>
+  <si>
+    <t>Anything else</t>
+  </si>
+  <si>
+    <t>For all Project IDs in Project.csv active during the report period, all records of HMIS data element 2.08 HMIS Participation, exported in the HMIS CSV format.</t>
+  </si>
+  <si>
+    <t>For all Project IDs in Project.csv active during the report period where RRHSubType = 1 and ResidentialAffiliation = 1, all records of HMIS field 2.02B Residential Affiliation , exported in the HMIS CSV format.</t>
   </si>
 </sst>
 </file>
@@ -5271,8 +5274,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5296,7 +5299,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5330,7 +5333,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -5347,7 +5350,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -5361,10 +5364,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -5412,7 +5415,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1074</v>
@@ -5463,7 +5466,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>528</v>
@@ -5480,16 +5483,16 @@
         <v>1075</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1078</v>
+        <v>1557</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="28">
         <v>16</v>
       </c>
@@ -5497,13 +5500,13 @@
         <v>1076</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1079</v>
+        <v>1558</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -5687,7 +5690,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -5713,7 +5716,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5739,7 +5742,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5765,7 +5768,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5791,7 +5794,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -6533,7 +6536,7 @@
         <v>364</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -6620,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -6640,7 +6643,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>38</v>
@@ -6652,10 +6655,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="J41" s="3">
         <v>5</v>
@@ -6948,7 +6951,7 @@
         <v>96</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -7038,7 +7041,7 @@
         <v>102</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -7331,7 +7334,7 @@
         <v>122</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -7421,7 +7424,7 @@
         <v>128</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -7714,7 +7717,7 @@
         <v>148</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -7804,7 +7807,7 @@
         <v>154</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
@@ -8285,7 +8288,7 @@
         <v>65</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>38</v>
@@ -8297,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>1077</v>
@@ -8317,7 +8320,7 @@
         <v>66</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>38</v>
@@ -8329,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>1077</v>
@@ -8413,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>1059</v>
@@ -8445,10 +8448,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="J102" s="3">
         <v>7</v>
@@ -10002,7 +10005,7 @@
         <v>57</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>38</v>
@@ -10014,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="28"/>
@@ -10030,7 +10033,7 @@
         <v>58</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>38</v>
@@ -10042,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="28"/>
@@ -10058,7 +10061,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>38</v>
@@ -10070,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="28"/>
@@ -10086,7 +10089,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>38</v>
@@ -10098,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="28"/>
@@ -10114,7 +10117,7 @@
         <v>61</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>38</v>
@@ -10126,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="28"/>
@@ -10142,7 +10145,7 @@
         <v>62</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>38</v>
@@ -10154,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="28"/>
@@ -10170,7 +10173,7 @@
         <v>63</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>38</v>
@@ -10182,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="28"/>
@@ -10198,7 +10201,7 @@
         <v>64</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>38</v>
@@ -10210,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="28"/>
@@ -10226,7 +10229,7 @@
         <v>65</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>38</v>
@@ -10238,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="28"/>
@@ -10254,7 +10257,7 @@
         <v>66</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>38</v>
@@ -10266,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="28"/>
@@ -10551,7 +10554,7 @@
         <v>364</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="J175" s="3">
         <v>1</v>
@@ -10612,7 +10615,7 @@
         <v>363</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J177" s="3">
         <v>1</v>
@@ -10629,7 +10632,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>38</v>
@@ -10641,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="J178" s="3">
         <v>5</v>
@@ -10962,7 +10965,7 @@
         <v>307</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -10997,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J191" s="3">
         <v>2</v>
@@ -11044,7 +11047,7 @@
         <v>309</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3">
@@ -11068,7 +11071,7 @@
         <v>310</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3">
@@ -11124,7 +11127,7 @@
         <v>311</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -11202,7 +11205,7 @@
         <v>314</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3">
@@ -11256,7 +11259,7 @@
         <v>316</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3">
@@ -11283,7 +11286,7 @@
         <v>307</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
@@ -11307,7 +11310,7 @@
         <v>309</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
@@ -11331,7 +11334,7 @@
         <v>317</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
@@ -11358,7 +11361,7 @@
         <v>318</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
@@ -11706,7 +11709,7 @@
         <v>314</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3">
@@ -11760,7 +11763,7 @@
         <v>316</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3">
@@ -11787,7 +11790,7 @@
         <v>327</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3">
@@ -11811,7 +11814,7 @@
         <v>307</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -11844,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -11864,13 +11867,13 @@
         <v>328</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="J224" s="28">
         <v>100</v>
@@ -11890,7 +11893,7 @@
         <v>329</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
@@ -11899,7 +11902,7 @@
         <v>647</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="J225" s="28">
         <v>100</v>
@@ -12011,7 +12014,7 @@
         <v>314</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -12063,7 +12066,7 @@
         <v>316</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
@@ -12089,7 +12092,7 @@
         <v>332</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G233" s="3">
         <v>0</v>
@@ -12112,7 +12115,7 @@
         <v>307</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G234" s="3">
         <v>0</v>
@@ -12135,7 +12138,7 @@
         <v>333</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G235" s="3">
         <v>0</v>
@@ -12161,7 +12164,7 @@
         <v>334</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G236" s="3">
         <v>0</v>
@@ -12184,7 +12187,7 @@
         <v>335</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
@@ -12207,7 +12210,7 @@
         <v>336</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="G238" s="3">
         <v>1</v>
@@ -12230,7 +12233,7 @@
         <v>337</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G239" s="3">
         <v>1</v>
@@ -12253,7 +12256,7 @@
         <v>338</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="G240" s="3">
         <v>1</v>
@@ -12276,7 +12279,7 @@
         <v>339</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12371,7 +12374,7 @@
         <v>314</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -12423,7 +12426,7 @@
         <v>316</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G247" s="3">
         <v>0</v>
@@ -12449,7 +12452,7 @@
         <v>341</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -12472,7 +12475,7 @@
         <v>307</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -12495,7 +12498,7 @@
         <v>333</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G250" s="3">
         <v>0</v>
@@ -12898,7 +12901,7 @@
         <v>314</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G267" s="3">
         <v>1</v>
@@ -12950,7 +12953,7 @@
         <v>316</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G269" s="3">
         <v>0</v>
@@ -12973,10 +12976,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E270" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="28">
@@ -13002,14 +13005,14 @@
         <v>307</v>
       </c>
       <c r="E271" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="28">
         <v>0</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="28">
@@ -13027,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E272" s="28" t="s">
         <v>38</v>
@@ -13053,7 +13056,7 @@
         <v>4</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E273" s="28" t="s">
         <v>41</v>
@@ -13079,7 +13082,7 @@
         <v>5</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E274" s="28" t="s">
         <v>41</v>
@@ -13160,7 +13163,7 @@
         <v>314</v>
       </c>
       <c r="E277" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="28">
@@ -13216,7 +13219,7 @@
         <v>316</v>
       </c>
       <c r="E279" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="28">
@@ -13241,10 +13244,10 @@
         <v>1</v>
       </c>
       <c r="D280" s="28" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E280" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="28">
@@ -13270,14 +13273,14 @@
         <v>307</v>
       </c>
       <c r="E281" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="28">
         <v>0</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="28">
@@ -13295,17 +13298,17 @@
         <v>3</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E282" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="28">
         <v>0</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="I282" s="7"/>
       <c r="J282" s="28">
@@ -13378,7 +13381,7 @@
         <v>314</v>
       </c>
       <c r="E285" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="28">
@@ -13434,7 +13437,7 @@
         <v>316</v>
       </c>
       <c r="E287" s="28" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="28">
@@ -13460,9 +13463,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E878" sqref="E507:E878"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C575" sqref="C575:F582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13785,7 +13788,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -13799,7 +13802,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C24" s="29">
         <v>2</v>
@@ -13813,7 +13816,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C25" s="29">
         <v>3</v>
@@ -13827,7 +13830,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C26" s="29">
         <v>4</v>
@@ -13841,7 +13844,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C27" s="29">
         <v>5</v>
@@ -13855,7 +13858,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C28" s="29">
         <v>6</v>
@@ -13869,7 +13872,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C29" s="29">
         <v>7</v>
@@ -13883,7 +13886,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
@@ -13897,7 +13900,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C31" s="29">
         <v>13</v>
@@ -13911,7 +13914,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C32" s="29">
         <v>14</v>
@@ -13925,7 +13928,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C33" s="29">
         <v>15</v>
@@ -13939,7 +13942,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C34" s="29">
         <v>16</v>
@@ -13953,7 +13956,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C35" s="29">
         <v>17</v>
@@ -13967,7 +13970,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C36" s="29">
         <v>23</v>
@@ -13981,7 +13984,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C37" s="29">
         <v>24</v>
@@ -13995,7 +13998,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C38" s="29">
         <v>25</v>
@@ -14009,7 +14012,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C39" s="29">
         <v>26</v>
@@ -14023,7 +14026,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C40" s="29">
         <v>27</v>
@@ -14037,7 +14040,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C41" s="29">
         <v>34</v>
@@ -14051,7 +14054,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C42" s="29">
         <v>35</v>
@@ -14065,7 +14068,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C43" s="29">
         <v>36</v>
@@ -14079,7 +14082,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C44" s="29">
         <v>37</v>
@@ -14093,7 +14096,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C45" s="29">
         <v>45</v>
@@ -14107,7 +14110,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C46" s="29">
         <v>46</v>
@@ -14121,7 +14124,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C47" s="29">
         <v>47</v>
@@ -14135,7 +14138,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C48" s="29">
         <v>56</v>
@@ -14149,7 +14152,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C49" s="29">
         <v>57</v>
@@ -14163,7 +14166,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C50" s="29">
         <v>67</v>
@@ -14177,7 +14180,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C51" s="29">
         <v>98</v>
@@ -14191,7 +14194,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C52" s="29">
         <v>99</v>
@@ -14205,7 +14208,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C53" s="29">
         <v>123</v>
@@ -14219,7 +14222,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C54" s="29">
         <v>124</v>
@@ -14233,7 +14236,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C55" s="29">
         <v>125</v>
@@ -14247,7 +14250,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C56" s="29">
         <v>126</v>
@@ -14261,7 +14264,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C57" s="29">
         <v>127</v>
@@ -14275,7 +14278,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C58" s="29">
         <v>134</v>
@@ -14289,7 +14292,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C59" s="29">
         <v>135</v>
@@ -14303,7 +14306,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C60" s="29">
         <v>136</v>
@@ -14317,7 +14320,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C61" s="29">
         <v>137</v>
@@ -14331,7 +14334,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C62" s="29">
         <v>145</v>
@@ -14345,7 +14348,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C63" s="29">
         <v>146</v>
@@ -14359,7 +14362,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C64" s="29">
         <v>147</v>
@@ -14373,7 +14376,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C65" s="29">
         <v>156</v>
@@ -14387,7 +14390,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C66" s="29">
         <v>157</v>
@@ -14401,7 +14404,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C67" s="29">
         <v>167</v>
@@ -14415,7 +14418,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C68" s="29">
         <v>234</v>
@@ -14429,7 +14432,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C69" s="29">
         <v>235</v>
@@ -14443,7 +14446,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C70" s="29">
         <v>236</v>
@@ -14457,7 +14460,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C71" s="29">
         <v>237</v>
@@ -14471,7 +14474,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C72" s="29">
         <v>245</v>
@@ -14485,7 +14488,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C73" s="29">
         <v>246</v>
@@ -14499,7 +14502,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C74" s="29">
         <v>247</v>
@@ -14513,7 +14516,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C75" s="29">
         <v>256</v>
@@ -14527,7 +14530,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C76" s="29">
         <v>257</v>
@@ -14541,7 +14544,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C77" s="29">
         <v>267</v>
@@ -14555,7 +14558,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C78" s="29">
         <v>345</v>
@@ -14569,7 +14572,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C79" s="29">
         <v>346</v>
@@ -14583,7 +14586,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C80" s="29">
         <v>347</v>
@@ -14597,7 +14600,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C81" s="29">
         <v>356</v>
@@ -14611,7 +14614,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C82" s="29">
         <v>357</v>
@@ -14625,7 +14628,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C83" s="29">
         <v>367</v>
@@ -14639,7 +14642,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C84" s="29">
         <v>456</v>
@@ -14653,7 +14656,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C85" s="29">
         <v>457</v>
@@ -14667,7 +14670,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C86" s="29">
         <v>467</v>
@@ -14681,7 +14684,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C87" s="29">
         <v>567</v>
@@ -14695,7 +14698,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C88" s="29">
         <v>1234</v>
@@ -14709,7 +14712,7 @@
         <v>6</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C89" s="29">
         <v>1235</v>
@@ -14723,7 +14726,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C90" s="29">
         <v>1236</v>
@@ -14737,7 +14740,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C91" s="29">
         <v>1237</v>
@@ -14751,7 +14754,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C92" s="29">
         <v>1245</v>
@@ -14765,7 +14768,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C93" s="29">
         <v>1246</v>
@@ -14779,7 +14782,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C94" s="29">
         <v>1247</v>
@@ -14793,7 +14796,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C95" s="29">
         <v>1256</v>
@@ -14807,7 +14810,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C96" s="29">
         <v>1257</v>
@@ -14821,7 +14824,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C97" s="29">
         <v>1267</v>
@@ -14835,7 +14838,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C98" s="29">
         <v>1345</v>
@@ -14849,7 +14852,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C99" s="29">
         <v>1346</v>
@@ -14863,7 +14866,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C100" s="29">
         <v>1347</v>
@@ -14877,7 +14880,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C101" s="29">
         <v>1356</v>
@@ -14891,7 +14894,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C102" s="29">
         <v>1357</v>
@@ -14905,7 +14908,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C103" s="29">
         <v>1367</v>
@@ -14919,7 +14922,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C104" s="29">
         <v>1456</v>
@@ -14933,7 +14936,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C105" s="29">
         <v>1457</v>
@@ -14947,7 +14950,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C106" s="29">
         <v>1467</v>
@@ -14961,7 +14964,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C107" s="29">
         <v>1567</v>
@@ -14975,7 +14978,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C108" s="29">
         <v>2345</v>
@@ -14989,7 +14992,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C109" s="29">
         <v>2346</v>
@@ -15003,7 +15006,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C110" s="29">
         <v>2347</v>
@@ -15017,7 +15020,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C111" s="29">
         <v>2356</v>
@@ -15031,7 +15034,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C112" s="29">
         <v>2357</v>
@@ -15045,7 +15048,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C113" s="29">
         <v>2367</v>
@@ -15059,7 +15062,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C114" s="29">
         <v>2456</v>
@@ -15073,7 +15076,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C115" s="29">
         <v>2457</v>
@@ -15087,7 +15090,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C116" s="29">
         <v>2467</v>
@@ -15101,7 +15104,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C117" s="29">
         <v>2567</v>
@@ -15115,7 +15118,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C118" s="29">
         <v>3456</v>
@@ -15129,7 +15132,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C119" s="29">
         <v>3457</v>
@@ -15143,7 +15146,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C120" s="29">
         <v>3467</v>
@@ -15157,7 +15160,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C121" s="29">
         <v>3567</v>
@@ -15171,7 +15174,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C122" s="29">
         <v>4567</v>
@@ -15185,7 +15188,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C123" s="29">
         <v>12345</v>
@@ -15199,7 +15202,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C124" s="29">
         <v>12346</v>
@@ -15213,7 +15216,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C125" s="29">
         <v>12347</v>
@@ -15227,7 +15230,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C126" s="29">
         <v>12356</v>
@@ -15241,7 +15244,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C127" s="29">
         <v>12357</v>
@@ -15255,7 +15258,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C128" s="29">
         <v>12367</v>
@@ -15269,7 +15272,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C129" s="29">
         <v>12456</v>
@@ -15283,7 +15286,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C130" s="29">
         <v>12457</v>
@@ -15297,7 +15300,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C131" s="29">
         <v>12467</v>
@@ -15311,7 +15314,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C132" s="29">
         <v>12567</v>
@@ -15325,7 +15328,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C133" s="29">
         <v>13456</v>
@@ -15339,7 +15342,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C134" s="29">
         <v>13457</v>
@@ -15353,7 +15356,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C135" s="29">
         <v>13467</v>
@@ -15367,7 +15370,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C136" s="29">
         <v>13567</v>
@@ -15381,7 +15384,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C137" s="29">
         <v>14567</v>
@@ -15395,7 +15398,7 @@
         <v>6</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C138" s="29">
         <v>23456</v>
@@ -15409,7 +15412,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C139" s="29">
         <v>23457</v>
@@ -15423,7 +15426,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C140" s="29">
         <v>23467</v>
@@ -15437,7 +15440,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C141" s="29">
         <v>23567</v>
@@ -15451,7 +15454,7 @@
         <v>6</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C142" s="29">
         <v>24567</v>
@@ -15465,7 +15468,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C143" s="29">
         <v>34567</v>
@@ -15479,7 +15482,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C144" s="29">
         <v>123456</v>
@@ -15493,7 +15496,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C145" s="29">
         <v>123457</v>
@@ -15507,7 +15510,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C146" s="29">
         <v>123467</v>
@@ -15521,7 +15524,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C147" s="29">
         <v>123567</v>
@@ -15535,7 +15538,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C148" s="29">
         <v>124567</v>
@@ -15549,7 +15552,7 @@
         <v>6</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C149" s="29">
         <v>134567</v>
@@ -15563,7 +15566,7 @@
         <v>6</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C150" s="29">
         <v>234567</v>
@@ -15577,7 +15580,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C151" s="29">
         <v>1234567</v>
@@ -16115,7 +16118,7 @@
         <v>99</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -16367,7 +16370,7 @@
         <v>419</v>
       </c>
       <c r="D207" s="29" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -16381,7 +16384,7 @@
         <v>420</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -16409,7 +16412,7 @@
         <v>428</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
@@ -16423,7 +16426,7 @@
         <v>431</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -16437,7 +16440,7 @@
         <v>433</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -16451,7 +16454,7 @@
         <v>434</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -16465,7 +16468,7 @@
         <v>436</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -16479,7 +16482,7 @@
         <v>437</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -16493,7 +16496,7 @@
         <v>438</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -16507,7 +16510,7 @@
         <v>439</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -16521,7 +16524,7 @@
         <v>440</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -16577,7 +16580,7 @@
         <v>99</v>
       </c>
       <c r="D222" s="29" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
@@ -16843,7 +16846,7 @@
         <v>419</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -16857,7 +16860,7 @@
         <v>420</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -16927,7 +16930,7 @@
         <v>428</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -16941,7 +16944,7 @@
         <v>431</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -16955,7 +16958,7 @@
         <v>433</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -16969,7 +16972,7 @@
         <v>434</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -16983,7 +16986,7 @@
         <v>436</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -16997,7 +17000,7 @@
         <v>437</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -17011,7 +17014,7 @@
         <v>438</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -17025,7 +17028,7 @@
         <v>439</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -17039,7 +17042,7 @@
         <v>440</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -19615,7 +19618,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="29" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -19629,7 +19632,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="29" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -19643,7 +19646,7 @@
         <v>2</v>
       </c>
       <c r="D441" s="29" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -19657,7 +19660,7 @@
         <v>3</v>
       </c>
       <c r="D442" s="29" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -20763,7 +20766,7 @@
         <v>23</v>
       </c>
       <c r="D521" s="29" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -20777,7 +20780,7 @@
         <v>24</v>
       </c>
       <c r="D522" s="29" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -20791,7 +20794,7 @@
         <v>25</v>
       </c>
       <c r="D523" s="29" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -20805,7 +20808,7 @@
         <v>26</v>
       </c>
       <c r="D524" s="29" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -20819,7 +20822,7 @@
         <v>27</v>
       </c>
       <c r="D525" s="29" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -20833,7 +20836,7 @@
         <v>28</v>
       </c>
       <c r="D526" s="29" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -20847,7 +20850,7 @@
         <v>29</v>
       </c>
       <c r="D527" s="29" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -20861,7 +20864,7 @@
         <v>30</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -20875,7 +20878,7 @@
         <v>31</v>
       </c>
       <c r="D529" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -20889,7 +20892,7 @@
         <v>32</v>
       </c>
       <c r="D530" s="29" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -20903,7 +20906,7 @@
         <v>33</v>
       </c>
       <c r="D531" s="29" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -20917,7 +20920,7 @@
         <v>34</v>
       </c>
       <c r="D532" s="29" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -20931,7 +20934,7 @@
         <v>35</v>
       </c>
       <c r="D533" s="29" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -20945,7 +20948,7 @@
         <v>36</v>
       </c>
       <c r="D534" s="29" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -20959,7 +20962,7 @@
         <v>37</v>
       </c>
       <c r="D535" s="29" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -20973,7 +20976,7 @@
         <v>38</v>
       </c>
       <c r="D536" s="29" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -20987,7 +20990,7 @@
         <v>39</v>
       </c>
       <c r="D537" s="29" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -21001,7 +21004,7 @@
         <v>40</v>
       </c>
       <c r="D538" s="29" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -21015,7 +21018,7 @@
         <v>41</v>
       </c>
       <c r="D539" s="29" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -21029,7 +21032,7 @@
         <v>42</v>
       </c>
       <c r="D540" s="29" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -21043,7 +21046,7 @@
         <v>43</v>
       </c>
       <c r="D541" s="29" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -21057,7 +21060,7 @@
         <v>44</v>
       </c>
       <c r="D542" s="29" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -21113,7 +21116,7 @@
         <v>48</v>
       </c>
       <c r="D546" s="29" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
@@ -21211,7 +21214,7 @@
         <v>56</v>
       </c>
       <c r="D553" s="29" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
@@ -21239,7 +21242,7 @@
         <v>58</v>
       </c>
       <c r="D555" s="29" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
@@ -21267,7 +21270,7 @@
         <v>60</v>
       </c>
       <c r="D557" s="29" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
@@ -21295,7 +21298,7 @@
         <v>62</v>
       </c>
       <c r="D559" s="29" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
@@ -21309,10 +21312,10 @@
         <v>63</v>
       </c>
       <c r="D560" s="29" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>32</v>
       </c>
@@ -21323,10 +21326,10 @@
         <v>64</v>
       </c>
       <c r="D561" s="29" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>32</v>
       </c>
@@ -21337,10 +21340,10 @@
         <v>65</v>
       </c>
       <c r="D562" s="29" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>32</v>
       </c>
@@ -21354,7 +21357,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>32</v>
       </c>
@@ -21365,10 +21368,10 @@
         <v>67</v>
       </c>
       <c r="D564" s="29" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>32</v>
       </c>
@@ -21382,7 +21385,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>32</v>
       </c>
@@ -21393,10 +21396,10 @@
         <v>69</v>
       </c>
       <c r="D566" s="29" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>32</v>
       </c>
@@ -21407,10 +21410,10 @@
         <v>70</v>
       </c>
       <c r="D567" s="29" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>32</v>
       </c>
@@ -21421,10 +21424,10 @@
         <v>71</v>
       </c>
       <c r="D568" s="29" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>32</v>
       </c>
@@ -21435,10 +21438,10 @@
         <v>72</v>
       </c>
       <c r="D569" s="29" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>32</v>
       </c>
@@ -21449,10 +21452,10 @@
         <v>73</v>
       </c>
       <c r="D570" s="29" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>32</v>
       </c>
@@ -21463,10 +21466,10 @@
         <v>74</v>
       </c>
       <c r="D571" s="29" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>32</v>
       </c>
@@ -21477,10 +21480,10 @@
         <v>75</v>
       </c>
       <c r="D572" s="29" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>32</v>
       </c>
@@ -21491,10 +21494,10 @@
         <v>76</v>
       </c>
       <c r="D573" s="29" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>32</v>
       </c>
@@ -21505,10 +21508,10 @@
         <v>77</v>
       </c>
       <c r="D574" s="29" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>32</v>
       </c>
@@ -21521,8 +21524,14 @@
       <c r="D575" s="29" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E575">
+        <v>0</v>
+      </c>
+      <c r="F575" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>32</v>
       </c>
@@ -21535,6 +21544,12 @@
       <c r="D576" s="29" t="s">
         <v>931</v>
       </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
+      <c r="F576" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A577">
@@ -21549,6 +21564,12 @@
       <c r="D577" s="29" t="s">
         <v>932</v>
       </c>
+      <c r="E577">
+        <v>2</v>
+      </c>
+      <c r="F577" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A578">
@@ -21563,6 +21584,12 @@
       <c r="D578" s="29" t="s">
         <v>378</v>
       </c>
+      <c r="E578">
+        <v>5</v>
+      </c>
+      <c r="F578" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A579">
@@ -21577,6 +21604,12 @@
       <c r="D579" s="29" t="s">
         <v>934</v>
       </c>
+      <c r="E579">
+        <v>4</v>
+      </c>
+      <c r="F579" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A580">
@@ -21591,6 +21624,12 @@
       <c r="D580" s="29" t="s">
         <v>393</v>
       </c>
+      <c r="E580">
+        <v>6</v>
+      </c>
+      <c r="F580" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A581">
@@ -21605,6 +21644,12 @@
       <c r="D581" s="29" t="s">
         <v>933</v>
       </c>
+      <c r="E581">
+        <v>3</v>
+      </c>
+      <c r="F581" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A582">
@@ -21617,7 +21662,10 @@
         <v>85</v>
       </c>
       <c r="D582" s="29" t="s">
-        <v>1112</v>
+        <v>1110</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.45">
@@ -21795,7 +21843,7 @@
         <v>97</v>
       </c>
       <c r="D594" s="29" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
@@ -21809,7 +21857,7 @@
         <v>1015</v>
       </c>
       <c r="D595" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
@@ -21823,7 +21871,7 @@
         <v>1018</v>
       </c>
       <c r="D596" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
@@ -21837,7 +21885,7 @@
         <v>1019</v>
       </c>
       <c r="D597" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
@@ -21851,7 +21899,7 @@
         <v>1020</v>
       </c>
       <c r="D598" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
@@ -21865,7 +21913,7 @@
         <v>1021</v>
       </c>
       <c r="D599" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
@@ -21879,7 +21927,7 @@
         <v>1022</v>
       </c>
       <c r="D600" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
@@ -21893,7 +21941,7 @@
         <v>1023</v>
       </c>
       <c r="D601" s="29" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
@@ -21907,7 +21955,7 @@
         <v>1024</v>
       </c>
       <c r="D602" s="29" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
@@ -21921,7 +21969,7 @@
         <v>1025</v>
       </c>
       <c r="D603" s="29" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
@@ -21935,7 +21983,7 @@
         <v>1026</v>
       </c>
       <c r="D604" s="29" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
@@ -21949,7 +21997,7 @@
         <v>1027</v>
       </c>
       <c r="D605" s="29" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
@@ -21963,7 +22011,7 @@
         <v>1028</v>
       </c>
       <c r="D606" s="29" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
@@ -21977,7 +22025,7 @@
         <v>1029</v>
       </c>
       <c r="D607" s="29" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
@@ -21991,7 +22039,7 @@
         <v>1030</v>
       </c>
       <c r="D608" s="29" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
@@ -22005,7 +22053,7 @@
         <v>1031</v>
       </c>
       <c r="D609" s="29" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
@@ -22019,7 +22067,7 @@
         <v>1032</v>
       </c>
       <c r="D610" s="29" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
@@ -22033,7 +22081,7 @@
         <v>1033</v>
       </c>
       <c r="D611" s="29" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
@@ -22047,7 +22095,7 @@
         <v>1034</v>
       </c>
       <c r="D612" s="29" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
@@ -22061,7 +22109,7 @@
         <v>1035</v>
       </c>
       <c r="D613" s="29" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
@@ -22075,7 +22123,7 @@
         <v>1036</v>
       </c>
       <c r="D614" s="29" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
@@ -22089,7 +22137,7 @@
         <v>1037</v>
       </c>
       <c r="D615" s="29" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.45">
@@ -22103,7 +22151,7 @@
         <v>1038</v>
       </c>
       <c r="D616" s="29" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
@@ -22117,7 +22165,7 @@
         <v>1039</v>
       </c>
       <c r="D617" s="29" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
@@ -22131,7 +22179,7 @@
         <v>1040</v>
       </c>
       <c r="D618" s="29" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
@@ -22145,7 +22193,7 @@
         <v>1041</v>
       </c>
       <c r="D619" s="29" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
@@ -22159,7 +22207,7 @@
         <v>1042</v>
       </c>
       <c r="D620" s="29" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
@@ -22173,7 +22221,7 @@
         <v>1043</v>
       </c>
       <c r="D621" s="29" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
@@ -22187,7 +22235,7 @@
         <v>1044</v>
       </c>
       <c r="D622" s="29" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
@@ -22201,7 +22249,7 @@
         <v>1048</v>
       </c>
       <c r="D623" s="29" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
@@ -22215,7 +22263,7 @@
         <v>1115</v>
       </c>
       <c r="D624" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.45">
@@ -22229,7 +22277,7 @@
         <v>1118</v>
       </c>
       <c r="D625" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.45">
@@ -22243,7 +22291,7 @@
         <v>1119</v>
       </c>
       <c r="D626" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.45">
@@ -22257,7 +22305,7 @@
         <v>1120</v>
       </c>
       <c r="D627" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.45">
@@ -22271,7 +22319,7 @@
         <v>1121</v>
       </c>
       <c r="D628" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.45">
@@ -22285,7 +22333,7 @@
         <v>1122</v>
       </c>
       <c r="D629" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.45">
@@ -22299,7 +22347,7 @@
         <v>1123</v>
       </c>
       <c r="D630" s="29" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.45">
@@ -22313,7 +22361,7 @@
         <v>1124</v>
       </c>
       <c r="D631" s="29" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F631" s="26"/>
     </row>
@@ -22328,7 +22376,7 @@
         <v>1125</v>
       </c>
       <c r="D632" s="29" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F632" s="26"/>
     </row>
@@ -22343,7 +22391,7 @@
         <v>1126</v>
       </c>
       <c r="D633" s="29" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="F633" s="26"/>
     </row>
@@ -22358,7 +22406,7 @@
         <v>1127</v>
       </c>
       <c r="D634" s="29" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F634" s="26"/>
     </row>
@@ -22373,7 +22421,7 @@
         <v>1128</v>
       </c>
       <c r="D635" s="29" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F635" s="26"/>
     </row>
@@ -22388,7 +22436,7 @@
         <v>1129</v>
       </c>
       <c r="D636" s="29" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F636" s="26"/>
     </row>
@@ -22403,7 +22451,7 @@
         <v>1130</v>
       </c>
       <c r="D637" s="29" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F637" s="26"/>
     </row>
@@ -22418,7 +22466,7 @@
         <v>1131</v>
       </c>
       <c r="D638" s="29" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F638" s="26"/>
     </row>
@@ -22433,7 +22481,7 @@
         <v>1132</v>
       </c>
       <c r="D639" s="29" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F639" s="26"/>
     </row>
@@ -22448,7 +22496,7 @@
         <v>1133</v>
       </c>
       <c r="D640" s="29" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F640" s="26"/>
     </row>
@@ -22463,7 +22511,7 @@
         <v>1134</v>
       </c>
       <c r="D641" s="29" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F641" s="26"/>
     </row>
@@ -22478,7 +22526,7 @@
         <v>1135</v>
       </c>
       <c r="D642" s="29" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F642" s="26"/>
     </row>
@@ -22493,7 +22541,7 @@
         <v>1136</v>
       </c>
       <c r="D643" s="29" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F643" s="26"/>
     </row>
@@ -22508,7 +22556,7 @@
         <v>1137</v>
       </c>
       <c r="D644" s="29" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F644" s="26"/>
     </row>
@@ -22523,7 +22571,7 @@
         <v>1138</v>
       </c>
       <c r="D645" s="29" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F645" s="26"/>
     </row>
@@ -22538,7 +22586,7 @@
         <v>1139</v>
       </c>
       <c r="D646" s="29" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F646" s="26"/>
     </row>
@@ -22553,7 +22601,7 @@
         <v>1140</v>
       </c>
       <c r="D647" s="29" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F647" s="26"/>
     </row>
@@ -22568,7 +22616,7 @@
         <v>1141</v>
       </c>
       <c r="D648" s="29" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F648" s="26"/>
     </row>
@@ -22583,7 +22631,7 @@
         <v>1142</v>
       </c>
       <c r="D649" s="29" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F649" s="26"/>
     </row>
@@ -22598,7 +22646,7 @@
         <v>1143</v>
       </c>
       <c r="D650" s="29" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F650" s="26"/>
     </row>
@@ -22613,7 +22661,7 @@
         <v>1144</v>
       </c>
       <c r="D651" s="29" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="F651" s="26"/>
     </row>
@@ -22628,7 +22676,7 @@
         <v>1148</v>
       </c>
       <c r="D652" s="29" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.45">
@@ -22671,7 +22719,7 @@
         <v>1215</v>
       </c>
       <c r="D655" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.45">
@@ -22685,7 +22733,7 @@
         <v>1218</v>
       </c>
       <c r="D656" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.45">
@@ -22699,7 +22747,7 @@
         <v>1219</v>
       </c>
       <c r="D657" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.45">
@@ -22713,7 +22761,7 @@
         <v>1220</v>
       </c>
       <c r="D658" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.45">
@@ -22727,7 +22775,7 @@
         <v>1221</v>
       </c>
       <c r="D659" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.45">
@@ -22741,7 +22789,7 @@
         <v>1222</v>
       </c>
       <c r="D660" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F660" s="26"/>
     </row>
@@ -22756,7 +22804,7 @@
         <v>1223</v>
       </c>
       <c r="D661" s="29" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F661" s="26"/>
     </row>
@@ -22771,7 +22819,7 @@
         <v>1224</v>
       </c>
       <c r="D662" s="29" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F662" s="26"/>
     </row>
@@ -22786,7 +22834,7 @@
         <v>1225</v>
       </c>
       <c r="D663" s="29" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F663" s="26"/>
     </row>
@@ -22801,7 +22849,7 @@
         <v>1226</v>
       </c>
       <c r="D664" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F664" s="26"/>
     </row>
@@ -22816,7 +22864,7 @@
         <v>1227</v>
       </c>
       <c r="D665" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F665" s="26"/>
     </row>
@@ -22831,7 +22879,7 @@
         <v>1228</v>
       </c>
       <c r="D666" s="29" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F666" s="26"/>
     </row>
@@ -22846,7 +22894,7 @@
         <v>1229</v>
       </c>
       <c r="D667" s="29" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F667" s="26"/>
     </row>
@@ -22861,7 +22909,7 @@
         <v>1230</v>
       </c>
       <c r="D668" s="29" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F668" s="26"/>
     </row>
@@ -22876,7 +22924,7 @@
         <v>1231</v>
       </c>
       <c r="D669" s="29" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F669" s="26"/>
     </row>
@@ -22891,7 +22939,7 @@
         <v>1232</v>
       </c>
       <c r="D670" s="29" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F670" s="26"/>
     </row>
@@ -22906,7 +22954,7 @@
         <v>1233</v>
       </c>
       <c r="D671" s="29" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F671" s="26"/>
     </row>
@@ -22921,7 +22969,7 @@
         <v>1234</v>
       </c>
       <c r="D672" s="29" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F672" s="26"/>
     </row>
@@ -22936,7 +22984,7 @@
         <v>1235</v>
       </c>
       <c r="D673" s="29" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F673" s="26"/>
     </row>
@@ -22951,7 +22999,7 @@
         <v>1236</v>
       </c>
       <c r="D674" s="29" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F674" s="26"/>
     </row>
@@ -22966,7 +23014,7 @@
         <v>1237</v>
       </c>
       <c r="D675" s="29" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F675" s="26"/>
     </row>
@@ -22981,7 +23029,7 @@
         <v>1238</v>
       </c>
       <c r="D676" s="29" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F676" s="26"/>
     </row>
@@ -22996,7 +23044,7 @@
         <v>1239</v>
       </c>
       <c r="D677" s="29" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F677" s="26"/>
     </row>
@@ -23011,7 +23059,7 @@
         <v>1240</v>
       </c>
       <c r="D678" s="29" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F678" s="26"/>
     </row>
@@ -23026,7 +23074,7 @@
         <v>1241</v>
       </c>
       <c r="D679" s="29" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F679" s="26"/>
     </row>
@@ -23041,7 +23089,7 @@
         <v>1242</v>
       </c>
       <c r="D680" s="29" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F680" s="26"/>
     </row>
@@ -23056,7 +23104,7 @@
         <v>1243</v>
       </c>
       <c r="D681" s="29" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F681" s="26"/>
     </row>
@@ -23071,7 +23119,7 @@
         <v>1244</v>
       </c>
       <c r="D682" s="29" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.45">
@@ -23085,7 +23133,7 @@
         <v>1248</v>
       </c>
       <c r="D683" s="29" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.45">
@@ -23127,7 +23175,7 @@
         <v>1315</v>
       </c>
       <c r="D686" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.45">
@@ -23141,7 +23189,7 @@
         <v>1318</v>
       </c>
       <c r="D687" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.45">
@@ -23155,7 +23203,7 @@
         <v>1319</v>
       </c>
       <c r="D688" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.45">
@@ -23169,7 +23217,7 @@
         <v>1320</v>
       </c>
       <c r="D689" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.45">
@@ -23183,7 +23231,7 @@
         <v>1321</v>
       </c>
       <c r="D690" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.45">
@@ -23197,7 +23245,7 @@
         <v>1322</v>
       </c>
       <c r="D691" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F691" s="26"/>
     </row>
@@ -23212,7 +23260,7 @@
         <v>1323</v>
       </c>
       <c r="D692" s="29" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F692" s="26"/>
     </row>
@@ -23227,7 +23275,7 @@
         <v>1324</v>
       </c>
       <c r="D693" s="29" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F693" s="26"/>
     </row>
@@ -23242,7 +23290,7 @@
         <v>1325</v>
       </c>
       <c r="D694" s="29" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F694" s="26"/>
     </row>
@@ -23257,7 +23305,7 @@
         <v>1326</v>
       </c>
       <c r="D695" s="29" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F695" s="26"/>
     </row>
@@ -23272,7 +23320,7 @@
         <v>1327</v>
       </c>
       <c r="D696" s="29" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F696" s="26"/>
     </row>
@@ -23287,7 +23335,7 @@
         <v>1328</v>
       </c>
       <c r="D697" s="29" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F697" s="26"/>
     </row>
@@ -23302,7 +23350,7 @@
         <v>1329</v>
       </c>
       <c r="D698" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F698" s="26"/>
     </row>
@@ -23317,7 +23365,7 @@
         <v>1330</v>
       </c>
       <c r="D699" s="29" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F699" s="26"/>
     </row>
@@ -23332,7 +23380,7 @@
         <v>1331</v>
       </c>
       <c r="D700" s="29" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F700" s="26"/>
     </row>
@@ -23347,7 +23395,7 @@
         <v>1332</v>
       </c>
       <c r="D701" s="29" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F701" s="26"/>
     </row>
@@ -23362,7 +23410,7 @@
         <v>1333</v>
       </c>
       <c r="D702" s="29" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F702" s="26"/>
     </row>
@@ -23377,7 +23425,7 @@
         <v>1334</v>
       </c>
       <c r="D703" s="29" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F703" s="26"/>
     </row>
@@ -23392,7 +23440,7 @@
         <v>1335</v>
       </c>
       <c r="D704" s="29" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F704" s="26"/>
     </row>
@@ -23407,7 +23455,7 @@
         <v>1336</v>
       </c>
       <c r="D705" s="29" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F705" s="26"/>
     </row>
@@ -23422,7 +23470,7 @@
         <v>1337</v>
       </c>
       <c r="D706" s="29" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F706" s="26"/>
     </row>
@@ -23437,7 +23485,7 @@
         <v>1338</v>
       </c>
       <c r="D707" s="29" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F707" s="26"/>
     </row>
@@ -23452,7 +23500,7 @@
         <v>1339</v>
       </c>
       <c r="D708" s="29" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F708" s="26"/>
     </row>
@@ -23467,7 +23515,7 @@
         <v>1340</v>
       </c>
       <c r="D709" s="29" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F709" s="26"/>
     </row>
@@ -23482,7 +23530,7 @@
         <v>1341</v>
       </c>
       <c r="D710" s="29" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F710" s="26"/>
     </row>
@@ -23497,7 +23545,7 @@
         <v>1342</v>
       </c>
       <c r="D711" s="29" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F711" s="26"/>
     </row>
@@ -23512,7 +23560,7 @@
         <v>1343</v>
       </c>
       <c r="D712" s="29" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F712" s="26"/>
     </row>
@@ -23527,7 +23575,7 @@
         <v>1344</v>
       </c>
       <c r="D713" s="29" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.45">
@@ -23541,7 +23589,7 @@
         <v>1345</v>
       </c>
       <c r="D714" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.45">
@@ -23555,7 +23603,7 @@
         <v>1347</v>
       </c>
       <c r="D715" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.45">
@@ -23569,7 +23617,7 @@
         <v>1348</v>
       </c>
       <c r="D716" s="29" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.45">
@@ -23583,7 +23631,7 @@
         <v>1415</v>
       </c>
       <c r="D717" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.45">
@@ -23597,7 +23645,7 @@
         <v>1418</v>
       </c>
       <c r="D718" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.45">
@@ -23611,7 +23659,7 @@
         <v>1419</v>
       </c>
       <c r="D719" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.45">
@@ -23625,7 +23673,7 @@
         <v>1420</v>
       </c>
       <c r="D720" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.45">
@@ -23639,7 +23687,7 @@
         <v>1421</v>
       </c>
       <c r="D721" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.45">
@@ -23653,7 +23701,7 @@
         <v>1422</v>
       </c>
       <c r="D722" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F722" s="26"/>
     </row>
@@ -23668,7 +23716,7 @@
         <v>1423</v>
       </c>
       <c r="D723" s="29" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F723" s="26"/>
     </row>
@@ -23683,7 +23731,7 @@
         <v>1424</v>
       </c>
       <c r="D724" s="29" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="F724" s="26"/>
     </row>
@@ -23698,7 +23746,7 @@
         <v>1425</v>
       </c>
       <c r="D725" s="29" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F725" s="26"/>
     </row>
@@ -23713,7 +23761,7 @@
         <v>1426</v>
       </c>
       <c r="D726" s="29" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F726" s="26"/>
     </row>
@@ -23728,7 +23776,7 @@
         <v>1427</v>
       </c>
       <c r="D727" s="29" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F727" s="26"/>
     </row>
@@ -23743,7 +23791,7 @@
         <v>1428</v>
       </c>
       <c r="D728" s="29" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F728" s="26"/>
     </row>
@@ -23758,7 +23806,7 @@
         <v>1429</v>
       </c>
       <c r="D729" s="29" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F729" s="26"/>
     </row>
@@ -23773,7 +23821,7 @@
         <v>1430</v>
       </c>
       <c r="D730" s="29" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F730" s="26"/>
     </row>
@@ -23788,7 +23836,7 @@
         <v>1431</v>
       </c>
       <c r="D731" s="29" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F731" s="26"/>
     </row>
@@ -23803,7 +23851,7 @@
         <v>1432</v>
       </c>
       <c r="D732" s="29" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F732" s="26"/>
     </row>
@@ -23818,7 +23866,7 @@
         <v>1433</v>
       </c>
       <c r="D733" s="29" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F733" s="26"/>
     </row>
@@ -23833,7 +23881,7 @@
         <v>1434</v>
       </c>
       <c r="D734" s="29" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F734" s="26"/>
     </row>
@@ -23848,7 +23896,7 @@
         <v>1435</v>
       </c>
       <c r="D735" s="29" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F735" s="26"/>
     </row>
@@ -23863,7 +23911,7 @@
         <v>1436</v>
       </c>
       <c r="D736" s="29" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F736" s="26"/>
     </row>
@@ -23878,7 +23926,7 @@
         <v>1437</v>
       </c>
       <c r="D737" s="29" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F737" s="26"/>
     </row>
@@ -23893,7 +23941,7 @@
         <v>1438</v>
       </c>
       <c r="D738" s="29" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F738" s="26"/>
     </row>
@@ -23908,7 +23956,7 @@
         <v>1439</v>
       </c>
       <c r="D739" s="29" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F739" s="26"/>
     </row>
@@ -23923,7 +23971,7 @@
         <v>1440</v>
       </c>
       <c r="D740" s="29" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="F740" s="26"/>
     </row>
@@ -23938,7 +23986,7 @@
         <v>1441</v>
       </c>
       <c r="D741" s="29" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F741" s="26"/>
     </row>
@@ -23953,7 +24001,7 @@
         <v>1442</v>
       </c>
       <c r="D742" s="29" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="F742" s="26"/>
     </row>
@@ -23968,7 +24016,7 @@
         <v>1443</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F743" s="26"/>
     </row>
@@ -23983,7 +24031,7 @@
         <v>1444</v>
       </c>
       <c r="D744" s="29" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.45">
@@ -23997,7 +24045,7 @@
         <v>1445</v>
       </c>
       <c r="D745" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.45">
@@ -24011,7 +24059,7 @@
         <v>1448</v>
       </c>
       <c r="D746" s="29" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.45">
@@ -24025,7 +24073,7 @@
         <v>1519</v>
       </c>
       <c r="D747" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.45">
@@ -24039,7 +24087,7 @@
         <v>1520</v>
       </c>
       <c r="D748" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.45">
@@ -24053,7 +24101,7 @@
         <v>1521</v>
       </c>
       <c r="D749" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.45">
@@ -24067,7 +24115,7 @@
         <v>1522</v>
       </c>
       <c r="D750" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.45">
@@ -24081,7 +24129,7 @@
         <v>1523</v>
       </c>
       <c r="D751" s="29" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.45">
@@ -24095,7 +24143,7 @@
         <v>1524</v>
       </c>
       <c r="D752" s="29" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.45">
@@ -24109,7 +24157,7 @@
         <v>1525</v>
       </c>
       <c r="D753" s="29" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.45">
@@ -24123,7 +24171,7 @@
         <v>1526</v>
       </c>
       <c r="D754" s="29" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.45">
@@ -24137,7 +24185,7 @@
         <v>1527</v>
       </c>
       <c r="D755" s="29" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.45">
@@ -24151,7 +24199,7 @@
         <v>1528</v>
       </c>
       <c r="D756" s="29" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.45">
@@ -24165,7 +24213,7 @@
         <v>1529</v>
       </c>
       <c r="D757" s="29" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.45">
@@ -24179,7 +24227,7 @@
         <v>1530</v>
       </c>
       <c r="D758" s="29" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.45">
@@ -24193,7 +24241,7 @@
         <v>1531</v>
       </c>
       <c r="D759" s="29" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.45">
@@ -24207,7 +24255,7 @@
         <v>1532</v>
       </c>
       <c r="D760" s="29" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.45">
@@ -24221,7 +24269,7 @@
         <v>1533</v>
       </c>
       <c r="D761" s="29" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.45">
@@ -24235,7 +24283,7 @@
         <v>1534</v>
       </c>
       <c r="D762" s="29" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.45">
@@ -24249,7 +24297,7 @@
         <v>1535</v>
       </c>
       <c r="D763" s="29" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.45">
@@ -24263,7 +24311,7 @@
         <v>1536</v>
       </c>
       <c r="D764" s="29" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.45">
@@ -24277,7 +24325,7 @@
         <v>1537</v>
       </c>
       <c r="D765" s="29" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.45">
@@ -24291,7 +24339,7 @@
         <v>1538</v>
       </c>
       <c r="D766" s="29" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.45">
@@ -24305,7 +24353,7 @@
         <v>1539</v>
       </c>
       <c r="D767" s="29" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.45">
@@ -24319,7 +24367,7 @@
         <v>1540</v>
       </c>
       <c r="D768" s="29" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.45">
@@ -24333,7 +24381,7 @@
         <v>1541</v>
       </c>
       <c r="D769" s="29" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.45">
@@ -24347,7 +24395,7 @@
         <v>1542</v>
       </c>
       <c r="D770" s="29" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.45">
@@ -24361,7 +24409,7 @@
         <v>1543</v>
       </c>
       <c r="D771" s="29" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.45">
@@ -24375,7 +24423,7 @@
         <v>1544</v>
       </c>
       <c r="D772" s="29" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.45">
@@ -24389,7 +24437,7 @@
         <v>1545</v>
       </c>
       <c r="D773" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.45">
@@ -24403,7 +24451,7 @@
         <v>1546</v>
       </c>
       <c r="D774" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.45">
@@ -24417,7 +24465,7 @@
         <v>1547</v>
       </c>
       <c r="D775" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
@@ -24431,7 +24479,7 @@
         <v>1548</v>
       </c>
       <c r="D776" s="29" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.45">
@@ -24487,7 +24535,7 @@
         <v>5056</v>
       </c>
       <c r="D780" s="29" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.45">
@@ -24501,7 +24549,7 @@
         <v>5057</v>
       </c>
       <c r="D781" s="29" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.45">
@@ -24515,7 +24563,7 @@
         <v>5058</v>
       </c>
       <c r="D782" s="29" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.45">
@@ -24529,7 +24577,7 @@
         <v>5059</v>
       </c>
       <c r="D783" s="29" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.45">
@@ -24543,7 +24591,7 @@
         <v>5060</v>
       </c>
       <c r="D784" s="29" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.45">
@@ -24557,7 +24605,7 @@
         <v>5061</v>
       </c>
       <c r="D785" s="29" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.45">
@@ -24571,7 +24619,7 @@
         <v>5062</v>
       </c>
       <c r="D786" s="29" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.45">
@@ -24585,7 +24633,7 @@
         <v>5063</v>
       </c>
       <c r="D787" s="29" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.45">
@@ -24599,7 +24647,7 @@
         <v>5064</v>
       </c>
       <c r="D788" s="29" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.45">
@@ -24613,7 +24661,7 @@
         <v>5065</v>
       </c>
       <c r="D789" s="29" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.45">
@@ -24627,7 +24675,7 @@
         <v>5066</v>
       </c>
       <c r="D790" s="29" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.45">
@@ -24641,7 +24689,7 @@
         <v>5067</v>
       </c>
       <c r="D791" s="29" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.45">
@@ -24655,7 +24703,7 @@
         <v>5068</v>
       </c>
       <c r="D792" s="29" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.45">
@@ -24669,7 +24717,7 @@
         <v>5069</v>
       </c>
       <c r="D793" s="29" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.45">
@@ -24683,7 +24731,7 @@
         <v>5070</v>
       </c>
       <c r="D794" s="29" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.45">
@@ -24697,7 +24745,7 @@
         <v>5071</v>
       </c>
       <c r="D795" s="29" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.45">
@@ -24711,7 +24759,7 @@
         <v>5072</v>
       </c>
       <c r="D796" s="29" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.45">
@@ -24725,7 +24773,7 @@
         <v>5073</v>
       </c>
       <c r="D797" s="29" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.45">
@@ -24739,7 +24787,7 @@
         <v>5074</v>
       </c>
       <c r="D798" s="29" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.45">
@@ -24753,7 +24801,7 @@
         <v>5075</v>
       </c>
       <c r="D799" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.45">
@@ -24767,7 +24815,7 @@
         <v>5076</v>
       </c>
       <c r="D800" s="29" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.45">
@@ -24781,7 +24829,7 @@
         <v>5077</v>
       </c>
       <c r="D801" s="29" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.45">
@@ -24795,7 +24843,7 @@
         <v>5078</v>
       </c>
       <c r="D802" s="29" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.45">
@@ -24809,7 +24857,7 @@
         <v>5079</v>
       </c>
       <c r="D803" s="29" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.45">
@@ -24823,7 +24871,7 @@
         <v>5080</v>
       </c>
       <c r="D804" s="29" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.45">
@@ -24851,7 +24899,7 @@
         <v>5082</v>
       </c>
       <c r="D806" s="29" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.45">
@@ -24879,7 +24927,7 @@
         <v>5084</v>
       </c>
       <c r="D808" s="29" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.45">
@@ -24893,7 +24941,7 @@
         <v>5085</v>
       </c>
       <c r="D809" s="29" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.45">
@@ -24907,7 +24955,7 @@
         <v>5097</v>
       </c>
       <c r="D810" s="29" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.45">
@@ -24921,7 +24969,7 @@
         <v>5153</v>
       </c>
       <c r="D811" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -24935,7 +24983,7 @@
         <v>5154</v>
       </c>
       <c r="D812" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.45">
@@ -24949,7 +24997,7 @@
         <v>5155</v>
       </c>
       <c r="D813" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.45">
@@ -24963,7 +25011,7 @@
         <v>5156</v>
       </c>
       <c r="D814" s="29" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.45">
@@ -24977,7 +25025,7 @@
         <v>5157</v>
       </c>
       <c r="D815" s="29" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.45">
@@ -24991,7 +25039,7 @@
         <v>5158</v>
       </c>
       <c r="D816" s="29" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.45">
@@ -25005,7 +25053,7 @@
         <v>5159</v>
       </c>
       <c r="D817" s="29" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.45">
@@ -25019,7 +25067,7 @@
         <v>5160</v>
       </c>
       <c r="D818" s="29" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.45">
@@ -25033,7 +25081,7 @@
         <v>5161</v>
       </c>
       <c r="D819" s="29" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.45">
@@ -25047,7 +25095,7 @@
         <v>5162</v>
       </c>
       <c r="D820" s="29" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.45">
@@ -25061,7 +25109,7 @@
         <v>5163</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.45">
@@ -25075,7 +25123,7 @@
         <v>5164</v>
       </c>
       <c r="D822" s="29" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.45">
@@ -25089,7 +25137,7 @@
         <v>5165</v>
       </c>
       <c r="D823" s="29" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.45">
@@ -25103,7 +25151,7 @@
         <v>5166</v>
       </c>
       <c r="D824" s="29" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.45">
@@ -25117,7 +25165,7 @@
         <v>5167</v>
       </c>
       <c r="D825" s="29" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.45">
@@ -25131,7 +25179,7 @@
         <v>5168</v>
       </c>
       <c r="D826" s="29" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.45">
@@ -25145,7 +25193,7 @@
         <v>5169</v>
       </c>
       <c r="D827" s="29" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.45">
@@ -25159,7 +25207,7 @@
         <v>5170</v>
       </c>
       <c r="D828" s="29" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.45">
@@ -25173,7 +25221,7 @@
         <v>5171</v>
       </c>
       <c r="D829" s="29" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.45">
@@ -25187,7 +25235,7 @@
         <v>5172</v>
       </c>
       <c r="D830" s="29" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.45">
@@ -25201,7 +25249,7 @@
         <v>5173</v>
       </c>
       <c r="D831" s="29" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.45">
@@ -25215,7 +25263,7 @@
         <v>5174</v>
       </c>
       <c r="D832" s="29" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.45">
@@ -25229,7 +25277,7 @@
         <v>5175</v>
       </c>
       <c r="D833" s="29" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.45">
@@ -25243,7 +25291,7 @@
         <v>5176</v>
       </c>
       <c r="D834" s="29" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.45">
@@ -25257,7 +25305,7 @@
         <v>5177</v>
       </c>
       <c r="D835" s="29" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.45">
@@ -25271,7 +25319,7 @@
         <v>5178</v>
       </c>
       <c r="D836" s="29" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.45">
@@ -25285,7 +25333,7 @@
         <v>5179</v>
       </c>
       <c r="D837" s="29" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.45">
@@ -25299,7 +25347,7 @@
         <v>5180</v>
       </c>
       <c r="D838" s="29" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.45">
@@ -25313,7 +25361,7 @@
         <v>5181</v>
       </c>
       <c r="D839" s="29" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.45">
@@ -25327,7 +25375,7 @@
         <v>5182</v>
       </c>
       <c r="D840" s="29" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.45">
@@ -25341,7 +25389,7 @@
         <v>5183</v>
       </c>
       <c r="D841" s="29" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.45">
@@ -25355,7 +25403,7 @@
         <v>5184</v>
       </c>
       <c r="D842" s="29" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.45">
@@ -25369,7 +25417,7 @@
         <v>5185</v>
       </c>
       <c r="D843" s="29" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.45">
@@ -25383,7 +25431,7 @@
         <v>5197</v>
       </c>
       <c r="D844" s="29" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.45">
@@ -25397,7 +25445,7 @@
         <v>5253</v>
       </c>
       <c r="D845" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25411,7 +25459,7 @@
         <v>5254</v>
       </c>
       <c r="D846" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.45">
@@ -25439,7 +25487,7 @@
         <v>5256</v>
       </c>
       <c r="D848" s="29" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.45">
@@ -25453,7 +25501,7 @@
         <v>5257</v>
       </c>
       <c r="D849" s="29" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.45">
@@ -25467,7 +25515,7 @@
         <v>5258</v>
       </c>
       <c r="D850" s="29" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.45">
@@ -25481,7 +25529,7 @@
         <v>5259</v>
       </c>
       <c r="D851" s="29" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.45">
@@ -25495,7 +25543,7 @@
         <v>5260</v>
       </c>
       <c r="D852" s="29" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.45">
@@ -25509,7 +25557,7 @@
         <v>5261</v>
       </c>
       <c r="D853" s="29" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.45">
@@ -25523,7 +25571,7 @@
         <v>5262</v>
       </c>
       <c r="D854" s="29" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.45">
@@ -25537,7 +25585,7 @@
         <v>5263</v>
       </c>
       <c r="D855" s="29" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.45">
@@ -25551,7 +25599,7 @@
         <v>5264</v>
       </c>
       <c r="D856" s="29" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.45">
@@ -25565,7 +25613,7 @@
         <v>5265</v>
       </c>
       <c r="D857" s="29" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.45">
@@ -25579,7 +25627,7 @@
         <v>5266</v>
       </c>
       <c r="D858" s="29" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.45">
@@ -25593,7 +25641,7 @@
         <v>5267</v>
       </c>
       <c r="D859" s="29" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.45">
@@ -25607,7 +25655,7 @@
         <v>5268</v>
       </c>
       <c r="D860" s="29" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.45">
@@ -25621,7 +25669,7 @@
         <v>5269</v>
       </c>
       <c r="D861" s="29" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.45">
@@ -25635,7 +25683,7 @@
         <v>5270</v>
       </c>
       <c r="D862" s="29" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.45">
@@ -25649,7 +25697,7 @@
         <v>5271</v>
       </c>
       <c r="D863" s="29" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.45">
@@ -25663,7 +25711,7 @@
         <v>5272</v>
       </c>
       <c r="D864" s="29" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.45">
@@ -25677,7 +25725,7 @@
         <v>5273</v>
       </c>
       <c r="D865" s="29" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.45">
@@ -25691,7 +25739,7 @@
         <v>5274</v>
       </c>
       <c r="D866" s="29" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.45">
@@ -25705,7 +25753,7 @@
         <v>5275</v>
       </c>
       <c r="D867" s="29" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.45">
@@ -25719,7 +25767,7 @@
         <v>5276</v>
       </c>
       <c r="D868" s="29" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.45">
@@ -25733,7 +25781,7 @@
         <v>5277</v>
       </c>
       <c r="D869" s="29" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.45">
@@ -25747,7 +25795,7 @@
         <v>5278</v>
       </c>
       <c r="D870" s="29" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.45">
@@ -25761,7 +25809,7 @@
         <v>5279</v>
       </c>
       <c r="D871" s="29" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.45">
@@ -25775,7 +25823,7 @@
         <v>5280</v>
       </c>
       <c r="D872" s="29" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.45">
@@ -25803,7 +25851,7 @@
         <v>5282</v>
       </c>
       <c r="D874" s="29" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.45">
@@ -25831,7 +25879,7 @@
         <v>5284</v>
       </c>
       <c r="D876" s="29" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.45">
@@ -25845,7 +25893,7 @@
         <v>5285</v>
       </c>
       <c r="D877" s="29" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
@@ -25859,7 +25907,7 @@
         <v>5297</v>
       </c>
       <c r="D878" s="29" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
@@ -26489,7 +26537,7 @@
         <v>101</v>
       </c>
       <c r="D923" s="29" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.45">
@@ -26503,7 +26551,7 @@
         <v>102</v>
       </c>
       <c r="D924" s="29" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.45">
@@ -26517,7 +26565,7 @@
         <v>103</v>
       </c>
       <c r="D925" s="29" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.45">
@@ -26531,7 +26579,7 @@
         <v>104</v>
       </c>
       <c r="D926" s="29" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.45">
@@ -26545,7 +26593,7 @@
         <v>105</v>
       </c>
       <c r="D927" s="29" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.45">
@@ -26559,7 +26607,7 @@
         <v>106</v>
       </c>
       <c r="D928" s="29" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.45">
@@ -26573,7 +26621,7 @@
         <v>107</v>
       </c>
       <c r="D929" s="29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.45">
@@ -26587,7 +26635,7 @@
         <v>108</v>
       </c>
       <c r="D930" s="29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.45">
@@ -26601,7 +26649,7 @@
         <v>109</v>
       </c>
       <c r="D931" s="29" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.45">
@@ -26615,7 +26663,7 @@
         <v>110</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.45">
@@ -26629,7 +26677,7 @@
         <v>111</v>
       </c>
       <c r="D933" s="29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.45">
@@ -26643,7 +26691,7 @@
         <v>112</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.45">
@@ -26657,7 +26705,7 @@
         <v>113</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.45">
@@ -26671,7 +26719,7 @@
         <v>114</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.45">
@@ -26685,7 +26733,7 @@
         <v>115</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.45">
@@ -26699,7 +26747,7 @@
         <v>116</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.45">
@@ -26713,7 +26761,7 @@
         <v>117</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.45">
@@ -26727,7 +26775,7 @@
         <v>118</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.45">
@@ -26741,7 +26789,7 @@
         <v>119</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.45">
@@ -26755,7 +26803,7 @@
         <v>120</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.45">
@@ -26769,7 +26817,7 @@
         <v>121</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.45">
@@ -26783,7 +26831,7 @@
         <v>122</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.45">
@@ -26797,7 +26845,7 @@
         <v>123</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.45">
@@ -26811,7 +26859,7 @@
         <v>124</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.45">
@@ -26825,7 +26873,7 @@
         <v>125</v>
       </c>
       <c r="D947" s="29" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.45">
@@ -26839,7 +26887,7 @@
         <v>126</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.45">
@@ -26853,7 +26901,7 @@
         <v>127</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.45">
@@ -26867,7 +26915,7 @@
         <v>128</v>
       </c>
       <c r="D950" s="29" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.45">
@@ -26881,7 +26929,7 @@
         <v>129</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.45">
@@ -26895,7 +26943,7 @@
         <v>130</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.45">
@@ -26909,7 +26957,7 @@
         <v>131</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.45">
@@ -26923,7 +26971,7 @@
         <v>132</v>
       </c>
       <c r="D954" s="29" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.45">
@@ -26937,7 +26985,7 @@
         <v>133</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.45">
@@ -26951,7 +26999,7 @@
         <v>134</v>
       </c>
       <c r="D956" s="29" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.45">
@@ -26965,7 +27013,7 @@
         <v>135</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.45">
@@ -26979,7 +27027,7 @@
         <v>136</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -26993,7 +27041,7 @@
         <v>901</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E959" s="3"/>
     </row>
@@ -27008,7 +27056,7 @@
         <v>902</v>
       </c>
       <c r="D960" s="28" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E960" s="3"/>
     </row>
@@ -27023,7 +27071,7 @@
         <v>903</v>
       </c>
       <c r="D961" s="28" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E961" s="3"/>
     </row>
@@ -27038,7 +27086,7 @@
         <v>904</v>
       </c>
       <c r="D962" s="28" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E962" s="3"/>
     </row>
@@ -27053,7 +27101,7 @@
         <v>905</v>
       </c>
       <c r="D963" s="28" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E963" s="3"/>
     </row>
@@ -27068,7 +27116,7 @@
         <v>906</v>
       </c>
       <c r="D964" s="28" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E964" s="3"/>
     </row>
@@ -27083,7 +27131,7 @@
         <v>907</v>
       </c>
       <c r="D965" s="28" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E965" s="3"/>
     </row>
@@ -27098,7 +27146,7 @@
         <v>908</v>
       </c>
       <c r="D966" s="28" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E966" s="3"/>
     </row>
@@ -27113,7 +27161,7 @@
         <v>909</v>
       </c>
       <c r="D967" s="28" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E967" s="3"/>
     </row>
@@ -27128,7 +27176,7 @@
         <v>910</v>
       </c>
       <c r="D968" s="28" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E968" s="3"/>
     </row>
@@ -27143,7 +27191,7 @@
         <v>911</v>
       </c>
       <c r="D969" s="28" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E969" s="3"/>
     </row>
@@ -27158,7 +27206,7 @@
         <v>912</v>
       </c>
       <c r="D970" s="28" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E970" s="3"/>
     </row>
@@ -27173,7 +27221,7 @@
         <v>913</v>
       </c>
       <c r="D971" s="28" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E971" s="3"/>
     </row>
@@ -27188,7 +27236,7 @@
         <v>914</v>
       </c>
       <c r="D972" s="28" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E972" s="3"/>
     </row>
@@ -27203,7 +27251,7 @@
         <v>915</v>
       </c>
       <c r="D973" s="28" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E973" s="3"/>
     </row>
@@ -27218,7 +27266,7 @@
         <v>916</v>
       </c>
       <c r="D974" s="28" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E974" s="3"/>
     </row>
@@ -27233,7 +27281,7 @@
         <v>917</v>
       </c>
       <c r="D975" s="28" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E975" s="3"/>
     </row>
@@ -27248,7 +27296,7 @@
         <v>918</v>
       </c>
       <c r="D976" s="28" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E976" s="3"/>
     </row>
@@ -27263,7 +27311,7 @@
         <v>919</v>
       </c>
       <c r="D977" s="28" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E977" s="3"/>
     </row>
@@ -27278,7 +27326,7 @@
         <v>920</v>
       </c>
       <c r="D978" s="29" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E978" s="3"/>
     </row>
@@ -28175,7 +28223,7 @@
         <v>53</v>
       </c>
       <c r="D1042" s="29" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.45">
@@ -28189,7 +28237,7 @@
         <v>54</v>
       </c>
       <c r="D1043" s="29" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.45">
@@ -28203,7 +28251,7 @@
         <v>55</v>
       </c>
       <c r="D1044" s="29" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.45">
@@ -28399,7 +28447,7 @@
         <v>0</v>
       </c>
       <c r="D1058" s="29" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.45">
@@ -28441,7 +28489,7 @@
         <v>3</v>
       </c>
       <c r="D1061" s="29" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28455,7 +28503,7 @@
         <v>4</v>
       </c>
       <c r="D1062" s="29" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.45">
@@ -28469,7 +28517,7 @@
         <v>9</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.45">
@@ -28617,13 +28665,13 @@
         <v>47</v>
       </c>
       <c r="B1074" s="29" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C1074" s="29">
         <v>0</v>
       </c>
       <c r="D1074" s="29" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.45">
@@ -28631,13 +28679,13 @@
         <v>47</v>
       </c>
       <c r="B1075" s="29" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C1075" s="29">
         <v>1</v>
       </c>
       <c r="D1075" s="29" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.45">
@@ -28645,13 +28693,13 @@
         <v>47</v>
       </c>
       <c r="B1076" s="29" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C1076" s="29">
         <v>2</v>
       </c>
       <c r="D1076" s="29" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.45">
@@ -28665,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="D1077" s="29" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.45">
@@ -28693,7 +28741,7 @@
         <v>2</v>
       </c>
       <c r="D1079" s="29" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
   </sheetData>
@@ -28799,7 +28847,7 @@
         <v>698</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -28825,7 +28873,7 @@
         <v>698</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -28851,7 +28899,7 @@
         <v>698</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -28877,7 +28925,7 @@
         <v>698</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28903,7 +28951,7 @@
         <v>698</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -28929,7 +28977,7 @@
         <v>698</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -28955,7 +29003,7 @@
         <v>698</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -28981,7 +29029,7 @@
         <v>698</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -29007,7 +29055,7 @@
         <v>698</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -29731,7 +29779,7 @@
         <v>698</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30101,7 +30149,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C58" s="36" t="s">
         <v>692</v>
@@ -30127,7 +30175,7 @@
         <v>102</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C59" s="36" t="s">
         <v>692</v>
@@ -30153,7 +30201,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>692</v>
@@ -30179,7 +30227,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>692</v>
@@ -30205,7 +30253,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>692</v>
@@ -30231,7 +30279,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>692</v>
@@ -30257,7 +30305,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>692</v>
@@ -30283,7 +30331,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>692</v>
@@ -30309,7 +30357,7 @@
         <v>109</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>692</v>
@@ -30335,7 +30383,7 @@
         <v>110</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>692</v>
@@ -30361,7 +30409,7 @@
         <v>111</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>692</v>
@@ -30387,7 +30435,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>692</v>
@@ -30413,7 +30461,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>692</v>
@@ -30439,7 +30487,7 @@
         <v>114</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>692</v>
@@ -30465,7 +30513,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>692</v>
@@ -30491,7 +30539,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>692</v>
@@ -30517,7 +30565,7 @@
         <v>117</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>692</v>
@@ -30543,7 +30591,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>692</v>
@@ -30569,7 +30617,7 @@
         <v>119</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>692</v>
@@ -30595,7 +30643,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>692</v>
@@ -30621,7 +30669,7 @@
         <v>121</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>692</v>
@@ -30647,7 +30695,7 @@
         <v>122</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>692</v>
@@ -30673,7 +30721,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C80" s="36" t="s">
         <v>692</v>
@@ -30699,7 +30747,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C81" s="36" t="s">
         <v>692</v>
@@ -30725,7 +30773,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C82" s="36" t="s">
         <v>692</v>
@@ -30751,7 +30799,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>692</v>
@@ -30777,7 +30825,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>692</v>
@@ -30803,7 +30851,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="C85" s="36" t="s">
         <v>692</v>
@@ -30829,7 +30877,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>692</v>
@@ -30855,7 +30903,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>692</v>
@@ -30881,7 +30929,7 @@
         <v>131</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C88" s="36" t="s">
         <v>692</v>
@@ -30907,7 +30955,7 @@
         <v>132</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C89" s="36" t="s">
         <v>692</v>
@@ -30933,7 +30981,7 @@
         <v>133</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C90" s="36" t="s">
         <v>692</v>
@@ -30959,7 +31007,7 @@
         <v>134</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C91" s="36" t="s">
         <v>692</v>
@@ -30985,7 +31033,7 @@
         <v>135</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C92" s="36" t="s">
         <v>692</v>
@@ -31011,7 +31059,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="C93" s="36" t="s">
         <v>692</v>
@@ -31067,7 +31115,7 @@
         <v>698</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -31093,7 +31141,7 @@
         <v>698</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -31119,7 +31167,7 @@
         <v>698</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31209,7 +31257,7 @@
         <v>698</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -31235,7 +31283,7 @@
         <v>698</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -31261,7 +31309,7 @@
         <v>698</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31333,7 +31381,7 @@
         <v>901</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
@@ -31359,7 +31407,7 @@
         <v>902</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C108" s="11">
         <v>1</v>
@@ -31385,7 +31433,7 @@
         <v>903</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
@@ -31411,7 +31459,7 @@
         <v>904</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C110" s="11">
         <v>1</v>
@@ -31437,7 +31485,7 @@
         <v>905</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
@@ -31463,7 +31511,7 @@
         <v>906</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C112" s="11">
         <v>1</v>
@@ -31489,7 +31537,7 @@
         <v>907</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C113" s="11">
         <v>1</v>
@@ -31515,7 +31563,7 @@
         <v>908</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C114" s="11">
         <v>1</v>
@@ -31541,7 +31589,7 @@
         <v>909</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C115" s="11">
         <v>1</v>
@@ -31567,7 +31615,7 @@
         <v>910</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C116" s="11">
         <v>1</v>
@@ -31593,7 +31641,7 @@
         <v>911</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C117" s="11">
         <v>1</v>
@@ -31619,7 +31667,7 @@
         <v>912</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C118" s="11">
         <v>1</v>
@@ -31645,7 +31693,7 @@
         <v>913</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
@@ -31671,7 +31719,7 @@
         <v>914</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
@@ -31697,7 +31745,7 @@
         <v>915</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C121" s="11">
         <v>1</v>
@@ -31723,7 +31771,7 @@
         <v>916</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C122" s="11">
         <v>1</v>
@@ -31749,7 +31797,7 @@
         <v>917</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C123" s="11">
         <v>1</v>
@@ -31775,7 +31823,7 @@
         <v>918</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C124" s="11">
         <v>1</v>
@@ -31801,7 +31849,7 @@
         <v>919</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C125" s="11">
         <v>1</v>
@@ -31827,7 +31875,7 @@
         <v>920</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="C126" s="11">
         <v>1</v>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429A88ED-6771-47E5-AB28-9E51A32ED4E9}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2EE0588-67AC-4E71-8846-3285C4416A43}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1558">
   <si>
     <t>File ID</t>
   </si>
@@ -3392,12 +3392,6 @@
     <t>Multiple Selections</t>
   </si>
   <si>
-    <t>0, 10-15, 18, 19, 45, 46</t>
-  </si>
-  <si>
-    <t>50-96, 1190, 1191, 1290, 1291, subpops 53-85 of pops 50-52</t>
-  </si>
-  <si>
     <t>American Indian, Alaska Native, or Indigenous (only) HoH</t>
   </si>
   <si>
@@ -4548,9 +4542,6 @@
   </si>
   <si>
     <t>0, 10-15, 18, 19, 45, 46, 48</t>
-  </si>
-  <si>
-    <t>50, 53, 97, 1190, 1191, 1290, 1291</t>
   </si>
   <si>
     <t>HHTypeRRHSONoMI</t>
@@ -4735,6 +4726,12 @@
   </si>
   <si>
     <t>For all Project IDs in Project.csv active during the report period where RRHSubType = 1 and ResidentialAffiliation = 1, all records of HMIS field 2.02B Residential Affiliation , exported in the HMIS CSV format.</t>
+  </si>
+  <si>
+    <t>50-97, 1190, 1191, 1290, 1291, subpops 53-85 of pops 50-52</t>
+  </si>
+  <si>
+    <t>50, 53, 1190, 1191, 1290, 1291</t>
   </si>
 </sst>
 </file>
@@ -5274,7 +5271,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
@@ -5333,7 +5330,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -5350,7 +5347,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -5364,10 +5361,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -5415,7 +5412,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1074</v>
@@ -5466,7 +5463,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>528</v>
@@ -5483,7 +5480,7 @@
         <v>1075</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1077</v>
@@ -5500,7 +5497,7 @@
         <v>1076</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1077</v>
@@ -5690,7 +5687,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -5716,7 +5713,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5742,7 +5739,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5768,7 +5765,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5794,7 +5791,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -6536,7 +6533,7 @@
         <v>364</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -6623,10 +6620,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -6643,7 +6640,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>38</v>
@@ -6655,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="J41" s="3">
         <v>5</v>
@@ -6951,7 +6948,7 @@
         <v>96</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -7041,7 +7038,7 @@
         <v>102</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -7334,7 +7331,7 @@
         <v>122</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -7424,7 +7421,7 @@
         <v>128</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -7717,7 +7714,7 @@
         <v>148</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -7807,7 +7804,7 @@
         <v>154</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
@@ -8288,7 +8285,7 @@
         <v>65</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>38</v>
@@ -8300,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>1077</v>
@@ -8320,7 +8317,7 @@
         <v>66</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>38</v>
@@ -8332,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>1077</v>
@@ -8416,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>1059</v>
@@ -8448,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I102" s="7" t="s">
         <v>1527</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>1530</v>
       </c>
       <c r="J102" s="3">
         <v>7</v>
@@ -10005,7 +10002,7 @@
         <v>57</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>38</v>
@@ -10017,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="28"/>
@@ -10033,7 +10030,7 @@
         <v>58</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>38</v>
@@ -10045,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="28"/>
@@ -10061,7 +10058,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>38</v>
@@ -10073,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="28"/>
@@ -10089,7 +10086,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>38</v>
@@ -10101,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="28"/>
@@ -10117,7 +10114,7 @@
         <v>61</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>38</v>
@@ -10129,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="28"/>
@@ -10145,7 +10142,7 @@
         <v>62</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>38</v>
@@ -10157,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="28"/>
@@ -10173,7 +10170,7 @@
         <v>63</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>38</v>
@@ -10185,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="28"/>
@@ -10201,7 +10198,7 @@
         <v>64</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>38</v>
@@ -10213,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="28"/>
@@ -10229,7 +10226,7 @@
         <v>65</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>38</v>
@@ -10241,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="28"/>
@@ -10257,7 +10254,7 @@
         <v>66</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>38</v>
@@ -10269,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="28"/>
@@ -10554,7 +10551,7 @@
         <v>364</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="J175" s="3">
         <v>1</v>
@@ -10615,7 +10612,7 @@
         <v>363</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="J177" s="3">
         <v>1</v>
@@ -10632,7 +10629,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>38</v>
@@ -10644,10 +10641,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="J178" s="3">
         <v>5</v>
@@ -10965,7 +10962,7 @@
         <v>307</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -11000,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J191" s="3">
         <v>2</v>
@@ -11047,7 +11044,7 @@
         <v>309</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3">
@@ -11071,7 +11068,7 @@
         <v>310</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3">
@@ -11127,7 +11124,7 @@
         <v>311</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -11205,7 +11202,7 @@
         <v>314</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3">
@@ -11259,7 +11256,7 @@
         <v>316</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3">
@@ -11286,7 +11283,7 @@
         <v>307</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
@@ -11310,7 +11307,7 @@
         <v>309</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
@@ -11334,7 +11331,7 @@
         <v>317</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
@@ -11361,7 +11358,7 @@
         <v>318</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
@@ -11709,7 +11706,7 @@
         <v>314</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3">
@@ -11763,7 +11760,7 @@
         <v>316</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3">
@@ -11790,7 +11787,7 @@
         <v>327</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3">
@@ -11814,7 +11811,7 @@
         <v>307</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -11847,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -11867,13 +11864,13 @@
         <v>328</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J224" s="28">
         <v>100</v>
@@ -11893,7 +11890,7 @@
         <v>329</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
@@ -11902,7 +11899,7 @@
         <v>647</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="J225" s="28">
         <v>100</v>
@@ -12014,7 +12011,7 @@
         <v>314</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -12066,7 +12063,7 @@
         <v>316</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
@@ -12092,7 +12089,7 @@
         <v>332</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G233" s="3">
         <v>0</v>
@@ -12115,7 +12112,7 @@
         <v>307</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G234" s="3">
         <v>0</v>
@@ -12138,7 +12135,7 @@
         <v>333</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G235" s="3">
         <v>0</v>
@@ -12164,7 +12161,7 @@
         <v>334</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G236" s="3">
         <v>0</v>
@@ -12187,7 +12184,7 @@
         <v>335</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
@@ -12210,7 +12207,7 @@
         <v>336</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="G238" s="3">
         <v>1</v>
@@ -12233,7 +12230,7 @@
         <v>337</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G239" s="3">
         <v>1</v>
@@ -12256,7 +12253,7 @@
         <v>338</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="G240" s="3">
         <v>1</v>
@@ -12279,7 +12276,7 @@
         <v>339</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12374,7 +12371,7 @@
         <v>314</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -12426,7 +12423,7 @@
         <v>316</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G247" s="3">
         <v>0</v>
@@ -12452,7 +12449,7 @@
         <v>341</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -12475,7 +12472,7 @@
         <v>307</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -12498,7 +12495,7 @@
         <v>333</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G250" s="3">
         <v>0</v>
@@ -12901,7 +12898,7 @@
         <v>314</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G267" s="3">
         <v>1</v>
@@ -12953,7 +12950,7 @@
         <v>316</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G269" s="3">
         <v>0</v>
@@ -12979,7 +12976,7 @@
         <v>1085</v>
       </c>
       <c r="E270" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="28">
@@ -13005,7 +13002,7 @@
         <v>307</v>
       </c>
       <c r="E271" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="28">
@@ -13163,7 +13160,7 @@
         <v>314</v>
       </c>
       <c r="E277" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="28">
@@ -13219,7 +13216,7 @@
         <v>316</v>
       </c>
       <c r="E279" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="28">
@@ -13247,7 +13244,7 @@
         <v>1081</v>
       </c>
       <c r="E280" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="28">
@@ -13273,7 +13270,7 @@
         <v>307</v>
       </c>
       <c r="E281" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="28">
@@ -13301,7 +13298,7 @@
         <v>1082</v>
       </c>
       <c r="E282" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="28">
@@ -13381,7 +13378,7 @@
         <v>314</v>
       </c>
       <c r="E285" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="28">
@@ -13437,7 +13434,7 @@
         <v>316</v>
       </c>
       <c r="E287" s="28" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="28">
@@ -13788,7 +13785,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -13802,7 +13799,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C24" s="29">
         <v>2</v>
@@ -13816,7 +13813,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C25" s="29">
         <v>3</v>
@@ -13830,7 +13827,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C26" s="29">
         <v>4</v>
@@ -13844,7 +13841,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C27" s="29">
         <v>5</v>
@@ -13858,7 +13855,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C28" s="29">
         <v>6</v>
@@ -13872,7 +13869,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C29" s="29">
         <v>7</v>
@@ -13886,7 +13883,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
@@ -13900,7 +13897,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C31" s="29">
         <v>13</v>
@@ -13914,7 +13911,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C32" s="29">
         <v>14</v>
@@ -13928,7 +13925,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C33" s="29">
         <v>15</v>
@@ -13942,7 +13939,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C34" s="29">
         <v>16</v>
@@ -13956,7 +13953,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C35" s="29">
         <v>17</v>
@@ -13970,7 +13967,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C36" s="29">
         <v>23</v>
@@ -13984,7 +13981,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C37" s="29">
         <v>24</v>
@@ -13998,7 +13995,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C38" s="29">
         <v>25</v>
@@ -14012,7 +14009,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C39" s="29">
         <v>26</v>
@@ -14026,7 +14023,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C40" s="29">
         <v>27</v>
@@ -14040,7 +14037,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C41" s="29">
         <v>34</v>
@@ -14054,7 +14051,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C42" s="29">
         <v>35</v>
@@ -14068,7 +14065,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C43" s="29">
         <v>36</v>
@@ -14082,7 +14079,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C44" s="29">
         <v>37</v>
@@ -14096,7 +14093,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C45" s="29">
         <v>45</v>
@@ -14110,7 +14107,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C46" s="29">
         <v>46</v>
@@ -14124,7 +14121,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C47" s="29">
         <v>47</v>
@@ -14138,7 +14135,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C48" s="29">
         <v>56</v>
@@ -14152,7 +14149,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C49" s="29">
         <v>57</v>
@@ -14166,7 +14163,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C50" s="29">
         <v>67</v>
@@ -14180,7 +14177,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C51" s="29">
         <v>98</v>
@@ -14194,7 +14191,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C52" s="29">
         <v>99</v>
@@ -14208,7 +14205,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C53" s="29">
         <v>123</v>
@@ -14222,7 +14219,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C54" s="29">
         <v>124</v>
@@ -14236,7 +14233,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C55" s="29">
         <v>125</v>
@@ -14250,7 +14247,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C56" s="29">
         <v>126</v>
@@ -14264,7 +14261,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C57" s="29">
         <v>127</v>
@@ -14278,7 +14275,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C58" s="29">
         <v>134</v>
@@ -14292,7 +14289,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C59" s="29">
         <v>135</v>
@@ -14306,7 +14303,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C60" s="29">
         <v>136</v>
@@ -14320,7 +14317,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C61" s="29">
         <v>137</v>
@@ -14334,7 +14331,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C62" s="29">
         <v>145</v>
@@ -14348,7 +14345,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C63" s="29">
         <v>146</v>
@@ -14362,7 +14359,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C64" s="29">
         <v>147</v>
@@ -14376,7 +14373,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C65" s="29">
         <v>156</v>
@@ -14390,7 +14387,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C66" s="29">
         <v>157</v>
@@ -14404,7 +14401,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C67" s="29">
         <v>167</v>
@@ -14418,7 +14415,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C68" s="29">
         <v>234</v>
@@ -14432,7 +14429,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C69" s="29">
         <v>235</v>
@@ -14446,7 +14443,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C70" s="29">
         <v>236</v>
@@ -14460,7 +14457,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C71" s="29">
         <v>237</v>
@@ -14474,7 +14471,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C72" s="29">
         <v>245</v>
@@ -14488,7 +14485,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C73" s="29">
         <v>246</v>
@@ -14502,7 +14499,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C74" s="29">
         <v>247</v>
@@ -14516,7 +14513,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C75" s="29">
         <v>256</v>
@@ -14530,7 +14527,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C76" s="29">
         <v>257</v>
@@ -14544,7 +14541,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C77" s="29">
         <v>267</v>
@@ -14558,7 +14555,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C78" s="29">
         <v>345</v>
@@ -14572,7 +14569,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C79" s="29">
         <v>346</v>
@@ -14586,7 +14583,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C80" s="29">
         <v>347</v>
@@ -14600,7 +14597,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C81" s="29">
         <v>356</v>
@@ -14614,7 +14611,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C82" s="29">
         <v>357</v>
@@ -14628,7 +14625,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C83" s="29">
         <v>367</v>
@@ -14642,7 +14639,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C84" s="29">
         <v>456</v>
@@ -14656,7 +14653,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C85" s="29">
         <v>457</v>
@@ -14670,7 +14667,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C86" s="29">
         <v>467</v>
@@ -14684,7 +14681,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C87" s="29">
         <v>567</v>
@@ -14698,7 +14695,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C88" s="29">
         <v>1234</v>
@@ -14712,7 +14709,7 @@
         <v>6</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C89" s="29">
         <v>1235</v>
@@ -14726,7 +14723,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C90" s="29">
         <v>1236</v>
@@ -14740,7 +14737,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C91" s="29">
         <v>1237</v>
@@ -14754,7 +14751,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C92" s="29">
         <v>1245</v>
@@ -14768,7 +14765,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C93" s="29">
         <v>1246</v>
@@ -14782,7 +14779,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C94" s="29">
         <v>1247</v>
@@ -14796,7 +14793,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C95" s="29">
         <v>1256</v>
@@ -14810,7 +14807,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C96" s="29">
         <v>1257</v>
@@ -14824,7 +14821,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C97" s="29">
         <v>1267</v>
@@ -14838,7 +14835,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C98" s="29">
         <v>1345</v>
@@ -14852,7 +14849,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C99" s="29">
         <v>1346</v>
@@ -14866,7 +14863,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C100" s="29">
         <v>1347</v>
@@ -14880,7 +14877,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C101" s="29">
         <v>1356</v>
@@ -14894,7 +14891,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C102" s="29">
         <v>1357</v>
@@ -14908,7 +14905,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C103" s="29">
         <v>1367</v>
@@ -14922,7 +14919,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C104" s="29">
         <v>1456</v>
@@ -14936,7 +14933,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C105" s="29">
         <v>1457</v>
@@ -14950,7 +14947,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C106" s="29">
         <v>1467</v>
@@ -14964,7 +14961,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C107" s="29">
         <v>1567</v>
@@ -14978,7 +14975,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C108" s="29">
         <v>2345</v>
@@ -14992,7 +14989,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C109" s="29">
         <v>2346</v>
@@ -15006,7 +15003,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C110" s="29">
         <v>2347</v>
@@ -15020,7 +15017,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C111" s="29">
         <v>2356</v>
@@ -15034,7 +15031,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C112" s="29">
         <v>2357</v>
@@ -15048,7 +15045,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C113" s="29">
         <v>2367</v>
@@ -15062,7 +15059,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C114" s="29">
         <v>2456</v>
@@ -15076,7 +15073,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C115" s="29">
         <v>2457</v>
@@ -15090,7 +15087,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C116" s="29">
         <v>2467</v>
@@ -15104,7 +15101,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C117" s="29">
         <v>2567</v>
@@ -15118,7 +15115,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C118" s="29">
         <v>3456</v>
@@ -15132,7 +15129,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C119" s="29">
         <v>3457</v>
@@ -15146,7 +15143,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C120" s="29">
         <v>3467</v>
@@ -15160,7 +15157,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C121" s="29">
         <v>3567</v>
@@ -15174,7 +15171,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C122" s="29">
         <v>4567</v>
@@ -15188,7 +15185,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C123" s="29">
         <v>12345</v>
@@ -15202,7 +15199,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C124" s="29">
         <v>12346</v>
@@ -15216,7 +15213,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C125" s="29">
         <v>12347</v>
@@ -15230,7 +15227,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C126" s="29">
         <v>12356</v>
@@ -15244,7 +15241,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C127" s="29">
         <v>12357</v>
@@ -15258,7 +15255,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C128" s="29">
         <v>12367</v>
@@ -15272,7 +15269,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C129" s="29">
         <v>12456</v>
@@ -15286,7 +15283,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C130" s="29">
         <v>12457</v>
@@ -15300,7 +15297,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C131" s="29">
         <v>12467</v>
@@ -15314,7 +15311,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C132" s="29">
         <v>12567</v>
@@ -15328,7 +15325,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C133" s="29">
         <v>13456</v>
@@ -15342,7 +15339,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C134" s="29">
         <v>13457</v>
@@ -15356,7 +15353,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C135" s="29">
         <v>13467</v>
@@ -15370,7 +15367,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C136" s="29">
         <v>13567</v>
@@ -15384,7 +15381,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C137" s="29">
         <v>14567</v>
@@ -15398,7 +15395,7 @@
         <v>6</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C138" s="29">
         <v>23456</v>
@@ -15412,7 +15409,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C139" s="29">
         <v>23457</v>
@@ -15426,7 +15423,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C140" s="29">
         <v>23467</v>
@@ -15440,7 +15437,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C141" s="29">
         <v>23567</v>
@@ -15454,7 +15451,7 @@
         <v>6</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C142" s="29">
         <v>24567</v>
@@ -15468,7 +15465,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C143" s="29">
         <v>34567</v>
@@ -15482,7 +15479,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C144" s="29">
         <v>123456</v>
@@ -15496,7 +15493,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C145" s="29">
         <v>123457</v>
@@ -15510,7 +15507,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C146" s="29">
         <v>123467</v>
@@ -15524,7 +15521,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C147" s="29">
         <v>123567</v>
@@ -15538,7 +15535,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C148" s="29">
         <v>124567</v>
@@ -15552,7 +15549,7 @@
         <v>6</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C149" s="29">
         <v>134567</v>
@@ -15566,7 +15563,7 @@
         <v>6</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C150" s="29">
         <v>234567</v>
@@ -15580,7 +15577,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C151" s="29">
         <v>1234567</v>
@@ -16118,7 +16115,7 @@
         <v>99</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -16370,7 +16367,7 @@
         <v>419</v>
       </c>
       <c r="D207" s="29" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -16384,7 +16381,7 @@
         <v>420</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -16412,7 +16409,7 @@
         <v>428</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
@@ -16426,7 +16423,7 @@
         <v>431</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -16440,7 +16437,7 @@
         <v>433</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -16454,7 +16451,7 @@
         <v>434</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -16468,7 +16465,7 @@
         <v>436</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -16482,7 +16479,7 @@
         <v>437</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -16496,7 +16493,7 @@
         <v>438</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -16510,7 +16507,7 @@
         <v>439</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -16524,7 +16521,7 @@
         <v>440</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -16580,7 +16577,7 @@
         <v>99</v>
       </c>
       <c r="D222" s="29" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
@@ -16846,7 +16843,7 @@
         <v>419</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -16860,7 +16857,7 @@
         <v>420</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -16930,7 +16927,7 @@
         <v>428</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -16944,7 +16941,7 @@
         <v>431</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -16958,7 +16955,7 @@
         <v>433</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -16972,7 +16969,7 @@
         <v>434</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -16986,7 +16983,7 @@
         <v>436</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -17000,7 +16997,7 @@
         <v>437</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -17014,7 +17011,7 @@
         <v>438</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -17028,7 +17025,7 @@
         <v>439</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -17042,7 +17039,7 @@
         <v>440</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -19618,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="29" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -19632,7 +19629,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -19646,7 +19643,7 @@
         <v>2</v>
       </c>
       <c r="D441" s="29" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -19660,7 +19657,7 @@
         <v>3</v>
       </c>
       <c r="D442" s="29" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -20766,7 +20763,7 @@
         <v>23</v>
       </c>
       <c r="D521" s="29" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -20780,7 +20777,7 @@
         <v>24</v>
       </c>
       <c r="D522" s="29" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -20794,7 +20791,7 @@
         <v>25</v>
       </c>
       <c r="D523" s="29" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -20808,7 +20805,7 @@
         <v>26</v>
       </c>
       <c r="D524" s="29" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -20822,7 +20819,7 @@
         <v>27</v>
       </c>
       <c r="D525" s="29" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -20836,7 +20833,7 @@
         <v>28</v>
       </c>
       <c r="D526" s="29" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -20850,7 +20847,7 @@
         <v>29</v>
       </c>
       <c r="D527" s="29" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -20864,7 +20861,7 @@
         <v>30</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -20878,7 +20875,7 @@
         <v>31</v>
       </c>
       <c r="D529" s="29" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -20892,7 +20889,7 @@
         <v>32</v>
       </c>
       <c r="D530" s="29" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -20906,7 +20903,7 @@
         <v>33</v>
       </c>
       <c r="D531" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -20920,7 +20917,7 @@
         <v>34</v>
       </c>
       <c r="D532" s="29" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -20934,7 +20931,7 @@
         <v>35</v>
       </c>
       <c r="D533" s="29" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -20948,7 +20945,7 @@
         <v>36</v>
       </c>
       <c r="D534" s="29" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -20962,7 +20959,7 @@
         <v>37</v>
       </c>
       <c r="D535" s="29" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -20976,7 +20973,7 @@
         <v>38</v>
       </c>
       <c r="D536" s="29" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -20990,7 +20987,7 @@
         <v>39</v>
       </c>
       <c r="D537" s="29" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -21004,7 +21001,7 @@
         <v>40</v>
       </c>
       <c r="D538" s="29" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -21018,7 +21015,7 @@
         <v>41</v>
       </c>
       <c r="D539" s="29" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -21032,7 +21029,7 @@
         <v>42</v>
       </c>
       <c r="D540" s="29" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -21046,7 +21043,7 @@
         <v>43</v>
       </c>
       <c r="D541" s="29" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -21060,7 +21057,7 @@
         <v>44</v>
       </c>
       <c r="D542" s="29" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -21116,7 +21113,7 @@
         <v>48</v>
       </c>
       <c r="D546" s="29" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
@@ -21665,7 +21662,7 @@
         <v>1110</v>
       </c>
       <c r="E582" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.45">
@@ -21843,7 +21840,7 @@
         <v>97</v>
       </c>
       <c r="D594" s="29" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
@@ -21857,7 +21854,7 @@
         <v>1015</v>
       </c>
       <c r="D595" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
@@ -21871,7 +21868,7 @@
         <v>1018</v>
       </c>
       <c r="D596" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
@@ -21885,7 +21882,7 @@
         <v>1019</v>
       </c>
       <c r="D597" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
@@ -21899,7 +21896,7 @@
         <v>1020</v>
       </c>
       <c r="D598" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
@@ -21913,7 +21910,7 @@
         <v>1021</v>
       </c>
       <c r="D599" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
@@ -21927,7 +21924,7 @@
         <v>1022</v>
       </c>
       <c r="D600" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
@@ -21941,7 +21938,7 @@
         <v>1023</v>
       </c>
       <c r="D601" s="29" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
@@ -21955,7 +21952,7 @@
         <v>1024</v>
       </c>
       <c r="D602" s="29" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
@@ -21969,7 +21966,7 @@
         <v>1025</v>
       </c>
       <c r="D603" s="29" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
@@ -21983,7 +21980,7 @@
         <v>1026</v>
       </c>
       <c r="D604" s="29" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
@@ -21997,7 +21994,7 @@
         <v>1027</v>
       </c>
       <c r="D605" s="29" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
@@ -22011,7 +22008,7 @@
         <v>1028</v>
       </c>
       <c r="D606" s="29" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
@@ -22025,7 +22022,7 @@
         <v>1029</v>
       </c>
       <c r="D607" s="29" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
@@ -22039,7 +22036,7 @@
         <v>1030</v>
       </c>
       <c r="D608" s="29" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
@@ -22053,7 +22050,7 @@
         <v>1031</v>
       </c>
       <c r="D609" s="29" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
@@ -22067,7 +22064,7 @@
         <v>1032</v>
       </c>
       <c r="D610" s="29" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
@@ -22081,7 +22078,7 @@
         <v>1033</v>
       </c>
       <c r="D611" s="29" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
@@ -22095,7 +22092,7 @@
         <v>1034</v>
       </c>
       <c r="D612" s="29" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
@@ -22109,7 +22106,7 @@
         <v>1035</v>
       </c>
       <c r="D613" s="29" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
@@ -22123,7 +22120,7 @@
         <v>1036</v>
       </c>
       <c r="D614" s="29" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
@@ -22137,7 +22134,7 @@
         <v>1037</v>
       </c>
       <c r="D615" s="29" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.45">
@@ -22151,7 +22148,7 @@
         <v>1038</v>
       </c>
       <c r="D616" s="29" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
@@ -22165,7 +22162,7 @@
         <v>1039</v>
       </c>
       <c r="D617" s="29" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
@@ -22179,7 +22176,7 @@
         <v>1040</v>
       </c>
       <c r="D618" s="29" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
@@ -22193,7 +22190,7 @@
         <v>1041</v>
       </c>
       <c r="D619" s="29" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
@@ -22207,7 +22204,7 @@
         <v>1042</v>
       </c>
       <c r="D620" s="29" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
@@ -22221,7 +22218,7 @@
         <v>1043</v>
       </c>
       <c r="D621" s="29" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
@@ -22235,7 +22232,7 @@
         <v>1044</v>
       </c>
       <c r="D622" s="29" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
@@ -22249,7 +22246,7 @@
         <v>1048</v>
       </c>
       <c r="D623" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
@@ -22263,7 +22260,7 @@
         <v>1115</v>
       </c>
       <c r="D624" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.45">
@@ -22277,7 +22274,7 @@
         <v>1118</v>
       </c>
       <c r="D625" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.45">
@@ -22291,7 +22288,7 @@
         <v>1119</v>
       </c>
       <c r="D626" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.45">
@@ -22305,7 +22302,7 @@
         <v>1120</v>
       </c>
       <c r="D627" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.45">
@@ -22319,7 +22316,7 @@
         <v>1121</v>
       </c>
       <c r="D628" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.45">
@@ -22333,7 +22330,7 @@
         <v>1122</v>
       </c>
       <c r="D629" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.45">
@@ -22347,7 +22344,7 @@
         <v>1123</v>
       </c>
       <c r="D630" s="29" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.45">
@@ -22361,7 +22358,7 @@
         <v>1124</v>
       </c>
       <c r="D631" s="29" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F631" s="26"/>
     </row>
@@ -22376,7 +22373,7 @@
         <v>1125</v>
       </c>
       <c r="D632" s="29" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F632" s="26"/>
     </row>
@@ -22391,7 +22388,7 @@
         <v>1126</v>
       </c>
       <c r="D633" s="29" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F633" s="26"/>
     </row>
@@ -22406,7 +22403,7 @@
         <v>1127</v>
       </c>
       <c r="D634" s="29" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F634" s="26"/>
     </row>
@@ -22421,7 +22418,7 @@
         <v>1128</v>
       </c>
       <c r="D635" s="29" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="F635" s="26"/>
     </row>
@@ -22436,7 +22433,7 @@
         <v>1129</v>
       </c>
       <c r="D636" s="29" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F636" s="26"/>
     </row>
@@ -22451,7 +22448,7 @@
         <v>1130</v>
       </c>
       <c r="D637" s="29" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F637" s="26"/>
     </row>
@@ -22466,7 +22463,7 @@
         <v>1131</v>
       </c>
       <c r="D638" s="29" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F638" s="26"/>
     </row>
@@ -22481,7 +22478,7 @@
         <v>1132</v>
       </c>
       <c r="D639" s="29" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F639" s="26"/>
     </row>
@@ -22496,7 +22493,7 @@
         <v>1133</v>
       </c>
       <c r="D640" s="29" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F640" s="26"/>
     </row>
@@ -22511,7 +22508,7 @@
         <v>1134</v>
       </c>
       <c r="D641" s="29" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F641" s="26"/>
     </row>
@@ -22526,7 +22523,7 @@
         <v>1135</v>
       </c>
       <c r="D642" s="29" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F642" s="26"/>
     </row>
@@ -22541,7 +22538,7 @@
         <v>1136</v>
       </c>
       <c r="D643" s="29" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F643" s="26"/>
     </row>
@@ -22556,7 +22553,7 @@
         <v>1137</v>
       </c>
       <c r="D644" s="29" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F644" s="26"/>
     </row>
@@ -22571,7 +22568,7 @@
         <v>1138</v>
       </c>
       <c r="D645" s="29" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F645" s="26"/>
     </row>
@@ -22586,7 +22583,7 @@
         <v>1139</v>
       </c>
       <c r="D646" s="29" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F646" s="26"/>
     </row>
@@ -22601,7 +22598,7 @@
         <v>1140</v>
       </c>
       <c r="D647" s="29" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F647" s="26"/>
     </row>
@@ -22616,7 +22613,7 @@
         <v>1141</v>
       </c>
       <c r="D648" s="29" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F648" s="26"/>
     </row>
@@ -22631,7 +22628,7 @@
         <v>1142</v>
       </c>
       <c r="D649" s="29" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F649" s="26"/>
     </row>
@@ -22646,7 +22643,7 @@
         <v>1143</v>
       </c>
       <c r="D650" s="29" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F650" s="26"/>
     </row>
@@ -22661,7 +22658,7 @@
         <v>1144</v>
       </c>
       <c r="D651" s="29" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F651" s="26"/>
     </row>
@@ -22676,7 +22673,7 @@
         <v>1148</v>
       </c>
       <c r="D652" s="29" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.45">
@@ -22719,7 +22716,7 @@
         <v>1215</v>
       </c>
       <c r="D655" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.45">
@@ -22733,7 +22730,7 @@
         <v>1218</v>
       </c>
       <c r="D656" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.45">
@@ -22747,7 +22744,7 @@
         <v>1219</v>
       </c>
       <c r="D657" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.45">
@@ -22761,7 +22758,7 @@
         <v>1220</v>
       </c>
       <c r="D658" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.45">
@@ -22775,7 +22772,7 @@
         <v>1221</v>
       </c>
       <c r="D659" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.45">
@@ -22789,7 +22786,7 @@
         <v>1222</v>
       </c>
       <c r="D660" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="F660" s="26"/>
     </row>
@@ -22804,7 +22801,7 @@
         <v>1223</v>
       </c>
       <c r="D661" s="29" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="F661" s="26"/>
     </row>
@@ -22819,7 +22816,7 @@
         <v>1224</v>
       </c>
       <c r="D662" s="29" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="F662" s="26"/>
     </row>
@@ -22834,7 +22831,7 @@
         <v>1225</v>
       </c>
       <c r="D663" s="29" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F663" s="26"/>
     </row>
@@ -22849,7 +22846,7 @@
         <v>1226</v>
       </c>
       <c r="D664" s="29" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F664" s="26"/>
     </row>
@@ -22864,7 +22861,7 @@
         <v>1227</v>
       </c>
       <c r="D665" s="29" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F665" s="26"/>
     </row>
@@ -22879,7 +22876,7 @@
         <v>1228</v>
       </c>
       <c r="D666" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F666" s="26"/>
     </row>
@@ -22894,7 +22891,7 @@
         <v>1229</v>
       </c>
       <c r="D667" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F667" s="26"/>
     </row>
@@ -22909,7 +22906,7 @@
         <v>1230</v>
       </c>
       <c r="D668" s="29" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F668" s="26"/>
     </row>
@@ -22924,7 +22921,7 @@
         <v>1231</v>
       </c>
       <c r="D669" s="29" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F669" s="26"/>
     </row>
@@ -22939,7 +22936,7 @@
         <v>1232</v>
       </c>
       <c r="D670" s="29" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F670" s="26"/>
     </row>
@@ -22954,7 +22951,7 @@
         <v>1233</v>
       </c>
       <c r="D671" s="29" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F671" s="26"/>
     </row>
@@ -22969,7 +22966,7 @@
         <v>1234</v>
       </c>
       <c r="D672" s="29" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F672" s="26"/>
     </row>
@@ -22984,7 +22981,7 @@
         <v>1235</v>
       </c>
       <c r="D673" s="29" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F673" s="26"/>
     </row>
@@ -22999,7 +22996,7 @@
         <v>1236</v>
       </c>
       <c r="D674" s="29" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F674" s="26"/>
     </row>
@@ -23014,7 +23011,7 @@
         <v>1237</v>
       </c>
       <c r="D675" s="29" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F675" s="26"/>
     </row>
@@ -23029,7 +23026,7 @@
         <v>1238</v>
       </c>
       <c r="D676" s="29" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F676" s="26"/>
     </row>
@@ -23044,7 +23041,7 @@
         <v>1239</v>
       </c>
       <c r="D677" s="29" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F677" s="26"/>
     </row>
@@ -23059,7 +23056,7 @@
         <v>1240</v>
       </c>
       <c r="D678" s="29" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F678" s="26"/>
     </row>
@@ -23074,7 +23071,7 @@
         <v>1241</v>
       </c>
       <c r="D679" s="29" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F679" s="26"/>
     </row>
@@ -23089,7 +23086,7 @@
         <v>1242</v>
       </c>
       <c r="D680" s="29" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F680" s="26"/>
     </row>
@@ -23104,7 +23101,7 @@
         <v>1243</v>
       </c>
       <c r="D681" s="29" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F681" s="26"/>
     </row>
@@ -23119,7 +23116,7 @@
         <v>1244</v>
       </c>
       <c r="D682" s="29" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.45">
@@ -23133,7 +23130,7 @@
         <v>1248</v>
       </c>
       <c r="D683" s="29" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.45">
@@ -23175,7 +23172,7 @@
         <v>1315</v>
       </c>
       <c r="D686" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.45">
@@ -23189,7 +23186,7 @@
         <v>1318</v>
       </c>
       <c r="D687" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.45">
@@ -23203,7 +23200,7 @@
         <v>1319</v>
       </c>
       <c r="D688" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.45">
@@ -23217,7 +23214,7 @@
         <v>1320</v>
       </c>
       <c r="D689" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.45">
@@ -23231,7 +23228,7 @@
         <v>1321</v>
       </c>
       <c r="D690" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.45">
@@ -23245,7 +23242,7 @@
         <v>1322</v>
       </c>
       <c r="D691" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F691" s="26"/>
     </row>
@@ -23260,7 +23257,7 @@
         <v>1323</v>
       </c>
       <c r="D692" s="29" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F692" s="26"/>
     </row>
@@ -23275,7 +23272,7 @@
         <v>1324</v>
       </c>
       <c r="D693" s="29" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F693" s="26"/>
     </row>
@@ -23290,7 +23287,7 @@
         <v>1325</v>
       </c>
       <c r="D694" s="29" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F694" s="26"/>
     </row>
@@ -23305,7 +23302,7 @@
         <v>1326</v>
       </c>
       <c r="D695" s="29" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F695" s="26"/>
     </row>
@@ -23320,7 +23317,7 @@
         <v>1327</v>
       </c>
       <c r="D696" s="29" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F696" s="26"/>
     </row>
@@ -23335,7 +23332,7 @@
         <v>1328</v>
       </c>
       <c r="D697" s="29" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F697" s="26"/>
     </row>
@@ -23350,7 +23347,7 @@
         <v>1329</v>
       </c>
       <c r="D698" s="29" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F698" s="26"/>
     </row>
@@ -23365,7 +23362,7 @@
         <v>1330</v>
       </c>
       <c r="D699" s="29" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F699" s="26"/>
     </row>
@@ -23380,7 +23377,7 @@
         <v>1331</v>
       </c>
       <c r="D700" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F700" s="26"/>
     </row>
@@ -23395,7 +23392,7 @@
         <v>1332</v>
       </c>
       <c r="D701" s="29" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F701" s="26"/>
     </row>
@@ -23410,7 +23407,7 @@
         <v>1333</v>
       </c>
       <c r="D702" s="29" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F702" s="26"/>
     </row>
@@ -23425,7 +23422,7 @@
         <v>1334</v>
       </c>
       <c r="D703" s="29" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F703" s="26"/>
     </row>
@@ -23440,7 +23437,7 @@
         <v>1335</v>
       </c>
       <c r="D704" s="29" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F704" s="26"/>
     </row>
@@ -23455,7 +23452,7 @@
         <v>1336</v>
       </c>
       <c r="D705" s="29" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F705" s="26"/>
     </row>
@@ -23470,7 +23467,7 @@
         <v>1337</v>
       </c>
       <c r="D706" s="29" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F706" s="26"/>
     </row>
@@ -23485,7 +23482,7 @@
         <v>1338</v>
       </c>
       <c r="D707" s="29" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F707" s="26"/>
     </row>
@@ -23500,7 +23497,7 @@
         <v>1339</v>
       </c>
       <c r="D708" s="29" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F708" s="26"/>
     </row>
@@ -23515,7 +23512,7 @@
         <v>1340</v>
       </c>
       <c r="D709" s="29" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F709" s="26"/>
     </row>
@@ -23530,7 +23527,7 @@
         <v>1341</v>
       </c>
       <c r="D710" s="29" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F710" s="26"/>
     </row>
@@ -23545,7 +23542,7 @@
         <v>1342</v>
       </c>
       <c r="D711" s="29" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F711" s="26"/>
     </row>
@@ -23560,7 +23557,7 @@
         <v>1343</v>
       </c>
       <c r="D712" s="29" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F712" s="26"/>
     </row>
@@ -23575,7 +23572,7 @@
         <v>1344</v>
       </c>
       <c r="D713" s="29" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.45">
@@ -23589,7 +23586,7 @@
         <v>1345</v>
       </c>
       <c r="D714" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.45">
@@ -23603,7 +23600,7 @@
         <v>1347</v>
       </c>
       <c r="D715" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.45">
@@ -23617,7 +23614,7 @@
         <v>1348</v>
       </c>
       <c r="D716" s="29" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.45">
@@ -23631,7 +23628,7 @@
         <v>1415</v>
       </c>
       <c r="D717" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.45">
@@ -23645,7 +23642,7 @@
         <v>1418</v>
       </c>
       <c r="D718" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.45">
@@ -23659,7 +23656,7 @@
         <v>1419</v>
       </c>
       <c r="D719" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.45">
@@ -23673,7 +23670,7 @@
         <v>1420</v>
       </c>
       <c r="D720" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.45">
@@ -23687,7 +23684,7 @@
         <v>1421</v>
       </c>
       <c r="D721" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.45">
@@ -23701,7 +23698,7 @@
         <v>1422</v>
       </c>
       <c r="D722" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F722" s="26"/>
     </row>
@@ -23716,7 +23713,7 @@
         <v>1423</v>
       </c>
       <c r="D723" s="29" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F723" s="26"/>
     </row>
@@ -23731,7 +23728,7 @@
         <v>1424</v>
       </c>
       <c r="D724" s="29" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F724" s="26"/>
     </row>
@@ -23746,7 +23743,7 @@
         <v>1425</v>
       </c>
       <c r="D725" s="29" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F725" s="26"/>
     </row>
@@ -23761,7 +23758,7 @@
         <v>1426</v>
       </c>
       <c r="D726" s="29" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="F726" s="26"/>
     </row>
@@ -23776,7 +23773,7 @@
         <v>1427</v>
       </c>
       <c r="D727" s="29" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F727" s="26"/>
     </row>
@@ -23791,7 +23788,7 @@
         <v>1428</v>
       </c>
       <c r="D728" s="29" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F728" s="26"/>
     </row>
@@ -23806,7 +23803,7 @@
         <v>1429</v>
       </c>
       <c r="D729" s="29" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F729" s="26"/>
     </row>
@@ -23821,7 +23818,7 @@
         <v>1430</v>
       </c>
       <c r="D730" s="29" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F730" s="26"/>
     </row>
@@ -23836,7 +23833,7 @@
         <v>1431</v>
       </c>
       <c r="D731" s="29" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F731" s="26"/>
     </row>
@@ -23851,7 +23848,7 @@
         <v>1432</v>
       </c>
       <c r="D732" s="29" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F732" s="26"/>
     </row>
@@ -23866,7 +23863,7 @@
         <v>1433</v>
       </c>
       <c r="D733" s="29" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F733" s="26"/>
     </row>
@@ -23881,7 +23878,7 @@
         <v>1434</v>
       </c>
       <c r="D734" s="29" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F734" s="26"/>
     </row>
@@ -23896,7 +23893,7 @@
         <v>1435</v>
       </c>
       <c r="D735" s="29" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F735" s="26"/>
     </row>
@@ -23911,7 +23908,7 @@
         <v>1436</v>
       </c>
       <c r="D736" s="29" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F736" s="26"/>
     </row>
@@ -23926,7 +23923,7 @@
         <v>1437</v>
       </c>
       <c r="D737" s="29" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F737" s="26"/>
     </row>
@@ -23941,7 +23938,7 @@
         <v>1438</v>
       </c>
       <c r="D738" s="29" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F738" s="26"/>
     </row>
@@ -23956,7 +23953,7 @@
         <v>1439</v>
       </c>
       <c r="D739" s="29" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F739" s="26"/>
     </row>
@@ -23971,7 +23968,7 @@
         <v>1440</v>
       </c>
       <c r="D740" s="29" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F740" s="26"/>
     </row>
@@ -23986,7 +23983,7 @@
         <v>1441</v>
       </c>
       <c r="D741" s="29" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F741" s="26"/>
     </row>
@@ -24001,7 +23998,7 @@
         <v>1442</v>
       </c>
       <c r="D742" s="29" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="F742" s="26"/>
     </row>
@@ -24016,7 +24013,7 @@
         <v>1443</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F743" s="26"/>
     </row>
@@ -24031,7 +24028,7 @@
         <v>1444</v>
       </c>
       <c r="D744" s="29" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.45">
@@ -24045,7 +24042,7 @@
         <v>1445</v>
       </c>
       <c r="D745" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.45">
@@ -24059,7 +24056,7 @@
         <v>1448</v>
       </c>
       <c r="D746" s="29" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.45">
@@ -24073,7 +24070,7 @@
         <v>1519</v>
       </c>
       <c r="D747" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.45">
@@ -24087,7 +24084,7 @@
         <v>1520</v>
       </c>
       <c r="D748" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.45">
@@ -24101,7 +24098,7 @@
         <v>1521</v>
       </c>
       <c r="D749" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.45">
@@ -24115,7 +24112,7 @@
         <v>1522</v>
       </c>
       <c r="D750" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.45">
@@ -24129,7 +24126,7 @@
         <v>1523</v>
       </c>
       <c r="D751" s="29" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.45">
@@ -24143,7 +24140,7 @@
         <v>1524</v>
       </c>
       <c r="D752" s="29" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.45">
@@ -24157,7 +24154,7 @@
         <v>1525</v>
       </c>
       <c r="D753" s="29" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.45">
@@ -24171,7 +24168,7 @@
         <v>1526</v>
       </c>
       <c r="D754" s="29" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.45">
@@ -24185,7 +24182,7 @@
         <v>1527</v>
       </c>
       <c r="D755" s="29" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.45">
@@ -24199,7 +24196,7 @@
         <v>1528</v>
       </c>
       <c r="D756" s="29" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.45">
@@ -24213,7 +24210,7 @@
         <v>1529</v>
       </c>
       <c r="D757" s="29" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.45">
@@ -24227,7 +24224,7 @@
         <v>1530</v>
       </c>
       <c r="D758" s="29" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.45">
@@ -24241,7 +24238,7 @@
         <v>1531</v>
       </c>
       <c r="D759" s="29" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.45">
@@ -24255,7 +24252,7 @@
         <v>1532</v>
       </c>
       <c r="D760" s="29" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.45">
@@ -24269,7 +24266,7 @@
         <v>1533</v>
       </c>
       <c r="D761" s="29" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.45">
@@ -24283,7 +24280,7 @@
         <v>1534</v>
       </c>
       <c r="D762" s="29" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.45">
@@ -24297,7 +24294,7 @@
         <v>1535</v>
       </c>
       <c r="D763" s="29" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.45">
@@ -24311,7 +24308,7 @@
         <v>1536</v>
       </c>
       <c r="D764" s="29" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.45">
@@ -24325,7 +24322,7 @@
         <v>1537</v>
       </c>
       <c r="D765" s="29" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.45">
@@ -24339,7 +24336,7 @@
         <v>1538</v>
       </c>
       <c r="D766" s="29" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.45">
@@ -24353,7 +24350,7 @@
         <v>1539</v>
       </c>
       <c r="D767" s="29" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.45">
@@ -24367,7 +24364,7 @@
         <v>1540</v>
       </c>
       <c r="D768" s="29" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.45">
@@ -24381,7 +24378,7 @@
         <v>1541</v>
       </c>
       <c r="D769" s="29" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.45">
@@ -24395,7 +24392,7 @@
         <v>1542</v>
       </c>
       <c r="D770" s="29" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.45">
@@ -24409,7 +24406,7 @@
         <v>1543</v>
       </c>
       <c r="D771" s="29" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.45">
@@ -24423,7 +24420,7 @@
         <v>1544</v>
       </c>
       <c r="D772" s="29" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.45">
@@ -24437,7 +24434,7 @@
         <v>1545</v>
       </c>
       <c r="D773" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.45">
@@ -24451,7 +24448,7 @@
         <v>1546</v>
       </c>
       <c r="D774" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.45">
@@ -24465,7 +24462,7 @@
         <v>1547</v>
       </c>
       <c r="D775" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
@@ -24479,7 +24476,7 @@
         <v>1548</v>
       </c>
       <c r="D776" s="29" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.45">
@@ -24535,7 +24532,7 @@
         <v>5056</v>
       </c>
       <c r="D780" s="29" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.45">
@@ -24549,7 +24546,7 @@
         <v>5057</v>
       </c>
       <c r="D781" s="29" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.45">
@@ -24563,7 +24560,7 @@
         <v>5058</v>
       </c>
       <c r="D782" s="29" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.45">
@@ -24577,7 +24574,7 @@
         <v>5059</v>
       </c>
       <c r="D783" s="29" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.45">
@@ -24591,7 +24588,7 @@
         <v>5060</v>
       </c>
       <c r="D784" s="29" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.45">
@@ -24605,7 +24602,7 @@
         <v>5061</v>
       </c>
       <c r="D785" s="29" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.45">
@@ -24619,7 +24616,7 @@
         <v>5062</v>
       </c>
       <c r="D786" s="29" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.45">
@@ -24633,7 +24630,7 @@
         <v>5063</v>
       </c>
       <c r="D787" s="29" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.45">
@@ -24647,7 +24644,7 @@
         <v>5064</v>
       </c>
       <c r="D788" s="29" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.45">
@@ -24661,7 +24658,7 @@
         <v>5065</v>
       </c>
       <c r="D789" s="29" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.45">
@@ -24675,7 +24672,7 @@
         <v>5066</v>
       </c>
       <c r="D790" s="29" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.45">
@@ -24689,7 +24686,7 @@
         <v>5067</v>
       </c>
       <c r="D791" s="29" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.45">
@@ -24703,7 +24700,7 @@
         <v>5068</v>
       </c>
       <c r="D792" s="29" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.45">
@@ -24717,7 +24714,7 @@
         <v>5069</v>
       </c>
       <c r="D793" s="29" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.45">
@@ -24731,7 +24728,7 @@
         <v>5070</v>
       </c>
       <c r="D794" s="29" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.45">
@@ -24745,7 +24742,7 @@
         <v>5071</v>
       </c>
       <c r="D795" s="29" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.45">
@@ -24759,7 +24756,7 @@
         <v>5072</v>
       </c>
       <c r="D796" s="29" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.45">
@@ -24773,7 +24770,7 @@
         <v>5073</v>
       </c>
       <c r="D797" s="29" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.45">
@@ -24787,7 +24784,7 @@
         <v>5074</v>
       </c>
       <c r="D798" s="29" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.45">
@@ -24801,7 +24798,7 @@
         <v>5075</v>
       </c>
       <c r="D799" s="29" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.45">
@@ -24815,7 +24812,7 @@
         <v>5076</v>
       </c>
       <c r="D800" s="29" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.45">
@@ -24829,7 +24826,7 @@
         <v>5077</v>
       </c>
       <c r="D801" s="29" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.45">
@@ -24843,7 +24840,7 @@
         <v>5078</v>
       </c>
       <c r="D802" s="29" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.45">
@@ -24857,7 +24854,7 @@
         <v>5079</v>
       </c>
       <c r="D803" s="29" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.45">
@@ -24871,7 +24868,7 @@
         <v>5080</v>
       </c>
       <c r="D804" s="29" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.45">
@@ -24927,7 +24924,7 @@
         <v>5084</v>
       </c>
       <c r="D808" s="29" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.45">
@@ -24941,7 +24938,7 @@
         <v>5085</v>
       </c>
       <c r="D809" s="29" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.45">
@@ -24955,7 +24952,7 @@
         <v>5097</v>
       </c>
       <c r="D810" s="29" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.45">
@@ -24969,7 +24966,7 @@
         <v>5153</v>
       </c>
       <c r="D811" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -24983,7 +24980,7 @@
         <v>5154</v>
       </c>
       <c r="D812" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.45">
@@ -24997,7 +24994,7 @@
         <v>5155</v>
       </c>
       <c r="D813" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.45">
@@ -25011,7 +25008,7 @@
         <v>5156</v>
       </c>
       <c r="D814" s="29" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.45">
@@ -25025,7 +25022,7 @@
         <v>5157</v>
       </c>
       <c r="D815" s="29" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.45">
@@ -25039,7 +25036,7 @@
         <v>5158</v>
       </c>
       <c r="D816" s="29" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.45">
@@ -25053,7 +25050,7 @@
         <v>5159</v>
       </c>
       <c r="D817" s="29" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.45">
@@ -25067,7 +25064,7 @@
         <v>5160</v>
       </c>
       <c r="D818" s="29" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.45">
@@ -25081,7 +25078,7 @@
         <v>5161</v>
       </c>
       <c r="D819" s="29" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.45">
@@ -25095,7 +25092,7 @@
         <v>5162</v>
       </c>
       <c r="D820" s="29" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.45">
@@ -25109,7 +25106,7 @@
         <v>5163</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.45">
@@ -25123,7 +25120,7 @@
         <v>5164</v>
       </c>
       <c r="D822" s="29" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.45">
@@ -25137,7 +25134,7 @@
         <v>5165</v>
       </c>
       <c r="D823" s="29" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.45">
@@ -25151,7 +25148,7 @@
         <v>5166</v>
       </c>
       <c r="D824" s="29" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.45">
@@ -25165,7 +25162,7 @@
         <v>5167</v>
       </c>
       <c r="D825" s="29" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.45">
@@ -25179,7 +25176,7 @@
         <v>5168</v>
       </c>
       <c r="D826" s="29" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.45">
@@ -25193,7 +25190,7 @@
         <v>5169</v>
       </c>
       <c r="D827" s="29" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.45">
@@ -25207,7 +25204,7 @@
         <v>5170</v>
       </c>
       <c r="D828" s="29" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.45">
@@ -25221,7 +25218,7 @@
         <v>5171</v>
       </c>
       <c r="D829" s="29" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.45">
@@ -25235,7 +25232,7 @@
         <v>5172</v>
       </c>
       <c r="D830" s="29" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.45">
@@ -25249,7 +25246,7 @@
         <v>5173</v>
       </c>
       <c r="D831" s="29" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.45">
@@ -25263,7 +25260,7 @@
         <v>5174</v>
       </c>
       <c r="D832" s="29" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.45">
@@ -25277,7 +25274,7 @@
         <v>5175</v>
       </c>
       <c r="D833" s="29" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.45">
@@ -25291,7 +25288,7 @@
         <v>5176</v>
       </c>
       <c r="D834" s="29" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.45">
@@ -25305,7 +25302,7 @@
         <v>5177</v>
       </c>
       <c r="D835" s="29" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.45">
@@ -25319,7 +25316,7 @@
         <v>5178</v>
       </c>
       <c r="D836" s="29" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.45">
@@ -25333,7 +25330,7 @@
         <v>5179</v>
       </c>
       <c r="D837" s="29" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.45">
@@ -25347,7 +25344,7 @@
         <v>5180</v>
       </c>
       <c r="D838" s="29" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.45">
@@ -25361,7 +25358,7 @@
         <v>5181</v>
       </c>
       <c r="D839" s="29" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.45">
@@ -25375,7 +25372,7 @@
         <v>5182</v>
       </c>
       <c r="D840" s="29" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.45">
@@ -25389,7 +25386,7 @@
         <v>5183</v>
       </c>
       <c r="D841" s="29" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.45">
@@ -25403,7 +25400,7 @@
         <v>5184</v>
       </c>
       <c r="D842" s="29" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.45">
@@ -25417,7 +25414,7 @@
         <v>5185</v>
       </c>
       <c r="D843" s="29" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.45">
@@ -25431,7 +25428,7 @@
         <v>5197</v>
       </c>
       <c r="D844" s="29" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.45">
@@ -25445,7 +25442,7 @@
         <v>5253</v>
       </c>
       <c r="D845" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25459,7 +25456,7 @@
         <v>5254</v>
       </c>
       <c r="D846" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.45">
@@ -25487,7 +25484,7 @@
         <v>5256</v>
       </c>
       <c r="D848" s="29" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.45">
@@ -25501,7 +25498,7 @@
         <v>5257</v>
       </c>
       <c r="D849" s="29" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.45">
@@ -25515,7 +25512,7 @@
         <v>5258</v>
       </c>
       <c r="D850" s="29" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.45">
@@ -25529,7 +25526,7 @@
         <v>5259</v>
       </c>
       <c r="D851" s="29" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.45">
@@ -25543,7 +25540,7 @@
         <v>5260</v>
       </c>
       <c r="D852" s="29" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.45">
@@ -25557,7 +25554,7 @@
         <v>5261</v>
       </c>
       <c r="D853" s="29" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.45">
@@ -25571,7 +25568,7 @@
         <v>5262</v>
       </c>
       <c r="D854" s="29" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.45">
@@ -25585,7 +25582,7 @@
         <v>5263</v>
       </c>
       <c r="D855" s="29" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.45">
@@ -25599,7 +25596,7 @@
         <v>5264</v>
       </c>
       <c r="D856" s="29" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.45">
@@ -25613,7 +25610,7 @@
         <v>5265</v>
       </c>
       <c r="D857" s="29" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.45">
@@ -25627,7 +25624,7 @@
         <v>5266</v>
       </c>
       <c r="D858" s="29" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.45">
@@ -25641,7 +25638,7 @@
         <v>5267</v>
       </c>
       <c r="D859" s="29" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.45">
@@ -25655,7 +25652,7 @@
         <v>5268</v>
       </c>
       <c r="D860" s="29" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.45">
@@ -25669,7 +25666,7 @@
         <v>5269</v>
       </c>
       <c r="D861" s="29" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.45">
@@ -25683,7 +25680,7 @@
         <v>5270</v>
       </c>
       <c r="D862" s="29" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.45">
@@ -25697,7 +25694,7 @@
         <v>5271</v>
       </c>
       <c r="D863" s="29" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.45">
@@ -25711,7 +25708,7 @@
         <v>5272</v>
       </c>
       <c r="D864" s="29" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.45">
@@ -25725,7 +25722,7 @@
         <v>5273</v>
       </c>
       <c r="D865" s="29" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.45">
@@ -25739,7 +25736,7 @@
         <v>5274</v>
       </c>
       <c r="D866" s="29" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.45">
@@ -25753,7 +25750,7 @@
         <v>5275</v>
       </c>
       <c r="D867" s="29" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.45">
@@ -25767,7 +25764,7 @@
         <v>5276</v>
       </c>
       <c r="D868" s="29" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.45">
@@ -25781,7 +25778,7 @@
         <v>5277</v>
       </c>
       <c r="D869" s="29" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.45">
@@ -25795,7 +25792,7 @@
         <v>5278</v>
       </c>
       <c r="D870" s="29" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.45">
@@ -25809,7 +25806,7 @@
         <v>5279</v>
       </c>
       <c r="D871" s="29" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.45">
@@ -25823,7 +25820,7 @@
         <v>5280</v>
       </c>
       <c r="D872" s="29" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.45">
@@ -25851,7 +25848,7 @@
         <v>5282</v>
       </c>
       <c r="D874" s="29" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.45">
@@ -25879,7 +25876,7 @@
         <v>5284</v>
       </c>
       <c r="D876" s="29" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.45">
@@ -25893,7 +25890,7 @@
         <v>5285</v>
       </c>
       <c r="D877" s="29" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
@@ -25907,7 +25904,7 @@
         <v>5297</v>
       </c>
       <c r="D878" s="29" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
@@ -26537,7 +26534,7 @@
         <v>101</v>
       </c>
       <c r="D923" s="29" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.45">
@@ -26551,7 +26548,7 @@
         <v>102</v>
       </c>
       <c r="D924" s="29" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.45">
@@ -26565,7 +26562,7 @@
         <v>103</v>
       </c>
       <c r="D925" s="29" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.45">
@@ -26579,7 +26576,7 @@
         <v>104</v>
       </c>
       <c r="D926" s="29" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.45">
@@ -26593,7 +26590,7 @@
         <v>105</v>
       </c>
       <c r="D927" s="29" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.45">
@@ -26607,7 +26604,7 @@
         <v>106</v>
       </c>
       <c r="D928" s="29" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.45">
@@ -26621,7 +26618,7 @@
         <v>107</v>
       </c>
       <c r="D929" s="29" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.45">
@@ -26635,7 +26632,7 @@
         <v>108</v>
       </c>
       <c r="D930" s="29" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.45">
@@ -26649,7 +26646,7 @@
         <v>109</v>
       </c>
       <c r="D931" s="29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.45">
@@ -26663,7 +26660,7 @@
         <v>110</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.45">
@@ -26677,7 +26674,7 @@
         <v>111</v>
       </c>
       <c r="D933" s="29" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.45">
@@ -26691,7 +26688,7 @@
         <v>112</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.45">
@@ -26705,7 +26702,7 @@
         <v>113</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.45">
@@ -26719,7 +26716,7 @@
         <v>114</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.45">
@@ -26733,7 +26730,7 @@
         <v>115</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.45">
@@ -26747,7 +26744,7 @@
         <v>116</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.45">
@@ -26761,7 +26758,7 @@
         <v>117</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.45">
@@ -26775,7 +26772,7 @@
         <v>118</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.45">
@@ -26789,7 +26786,7 @@
         <v>119</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.45">
@@ -26803,7 +26800,7 @@
         <v>120</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.45">
@@ -26817,7 +26814,7 @@
         <v>121</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.45">
@@ -26831,7 +26828,7 @@
         <v>122</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.45">
@@ -26845,7 +26842,7 @@
         <v>123</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.45">
@@ -26859,7 +26856,7 @@
         <v>124</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.45">
@@ -26873,7 +26870,7 @@
         <v>125</v>
       </c>
       <c r="D947" s="29" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.45">
@@ -26887,7 +26884,7 @@
         <v>126</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.45">
@@ -26901,7 +26898,7 @@
         <v>127</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.45">
@@ -26915,7 +26912,7 @@
         <v>128</v>
       </c>
       <c r="D950" s="29" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.45">
@@ -26929,7 +26926,7 @@
         <v>129</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.45">
@@ -26943,7 +26940,7 @@
         <v>130</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.45">
@@ -26957,7 +26954,7 @@
         <v>131</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.45">
@@ -26971,7 +26968,7 @@
         <v>132</v>
       </c>
       <c r="D954" s="29" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.45">
@@ -26985,7 +26982,7 @@
         <v>133</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.45">
@@ -26999,7 +26996,7 @@
         <v>134</v>
       </c>
       <c r="D956" s="29" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.45">
@@ -27013,7 +27010,7 @@
         <v>135</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.45">
@@ -27027,7 +27024,7 @@
         <v>136</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -27041,7 +27038,7 @@
         <v>901</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E959" s="3"/>
     </row>
@@ -27056,7 +27053,7 @@
         <v>902</v>
       </c>
       <c r="D960" s="28" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E960" s="3"/>
     </row>
@@ -27071,7 +27068,7 @@
         <v>903</v>
       </c>
       <c r="D961" s="28" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E961" s="3"/>
     </row>
@@ -27086,7 +27083,7 @@
         <v>904</v>
       </c>
       <c r="D962" s="28" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E962" s="3"/>
     </row>
@@ -27101,7 +27098,7 @@
         <v>905</v>
       </c>
       <c r="D963" s="28" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E963" s="3"/>
     </row>
@@ -27116,7 +27113,7 @@
         <v>906</v>
       </c>
       <c r="D964" s="28" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E964" s="3"/>
     </row>
@@ -27131,7 +27128,7 @@
         <v>907</v>
       </c>
       <c r="D965" s="28" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E965" s="3"/>
     </row>
@@ -27146,7 +27143,7 @@
         <v>908</v>
       </c>
       <c r="D966" s="28" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E966" s="3"/>
     </row>
@@ -27161,7 +27158,7 @@
         <v>909</v>
       </c>
       <c r="D967" s="28" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E967" s="3"/>
     </row>
@@ -27176,7 +27173,7 @@
         <v>910</v>
       </c>
       <c r="D968" s="28" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E968" s="3"/>
     </row>
@@ -27191,7 +27188,7 @@
         <v>911</v>
       </c>
       <c r="D969" s="28" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E969" s="3"/>
     </row>
@@ -27206,7 +27203,7 @@
         <v>912</v>
       </c>
       <c r="D970" s="28" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E970" s="3"/>
     </row>
@@ -27221,7 +27218,7 @@
         <v>913</v>
       </c>
       <c r="D971" s="28" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E971" s="3"/>
     </row>
@@ -27236,7 +27233,7 @@
         <v>914</v>
       </c>
       <c r="D972" s="28" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E972" s="3"/>
     </row>
@@ -27251,7 +27248,7 @@
         <v>915</v>
       </c>
       <c r="D973" s="28" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E973" s="3"/>
     </row>
@@ -27266,7 +27263,7 @@
         <v>916</v>
       </c>
       <c r="D974" s="28" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E974" s="3"/>
     </row>
@@ -27281,7 +27278,7 @@
         <v>917</v>
       </c>
       <c r="D975" s="28" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E975" s="3"/>
     </row>
@@ -27296,7 +27293,7 @@
         <v>918</v>
       </c>
       <c r="D976" s="28" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E976" s="3"/>
     </row>
@@ -27311,7 +27308,7 @@
         <v>919</v>
       </c>
       <c r="D977" s="28" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E977" s="3"/>
     </row>
@@ -27326,7 +27323,7 @@
         <v>920</v>
       </c>
       <c r="D978" s="29" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E978" s="3"/>
     </row>
@@ -28223,7 +28220,7 @@
         <v>53</v>
       </c>
       <c r="D1042" s="29" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.45">
@@ -28237,7 +28234,7 @@
         <v>54</v>
       </c>
       <c r="D1043" s="29" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.45">
@@ -28251,7 +28248,7 @@
         <v>55</v>
       </c>
       <c r="D1044" s="29" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.45">
@@ -28447,7 +28444,7 @@
         <v>0</v>
       </c>
       <c r="D1058" s="29" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.45">
@@ -28489,7 +28486,7 @@
         <v>3</v>
       </c>
       <c r="D1061" s="29" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28503,7 +28500,7 @@
         <v>4</v>
       </c>
       <c r="D1062" s="29" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.45">
@@ -28517,7 +28514,7 @@
         <v>9</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.45">
@@ -28713,7 +28710,7 @@
         <v>0</v>
       </c>
       <c r="D1077" s="29" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.45">
@@ -28741,7 +28738,7 @@
         <v>2</v>
       </c>
       <c r="D1079" s="29" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
@@ -28759,9 +28756,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B76:B93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28847,7 +28844,7 @@
         <v>698</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -28873,7 +28870,7 @@
         <v>698</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -28899,7 +28896,7 @@
         <v>698</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -28925,7 +28922,7 @@
         <v>698</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28951,7 +28948,7 @@
         <v>698</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -28977,7 +28974,7 @@
         <v>698</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -29003,7 +29000,7 @@
         <v>698</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -29029,7 +29026,7 @@
         <v>698</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -29055,7 +29052,7 @@
         <v>698</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -29779,7 +29776,7 @@
         <v>698</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30149,7 +30146,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C58" s="36" t="s">
         <v>692</v>
@@ -30175,7 +30172,7 @@
         <v>102</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C59" s="36" t="s">
         <v>692</v>
@@ -30201,7 +30198,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>692</v>
@@ -30227,7 +30224,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>692</v>
@@ -30253,7 +30250,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>692</v>
@@ -30279,7 +30276,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>692</v>
@@ -30305,7 +30302,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>692</v>
@@ -30331,7 +30328,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>692</v>
@@ -30357,7 +30354,7 @@
         <v>109</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>692</v>
@@ -30383,7 +30380,7 @@
         <v>110</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>692</v>
@@ -30409,7 +30406,7 @@
         <v>111</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>692</v>
@@ -30435,7 +30432,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>692</v>
@@ -30461,7 +30458,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>692</v>
@@ -30487,7 +30484,7 @@
         <v>114</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>692</v>
@@ -30513,7 +30510,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>692</v>
@@ -30539,7 +30536,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>692</v>
@@ -30565,7 +30562,7 @@
         <v>117</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>692</v>
@@ -30591,7 +30588,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>692</v>
@@ -30617,7 +30614,7 @@
         <v>119</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>692</v>
@@ -30643,7 +30640,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>692</v>
@@ -30669,7 +30666,7 @@
         <v>121</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>692</v>
@@ -30695,7 +30692,7 @@
         <v>122</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>692</v>
@@ -30721,7 +30718,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C80" s="36" t="s">
         <v>692</v>
@@ -30747,7 +30744,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C81" s="36" t="s">
         <v>692</v>
@@ -30773,7 +30770,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C82" s="36" t="s">
         <v>692</v>
@@ -30799,7 +30796,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>692</v>
@@ -30825,7 +30822,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>692</v>
@@ -30851,7 +30848,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C85" s="36" t="s">
         <v>692</v>
@@ -30877,7 +30874,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>692</v>
@@ -30903,7 +30900,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>692</v>
@@ -30929,7 +30926,7 @@
         <v>131</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C88" s="36" t="s">
         <v>692</v>
@@ -30955,7 +30952,7 @@
         <v>132</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C89" s="36" t="s">
         <v>692</v>
@@ -30981,7 +30978,7 @@
         <v>133</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C90" s="36" t="s">
         <v>692</v>
@@ -31007,7 +31004,7 @@
         <v>134</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C91" s="36" t="s">
         <v>692</v>
@@ -31033,7 +31030,7 @@
         <v>135</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C92" s="36" t="s">
         <v>692</v>
@@ -31059,7 +31056,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C93" s="36" t="s">
         <v>692</v>
@@ -31115,7 +31112,7 @@
         <v>698</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -31141,7 +31138,7 @@
         <v>698</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -31167,7 +31164,7 @@
         <v>698</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>1497</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31257,7 +31254,7 @@
         <v>698</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>1111</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -31283,7 +31280,7 @@
         <v>698</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>1111</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -31309,7 +31306,7 @@
         <v>698</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>1112</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31381,7 +31378,7 @@
         <v>901</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
@@ -31407,7 +31404,7 @@
         <v>902</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C108" s="11">
         <v>1</v>
@@ -31433,7 +31430,7 @@
         <v>903</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
@@ -31459,7 +31456,7 @@
         <v>904</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="C110" s="11">
         <v>1</v>
@@ -31485,7 +31482,7 @@
         <v>905</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
@@ -31511,7 +31508,7 @@
         <v>906</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C112" s="11">
         <v>1</v>
@@ -31537,7 +31534,7 @@
         <v>907</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C113" s="11">
         <v>1</v>
@@ -31563,7 +31560,7 @@
         <v>908</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="C114" s="11">
         <v>1</v>
@@ -31589,7 +31586,7 @@
         <v>909</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C115" s="11">
         <v>1</v>
@@ -31615,7 +31612,7 @@
         <v>910</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C116" s="11">
         <v>1</v>
@@ -31641,7 +31638,7 @@
         <v>911</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C117" s="11">
         <v>1</v>
@@ -31667,7 +31664,7 @@
         <v>912</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="C118" s="11">
         <v>1</v>
@@ -31693,7 +31690,7 @@
         <v>913</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
@@ -31719,7 +31716,7 @@
         <v>914</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
@@ -31745,7 +31742,7 @@
         <v>915</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C121" s="11">
         <v>1</v>
@@ -31771,7 +31768,7 @@
         <v>916</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="C122" s="11">
         <v>1</v>
@@ -31797,7 +31794,7 @@
         <v>917</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C123" s="11">
         <v>1</v>
@@ -31823,7 +31820,7 @@
         <v>918</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C124" s="11">
         <v>1</v>
@@ -31849,7 +31846,7 @@
         <v>919</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C125" s="11">
         <v>1</v>
@@ -31875,7 +31872,7 @@
         <v>920</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="C126" s="11">
         <v>1</v>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC4EEFBB-418E-4322-B384-6D767F518E36}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF3D9ED-1D49-4FBB-8E91-4DC8661628C1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1556">
   <si>
     <t>File ID</t>
   </si>
@@ -3311,9 +3311,6 @@
     <t>Must match a ProjectID in Project.csv where RRHSubType is null or 0</t>
   </si>
   <si>
-    <t>ParticipationID</t>
-  </si>
-  <si>
     <t>HMISParticipationType</t>
   </si>
   <si>
@@ -4298,9 +4295,6 @@
     <t>Data missing or invalid</t>
   </si>
   <si>
-    <t>Average days to return after exit to unknown destination</t>
-  </si>
-  <si>
     <t>Average days to return after exit to Emergency shelter, including hotel or motel paid for with emergency shelter voucher, Host Home shelter</t>
   </si>
   <si>
@@ -4353,9 +4347,6 @@
   </si>
   <si>
     <t>Average days to return after exit to Owned by client, no ongoing housing subsidy</t>
-  </si>
-  <si>
-    <t>Average days to return after exit to Other</t>
   </si>
   <si>
     <t>Average days to return after exit to Owned by client, with ongoing housing subsidy</t>
@@ -4729,6 +4720,12 @@
   </si>
   <si>
     <t xml:space="preserve">Disability Status  for adults and heads of household based on records of 3.08 Disabling Condition for all active enrollments; not applicable (value = -1) for non-HoH children.  </t>
+  </si>
+  <si>
+    <t>Average days to return after exit with missing/invalid destination</t>
+  </si>
+  <si>
+    <t>HMISParticipationID</t>
   </si>
 </sst>
 </file>
@@ -4962,6 +4959,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5264,7 +5265,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5321,7 +5322,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -5338,7 +5339,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -5352,10 +5353,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -5403,7 +5404,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>1073</v>
@@ -5454,7 +5455,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>528</v>
@@ -5471,7 +5472,7 @@
         <v>1074</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>1076</v>
@@ -5488,7 +5489,7 @@
         <v>1075</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>1076</v>
@@ -5508,7 +5509,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5678,7 +5679,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -5704,7 +5705,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5730,7 +5731,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5756,7 +5757,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5782,7 +5783,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -6524,7 +6525,7 @@
         <v>364</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -6611,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -6631,7 +6632,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>38</v>
@@ -6643,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="J41" s="3">
         <v>5</v>
@@ -6939,7 +6940,7 @@
         <v>96</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -7029,7 +7030,7 @@
         <v>102</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -7322,7 +7323,7 @@
         <v>122</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -7412,7 +7413,7 @@
         <v>128</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -7705,7 +7706,7 @@
         <v>148</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -7795,7 +7796,7 @@
         <v>154</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
@@ -8276,7 +8277,7 @@
         <v>65</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>38</v>
@@ -8288,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>1076</v>
@@ -8308,7 +8309,7 @@
         <v>66</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>38</v>
@@ -8320,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>1076</v>
@@ -8404,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>1058</v>
@@ -8436,10 +8437,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I102" s="7" t="s">
         <v>1523</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>1526</v>
       </c>
       <c r="J102" s="3">
         <v>7</v>
@@ -8497,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="J104" s="3">
         <v>2</v>
@@ -9993,7 +9994,7 @@
         <v>57</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>38</v>
@@ -10005,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="28"/>
@@ -10021,7 +10022,7 @@
         <v>58</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>38</v>
@@ -10033,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="28"/>
@@ -10049,7 +10050,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>38</v>
@@ -10061,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="28"/>
@@ -10077,7 +10078,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>38</v>
@@ -10089,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="28"/>
@@ -10105,7 +10106,7 @@
         <v>61</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>38</v>
@@ -10117,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="28"/>
@@ -10133,7 +10134,7 @@
         <v>62</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>38</v>
@@ -10145,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="28"/>
@@ -10161,7 +10162,7 @@
         <v>63</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>38</v>
@@ -10173,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="28"/>
@@ -10189,7 +10190,7 @@
         <v>64</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>38</v>
@@ -10201,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="28"/>
@@ -10217,7 +10218,7 @@
         <v>65</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>38</v>
@@ -10229,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="28"/>
@@ -10245,7 +10246,7 @@
         <v>66</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>38</v>
@@ -10257,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="28"/>
@@ -10542,7 +10543,7 @@
         <v>364</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="J175" s="3">
         <v>1</v>
@@ -10603,7 +10604,7 @@
         <v>363</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="J177" s="3">
         <v>1</v>
@@ -10620,7 +10621,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>38</v>
@@ -10632,10 +10633,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="J178" s="3">
         <v>5</v>
@@ -10953,7 +10954,7 @@
         <v>307</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -10988,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J191" s="3">
         <v>2</v>
@@ -11035,7 +11036,7 @@
         <v>309</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3">
@@ -11059,7 +11060,7 @@
         <v>310</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3">
@@ -11115,7 +11116,7 @@
         <v>311</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -11193,7 +11194,7 @@
         <v>314</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3">
@@ -11247,7 +11248,7 @@
         <v>316</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3">
@@ -11274,7 +11275,7 @@
         <v>307</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
@@ -11298,7 +11299,7 @@
         <v>309</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
@@ -11322,7 +11323,7 @@
         <v>317</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
@@ -11349,7 +11350,7 @@
         <v>318</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
@@ -11485,8 +11486,8 @@
       <c r="F210" s="3">
         <v>37</v>
       </c>
-      <c r="G210" s="3">
-        <v>0</v>
+      <c r="G210" s="28">
+        <v>1</v>
       </c>
       <c r="J210" s="3">
         <v>1</v>
@@ -11509,7 +11510,7 @@
         <v>38</v>
       </c>
       <c r="F211" s="28">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G211" s="28">
         <v>0</v>
@@ -11697,7 +11698,7 @@
         <v>314</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3">
@@ -11751,7 +11752,7 @@
         <v>316</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3">
@@ -11778,7 +11779,7 @@
         <v>327</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3">
@@ -11802,7 +11803,7 @@
         <v>307</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -11835,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -11855,13 +11856,13 @@
         <v>328</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="J224" s="28">
         <v>100</v>
@@ -11881,7 +11882,7 @@
         <v>329</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
@@ -11890,7 +11891,7 @@
         <v>647</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="J225" s="28">
         <v>100</v>
@@ -12002,7 +12003,7 @@
         <v>314</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -12054,7 +12055,7 @@
         <v>316</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
@@ -12080,7 +12081,7 @@
         <v>332</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G233" s="3">
         <v>0</v>
@@ -12103,7 +12104,7 @@
         <v>307</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G234" s="3">
         <v>0</v>
@@ -12126,7 +12127,7 @@
         <v>333</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="G235" s="3">
         <v>0</v>
@@ -12152,7 +12153,7 @@
         <v>334</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="G236" s="3">
         <v>0</v>
@@ -12175,7 +12176,7 @@
         <v>335</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
@@ -12198,7 +12199,7 @@
         <v>336</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G238" s="3">
         <v>1</v>
@@ -12221,7 +12222,7 @@
         <v>337</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="G239" s="3">
         <v>1</v>
@@ -12244,7 +12245,7 @@
         <v>338</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G240" s="3">
         <v>1</v>
@@ -12267,7 +12268,7 @@
         <v>339</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12362,7 +12363,7 @@
         <v>314</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -12414,7 +12415,7 @@
         <v>316</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G247" s="3">
         <v>0</v>
@@ -12440,7 +12441,7 @@
         <v>341</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -12463,7 +12464,7 @@
         <v>307</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -12486,7 +12487,7 @@
         <v>333</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="G250" s="3">
         <v>0</v>
@@ -12889,7 +12890,7 @@
         <v>314</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G267" s="3">
         <v>1</v>
@@ -12941,7 +12942,7 @@
         <v>316</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="G269" s="3">
         <v>0</v>
@@ -12964,10 +12965,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1084</v>
+        <v>1555</v>
       </c>
       <c r="E270" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="28">
@@ -12993,7 +12994,7 @@
         <v>307</v>
       </c>
       <c r="E271" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="28">
@@ -13018,7 +13019,7 @@
         <v>3</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E272" s="28" t="s">
         <v>38</v>
@@ -13044,7 +13045,7 @@
         <v>4</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E273" s="28" t="s">
         <v>41</v>
@@ -13070,7 +13071,7 @@
         <v>5</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E274" s="28" t="s">
         <v>41</v>
@@ -13151,7 +13152,7 @@
         <v>314</v>
       </c>
       <c r="E277" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="28">
@@ -13207,7 +13208,7 @@
         <v>316</v>
       </c>
       <c r="E279" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="28">
@@ -13235,7 +13236,7 @@
         <v>1080</v>
       </c>
       <c r="E280" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="28">
@@ -13261,7 +13262,7 @@
         <v>307</v>
       </c>
       <c r="E281" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="28">
@@ -13289,7 +13290,7 @@
         <v>1081</v>
       </c>
       <c r="E282" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="28">
@@ -13369,7 +13370,7 @@
         <v>314</v>
       </c>
       <c r="E285" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="28">
@@ -13425,7 +13426,7 @@
         <v>316</v>
       </c>
       <c r="E287" s="28" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="28">
@@ -13453,7 +13454,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13776,7 +13777,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -13790,7 +13791,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C24" s="29">
         <v>2</v>
@@ -13804,7 +13805,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C25" s="29">
         <v>3</v>
@@ -13818,7 +13819,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C26" s="29">
         <v>4</v>
@@ -13832,7 +13833,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C27" s="29">
         <v>5</v>
@@ -13846,7 +13847,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C28" s="29">
         <v>6</v>
@@ -13860,7 +13861,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C29" s="29">
         <v>7</v>
@@ -13874,7 +13875,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
@@ -13888,7 +13889,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C31" s="29">
         <v>13</v>
@@ -13902,7 +13903,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C32" s="29">
         <v>14</v>
@@ -13916,7 +13917,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C33" s="29">
         <v>15</v>
@@ -13930,7 +13931,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C34" s="29">
         <v>16</v>
@@ -13944,7 +13945,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C35" s="29">
         <v>17</v>
@@ -13958,7 +13959,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C36" s="29">
         <v>23</v>
@@ -13972,7 +13973,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C37" s="29">
         <v>24</v>
@@ -13986,7 +13987,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C38" s="29">
         <v>25</v>
@@ -14000,7 +14001,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C39" s="29">
         <v>26</v>
@@ -14014,7 +14015,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C40" s="29">
         <v>27</v>
@@ -14028,7 +14029,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C41" s="29">
         <v>34</v>
@@ -14042,7 +14043,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C42" s="29">
         <v>35</v>
@@ -14056,7 +14057,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C43" s="29">
         <v>36</v>
@@ -14070,7 +14071,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C44" s="29">
         <v>37</v>
@@ -14084,7 +14085,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C45" s="29">
         <v>45</v>
@@ -14098,7 +14099,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C46" s="29">
         <v>46</v>
@@ -14112,7 +14113,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C47" s="29">
         <v>47</v>
@@ -14126,7 +14127,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C48" s="29">
         <v>56</v>
@@ -14140,7 +14141,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C49" s="29">
         <v>57</v>
@@ -14154,7 +14155,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C50" s="29">
         <v>67</v>
@@ -14168,7 +14169,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C51" s="29">
         <v>98</v>
@@ -14182,7 +14183,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C52" s="29">
         <v>99</v>
@@ -14196,7 +14197,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C53" s="29">
         <v>123</v>
@@ -14210,7 +14211,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C54" s="29">
         <v>124</v>
@@ -14224,7 +14225,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C55" s="29">
         <v>125</v>
@@ -14238,7 +14239,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C56" s="29">
         <v>126</v>
@@ -14252,7 +14253,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C57" s="29">
         <v>127</v>
@@ -14266,7 +14267,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C58" s="29">
         <v>134</v>
@@ -14280,7 +14281,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C59" s="29">
         <v>135</v>
@@ -14294,7 +14295,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C60" s="29">
         <v>136</v>
@@ -14308,7 +14309,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C61" s="29">
         <v>137</v>
@@ -14322,7 +14323,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C62" s="29">
         <v>145</v>
@@ -14336,7 +14337,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C63" s="29">
         <v>146</v>
@@ -14350,7 +14351,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C64" s="29">
         <v>147</v>
@@ -14364,7 +14365,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C65" s="29">
         <v>156</v>
@@ -14378,7 +14379,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C66" s="29">
         <v>157</v>
@@ -14392,7 +14393,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C67" s="29">
         <v>167</v>
@@ -14406,7 +14407,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C68" s="29">
         <v>234</v>
@@ -14420,7 +14421,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C69" s="29">
         <v>235</v>
@@ -14434,7 +14435,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C70" s="29">
         <v>236</v>
@@ -14448,7 +14449,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C71" s="29">
         <v>237</v>
@@ -14462,7 +14463,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C72" s="29">
         <v>245</v>
@@ -14476,7 +14477,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C73" s="29">
         <v>246</v>
@@ -14490,7 +14491,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C74" s="29">
         <v>247</v>
@@ -14504,7 +14505,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C75" s="29">
         <v>256</v>
@@ -14518,7 +14519,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C76" s="29">
         <v>257</v>
@@ -14532,7 +14533,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C77" s="29">
         <v>267</v>
@@ -14546,7 +14547,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C78" s="29">
         <v>345</v>
@@ -14560,7 +14561,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C79" s="29">
         <v>346</v>
@@ -14574,7 +14575,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C80" s="29">
         <v>347</v>
@@ -14588,7 +14589,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C81" s="29">
         <v>356</v>
@@ -14602,7 +14603,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C82" s="29">
         <v>357</v>
@@ -14616,7 +14617,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C83" s="29">
         <v>367</v>
@@ -14630,7 +14631,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C84" s="29">
         <v>456</v>
@@ -14644,7 +14645,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C85" s="29">
         <v>457</v>
@@ -14658,7 +14659,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C86" s="29">
         <v>467</v>
@@ -14672,7 +14673,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C87" s="29">
         <v>567</v>
@@ -14686,7 +14687,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C88" s="29">
         <v>1234</v>
@@ -14700,7 +14701,7 @@
         <v>6</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C89" s="29">
         <v>1235</v>
@@ -14714,7 +14715,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C90" s="29">
         <v>1236</v>
@@ -14728,7 +14729,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C91" s="29">
         <v>1237</v>
@@ -14742,7 +14743,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C92" s="29">
         <v>1245</v>
@@ -14756,7 +14757,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C93" s="29">
         <v>1246</v>
@@ -14770,7 +14771,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C94" s="29">
         <v>1247</v>
@@ -14784,7 +14785,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C95" s="29">
         <v>1256</v>
@@ -14798,7 +14799,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C96" s="29">
         <v>1257</v>
@@ -14812,7 +14813,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C97" s="29">
         <v>1267</v>
@@ -14826,7 +14827,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C98" s="29">
         <v>1345</v>
@@ -14840,7 +14841,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C99" s="29">
         <v>1346</v>
@@ -14854,7 +14855,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C100" s="29">
         <v>1347</v>
@@ -14868,7 +14869,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C101" s="29">
         <v>1356</v>
@@ -14882,7 +14883,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C102" s="29">
         <v>1357</v>
@@ -14896,7 +14897,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C103" s="29">
         <v>1367</v>
@@ -14910,7 +14911,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C104" s="29">
         <v>1456</v>
@@ -14924,7 +14925,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C105" s="29">
         <v>1457</v>
@@ -14938,7 +14939,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C106" s="29">
         <v>1467</v>
@@ -14952,7 +14953,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C107" s="29">
         <v>1567</v>
@@ -14966,7 +14967,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C108" s="29">
         <v>2345</v>
@@ -14980,7 +14981,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C109" s="29">
         <v>2346</v>
@@ -14994,7 +14995,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C110" s="29">
         <v>2347</v>
@@ -15008,7 +15009,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C111" s="29">
         <v>2356</v>
@@ -15022,7 +15023,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C112" s="29">
         <v>2357</v>
@@ -15036,7 +15037,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C113" s="29">
         <v>2367</v>
@@ -15050,7 +15051,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C114" s="29">
         <v>2456</v>
@@ -15064,7 +15065,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C115" s="29">
         <v>2457</v>
@@ -15078,7 +15079,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C116" s="29">
         <v>2467</v>
@@ -15092,7 +15093,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C117" s="29">
         <v>2567</v>
@@ -15106,7 +15107,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C118" s="29">
         <v>3456</v>
@@ -15120,7 +15121,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C119" s="29">
         <v>3457</v>
@@ -15134,7 +15135,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C120" s="29">
         <v>3467</v>
@@ -15148,7 +15149,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C121" s="29">
         <v>3567</v>
@@ -15162,7 +15163,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C122" s="29">
         <v>4567</v>
@@ -15176,7 +15177,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C123" s="29">
         <v>12345</v>
@@ -15190,7 +15191,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C124" s="29">
         <v>12346</v>
@@ -15204,7 +15205,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C125" s="29">
         <v>12347</v>
@@ -15218,7 +15219,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C126" s="29">
         <v>12356</v>
@@ -15232,7 +15233,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C127" s="29">
         <v>12357</v>
@@ -15246,7 +15247,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C128" s="29">
         <v>12367</v>
@@ -15260,7 +15261,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C129" s="29">
         <v>12456</v>
@@ -15274,7 +15275,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C130" s="29">
         <v>12457</v>
@@ -15288,7 +15289,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C131" s="29">
         <v>12467</v>
@@ -15302,7 +15303,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C132" s="29">
         <v>12567</v>
@@ -15316,7 +15317,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C133" s="29">
         <v>13456</v>
@@ -15330,7 +15331,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C134" s="29">
         <v>13457</v>
@@ -15344,7 +15345,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C135" s="29">
         <v>13467</v>
@@ -15358,7 +15359,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C136" s="29">
         <v>13567</v>
@@ -15372,7 +15373,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C137" s="29">
         <v>14567</v>
@@ -15386,7 +15387,7 @@
         <v>6</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C138" s="29">
         <v>23456</v>
@@ -15400,7 +15401,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C139" s="29">
         <v>23457</v>
@@ -15414,7 +15415,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C140" s="29">
         <v>23467</v>
@@ -15428,7 +15429,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C141" s="29">
         <v>23567</v>
@@ -15442,7 +15443,7 @@
         <v>6</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C142" s="29">
         <v>24567</v>
@@ -15456,7 +15457,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C143" s="29">
         <v>34567</v>
@@ -15470,7 +15471,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C144" s="29">
         <v>123456</v>
@@ -15484,7 +15485,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C145" s="29">
         <v>123457</v>
@@ -15498,7 +15499,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C146" s="29">
         <v>123467</v>
@@ -15512,7 +15513,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C147" s="29">
         <v>123567</v>
@@ -15526,7 +15527,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C148" s="29">
         <v>124567</v>
@@ -15540,7 +15541,7 @@
         <v>6</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C149" s="29">
         <v>134567</v>
@@ -15554,7 +15555,7 @@
         <v>6</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C150" s="29">
         <v>234567</v>
@@ -15568,7 +15569,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C151" s="29">
         <v>1234567</v>
@@ -16106,7 +16107,7 @@
         <v>99</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -16358,7 +16359,7 @@
         <v>419</v>
       </c>
       <c r="D207" s="29" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -16372,7 +16373,7 @@
         <v>420</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -16400,7 +16401,7 @@
         <v>428</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
@@ -16414,7 +16415,7 @@
         <v>431</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -16428,7 +16429,7 @@
         <v>433</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -16442,7 +16443,7 @@
         <v>434</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -16456,7 +16457,7 @@
         <v>436</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -16470,7 +16471,7 @@
         <v>437</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -16484,7 +16485,7 @@
         <v>438</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -16498,7 +16499,7 @@
         <v>439</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -16512,7 +16513,7 @@
         <v>440</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -16568,7 +16569,7 @@
         <v>99</v>
       </c>
       <c r="D222" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
@@ -16834,7 +16835,7 @@
         <v>419</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -16848,7 +16849,7 @@
         <v>420</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -16918,7 +16919,7 @@
         <v>428</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -16932,7 +16933,7 @@
         <v>431</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -16946,7 +16947,7 @@
         <v>433</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -16960,7 +16961,7 @@
         <v>434</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -16974,7 +16975,7 @@
         <v>436</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -16988,7 +16989,7 @@
         <v>437</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -17002,7 +17003,7 @@
         <v>438</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -17016,7 +17017,7 @@
         <v>439</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -17030,7 +17031,7 @@
         <v>440</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -19606,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="29" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -19620,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="29" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -19634,7 +19635,7 @@
         <v>2</v>
       </c>
       <c r="D441" s="29" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -19648,7 +19649,7 @@
         <v>3</v>
       </c>
       <c r="D442" s="29" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -20754,7 +20755,7 @@
         <v>23</v>
       </c>
       <c r="D521" s="29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -20768,7 +20769,7 @@
         <v>24</v>
       </c>
       <c r="D522" s="29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -20782,7 +20783,7 @@
         <v>25</v>
       </c>
       <c r="D523" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -20796,7 +20797,7 @@
         <v>26</v>
       </c>
       <c r="D524" s="29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -20810,7 +20811,7 @@
         <v>27</v>
       </c>
       <c r="D525" s="29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -20824,7 +20825,7 @@
         <v>28</v>
       </c>
       <c r="D526" s="29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -20838,7 +20839,7 @@
         <v>29</v>
       </c>
       <c r="D527" s="29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -20852,7 +20853,7 @@
         <v>30</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -20866,7 +20867,7 @@
         <v>31</v>
       </c>
       <c r="D529" s="29" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -20880,7 +20881,7 @@
         <v>32</v>
       </c>
       <c r="D530" s="29" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -20894,7 +20895,7 @@
         <v>33</v>
       </c>
       <c r="D531" s="29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -20908,7 +20909,7 @@
         <v>34</v>
       </c>
       <c r="D532" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -20922,7 +20923,7 @@
         <v>35</v>
       </c>
       <c r="D533" s="29" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -20936,7 +20937,7 @@
         <v>36</v>
       </c>
       <c r="D534" s="29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -20950,7 +20951,7 @@
         <v>37</v>
       </c>
       <c r="D535" s="29" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -20964,7 +20965,7 @@
         <v>38</v>
       </c>
       <c r="D536" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -20978,7 +20979,7 @@
         <v>39</v>
       </c>
       <c r="D537" s="29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -20992,7 +20993,7 @@
         <v>40</v>
       </c>
       <c r="D538" s="29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -21006,7 +21007,7 @@
         <v>41</v>
       </c>
       <c r="D539" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -21020,7 +21021,7 @@
         <v>42</v>
       </c>
       <c r="D540" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -21034,7 +21035,7 @@
         <v>43</v>
       </c>
       <c r="D541" s="29" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -21048,7 +21049,7 @@
         <v>44</v>
       </c>
       <c r="D542" s="29" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -21104,7 +21105,7 @@
         <v>48</v>
       </c>
       <c r="D546" s="29" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
@@ -21202,7 +21203,7 @@
         <v>56</v>
       </c>
       <c r="D553" s="29" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
@@ -21230,7 +21231,7 @@
         <v>58</v>
       </c>
       <c r="D555" s="29" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
@@ -21258,7 +21259,7 @@
         <v>60</v>
       </c>
       <c r="D557" s="29" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
@@ -21286,7 +21287,7 @@
         <v>62</v>
       </c>
       <c r="D559" s="29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
@@ -21300,7 +21301,7 @@
         <v>63</v>
       </c>
       <c r="D560" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
@@ -21314,7 +21315,7 @@
         <v>64</v>
       </c>
       <c r="D561" s="29" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
@@ -21328,7 +21329,7 @@
         <v>65</v>
       </c>
       <c r="D562" s="29" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
@@ -21356,7 +21357,7 @@
         <v>67</v>
       </c>
       <c r="D564" s="29" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
@@ -21384,7 +21385,7 @@
         <v>69</v>
       </c>
       <c r="D566" s="29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
@@ -21398,7 +21399,7 @@
         <v>70</v>
       </c>
       <c r="D567" s="29" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
@@ -21412,7 +21413,7 @@
         <v>71</v>
       </c>
       <c r="D568" s="29" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
@@ -21426,7 +21427,7 @@
         <v>72</v>
       </c>
       <c r="D569" s="29" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
@@ -21440,7 +21441,7 @@
         <v>73</v>
       </c>
       <c r="D570" s="29" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
@@ -21454,7 +21455,7 @@
         <v>74</v>
       </c>
       <c r="D571" s="29" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
@@ -21468,7 +21469,7 @@
         <v>75</v>
       </c>
       <c r="D572" s="29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
@@ -21482,7 +21483,7 @@
         <v>76</v>
       </c>
       <c r="D573" s="29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
@@ -21496,7 +21497,7 @@
         <v>77</v>
       </c>
       <c r="D574" s="29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
@@ -21608,7 +21609,7 @@
         <v>85</v>
       </c>
       <c r="D582" s="29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.45">
@@ -21786,7 +21787,7 @@
         <v>97</v>
       </c>
       <c r="D594" s="29" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
@@ -21800,7 +21801,7 @@
         <v>1015</v>
       </c>
       <c r="D595" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
@@ -21814,7 +21815,7 @@
         <v>1018</v>
       </c>
       <c r="D596" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
@@ -21828,7 +21829,7 @@
         <v>1019</v>
       </c>
       <c r="D597" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
@@ -21842,7 +21843,7 @@
         <v>1020</v>
       </c>
       <c r="D598" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
@@ -21856,7 +21857,7 @@
         <v>1021</v>
       </c>
       <c r="D599" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
@@ -21870,7 +21871,7 @@
         <v>1022</v>
       </c>
       <c r="D600" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
@@ -21884,7 +21885,7 @@
         <v>1023</v>
       </c>
       <c r="D601" s="29" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
@@ -21898,7 +21899,7 @@
         <v>1024</v>
       </c>
       <c r="D602" s="29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
@@ -21912,7 +21913,7 @@
         <v>1025</v>
       </c>
       <c r="D603" s="29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
@@ -21926,7 +21927,7 @@
         <v>1026</v>
       </c>
       <c r="D604" s="29" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
@@ -21940,7 +21941,7 @@
         <v>1027</v>
       </c>
       <c r="D605" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
@@ -21954,7 +21955,7 @@
         <v>1028</v>
       </c>
       <c r="D606" s="29" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
@@ -21968,7 +21969,7 @@
         <v>1029</v>
       </c>
       <c r="D607" s="29" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
@@ -21982,7 +21983,7 @@
         <v>1030</v>
       </c>
       <c r="D608" s="29" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
@@ -21996,7 +21997,7 @@
         <v>1031</v>
       </c>
       <c r="D609" s="29" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
@@ -22010,7 +22011,7 @@
         <v>1032</v>
       </c>
       <c r="D610" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
@@ -22024,7 +22025,7 @@
         <v>1033</v>
       </c>
       <c r="D611" s="29" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
@@ -22038,7 +22039,7 @@
         <v>1034</v>
       </c>
       <c r="D612" s="29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
@@ -22052,7 +22053,7 @@
         <v>1035</v>
       </c>
       <c r="D613" s="29" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
@@ -22066,7 +22067,7 @@
         <v>1036</v>
       </c>
       <c r="D614" s="29" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
@@ -22080,7 +22081,7 @@
         <v>1037</v>
       </c>
       <c r="D615" s="29" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.45">
@@ -22094,7 +22095,7 @@
         <v>1038</v>
       </c>
       <c r="D616" s="29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
@@ -22108,7 +22109,7 @@
         <v>1039</v>
       </c>
       <c r="D617" s="29" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
@@ -22122,7 +22123,7 @@
         <v>1040</v>
       </c>
       <c r="D618" s="29" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
@@ -22136,7 +22137,7 @@
         <v>1041</v>
       </c>
       <c r="D619" s="29" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
@@ -22150,7 +22151,7 @@
         <v>1042</v>
       </c>
       <c r="D620" s="29" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
@@ -22164,7 +22165,7 @@
         <v>1043</v>
       </c>
       <c r="D621" s="29" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
@@ -22178,7 +22179,7 @@
         <v>1044</v>
       </c>
       <c r="D622" s="29" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
@@ -22192,7 +22193,7 @@
         <v>1048</v>
       </c>
       <c r="D623" s="29" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
@@ -22206,7 +22207,7 @@
         <v>1115</v>
       </c>
       <c r="D624" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.45">
@@ -22220,7 +22221,7 @@
         <v>1118</v>
       </c>
       <c r="D625" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.45">
@@ -22234,7 +22235,7 @@
         <v>1119</v>
       </c>
       <c r="D626" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.45">
@@ -22248,7 +22249,7 @@
         <v>1120</v>
       </c>
       <c r="D627" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.45">
@@ -22262,7 +22263,7 @@
         <v>1121</v>
       </c>
       <c r="D628" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.45">
@@ -22276,7 +22277,7 @@
         <v>1122</v>
       </c>
       <c r="D629" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.45">
@@ -22290,7 +22291,7 @@
         <v>1123</v>
       </c>
       <c r="D630" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.45">
@@ -22304,7 +22305,7 @@
         <v>1124</v>
       </c>
       <c r="D631" s="29" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F631" s="26"/>
     </row>
@@ -22319,7 +22320,7 @@
         <v>1125</v>
       </c>
       <c r="D632" s="29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F632" s="26"/>
     </row>
@@ -22334,7 +22335,7 @@
         <v>1126</v>
       </c>
       <c r="D633" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F633" s="26"/>
     </row>
@@ -22349,7 +22350,7 @@
         <v>1127</v>
       </c>
       <c r="D634" s="29" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F634" s="26"/>
     </row>
@@ -22364,7 +22365,7 @@
         <v>1128</v>
       </c>
       <c r="D635" s="29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F635" s="26"/>
     </row>
@@ -22379,7 +22380,7 @@
         <v>1129</v>
       </c>
       <c r="D636" s="29" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F636" s="26"/>
     </row>
@@ -22394,7 +22395,7 @@
         <v>1130</v>
       </c>
       <c r="D637" s="29" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F637" s="26"/>
     </row>
@@ -22409,7 +22410,7 @@
         <v>1131</v>
       </c>
       <c r="D638" s="29" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F638" s="26"/>
     </row>
@@ -22424,7 +22425,7 @@
         <v>1132</v>
       </c>
       <c r="D639" s="29" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F639" s="26"/>
     </row>
@@ -22439,7 +22440,7 @@
         <v>1133</v>
       </c>
       <c r="D640" s="29" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F640" s="26"/>
     </row>
@@ -22454,7 +22455,7 @@
         <v>1134</v>
       </c>
       <c r="D641" s="29" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F641" s="26"/>
     </row>
@@ -22469,7 +22470,7 @@
         <v>1135</v>
       </c>
       <c r="D642" s="29" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F642" s="26"/>
     </row>
@@ -22484,7 +22485,7 @@
         <v>1136</v>
       </c>
       <c r="D643" s="29" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F643" s="26"/>
     </row>
@@ -22499,7 +22500,7 @@
         <v>1137</v>
       </c>
       <c r="D644" s="29" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F644" s="26"/>
     </row>
@@ -22514,7 +22515,7 @@
         <v>1138</v>
       </c>
       <c r="D645" s="29" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F645" s="26"/>
     </row>
@@ -22529,7 +22530,7 @@
         <v>1139</v>
       </c>
       <c r="D646" s="29" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F646" s="26"/>
     </row>
@@ -22544,7 +22545,7 @@
         <v>1140</v>
       </c>
       <c r="D647" s="29" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F647" s="26"/>
     </row>
@@ -22559,7 +22560,7 @@
         <v>1141</v>
       </c>
       <c r="D648" s="29" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F648" s="26"/>
     </row>
@@ -22574,7 +22575,7 @@
         <v>1142</v>
       </c>
       <c r="D649" s="29" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F649" s="26"/>
     </row>
@@ -22589,7 +22590,7 @@
         <v>1143</v>
       </c>
       <c r="D650" s="29" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F650" s="26"/>
     </row>
@@ -22604,7 +22605,7 @@
         <v>1144</v>
       </c>
       <c r="D651" s="29" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F651" s="26"/>
     </row>
@@ -22619,7 +22620,7 @@
         <v>1148</v>
       </c>
       <c r="D652" s="29" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.45">
@@ -22662,7 +22663,7 @@
         <v>1215</v>
       </c>
       <c r="D655" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.45">
@@ -22676,7 +22677,7 @@
         <v>1218</v>
       </c>
       <c r="D656" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.45">
@@ -22690,7 +22691,7 @@
         <v>1219</v>
       </c>
       <c r="D657" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.45">
@@ -22704,7 +22705,7 @@
         <v>1220</v>
       </c>
       <c r="D658" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.45">
@@ -22718,7 +22719,7 @@
         <v>1221</v>
       </c>
       <c r="D659" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.45">
@@ -22732,7 +22733,7 @@
         <v>1222</v>
       </c>
       <c r="D660" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F660" s="26"/>
     </row>
@@ -22747,7 +22748,7 @@
         <v>1223</v>
       </c>
       <c r="D661" s="29" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F661" s="26"/>
     </row>
@@ -22762,7 +22763,7 @@
         <v>1224</v>
       </c>
       <c r="D662" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F662" s="26"/>
     </row>
@@ -22777,7 +22778,7 @@
         <v>1225</v>
       </c>
       <c r="D663" s="29" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F663" s="26"/>
     </row>
@@ -22792,7 +22793,7 @@
         <v>1226</v>
       </c>
       <c r="D664" s="29" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F664" s="26"/>
     </row>
@@ -22807,7 +22808,7 @@
         <v>1227</v>
       </c>
       <c r="D665" s="29" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F665" s="26"/>
     </row>
@@ -22822,7 +22823,7 @@
         <v>1228</v>
       </c>
       <c r="D666" s="29" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F666" s="26"/>
     </row>
@@ -22837,7 +22838,7 @@
         <v>1229</v>
       </c>
       <c r="D667" s="29" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F667" s="26"/>
     </row>
@@ -22852,7 +22853,7 @@
         <v>1230</v>
       </c>
       <c r="D668" s="29" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F668" s="26"/>
     </row>
@@ -22867,7 +22868,7 @@
         <v>1231</v>
       </c>
       <c r="D669" s="29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F669" s="26"/>
     </row>
@@ -22882,7 +22883,7 @@
         <v>1232</v>
       </c>
       <c r="D670" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F670" s="26"/>
     </row>
@@ -22897,7 +22898,7 @@
         <v>1233</v>
       </c>
       <c r="D671" s="29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F671" s="26"/>
     </row>
@@ -22912,7 +22913,7 @@
         <v>1234</v>
       </c>
       <c r="D672" s="29" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F672" s="26"/>
     </row>
@@ -22927,7 +22928,7 @@
         <v>1235</v>
       </c>
       <c r="D673" s="29" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F673" s="26"/>
     </row>
@@ -22942,7 +22943,7 @@
         <v>1236</v>
       </c>
       <c r="D674" s="29" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F674" s="26"/>
     </row>
@@ -22957,7 +22958,7 @@
         <v>1237</v>
       </c>
       <c r="D675" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F675" s="26"/>
     </row>
@@ -22972,7 +22973,7 @@
         <v>1238</v>
       </c>
       <c r="D676" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F676" s="26"/>
     </row>
@@ -22987,7 +22988,7 @@
         <v>1239</v>
       </c>
       <c r="D677" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F677" s="26"/>
     </row>
@@ -23002,7 +23003,7 @@
         <v>1240</v>
       </c>
       <c r="D678" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F678" s="26"/>
     </row>
@@ -23017,7 +23018,7 @@
         <v>1241</v>
       </c>
       <c r="D679" s="29" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F679" s="26"/>
     </row>
@@ -23032,7 +23033,7 @@
         <v>1242</v>
       </c>
       <c r="D680" s="29" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F680" s="26"/>
     </row>
@@ -23047,7 +23048,7 @@
         <v>1243</v>
       </c>
       <c r="D681" s="29" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F681" s="26"/>
     </row>
@@ -23062,7 +23063,7 @@
         <v>1244</v>
       </c>
       <c r="D682" s="29" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.45">
@@ -23076,7 +23077,7 @@
         <v>1248</v>
       </c>
       <c r="D683" s="29" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.45">
@@ -23118,7 +23119,7 @@
         <v>1315</v>
       </c>
       <c r="D686" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.45">
@@ -23132,7 +23133,7 @@
         <v>1318</v>
       </c>
       <c r="D687" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.45">
@@ -23146,7 +23147,7 @@
         <v>1319</v>
       </c>
       <c r="D688" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.45">
@@ -23160,7 +23161,7 @@
         <v>1320</v>
       </c>
       <c r="D689" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.45">
@@ -23174,7 +23175,7 @@
         <v>1321</v>
       </c>
       <c r="D690" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.45">
@@ -23188,7 +23189,7 @@
         <v>1322</v>
       </c>
       <c r="D691" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F691" s="26"/>
     </row>
@@ -23203,7 +23204,7 @@
         <v>1323</v>
       </c>
       <c r="D692" s="29" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F692" s="26"/>
     </row>
@@ -23218,7 +23219,7 @@
         <v>1324</v>
       </c>
       <c r="D693" s="29" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F693" s="26"/>
     </row>
@@ -23233,7 +23234,7 @@
         <v>1325</v>
       </c>
       <c r="D694" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F694" s="26"/>
     </row>
@@ -23248,7 +23249,7 @@
         <v>1326</v>
       </c>
       <c r="D695" s="29" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F695" s="26"/>
     </row>
@@ -23263,7 +23264,7 @@
         <v>1327</v>
       </c>
       <c r="D696" s="29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F696" s="26"/>
     </row>
@@ -23278,7 +23279,7 @@
         <v>1328</v>
       </c>
       <c r="D697" s="29" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F697" s="26"/>
     </row>
@@ -23293,7 +23294,7 @@
         <v>1329</v>
       </c>
       <c r="D698" s="29" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F698" s="26"/>
     </row>
@@ -23308,7 +23309,7 @@
         <v>1330</v>
       </c>
       <c r="D699" s="29" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F699" s="26"/>
     </row>
@@ -23323,7 +23324,7 @@
         <v>1331</v>
       </c>
       <c r="D700" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F700" s="26"/>
     </row>
@@ -23338,7 +23339,7 @@
         <v>1332</v>
       </c>
       <c r="D701" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F701" s="26"/>
     </row>
@@ -23353,7 +23354,7 @@
         <v>1333</v>
       </c>
       <c r="D702" s="29" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F702" s="26"/>
     </row>
@@ -23368,7 +23369,7 @@
         <v>1334</v>
       </c>
       <c r="D703" s="29" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F703" s="26"/>
     </row>
@@ -23383,7 +23384,7 @@
         <v>1335</v>
       </c>
       <c r="D704" s="29" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F704" s="26"/>
     </row>
@@ -23398,7 +23399,7 @@
         <v>1336</v>
       </c>
       <c r="D705" s="29" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F705" s="26"/>
     </row>
@@ -23413,7 +23414,7 @@
         <v>1337</v>
       </c>
       <c r="D706" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F706" s="26"/>
     </row>
@@ -23428,7 +23429,7 @@
         <v>1338</v>
       </c>
       <c r="D707" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F707" s="26"/>
     </row>
@@ -23443,7 +23444,7 @@
         <v>1339</v>
       </c>
       <c r="D708" s="29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F708" s="26"/>
     </row>
@@ -23458,7 +23459,7 @@
         <v>1340</v>
       </c>
       <c r="D709" s="29" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F709" s="26"/>
     </row>
@@ -23473,7 +23474,7 @@
         <v>1341</v>
       </c>
       <c r="D710" s="29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F710" s="26"/>
     </row>
@@ -23488,7 +23489,7 @@
         <v>1342</v>
       </c>
       <c r="D711" s="29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F711" s="26"/>
     </row>
@@ -23503,7 +23504,7 @@
         <v>1343</v>
       </c>
       <c r="D712" s="29" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F712" s="26"/>
     </row>
@@ -23518,7 +23519,7 @@
         <v>1344</v>
       </c>
       <c r="D713" s="29" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.45">
@@ -23532,7 +23533,7 @@
         <v>1345</v>
       </c>
       <c r="D714" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.45">
@@ -23546,7 +23547,7 @@
         <v>1347</v>
       </c>
       <c r="D715" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.45">
@@ -23560,7 +23561,7 @@
         <v>1348</v>
       </c>
       <c r="D716" s="29" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.45">
@@ -23574,7 +23575,7 @@
         <v>1415</v>
       </c>
       <c r="D717" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.45">
@@ -23588,7 +23589,7 @@
         <v>1418</v>
       </c>
       <c r="D718" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.45">
@@ -23602,7 +23603,7 @@
         <v>1419</v>
       </c>
       <c r="D719" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.45">
@@ -23616,7 +23617,7 @@
         <v>1420</v>
       </c>
       <c r="D720" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.45">
@@ -23630,7 +23631,7 @@
         <v>1421</v>
       </c>
       <c r="D721" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.45">
@@ -23644,7 +23645,7 @@
         <v>1422</v>
       </c>
       <c r="D722" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F722" s="26"/>
     </row>
@@ -23659,7 +23660,7 @@
         <v>1423</v>
       </c>
       <c r="D723" s="29" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F723" s="26"/>
     </row>
@@ -23674,7 +23675,7 @@
         <v>1424</v>
       </c>
       <c r="D724" s="29" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F724" s="26"/>
     </row>
@@ -23689,7 +23690,7 @@
         <v>1425</v>
       </c>
       <c r="D725" s="29" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F725" s="26"/>
     </row>
@@ -23704,7 +23705,7 @@
         <v>1426</v>
       </c>
       <c r="D726" s="29" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F726" s="26"/>
     </row>
@@ -23719,7 +23720,7 @@
         <v>1427</v>
       </c>
       <c r="D727" s="29" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F727" s="26"/>
     </row>
@@ -23734,7 +23735,7 @@
         <v>1428</v>
       </c>
       <c r="D728" s="29" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F728" s="26"/>
     </row>
@@ -23749,7 +23750,7 @@
         <v>1429</v>
       </c>
       <c r="D729" s="29" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F729" s="26"/>
     </row>
@@ -23764,7 +23765,7 @@
         <v>1430</v>
       </c>
       <c r="D730" s="29" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F730" s="26"/>
     </row>
@@ -23779,7 +23780,7 @@
         <v>1431</v>
       </c>
       <c r="D731" s="29" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F731" s="26"/>
     </row>
@@ -23794,7 +23795,7 @@
         <v>1432</v>
       </c>
       <c r="D732" s="29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F732" s="26"/>
     </row>
@@ -23809,7 +23810,7 @@
         <v>1433</v>
       </c>
       <c r="D733" s="29" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F733" s="26"/>
     </row>
@@ -23824,7 +23825,7 @@
         <v>1434</v>
       </c>
       <c r="D734" s="29" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F734" s="26"/>
     </row>
@@ -23839,7 +23840,7 @@
         <v>1435</v>
       </c>
       <c r="D735" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F735" s="26"/>
     </row>
@@ -23854,7 +23855,7 @@
         <v>1436</v>
       </c>
       <c r="D736" s="29" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F736" s="26"/>
     </row>
@@ -23869,7 +23870,7 @@
         <v>1437</v>
       </c>
       <c r="D737" s="29" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F737" s="26"/>
     </row>
@@ -23884,7 +23885,7 @@
         <v>1438</v>
       </c>
       <c r="D738" s="29" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F738" s="26"/>
     </row>
@@ -23899,7 +23900,7 @@
         <v>1439</v>
       </c>
       <c r="D739" s="29" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F739" s="26"/>
     </row>
@@ -23914,7 +23915,7 @@
         <v>1440</v>
       </c>
       <c r="D740" s="29" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F740" s="26"/>
     </row>
@@ -23929,7 +23930,7 @@
         <v>1441</v>
       </c>
       <c r="D741" s="29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F741" s="26"/>
     </row>
@@ -23944,7 +23945,7 @@
         <v>1442</v>
       </c>
       <c r="D742" s="29" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F742" s="26"/>
     </row>
@@ -23959,7 +23960,7 @@
         <v>1443</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F743" s="26"/>
     </row>
@@ -23974,7 +23975,7 @@
         <v>1444</v>
       </c>
       <c r="D744" s="29" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.45">
@@ -23988,7 +23989,7 @@
         <v>1445</v>
       </c>
       <c r="D745" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.45">
@@ -24002,7 +24003,7 @@
         <v>1448</v>
       </c>
       <c r="D746" s="29" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.45">
@@ -24016,7 +24017,7 @@
         <v>1519</v>
       </c>
       <c r="D747" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.45">
@@ -24030,7 +24031,7 @@
         <v>1520</v>
       </c>
       <c r="D748" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.45">
@@ -24044,7 +24045,7 @@
         <v>1521</v>
       </c>
       <c r="D749" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.45">
@@ -24058,7 +24059,7 @@
         <v>1522</v>
       </c>
       <c r="D750" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.45">
@@ -24072,7 +24073,7 @@
         <v>1523</v>
       </c>
       <c r="D751" s="29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.45">
@@ -24086,7 +24087,7 @@
         <v>1524</v>
       </c>
       <c r="D752" s="29" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.45">
@@ -24100,7 +24101,7 @@
         <v>1525</v>
       </c>
       <c r="D753" s="29" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.45">
@@ -24114,7 +24115,7 @@
         <v>1526</v>
       </c>
       <c r="D754" s="29" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.45">
@@ -24128,7 +24129,7 @@
         <v>1527</v>
       </c>
       <c r="D755" s="29" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.45">
@@ -24142,7 +24143,7 @@
         <v>1528</v>
       </c>
       <c r="D756" s="29" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.45">
@@ -24156,7 +24157,7 @@
         <v>1529</v>
       </c>
       <c r="D757" s="29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.45">
@@ -24170,7 +24171,7 @@
         <v>1530</v>
       </c>
       <c r="D758" s="29" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.45">
@@ -24184,7 +24185,7 @@
         <v>1531</v>
       </c>
       <c r="D759" s="29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.45">
@@ -24198,7 +24199,7 @@
         <v>1532</v>
       </c>
       <c r="D760" s="29" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.45">
@@ -24212,7 +24213,7 @@
         <v>1533</v>
       </c>
       <c r="D761" s="29" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.45">
@@ -24226,7 +24227,7 @@
         <v>1534</v>
       </c>
       <c r="D762" s="29" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.45">
@@ -24240,7 +24241,7 @@
         <v>1535</v>
       </c>
       <c r="D763" s="29" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.45">
@@ -24254,7 +24255,7 @@
         <v>1536</v>
       </c>
       <c r="D764" s="29" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.45">
@@ -24268,7 +24269,7 @@
         <v>1537</v>
       </c>
       <c r="D765" s="29" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.45">
@@ -24282,7 +24283,7 @@
         <v>1538</v>
       </c>
       <c r="D766" s="29" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.45">
@@ -24296,7 +24297,7 @@
         <v>1539</v>
       </c>
       <c r="D767" s="29" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.45">
@@ -24310,7 +24311,7 @@
         <v>1540</v>
       </c>
       <c r="D768" s="29" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.45">
@@ -24324,7 +24325,7 @@
         <v>1541</v>
       </c>
       <c r="D769" s="29" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.45">
@@ -24338,7 +24339,7 @@
         <v>1542</v>
       </c>
       <c r="D770" s="29" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.45">
@@ -24352,7 +24353,7 @@
         <v>1543</v>
       </c>
       <c r="D771" s="29" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.45">
@@ -24366,7 +24367,7 @@
         <v>1544</v>
       </c>
       <c r="D772" s="29" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.45">
@@ -24380,7 +24381,7 @@
         <v>1545</v>
       </c>
       <c r="D773" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.45">
@@ -24394,7 +24395,7 @@
         <v>1546</v>
       </c>
       <c r="D774" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.45">
@@ -24408,7 +24409,7 @@
         <v>1547</v>
       </c>
       <c r="D775" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
@@ -24422,7 +24423,7 @@
         <v>1548</v>
       </c>
       <c r="D776" s="29" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.45">
@@ -24478,7 +24479,7 @@
         <v>5056</v>
       </c>
       <c r="D780" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.45">
@@ -24492,7 +24493,7 @@
         <v>5057</v>
       </c>
       <c r="D781" s="29" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.45">
@@ -24506,7 +24507,7 @@
         <v>5058</v>
       </c>
       <c r="D782" s="29" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.45">
@@ -24520,7 +24521,7 @@
         <v>5059</v>
       </c>
       <c r="D783" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.45">
@@ -24534,7 +24535,7 @@
         <v>5060</v>
       </c>
       <c r="D784" s="29" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.45">
@@ -24548,7 +24549,7 @@
         <v>5061</v>
       </c>
       <c r="D785" s="29" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.45">
@@ -24562,7 +24563,7 @@
         <v>5062</v>
       </c>
       <c r="D786" s="29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.45">
@@ -24576,7 +24577,7 @@
         <v>5063</v>
       </c>
       <c r="D787" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.45">
@@ -24590,7 +24591,7 @@
         <v>5064</v>
       </c>
       <c r="D788" s="29" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.45">
@@ -24604,7 +24605,7 @@
         <v>5065</v>
       </c>
       <c r="D789" s="29" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.45">
@@ -24618,7 +24619,7 @@
         <v>5066</v>
       </c>
       <c r="D790" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.45">
@@ -24632,7 +24633,7 @@
         <v>5067</v>
       </c>
       <c r="D791" s="29" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.45">
@@ -24646,7 +24647,7 @@
         <v>5068</v>
       </c>
       <c r="D792" s="29" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.45">
@@ -24660,7 +24661,7 @@
         <v>5069</v>
       </c>
       <c r="D793" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.45">
@@ -24674,7 +24675,7 @@
         <v>5070</v>
       </c>
       <c r="D794" s="29" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.45">
@@ -24688,7 +24689,7 @@
         <v>5071</v>
       </c>
       <c r="D795" s="29" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.45">
@@ -24702,7 +24703,7 @@
         <v>5072</v>
       </c>
       <c r="D796" s="29" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.45">
@@ -24716,7 +24717,7 @@
         <v>5073</v>
       </c>
       <c r="D797" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.45">
@@ -24730,7 +24731,7 @@
         <v>5074</v>
       </c>
       <c r="D798" s="29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.45">
@@ -24744,7 +24745,7 @@
         <v>5075</v>
       </c>
       <c r="D799" s="29" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.45">
@@ -24758,7 +24759,7 @@
         <v>5076</v>
       </c>
       <c r="D800" s="29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.45">
@@ -24772,7 +24773,7 @@
         <v>5077</v>
       </c>
       <c r="D801" s="29" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.45">
@@ -24786,7 +24787,7 @@
         <v>5078</v>
       </c>
       <c r="D802" s="29" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.45">
@@ -24800,7 +24801,7 @@
         <v>5079</v>
       </c>
       <c r="D803" s="29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.45">
@@ -24814,7 +24815,7 @@
         <v>5080</v>
       </c>
       <c r="D804" s="29" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.45">
@@ -24842,7 +24843,7 @@
         <v>5082</v>
       </c>
       <c r="D806" s="29" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.45">
@@ -24870,7 +24871,7 @@
         <v>5084</v>
       </c>
       <c r="D808" s="29" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.45">
@@ -24884,7 +24885,7 @@
         <v>5085</v>
       </c>
       <c r="D809" s="29" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.45">
@@ -24898,7 +24899,7 @@
         <v>5097</v>
       </c>
       <c r="D810" s="29" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.45">
@@ -24912,7 +24913,7 @@
         <v>5153</v>
       </c>
       <c r="D811" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -24926,7 +24927,7 @@
         <v>5154</v>
       </c>
       <c r="D812" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.45">
@@ -24940,7 +24941,7 @@
         <v>5155</v>
       </c>
       <c r="D813" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.45">
@@ -24954,7 +24955,7 @@
         <v>5156</v>
       </c>
       <c r="D814" s="29" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.45">
@@ -24968,7 +24969,7 @@
         <v>5157</v>
       </c>
       <c r="D815" s="29" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.45">
@@ -24982,7 +24983,7 @@
         <v>5158</v>
       </c>
       <c r="D816" s="29" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.45">
@@ -24996,7 +24997,7 @@
         <v>5159</v>
       </c>
       <c r="D817" s="29" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.45">
@@ -25010,7 +25011,7 @@
         <v>5160</v>
       </c>
       <c r="D818" s="29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.45">
@@ -25024,7 +25025,7 @@
         <v>5161</v>
       </c>
       <c r="D819" s="29" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.45">
@@ -25038,7 +25039,7 @@
         <v>5162</v>
       </c>
       <c r="D820" s="29" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.45">
@@ -25052,7 +25053,7 @@
         <v>5163</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.45">
@@ -25066,7 +25067,7 @@
         <v>5164</v>
       </c>
       <c r="D822" s="29" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.45">
@@ -25080,7 +25081,7 @@
         <v>5165</v>
       </c>
       <c r="D823" s="29" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.45">
@@ -25094,7 +25095,7 @@
         <v>5166</v>
       </c>
       <c r="D824" s="29" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.45">
@@ -25108,7 +25109,7 @@
         <v>5167</v>
       </c>
       <c r="D825" s="29" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.45">
@@ -25122,7 +25123,7 @@
         <v>5168</v>
       </c>
       <c r="D826" s="29" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.45">
@@ -25136,7 +25137,7 @@
         <v>5169</v>
       </c>
       <c r="D827" s="29" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.45">
@@ -25150,7 +25151,7 @@
         <v>5170</v>
       </c>
       <c r="D828" s="29" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.45">
@@ -25164,7 +25165,7 @@
         <v>5171</v>
       </c>
       <c r="D829" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.45">
@@ -25178,7 +25179,7 @@
         <v>5172</v>
       </c>
       <c r="D830" s="29" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.45">
@@ -25192,7 +25193,7 @@
         <v>5173</v>
       </c>
       <c r="D831" s="29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.45">
@@ -25206,7 +25207,7 @@
         <v>5174</v>
       </c>
       <c r="D832" s="29" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.45">
@@ -25220,7 +25221,7 @@
         <v>5175</v>
       </c>
       <c r="D833" s="29" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.45">
@@ -25234,7 +25235,7 @@
         <v>5176</v>
       </c>
       <c r="D834" s="29" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.45">
@@ -25248,7 +25249,7 @@
         <v>5177</v>
       </c>
       <c r="D835" s="29" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.45">
@@ -25262,7 +25263,7 @@
         <v>5178</v>
       </c>
       <c r="D836" s="29" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.45">
@@ -25276,7 +25277,7 @@
         <v>5179</v>
       </c>
       <c r="D837" s="29" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.45">
@@ -25290,7 +25291,7 @@
         <v>5180</v>
       </c>
       <c r="D838" s="29" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.45">
@@ -25304,7 +25305,7 @@
         <v>5181</v>
       </c>
       <c r="D839" s="29" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.45">
@@ -25318,7 +25319,7 @@
         <v>5182</v>
       </c>
       <c r="D840" s="29" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.45">
@@ -25332,7 +25333,7 @@
         <v>5183</v>
       </c>
       <c r="D841" s="29" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.45">
@@ -25346,7 +25347,7 @@
         <v>5184</v>
       </c>
       <c r="D842" s="29" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.45">
@@ -25360,7 +25361,7 @@
         <v>5185</v>
       </c>
       <c r="D843" s="29" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.45">
@@ -25374,7 +25375,7 @@
         <v>5197</v>
       </c>
       <c r="D844" s="29" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.45">
@@ -25388,7 +25389,7 @@
         <v>5253</v>
       </c>
       <c r="D845" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25402,7 +25403,7 @@
         <v>5254</v>
       </c>
       <c r="D846" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.45">
@@ -25430,7 +25431,7 @@
         <v>5256</v>
       </c>
       <c r="D848" s="29" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.45">
@@ -25444,7 +25445,7 @@
         <v>5257</v>
       </c>
       <c r="D849" s="29" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.45">
@@ -25458,7 +25459,7 @@
         <v>5258</v>
       </c>
       <c r="D850" s="29" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.45">
@@ -25472,7 +25473,7 @@
         <v>5259</v>
       </c>
       <c r="D851" s="29" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.45">
@@ -25486,7 +25487,7 @@
         <v>5260</v>
       </c>
       <c r="D852" s="29" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.45">
@@ -25500,7 +25501,7 @@
         <v>5261</v>
       </c>
       <c r="D853" s="29" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.45">
@@ -25514,7 +25515,7 @@
         <v>5262</v>
       </c>
       <c r="D854" s="29" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.45">
@@ -25528,7 +25529,7 @@
         <v>5263</v>
       </c>
       <c r="D855" s="29" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.45">
@@ -25542,7 +25543,7 @@
         <v>5264</v>
       </c>
       <c r="D856" s="29" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.45">
@@ -25556,7 +25557,7 @@
         <v>5265</v>
       </c>
       <c r="D857" s="29" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.45">
@@ -25570,7 +25571,7 @@
         <v>5266</v>
       </c>
       <c r="D858" s="29" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.45">
@@ -25584,7 +25585,7 @@
         <v>5267</v>
       </c>
       <c r="D859" s="29" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.45">
@@ -25598,7 +25599,7 @@
         <v>5268</v>
       </c>
       <c r="D860" s="29" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.45">
@@ -25612,7 +25613,7 @@
         <v>5269</v>
       </c>
       <c r="D861" s="29" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.45">
@@ -25626,7 +25627,7 @@
         <v>5270</v>
       </c>
       <c r="D862" s="29" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.45">
@@ -25640,7 +25641,7 @@
         <v>5271</v>
       </c>
       <c r="D863" s="29" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.45">
@@ -25654,7 +25655,7 @@
         <v>5272</v>
       </c>
       <c r="D864" s="29" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.45">
@@ -25668,7 +25669,7 @@
         <v>5273</v>
       </c>
       <c r="D865" s="29" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.45">
@@ -25682,7 +25683,7 @@
         <v>5274</v>
       </c>
       <c r="D866" s="29" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.45">
@@ -25696,7 +25697,7 @@
         <v>5275</v>
       </c>
       <c r="D867" s="29" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.45">
@@ -25710,7 +25711,7 @@
         <v>5276</v>
       </c>
       <c r="D868" s="29" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.45">
@@ -25724,7 +25725,7 @@
         <v>5277</v>
       </c>
       <c r="D869" s="29" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.45">
@@ -25738,7 +25739,7 @@
         <v>5278</v>
       </c>
       <c r="D870" s="29" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.45">
@@ -25752,7 +25753,7 @@
         <v>5279</v>
       </c>
       <c r="D871" s="29" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.45">
@@ -25766,7 +25767,7 @@
         <v>5280</v>
       </c>
       <c r="D872" s="29" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.45">
@@ -25794,7 +25795,7 @@
         <v>5282</v>
       </c>
       <c r="D874" s="29" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.45">
@@ -25822,7 +25823,7 @@
         <v>5284</v>
       </c>
       <c r="D876" s="29" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.45">
@@ -25836,7 +25837,7 @@
         <v>5285</v>
       </c>
       <c r="D877" s="29" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
@@ -25850,7 +25851,7 @@
         <v>5297</v>
       </c>
       <c r="D878" s="29" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
@@ -26480,7 +26481,7 @@
         <v>101</v>
       </c>
       <c r="D923" s="29" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.45">
@@ -26494,7 +26495,7 @@
         <v>102</v>
       </c>
       <c r="D924" s="29" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.45">
@@ -26508,7 +26509,7 @@
         <v>103</v>
       </c>
       <c r="D925" s="29" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.45">
@@ -26522,7 +26523,7 @@
         <v>104</v>
       </c>
       <c r="D926" s="29" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.45">
@@ -26536,7 +26537,7 @@
         <v>105</v>
       </c>
       <c r="D927" s="29" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.45">
@@ -26550,7 +26551,7 @@
         <v>106</v>
       </c>
       <c r="D928" s="29" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.45">
@@ -26564,7 +26565,7 @@
         <v>107</v>
       </c>
       <c r="D929" s="29" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.45">
@@ -26578,7 +26579,7 @@
         <v>108</v>
       </c>
       <c r="D930" s="29" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.45">
@@ -26592,7 +26593,7 @@
         <v>109</v>
       </c>
       <c r="D931" s="29" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.45">
@@ -26606,7 +26607,7 @@
         <v>110</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.45">
@@ -26620,7 +26621,7 @@
         <v>111</v>
       </c>
       <c r="D933" s="29" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.45">
@@ -26634,7 +26635,7 @@
         <v>112</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.45">
@@ -26648,7 +26649,7 @@
         <v>113</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.45">
@@ -26662,7 +26663,7 @@
         <v>114</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.45">
@@ -26676,7 +26677,7 @@
         <v>115</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.45">
@@ -26690,7 +26691,7 @@
         <v>116</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.45">
@@ -26704,7 +26705,7 @@
         <v>117</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.45">
@@ -26718,7 +26719,7 @@
         <v>118</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.45">
@@ -26732,7 +26733,7 @@
         <v>119</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.45">
@@ -26746,7 +26747,7 @@
         <v>120</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.45">
@@ -26760,7 +26761,7 @@
         <v>121</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.45">
@@ -26774,7 +26775,7 @@
         <v>122</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.45">
@@ -26788,7 +26789,7 @@
         <v>123</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.45">
@@ -26802,7 +26803,7 @@
         <v>124</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.45">
@@ -26816,7 +26817,7 @@
         <v>125</v>
       </c>
       <c r="D947" s="29" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.45">
@@ -26830,7 +26831,7 @@
         <v>126</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.45">
@@ -26844,7 +26845,7 @@
         <v>127</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.45">
@@ -26858,7 +26859,7 @@
         <v>128</v>
       </c>
       <c r="D950" s="29" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.45">
@@ -26872,7 +26873,7 @@
         <v>129</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.45">
@@ -26886,7 +26887,7 @@
         <v>130</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.45">
@@ -26900,7 +26901,7 @@
         <v>131</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.45">
@@ -26914,7 +26915,7 @@
         <v>132</v>
       </c>
       <c r="D954" s="29" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.45">
@@ -26928,7 +26929,7 @@
         <v>133</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.45">
@@ -26942,7 +26943,7 @@
         <v>134</v>
       </c>
       <c r="D956" s="29" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.45">
@@ -26956,7 +26957,7 @@
         <v>135</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>1432</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.45">
@@ -26970,7 +26971,7 @@
         <v>136</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>1413</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -26984,7 +26985,7 @@
         <v>901</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E959" s="3"/>
     </row>
@@ -26999,7 +27000,7 @@
         <v>902</v>
       </c>
       <c r="D960" s="28" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E960" s="3"/>
     </row>
@@ -27014,7 +27015,7 @@
         <v>903</v>
       </c>
       <c r="D961" s="28" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E961" s="3"/>
     </row>
@@ -27029,7 +27030,7 @@
         <v>904</v>
       </c>
       <c r="D962" s="28" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E962" s="3"/>
     </row>
@@ -27044,7 +27045,7 @@
         <v>905</v>
       </c>
       <c r="D963" s="28" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="E963" s="3"/>
     </row>
@@ -27059,7 +27060,7 @@
         <v>906</v>
       </c>
       <c r="D964" s="28" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="E964" s="3"/>
     </row>
@@ -27074,7 +27075,7 @@
         <v>907</v>
       </c>
       <c r="D965" s="28" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E965" s="3"/>
     </row>
@@ -27089,7 +27090,7 @@
         <v>908</v>
       </c>
       <c r="D966" s="28" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E966" s="3"/>
     </row>
@@ -27104,7 +27105,7 @@
         <v>909</v>
       </c>
       <c r="D967" s="28" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="E967" s="3"/>
     </row>
@@ -27119,7 +27120,7 @@
         <v>910</v>
       </c>
       <c r="D968" s="28" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="E968" s="3"/>
     </row>
@@ -27134,7 +27135,7 @@
         <v>911</v>
       </c>
       <c r="D969" s="28" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E969" s="3"/>
     </row>
@@ -27149,7 +27150,7 @@
         <v>912</v>
       </c>
       <c r="D970" s="28" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="E970" s="3"/>
     </row>
@@ -27164,7 +27165,7 @@
         <v>913</v>
       </c>
       <c r="D971" s="28" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E971" s="3"/>
     </row>
@@ -27179,7 +27180,7 @@
         <v>914</v>
       </c>
       <c r="D972" s="28" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E972" s="3"/>
     </row>
@@ -27194,7 +27195,7 @@
         <v>915</v>
       </c>
       <c r="D973" s="28" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="E973" s="3"/>
     </row>
@@ -27209,7 +27210,7 @@
         <v>916</v>
       </c>
       <c r="D974" s="28" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E974" s="3"/>
     </row>
@@ -27224,7 +27225,7 @@
         <v>917</v>
       </c>
       <c r="D975" s="28" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E975" s="3"/>
     </row>
@@ -27239,7 +27240,7 @@
         <v>918</v>
       </c>
       <c r="D976" s="28" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E976" s="3"/>
     </row>
@@ -27254,7 +27255,7 @@
         <v>919</v>
       </c>
       <c r="D977" s="28" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E977" s="3"/>
     </row>
@@ -27269,7 +27270,7 @@
         <v>920</v>
       </c>
       <c r="D978" s="29" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E978" s="3"/>
     </row>
@@ -28166,7 +28167,7 @@
         <v>53</v>
       </c>
       <c r="D1042" s="29" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.45">
@@ -28180,7 +28181,7 @@
         <v>54</v>
       </c>
       <c r="D1043" s="29" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.45">
@@ -28194,7 +28195,7 @@
         <v>55</v>
       </c>
       <c r="D1044" s="29" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.45">
@@ -28390,7 +28391,7 @@
         <v>0</v>
       </c>
       <c r="D1058" s="29" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.45">
@@ -28432,7 +28433,7 @@
         <v>3</v>
       </c>
       <c r="D1061" s="29" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28446,7 +28447,7 @@
         <v>4</v>
       </c>
       <c r="D1062" s="29" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.45">
@@ -28460,7 +28461,7 @@
         <v>9</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.45">
@@ -28608,13 +28609,13 @@
         <v>47</v>
       </c>
       <c r="B1074" s="29" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1074" s="29">
         <v>0</v>
       </c>
       <c r="D1074" s="29" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.45">
@@ -28622,13 +28623,13 @@
         <v>47</v>
       </c>
       <c r="B1075" s="29" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1075" s="29">
         <v>1</v>
       </c>
       <c r="D1075" s="29" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.45">
@@ -28636,13 +28637,13 @@
         <v>47</v>
       </c>
       <c r="B1076" s="29" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1076" s="29">
         <v>2</v>
       </c>
       <c r="D1076" s="29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.45">
@@ -28656,7 +28657,7 @@
         <v>0</v>
       </c>
       <c r="D1077" s="29" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.45">
@@ -28684,7 +28685,7 @@
         <v>2</v>
       </c>
       <c r="D1079" s="29" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
   </sheetData>
@@ -28790,7 +28791,7 @@
         <v>698</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -28816,7 +28817,7 @@
         <v>698</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -28842,7 +28843,7 @@
         <v>698</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -28868,7 +28869,7 @@
         <v>698</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28894,7 +28895,7 @@
         <v>698</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -28920,7 +28921,7 @@
         <v>698</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -28946,7 +28947,7 @@
         <v>698</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -28972,7 +28973,7 @@
         <v>698</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -28998,7 +28999,7 @@
         <v>698</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -29722,7 +29723,7 @@
         <v>698</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30092,7 +30093,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C58" s="36" t="s">
         <v>692</v>
@@ -30118,7 +30119,7 @@
         <v>102</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C59" s="36" t="s">
         <v>692</v>
@@ -30144,7 +30145,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>692</v>
@@ -30170,7 +30171,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>692</v>
@@ -30196,7 +30197,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>692</v>
@@ -30222,7 +30223,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>692</v>
@@ -30248,7 +30249,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>692</v>
@@ -30274,7 +30275,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>692</v>
@@ -30300,7 +30301,7 @@
         <v>109</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>692</v>
@@ -30326,7 +30327,7 @@
         <v>110</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>692</v>
@@ -30352,7 +30353,7 @@
         <v>111</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>692</v>
@@ -30378,7 +30379,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>692</v>
@@ -30404,7 +30405,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>692</v>
@@ -30430,7 +30431,7 @@
         <v>114</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>692</v>
@@ -30456,7 +30457,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>692</v>
@@ -30482,7 +30483,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>692</v>
@@ -30508,7 +30509,7 @@
         <v>117</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>692</v>
@@ -30534,7 +30535,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>692</v>
@@ -30560,7 +30561,7 @@
         <v>119</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>692</v>
@@ -30586,7 +30587,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>692</v>
@@ -30612,7 +30613,7 @@
         <v>121</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>692</v>
@@ -30638,7 +30639,7 @@
         <v>122</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>692</v>
@@ -30664,7 +30665,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C80" s="36" t="s">
         <v>692</v>
@@ -30690,7 +30691,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C81" s="36" t="s">
         <v>692</v>
@@ -30716,7 +30717,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C82" s="36" t="s">
         <v>692</v>
@@ -30742,7 +30743,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>692</v>
@@ -30768,7 +30769,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>692</v>
@@ -30794,7 +30795,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C85" s="36" t="s">
         <v>692</v>
@@ -30820,7 +30821,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>692</v>
@@ -30846,7 +30847,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>692</v>
@@ -30872,7 +30873,7 @@
         <v>131</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C88" s="36" t="s">
         <v>692</v>
@@ -30898,7 +30899,7 @@
         <v>132</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C89" s="36" t="s">
         <v>692</v>
@@ -30924,7 +30925,7 @@
         <v>133</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C90" s="36" t="s">
         <v>692</v>
@@ -30950,7 +30951,7 @@
         <v>134</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C91" s="36" t="s">
         <v>692</v>
@@ -30976,7 +30977,7 @@
         <v>135</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C92" s="36" t="s">
         <v>692</v>
@@ -31002,7 +31003,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C93" s="36" t="s">
         <v>692</v>
@@ -31058,7 +31059,7 @@
         <v>698</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -31084,7 +31085,7 @@
         <v>698</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -31110,7 +31111,7 @@
         <v>698</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31200,7 +31201,7 @@
         <v>698</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -31226,7 +31227,7 @@
         <v>698</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -31252,7 +31253,7 @@
         <v>698</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31324,7 +31325,7 @@
         <v>901</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
@@ -31350,7 +31351,7 @@
         <v>902</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C108" s="11">
         <v>1</v>
@@ -31376,7 +31377,7 @@
         <v>903</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
@@ -31402,7 +31403,7 @@
         <v>904</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C110" s="11">
         <v>1</v>
@@ -31428,7 +31429,7 @@
         <v>905</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
@@ -31454,7 +31455,7 @@
         <v>906</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C112" s="11">
         <v>1</v>
@@ -31480,7 +31481,7 @@
         <v>907</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C113" s="11">
         <v>1</v>
@@ -31506,7 +31507,7 @@
         <v>908</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C114" s="11">
         <v>1</v>
@@ -31532,7 +31533,7 @@
         <v>909</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C115" s="11">
         <v>1</v>
@@ -31558,7 +31559,7 @@
         <v>910</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C116" s="11">
         <v>1</v>
@@ -31584,7 +31585,7 @@
         <v>911</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C117" s="11">
         <v>1</v>
@@ -31610,7 +31611,7 @@
         <v>912</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C118" s="11">
         <v>1</v>
@@ -31636,7 +31637,7 @@
         <v>913</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
@@ -31662,7 +31663,7 @@
         <v>914</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
@@ -31688,7 +31689,7 @@
         <v>915</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C121" s="11">
         <v>1</v>
@@ -31714,7 +31715,7 @@
         <v>916</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C122" s="11">
         <v>1</v>
@@ -31740,7 +31741,7 @@
         <v>917</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C123" s="11">
         <v>1</v>
@@ -31766,7 +31767,7 @@
         <v>918</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C124" s="11">
         <v>1</v>
@@ -31792,7 +31793,7 @@
         <v>919</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="C125" s="11">
         <v>1</v>
@@ -31818,7 +31819,7 @@
         <v>920</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C126" s="11">
         <v>1</v>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF3D9ED-1D49-4FBB-8E91-4DC8661628C1}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C4A03D-0F1D-4DF5-B7DC-DBC0C9E5CA66}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-28920" yWindow="-6315" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$A$1:$J$287</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$XFB$1079</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$XFB$1081</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="1557">
   <si>
     <t>File ID</t>
   </si>
@@ -3227,9 +3227,6 @@
     <t>Data not provided by client</t>
   </si>
   <si>
-    <t>RaceEthncity</t>
-  </si>
-  <si>
     <t>FY2023 Changes</t>
   </si>
   <si>
@@ -4726,6 +4723,12 @@
   </si>
   <si>
     <t>HMISParticipationID</t>
+  </si>
+  <si>
+    <t>Long-Term Homeless Missing Disability Info</t>
+  </si>
+  <si>
+    <t>RaceEthnicity</t>
   </si>
 </sst>
 </file>
@@ -4959,10 +4962,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5288,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5322,7 +5321,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -5339,7 +5338,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -5353,10 +5352,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -5404,10 +5403,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
@@ -5455,7 +5454,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>528</v>
@@ -5469,16 +5468,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>1076</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
@@ -5486,16 +5485,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1076</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
@@ -5510,9 +5509,9 @@
   <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5555,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>782</v>
@@ -5679,7 +5678,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -5705,7 +5704,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5731,7 +5730,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5757,7 +5756,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5783,7 +5782,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -6525,7 +6524,7 @@
         <v>364</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -6612,10 +6611,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -6632,7 +6631,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>38</v>
@@ -6644,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J41" s="3">
-        <v>5</v>
+      <c r="J41" s="28">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -6940,7 +6939,7 @@
         <v>96</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -7030,7 +7029,7 @@
         <v>102</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -7323,7 +7322,7 @@
         <v>122</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -7413,7 +7412,7 @@
         <v>128</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -7706,7 +7705,7 @@
         <v>148</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -7796,7 +7795,7 @@
         <v>154</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
@@ -8277,7 +8276,7 @@
         <v>65</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>38</v>
@@ -8289,10 +8288,10 @@
         <v>0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J97" s="28">
         <v>2</v>
@@ -8309,7 +8308,7 @@
         <v>66</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>38</v>
@@ -8321,10 +8320,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J98" s="28">
         <v>2</v>
@@ -8405,12 +8404,12 @@
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J101" s="3">
+        <v>1057</v>
+      </c>
+      <c r="J101" s="28">
         <v>7</v>
       </c>
     </row>
@@ -8425,7 +8424,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>1056</v>
+        <v>1556</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>38</v>
@@ -8437,12 +8436,12 @@
         <v>0</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J102" s="3">
+        <v>1522</v>
+      </c>
+      <c r="J102" s="28">
         <v>7</v>
       </c>
     </row>
@@ -8498,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J104" s="3">
         <v>2</v>
@@ -9994,7 +9993,7 @@
         <v>57</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>38</v>
@@ -10006,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="28"/>
@@ -10022,7 +10021,7 @@
         <v>58</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>38</v>
@@ -10034,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="28"/>
@@ -10050,7 +10049,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>38</v>
@@ -10062,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="28"/>
@@ -10078,7 +10077,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>38</v>
@@ -10090,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="28"/>
@@ -10106,7 +10105,7 @@
         <v>61</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>38</v>
@@ -10118,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="28"/>
@@ -10134,7 +10133,7 @@
         <v>62</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>38</v>
@@ -10146,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="28"/>
@@ -10162,7 +10161,7 @@
         <v>63</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>38</v>
@@ -10174,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="28"/>
@@ -10190,7 +10189,7 @@
         <v>64</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>38</v>
@@ -10202,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="28"/>
@@ -10218,7 +10217,7 @@
         <v>65</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>38</v>
@@ -10230,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="28"/>
@@ -10246,7 +10245,7 @@
         <v>66</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>38</v>
@@ -10258,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="28"/>
@@ -10543,7 +10542,7 @@
         <v>364</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J175" s="3">
         <v>1</v>
@@ -10604,7 +10603,7 @@
         <v>363</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J177" s="3">
         <v>1</v>
@@ -10621,7 +10620,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>38</v>
@@ -10633,13 +10632,13 @@
         <v>0</v>
       </c>
       <c r="H178" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I178" s="7" t="s">
         <v>1521</v>
       </c>
-      <c r="I178" s="7" t="s">
-        <v>1522</v>
-      </c>
-      <c r="J178" s="3">
-        <v>5</v>
+      <c r="J178" s="28">
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -10954,7 +10953,7 @@
         <v>307</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -10989,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J191" s="3">
         <v>2</v>
@@ -11036,7 +11035,7 @@
         <v>309</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3">
@@ -11060,14 +11059,14 @@
         <v>310</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3">
         <v>0</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J194" s="28">
         <v>200</v>
@@ -11116,7 +11115,7 @@
         <v>311</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -11126,7 +11125,7 @@
         <v>647</v>
       </c>
       <c r="I196" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J196" s="28">
         <v>200</v>
@@ -11194,7 +11193,7 @@
         <v>314</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3">
@@ -11248,7 +11247,7 @@
         <v>316</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3">
@@ -11275,7 +11274,7 @@
         <v>307</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
@@ -11299,7 +11298,7 @@
         <v>309</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
@@ -11323,14 +11322,14 @@
         <v>317</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
         <v>0</v>
       </c>
       <c r="I204" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J204" s="28">
         <v>200</v>
@@ -11350,7 +11349,7 @@
         <v>318</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
@@ -11360,7 +11359,7 @@
         <v>647</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J205" s="28">
         <v>200</v>
@@ -11504,7 +11503,7 @@
         <v>10</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E211" s="28" t="s">
         <v>38</v>
@@ -11513,13 +11512,13 @@
         <v>35</v>
       </c>
       <c r="G211" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I211" s="7" t="s">
         <v>1068</v>
-      </c>
-      <c r="I211" s="7" t="s">
-        <v>1069</v>
       </c>
       <c r="J211" s="28">
         <v>1</v>
@@ -11548,10 +11547,10 @@
         <v>1</v>
       </c>
       <c r="H212" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I212" s="7" t="s">
         <v>1070</v>
-      </c>
-      <c r="I212" s="7" t="s">
-        <v>1071</v>
       </c>
       <c r="J212" s="3">
         <v>1</v>
@@ -11698,7 +11697,7 @@
         <v>314</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3">
@@ -11752,7 +11751,7 @@
         <v>316</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3">
@@ -11779,7 +11778,7 @@
         <v>327</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3">
@@ -11803,7 +11802,7 @@
         <v>307</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -11836,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -11856,13 +11855,13 @@
         <v>328</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="J224" s="28">
         <v>100</v>
@@ -11882,7 +11881,7 @@
         <v>329</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
@@ -11891,7 +11890,7 @@
         <v>647</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="J225" s="28">
         <v>100</v>
@@ -12003,7 +12002,7 @@
         <v>314</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -12055,7 +12054,7 @@
         <v>316</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
@@ -12081,7 +12080,7 @@
         <v>332</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G233" s="3">
         <v>0</v>
@@ -12104,7 +12103,7 @@
         <v>307</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G234" s="3">
         <v>0</v>
@@ -12127,7 +12126,7 @@
         <v>333</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G235" s="3">
         <v>0</v>
@@ -12153,7 +12152,7 @@
         <v>334</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G236" s="3">
         <v>0</v>
@@ -12176,7 +12175,7 @@
         <v>335</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
@@ -12199,7 +12198,7 @@
         <v>336</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G238" s="3">
         <v>1</v>
@@ -12222,7 +12221,7 @@
         <v>337</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G239" s="3">
         <v>1</v>
@@ -12245,7 +12244,7 @@
         <v>338</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G240" s="3">
         <v>1</v>
@@ -12268,7 +12267,7 @@
         <v>339</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12363,7 +12362,7 @@
         <v>314</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -12415,7 +12414,7 @@
         <v>316</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G247" s="3">
         <v>0</v>
@@ -12441,7 +12440,7 @@
         <v>341</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -12464,7 +12463,7 @@
         <v>307</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -12487,7 +12486,7 @@
         <v>333</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G250" s="3">
         <v>0</v>
@@ -12890,7 +12889,7 @@
         <v>314</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G267" s="3">
         <v>1</v>
@@ -12942,7 +12941,7 @@
         <v>316</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G269" s="3">
         <v>0</v>
@@ -12959,16 +12958,16 @@
         <v>15</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C270" s="30">
         <v>1</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E270" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="28">
@@ -12985,7 +12984,7 @@
         <v>15</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C271" s="30">
         <v>2</v>
@@ -12994,14 +12993,14 @@
         <v>307</v>
       </c>
       <c r="E271" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="28">
         <v>0</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="28">
@@ -13013,18 +13012,20 @@
         <v>15</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C272" s="30">
         <v>3</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E272" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F272" s="28"/>
+      <c r="F272" s="28">
+        <v>47</v>
+      </c>
       <c r="G272" s="28">
         <v>0</v>
       </c>
@@ -13039,13 +13040,13 @@
         <v>15</v>
       </c>
       <c r="B273" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C273" s="30">
         <v>4</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E273" s="28" t="s">
         <v>41</v>
@@ -13065,13 +13066,13 @@
         <v>15</v>
       </c>
       <c r="B274" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C274" s="30">
         <v>5</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E274" s="28" t="s">
         <v>41</v>
@@ -13091,7 +13092,7 @@
         <v>15</v>
       </c>
       <c r="B275" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C275" s="30">
         <v>6</v>
@@ -13117,7 +13118,7 @@
         <v>15</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C276" s="30">
         <v>7</v>
@@ -13143,7 +13144,7 @@
         <v>15</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C277" s="30">
         <v>8</v>
@@ -13152,7 +13153,7 @@
         <v>314</v>
       </c>
       <c r="E277" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="28">
@@ -13171,7 +13172,7 @@
         <v>15</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C278" s="30">
         <v>9</v>
@@ -13199,7 +13200,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C279" s="30">
         <v>10</v>
@@ -13208,7 +13209,7 @@
         <v>316</v>
       </c>
       <c r="E279" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="28">
@@ -13227,16 +13228,16 @@
         <v>16</v>
       </c>
       <c r="B280" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C280" s="30">
         <v>1</v>
       </c>
       <c r="D280" s="28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E280" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="28">
@@ -13253,7 +13254,7 @@
         <v>16</v>
       </c>
       <c r="B281" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C281" s="30">
         <v>2</v>
@@ -13262,14 +13263,14 @@
         <v>307</v>
       </c>
       <c r="E281" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="28">
         <v>0</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="28">
@@ -13281,23 +13282,23 @@
         <v>16</v>
       </c>
       <c r="B282" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C282" s="30">
         <v>3</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E282" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="28">
         <v>0</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I282" s="7"/>
       <c r="J282" s="28">
@@ -13309,7 +13310,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C283" s="30">
         <v>4</v>
@@ -13335,7 +13336,7 @@
         <v>16</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C284" s="30">
         <v>5</v>
@@ -13361,7 +13362,7 @@
         <v>16</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C285" s="30">
         <v>6</v>
@@ -13370,7 +13371,7 @@
         <v>314</v>
       </c>
       <c r="E285" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="28">
@@ -13389,7 +13390,7 @@
         <v>16</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C286" s="30">
         <v>7</v>
@@ -13417,7 +13418,7 @@
         <v>16</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C287" s="30">
         <v>8</v>
@@ -13426,7 +13427,7 @@
         <v>316</v>
       </c>
       <c r="E287" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="28">
@@ -13450,11 +13451,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N1079"/>
+  <dimension ref="A1:N1081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A1045" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1062" sqref="K1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13777,7 +13778,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -13791,7 +13792,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C24" s="29">
         <v>2</v>
@@ -13805,7 +13806,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C25" s="29">
         <v>3</v>
@@ -13819,7 +13820,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C26" s="29">
         <v>4</v>
@@ -13833,7 +13834,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C27" s="29">
         <v>5</v>
@@ -13847,7 +13848,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C28" s="29">
         <v>6</v>
@@ -13861,7 +13862,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C29" s="29">
         <v>7</v>
@@ -13875,7 +13876,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
@@ -13889,7 +13890,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C31" s="29">
         <v>13</v>
@@ -13903,7 +13904,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C32" s="29">
         <v>14</v>
@@ -13917,7 +13918,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C33" s="29">
         <v>15</v>
@@ -13931,7 +13932,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C34" s="29">
         <v>16</v>
@@ -13945,7 +13946,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C35" s="29">
         <v>17</v>
@@ -13959,7 +13960,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C36" s="29">
         <v>23</v>
@@ -13973,7 +13974,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C37" s="29">
         <v>24</v>
@@ -13987,7 +13988,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C38" s="29">
         <v>25</v>
@@ -14001,7 +14002,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C39" s="29">
         <v>26</v>
@@ -14015,7 +14016,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C40" s="29">
         <v>27</v>
@@ -14029,7 +14030,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C41" s="29">
         <v>34</v>
@@ -14043,7 +14044,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C42" s="29">
         <v>35</v>
@@ -14057,7 +14058,7 @@
         <v>6</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C43" s="29">
         <v>36</v>
@@ -14071,7 +14072,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C44" s="29">
         <v>37</v>
@@ -14085,7 +14086,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C45" s="29">
         <v>45</v>
@@ -14099,7 +14100,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C46" s="29">
         <v>46</v>
@@ -14113,7 +14114,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C47" s="29">
         <v>47</v>
@@ -14127,7 +14128,7 @@
         <v>6</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C48" s="29">
         <v>56</v>
@@ -14141,7 +14142,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C49" s="29">
         <v>57</v>
@@ -14155,7 +14156,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C50" s="29">
         <v>67</v>
@@ -14169,7 +14170,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C51" s="29">
         <v>98</v>
@@ -14183,7 +14184,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C52" s="29">
         <v>99</v>
@@ -14197,7 +14198,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C53" s="29">
         <v>123</v>
@@ -14211,7 +14212,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C54" s="29">
         <v>124</v>
@@ -14225,7 +14226,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C55" s="29">
         <v>125</v>
@@ -14239,7 +14240,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C56" s="29">
         <v>126</v>
@@ -14253,7 +14254,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C57" s="29">
         <v>127</v>
@@ -14267,7 +14268,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C58" s="29">
         <v>134</v>
@@ -14281,7 +14282,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C59" s="29">
         <v>135</v>
@@ -14295,7 +14296,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C60" s="29">
         <v>136</v>
@@ -14309,7 +14310,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C61" s="29">
         <v>137</v>
@@ -14323,7 +14324,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C62" s="29">
         <v>145</v>
@@ -14337,7 +14338,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C63" s="29">
         <v>146</v>
@@ -14351,7 +14352,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C64" s="29">
         <v>147</v>
@@ -14365,7 +14366,7 @@
         <v>6</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C65" s="29">
         <v>156</v>
@@ -14379,7 +14380,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C66" s="29">
         <v>157</v>
@@ -14393,7 +14394,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C67" s="29">
         <v>167</v>
@@ -14407,7 +14408,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C68" s="29">
         <v>234</v>
@@ -14421,7 +14422,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C69" s="29">
         <v>235</v>
@@ -14435,7 +14436,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C70" s="29">
         <v>236</v>
@@ -14449,7 +14450,7 @@
         <v>6</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C71" s="29">
         <v>237</v>
@@ -14463,7 +14464,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C72" s="29">
         <v>245</v>
@@ -14477,7 +14478,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C73" s="29">
         <v>246</v>
@@ -14491,7 +14492,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C74" s="29">
         <v>247</v>
@@ -14505,7 +14506,7 @@
         <v>6</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C75" s="29">
         <v>256</v>
@@ -14519,7 +14520,7 @@
         <v>6</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C76" s="29">
         <v>257</v>
@@ -14533,7 +14534,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C77" s="29">
         <v>267</v>
@@ -14547,7 +14548,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C78" s="29">
         <v>345</v>
@@ -14561,7 +14562,7 @@
         <v>6</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C79" s="29">
         <v>346</v>
@@ -14575,7 +14576,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C80" s="29">
         <v>347</v>
@@ -14589,7 +14590,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C81" s="29">
         <v>356</v>
@@ -14603,7 +14604,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C82" s="29">
         <v>357</v>
@@ -14617,7 +14618,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C83" s="29">
         <v>367</v>
@@ -14631,7 +14632,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C84" s="29">
         <v>456</v>
@@ -14645,7 +14646,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C85" s="29">
         <v>457</v>
@@ -14659,7 +14660,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C86" s="29">
         <v>467</v>
@@ -14673,7 +14674,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C87" s="29">
         <v>567</v>
@@ -14687,7 +14688,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C88" s="29">
         <v>1234</v>
@@ -14701,7 +14702,7 @@
         <v>6</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C89" s="29">
         <v>1235</v>
@@ -14715,7 +14716,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C90" s="29">
         <v>1236</v>
@@ -14729,7 +14730,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C91" s="29">
         <v>1237</v>
@@ -14743,7 +14744,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C92" s="29">
         <v>1245</v>
@@ -14757,7 +14758,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C93" s="29">
         <v>1246</v>
@@ -14771,7 +14772,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C94" s="29">
         <v>1247</v>
@@ -14785,7 +14786,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C95" s="29">
         <v>1256</v>
@@ -14799,7 +14800,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C96" s="29">
         <v>1257</v>
@@ -14813,7 +14814,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C97" s="29">
         <v>1267</v>
@@ -14827,7 +14828,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C98" s="29">
         <v>1345</v>
@@ -14841,7 +14842,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C99" s="29">
         <v>1346</v>
@@ -14855,7 +14856,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C100" s="29">
         <v>1347</v>
@@ -14869,7 +14870,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C101" s="29">
         <v>1356</v>
@@ -14883,7 +14884,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C102" s="29">
         <v>1357</v>
@@ -14897,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C103" s="29">
         <v>1367</v>
@@ -14911,7 +14912,7 @@
         <v>6</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C104" s="29">
         <v>1456</v>
@@ -14925,7 +14926,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C105" s="29">
         <v>1457</v>
@@ -14939,7 +14940,7 @@
         <v>6</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C106" s="29">
         <v>1467</v>
@@ -14953,7 +14954,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C107" s="29">
         <v>1567</v>
@@ -14967,7 +14968,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C108" s="29">
         <v>2345</v>
@@ -14981,7 +14982,7 @@
         <v>6</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C109" s="29">
         <v>2346</v>
@@ -14995,7 +14996,7 @@
         <v>6</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C110" s="29">
         <v>2347</v>
@@ -15009,7 +15010,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C111" s="29">
         <v>2356</v>
@@ -15023,7 +15024,7 @@
         <v>6</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C112" s="29">
         <v>2357</v>
@@ -15037,7 +15038,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C113" s="29">
         <v>2367</v>
@@ -15051,7 +15052,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C114" s="29">
         <v>2456</v>
@@ -15065,7 +15066,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C115" s="29">
         <v>2457</v>
@@ -15079,7 +15080,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C116" s="29">
         <v>2467</v>
@@ -15093,7 +15094,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C117" s="29">
         <v>2567</v>
@@ -15107,7 +15108,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C118" s="29">
         <v>3456</v>
@@ -15121,7 +15122,7 @@
         <v>6</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C119" s="29">
         <v>3457</v>
@@ -15135,7 +15136,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C120" s="29">
         <v>3467</v>
@@ -15149,7 +15150,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C121" s="29">
         <v>3567</v>
@@ -15163,7 +15164,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C122" s="29">
         <v>4567</v>
@@ -15177,7 +15178,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C123" s="29">
         <v>12345</v>
@@ -15191,7 +15192,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C124" s="29">
         <v>12346</v>
@@ -15205,7 +15206,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C125" s="29">
         <v>12347</v>
@@ -15219,7 +15220,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C126" s="29">
         <v>12356</v>
@@ -15233,7 +15234,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C127" s="29">
         <v>12357</v>
@@ -15247,7 +15248,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C128" s="29">
         <v>12367</v>
@@ -15261,7 +15262,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C129" s="29">
         <v>12456</v>
@@ -15275,7 +15276,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C130" s="29">
         <v>12457</v>
@@ -15289,7 +15290,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C131" s="29">
         <v>12467</v>
@@ -15303,7 +15304,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C132" s="29">
         <v>12567</v>
@@ -15317,7 +15318,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C133" s="29">
         <v>13456</v>
@@ -15331,7 +15332,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C134" s="29">
         <v>13457</v>
@@ -15345,7 +15346,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C135" s="29">
         <v>13467</v>
@@ -15359,7 +15360,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C136" s="29">
         <v>13567</v>
@@ -15373,7 +15374,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C137" s="29">
         <v>14567</v>
@@ -15387,7 +15388,7 @@
         <v>6</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C138" s="29">
         <v>23456</v>
@@ -15401,7 +15402,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C139" s="29">
         <v>23457</v>
@@ -15415,7 +15416,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C140" s="29">
         <v>23467</v>
@@ -15429,7 +15430,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C141" s="29">
         <v>23567</v>
@@ -15443,7 +15444,7 @@
         <v>6</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C142" s="29">
         <v>24567</v>
@@ -15457,7 +15458,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C143" s="29">
         <v>34567</v>
@@ -15471,7 +15472,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C144" s="29">
         <v>123456</v>
@@ -15485,7 +15486,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C145" s="29">
         <v>123457</v>
@@ -15499,7 +15500,7 @@
         <v>6</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C146" s="29">
         <v>123467</v>
@@ -15513,7 +15514,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C147" s="29">
         <v>123567</v>
@@ -15527,7 +15528,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C148" s="29">
         <v>124567</v>
@@ -15541,7 +15542,7 @@
         <v>6</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C149" s="29">
         <v>134567</v>
@@ -15555,7 +15556,7 @@
         <v>6</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C150" s="29">
         <v>234567</v>
@@ -15569,7 +15570,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C151" s="29">
         <v>1234567</v>
@@ -16107,7 +16108,7 @@
         <v>99</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -16359,7 +16360,7 @@
         <v>419</v>
       </c>
       <c r="D207" s="29" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -16373,7 +16374,7 @@
         <v>420</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -16401,7 +16402,7 @@
         <v>428</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
@@ -16415,7 +16416,7 @@
         <v>431</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -16429,7 +16430,7 @@
         <v>433</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -16443,7 +16444,7 @@
         <v>434</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -16457,7 +16458,7 @@
         <v>436</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -16471,7 +16472,7 @@
         <v>437</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -16485,7 +16486,7 @@
         <v>438</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -16499,7 +16500,7 @@
         <v>439</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -16513,7 +16514,7 @@
         <v>440</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -16569,7 +16570,7 @@
         <v>99</v>
       </c>
       <c r="D222" s="29" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
@@ -16835,7 +16836,7 @@
         <v>419</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -16849,7 +16850,7 @@
         <v>420</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -16919,7 +16920,7 @@
         <v>428</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -16933,7 +16934,7 @@
         <v>431</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -16947,7 +16948,7 @@
         <v>433</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -16961,7 +16962,7 @@
         <v>434</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -16975,7 +16976,7 @@
         <v>436</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -16989,7 +16990,7 @@
         <v>437</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -17003,7 +17004,7 @@
         <v>438</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -17017,7 +17018,7 @@
         <v>439</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -17031,7 +17032,7 @@
         <v>440</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -19607,7 +19608,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="29" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -19621,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="29" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -19635,7 +19636,7 @@
         <v>2</v>
       </c>
       <c r="D441" s="29" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -19649,7 +19650,7 @@
         <v>3</v>
       </c>
       <c r="D442" s="29" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -20167,7 +20168,7 @@
         <v>9</v>
       </c>
       <c r="D479" s="29" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="480" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.45">
@@ -20181,7 +20182,7 @@
         <v>10</v>
       </c>
       <c r="D480" s="29" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
@@ -20755,7 +20756,7 @@
         <v>23</v>
       </c>
       <c r="D521" s="29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -20769,7 +20770,7 @@
         <v>24</v>
       </c>
       <c r="D522" s="29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -20783,7 +20784,7 @@
         <v>25</v>
       </c>
       <c r="D523" s="29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -20797,7 +20798,7 @@
         <v>26</v>
       </c>
       <c r="D524" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -20811,7 +20812,7 @@
         <v>27</v>
       </c>
       <c r="D525" s="29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -20825,7 +20826,7 @@
         <v>28</v>
       </c>
       <c r="D526" s="29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -20839,7 +20840,7 @@
         <v>29</v>
       </c>
       <c r="D527" s="29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -20853,7 +20854,7 @@
         <v>30</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -20867,7 +20868,7 @@
         <v>31</v>
       </c>
       <c r="D529" s="29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -20881,7 +20882,7 @@
         <v>32</v>
       </c>
       <c r="D530" s="29" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -20895,7 +20896,7 @@
         <v>33</v>
       </c>
       <c r="D531" s="29" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -20909,7 +20910,7 @@
         <v>34</v>
       </c>
       <c r="D532" s="29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -20923,7 +20924,7 @@
         <v>35</v>
       </c>
       <c r="D533" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -20937,7 +20938,7 @@
         <v>36</v>
       </c>
       <c r="D534" s="29" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -20951,7 +20952,7 @@
         <v>37</v>
       </c>
       <c r="D535" s="29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -20965,7 +20966,7 @@
         <v>38</v>
       </c>
       <c r="D536" s="29" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -20979,7 +20980,7 @@
         <v>39</v>
       </c>
       <c r="D537" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -20993,7 +20994,7 @@
         <v>40</v>
       </c>
       <c r="D538" s="29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -21007,7 +21008,7 @@
         <v>41</v>
       </c>
       <c r="D539" s="29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -21021,7 +21022,7 @@
         <v>42</v>
       </c>
       <c r="D540" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -21035,7 +21036,7 @@
         <v>43</v>
       </c>
       <c r="D541" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -21049,7 +21050,7 @@
         <v>44</v>
       </c>
       <c r="D542" s="29" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -21105,7 +21106,7 @@
         <v>48</v>
       </c>
       <c r="D546" s="29" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
@@ -21203,7 +21204,7 @@
         <v>56</v>
       </c>
       <c r="D553" s="29" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
@@ -21231,7 +21232,7 @@
         <v>58</v>
       </c>
       <c r="D555" s="29" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
@@ -21259,7 +21260,7 @@
         <v>60</v>
       </c>
       <c r="D557" s="29" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
@@ -21287,7 +21288,7 @@
         <v>62</v>
       </c>
       <c r="D559" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
@@ -21301,7 +21302,7 @@
         <v>63</v>
       </c>
       <c r="D560" s="29" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
@@ -21315,7 +21316,7 @@
         <v>64</v>
       </c>
       <c r="D561" s="29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
@@ -21329,7 +21330,7 @@
         <v>65</v>
       </c>
       <c r="D562" s="29" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
@@ -21357,7 +21358,7 @@
         <v>67</v>
       </c>
       <c r="D564" s="29" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
@@ -21385,7 +21386,7 @@
         <v>69</v>
       </c>
       <c r="D566" s="29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
@@ -21399,7 +21400,7 @@
         <v>70</v>
       </c>
       <c r="D567" s="29" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
@@ -21413,7 +21414,7 @@
         <v>71</v>
       </c>
       <c r="D568" s="29" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
@@ -21427,7 +21428,7 @@
         <v>72</v>
       </c>
       <c r="D569" s="29" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
@@ -21441,7 +21442,7 @@
         <v>73</v>
       </c>
       <c r="D570" s="29" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
@@ -21455,7 +21456,7 @@
         <v>74</v>
       </c>
       <c r="D571" s="29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
@@ -21469,7 +21470,7 @@
         <v>75</v>
       </c>
       <c r="D572" s="29" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
@@ -21483,7 +21484,7 @@
         <v>76</v>
       </c>
       <c r="D573" s="29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
@@ -21497,7 +21498,7 @@
         <v>77</v>
       </c>
       <c r="D574" s="29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
@@ -21609,7 +21610,7 @@
         <v>85</v>
       </c>
       <c r="D582" s="29" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.45">
@@ -21787,7 +21788,7 @@
         <v>97</v>
       </c>
       <c r="D594" s="29" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
@@ -21801,7 +21802,7 @@
         <v>1015</v>
       </c>
       <c r="D595" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
@@ -21815,7 +21816,7 @@
         <v>1018</v>
       </c>
       <c r="D596" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
@@ -21829,7 +21830,7 @@
         <v>1019</v>
       </c>
       <c r="D597" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
@@ -21843,7 +21844,7 @@
         <v>1020</v>
       </c>
       <c r="D598" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
@@ -21857,7 +21858,7 @@
         <v>1021</v>
       </c>
       <c r="D599" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
@@ -21871,7 +21872,7 @@
         <v>1022</v>
       </c>
       <c r="D600" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
@@ -21885,7 +21886,7 @@
         <v>1023</v>
       </c>
       <c r="D601" s="29" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
@@ -21899,7 +21900,7 @@
         <v>1024</v>
       </c>
       <c r="D602" s="29" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
@@ -21913,7 +21914,7 @@
         <v>1025</v>
       </c>
       <c r="D603" s="29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
@@ -21927,7 +21928,7 @@
         <v>1026</v>
       </c>
       <c r="D604" s="29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
@@ -21941,7 +21942,7 @@
         <v>1027</v>
       </c>
       <c r="D605" s="29" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
@@ -21955,7 +21956,7 @@
         <v>1028</v>
       </c>
       <c r="D606" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
@@ -21969,7 +21970,7 @@
         <v>1029</v>
       </c>
       <c r="D607" s="29" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
@@ -21983,7 +21984,7 @@
         <v>1030</v>
       </c>
       <c r="D608" s="29" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
@@ -21997,7 +21998,7 @@
         <v>1031</v>
       </c>
       <c r="D609" s="29" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
@@ -22011,7 +22012,7 @@
         <v>1032</v>
       </c>
       <c r="D610" s="29" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
@@ -22025,7 +22026,7 @@
         <v>1033</v>
       </c>
       <c r="D611" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
@@ -22039,7 +22040,7 @@
         <v>1034</v>
       </c>
       <c r="D612" s="29" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
@@ -22053,7 +22054,7 @@
         <v>1035</v>
       </c>
       <c r="D613" s="29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
@@ -22067,7 +22068,7 @@
         <v>1036</v>
       </c>
       <c r="D614" s="29" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
@@ -22081,7 +22082,7 @@
         <v>1037</v>
       </c>
       <c r="D615" s="29" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.45">
@@ -22095,7 +22096,7 @@
         <v>1038</v>
       </c>
       <c r="D616" s="29" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
@@ -22109,7 +22110,7 @@
         <v>1039</v>
       </c>
       <c r="D617" s="29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
@@ -22123,7 +22124,7 @@
         <v>1040</v>
       </c>
       <c r="D618" s="29" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
@@ -22137,7 +22138,7 @@
         <v>1041</v>
       </c>
       <c r="D619" s="29" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
@@ -22151,7 +22152,7 @@
         <v>1042</v>
       </c>
       <c r="D620" s="29" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
@@ -22165,7 +22166,7 @@
         <v>1043</v>
       </c>
       <c r="D621" s="29" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
@@ -22179,7 +22180,7 @@
         <v>1044</v>
       </c>
       <c r="D622" s="29" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
@@ -22193,7 +22194,7 @@
         <v>1048</v>
       </c>
       <c r="D623" s="29" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
@@ -22207,7 +22208,7 @@
         <v>1115</v>
       </c>
       <c r="D624" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.45">
@@ -22221,7 +22222,7 @@
         <v>1118</v>
       </c>
       <c r="D625" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.45">
@@ -22235,7 +22236,7 @@
         <v>1119</v>
       </c>
       <c r="D626" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.45">
@@ -22249,7 +22250,7 @@
         <v>1120</v>
       </c>
       <c r="D627" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.45">
@@ -22263,7 +22264,7 @@
         <v>1121</v>
       </c>
       <c r="D628" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.45">
@@ -22277,7 +22278,7 @@
         <v>1122</v>
       </c>
       <c r="D629" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.45">
@@ -22291,7 +22292,7 @@
         <v>1123</v>
       </c>
       <c r="D630" s="29" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.45">
@@ -22305,7 +22306,7 @@
         <v>1124</v>
       </c>
       <c r="D631" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F631" s="26"/>
     </row>
@@ -22320,7 +22321,7 @@
         <v>1125</v>
       </c>
       <c r="D632" s="29" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F632" s="26"/>
     </row>
@@ -22335,7 +22336,7 @@
         <v>1126</v>
       </c>
       <c r="D633" s="29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F633" s="26"/>
     </row>
@@ -22350,7 +22351,7 @@
         <v>1127</v>
       </c>
       <c r="D634" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F634" s="26"/>
     </row>
@@ -22365,7 +22366,7 @@
         <v>1128</v>
       </c>
       <c r="D635" s="29" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F635" s="26"/>
     </row>
@@ -22380,7 +22381,7 @@
         <v>1129</v>
       </c>
       <c r="D636" s="29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F636" s="26"/>
     </row>
@@ -22395,7 +22396,7 @@
         <v>1130</v>
       </c>
       <c r="D637" s="29" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F637" s="26"/>
     </row>
@@ -22410,7 +22411,7 @@
         <v>1131</v>
       </c>
       <c r="D638" s="29" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F638" s="26"/>
     </row>
@@ -22425,7 +22426,7 @@
         <v>1132</v>
       </c>
       <c r="D639" s="29" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F639" s="26"/>
     </row>
@@ -22440,7 +22441,7 @@
         <v>1133</v>
       </c>
       <c r="D640" s="29" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F640" s="26"/>
     </row>
@@ -22455,7 +22456,7 @@
         <v>1134</v>
       </c>
       <c r="D641" s="29" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F641" s="26"/>
     </row>
@@ -22470,7 +22471,7 @@
         <v>1135</v>
       </c>
       <c r="D642" s="29" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F642" s="26"/>
     </row>
@@ -22485,7 +22486,7 @@
         <v>1136</v>
       </c>
       <c r="D643" s="29" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F643" s="26"/>
     </row>
@@ -22500,7 +22501,7 @@
         <v>1137</v>
       </c>
       <c r="D644" s="29" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F644" s="26"/>
     </row>
@@ -22515,7 +22516,7 @@
         <v>1138</v>
       </c>
       <c r="D645" s="29" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F645" s="26"/>
     </row>
@@ -22530,7 +22531,7 @@
         <v>1139</v>
       </c>
       <c r="D646" s="29" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F646" s="26"/>
     </row>
@@ -22545,7 +22546,7 @@
         <v>1140</v>
       </c>
       <c r="D647" s="29" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F647" s="26"/>
     </row>
@@ -22560,7 +22561,7 @@
         <v>1141</v>
       </c>
       <c r="D648" s="29" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F648" s="26"/>
     </row>
@@ -22575,7 +22576,7 @@
         <v>1142</v>
       </c>
       <c r="D649" s="29" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F649" s="26"/>
     </row>
@@ -22590,7 +22591,7 @@
         <v>1143</v>
       </c>
       <c r="D650" s="29" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F650" s="26"/>
     </row>
@@ -22605,7 +22606,7 @@
         <v>1144</v>
       </c>
       <c r="D651" s="29" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F651" s="26"/>
     </row>
@@ -22620,7 +22621,7 @@
         <v>1148</v>
       </c>
       <c r="D652" s="29" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.45">
@@ -22663,7 +22664,7 @@
         <v>1215</v>
       </c>
       <c r="D655" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.45">
@@ -22677,7 +22678,7 @@
         <v>1218</v>
       </c>
       <c r="D656" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.45">
@@ -22691,7 +22692,7 @@
         <v>1219</v>
       </c>
       <c r="D657" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.45">
@@ -22705,7 +22706,7 @@
         <v>1220</v>
       </c>
       <c r="D658" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.45">
@@ -22719,7 +22720,7 @@
         <v>1221</v>
       </c>
       <c r="D659" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.45">
@@ -22733,7 +22734,7 @@
         <v>1222</v>
       </c>
       <c r="D660" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F660" s="26"/>
     </row>
@@ -22748,7 +22749,7 @@
         <v>1223</v>
       </c>
       <c r="D661" s="29" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F661" s="26"/>
     </row>
@@ -22763,7 +22764,7 @@
         <v>1224</v>
       </c>
       <c r="D662" s="29" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F662" s="26"/>
     </row>
@@ -22778,7 +22779,7 @@
         <v>1225</v>
       </c>
       <c r="D663" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F663" s="26"/>
     </row>
@@ -22793,7 +22794,7 @@
         <v>1226</v>
       </c>
       <c r="D664" s="29" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F664" s="26"/>
     </row>
@@ -22808,7 +22809,7 @@
         <v>1227</v>
       </c>
       <c r="D665" s="29" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F665" s="26"/>
     </row>
@@ -22823,7 +22824,7 @@
         <v>1228</v>
       </c>
       <c r="D666" s="29" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F666" s="26"/>
     </row>
@@ -22838,7 +22839,7 @@
         <v>1229</v>
       </c>
       <c r="D667" s="29" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F667" s="26"/>
     </row>
@@ -22853,7 +22854,7 @@
         <v>1230</v>
       </c>
       <c r="D668" s="29" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F668" s="26"/>
     </row>
@@ -22868,7 +22869,7 @@
         <v>1231</v>
       </c>
       <c r="D669" s="29" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F669" s="26"/>
     </row>
@@ -22883,7 +22884,7 @@
         <v>1232</v>
       </c>
       <c r="D670" s="29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F670" s="26"/>
     </row>
@@ -22898,7 +22899,7 @@
         <v>1233</v>
       </c>
       <c r="D671" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F671" s="26"/>
     </row>
@@ -22913,7 +22914,7 @@
         <v>1234</v>
       </c>
       <c r="D672" s="29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F672" s="26"/>
     </row>
@@ -22928,7 +22929,7 @@
         <v>1235</v>
       </c>
       <c r="D673" s="29" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F673" s="26"/>
     </row>
@@ -22943,7 +22944,7 @@
         <v>1236</v>
       </c>
       <c r="D674" s="29" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F674" s="26"/>
     </row>
@@ -22958,7 +22959,7 @@
         <v>1237</v>
       </c>
       <c r="D675" s="29" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F675" s="26"/>
     </row>
@@ -22973,7 +22974,7 @@
         <v>1238</v>
       </c>
       <c r="D676" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F676" s="26"/>
     </row>
@@ -22988,7 +22989,7 @@
         <v>1239</v>
       </c>
       <c r="D677" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F677" s="26"/>
     </row>
@@ -23003,7 +23004,7 @@
         <v>1240</v>
       </c>
       <c r="D678" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F678" s="26"/>
     </row>
@@ -23018,7 +23019,7 @@
         <v>1241</v>
       </c>
       <c r="D679" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F679" s="26"/>
     </row>
@@ -23033,7 +23034,7 @@
         <v>1242</v>
       </c>
       <c r="D680" s="29" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F680" s="26"/>
     </row>
@@ -23048,7 +23049,7 @@
         <v>1243</v>
       </c>
       <c r="D681" s="29" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F681" s="26"/>
     </row>
@@ -23063,7 +23064,7 @@
         <v>1244</v>
       </c>
       <c r="D682" s="29" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.45">
@@ -23077,7 +23078,7 @@
         <v>1248</v>
       </c>
       <c r="D683" s="29" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.45">
@@ -23119,7 +23120,7 @@
         <v>1315</v>
       </c>
       <c r="D686" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.45">
@@ -23133,7 +23134,7 @@
         <v>1318</v>
       </c>
       <c r="D687" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.45">
@@ -23147,7 +23148,7 @@
         <v>1319</v>
       </c>
       <c r="D688" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.45">
@@ -23161,7 +23162,7 @@
         <v>1320</v>
       </c>
       <c r="D689" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.45">
@@ -23175,7 +23176,7 @@
         <v>1321</v>
       </c>
       <c r="D690" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.45">
@@ -23189,7 +23190,7 @@
         <v>1322</v>
       </c>
       <c r="D691" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F691" s="26"/>
     </row>
@@ -23204,7 +23205,7 @@
         <v>1323</v>
       </c>
       <c r="D692" s="29" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F692" s="26"/>
     </row>
@@ -23219,7 +23220,7 @@
         <v>1324</v>
       </c>
       <c r="D693" s="29" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F693" s="26"/>
     </row>
@@ -23234,7 +23235,7 @@
         <v>1325</v>
       </c>
       <c r="D694" s="29" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F694" s="26"/>
     </row>
@@ -23249,7 +23250,7 @@
         <v>1326</v>
       </c>
       <c r="D695" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F695" s="26"/>
     </row>
@@ -23264,7 +23265,7 @@
         <v>1327</v>
       </c>
       <c r="D696" s="29" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F696" s="26"/>
     </row>
@@ -23279,7 +23280,7 @@
         <v>1328</v>
       </c>
       <c r="D697" s="29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F697" s="26"/>
     </row>
@@ -23294,7 +23295,7 @@
         <v>1329</v>
       </c>
       <c r="D698" s="29" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F698" s="26"/>
     </row>
@@ -23309,7 +23310,7 @@
         <v>1330</v>
       </c>
       <c r="D699" s="29" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F699" s="26"/>
     </row>
@@ -23324,7 +23325,7 @@
         <v>1331</v>
       </c>
       <c r="D700" s="29" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F700" s="26"/>
     </row>
@@ -23339,7 +23340,7 @@
         <v>1332</v>
       </c>
       <c r="D701" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F701" s="26"/>
     </row>
@@ -23354,7 +23355,7 @@
         <v>1333</v>
       </c>
       <c r="D702" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F702" s="26"/>
     </row>
@@ -23369,7 +23370,7 @@
         <v>1334</v>
       </c>
       <c r="D703" s="29" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F703" s="26"/>
     </row>
@@ -23384,7 +23385,7 @@
         <v>1335</v>
       </c>
       <c r="D704" s="29" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F704" s="26"/>
     </row>
@@ -23399,7 +23400,7 @@
         <v>1336</v>
       </c>
       <c r="D705" s="29" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F705" s="26"/>
     </row>
@@ -23414,7 +23415,7 @@
         <v>1337</v>
       </c>
       <c r="D706" s="29" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F706" s="26"/>
     </row>
@@ -23429,7 +23430,7 @@
         <v>1338</v>
       </c>
       <c r="D707" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F707" s="26"/>
     </row>
@@ -23444,7 +23445,7 @@
         <v>1339</v>
       </c>
       <c r="D708" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F708" s="26"/>
     </row>
@@ -23459,7 +23460,7 @@
         <v>1340</v>
       </c>
       <c r="D709" s="29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F709" s="26"/>
     </row>
@@ -23474,7 +23475,7 @@
         <v>1341</v>
       </c>
       <c r="D710" s="29" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F710" s="26"/>
     </row>
@@ -23489,7 +23490,7 @@
         <v>1342</v>
       </c>
       <c r="D711" s="29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F711" s="26"/>
     </row>
@@ -23504,7 +23505,7 @@
         <v>1343</v>
       </c>
       <c r="D712" s="29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F712" s="26"/>
     </row>
@@ -23519,7 +23520,7 @@
         <v>1344</v>
       </c>
       <c r="D713" s="29" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.45">
@@ -23533,7 +23534,7 @@
         <v>1345</v>
       </c>
       <c r="D714" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.45">
@@ -23547,7 +23548,7 @@
         <v>1347</v>
       </c>
       <c r="D715" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.45">
@@ -23561,7 +23562,7 @@
         <v>1348</v>
       </c>
       <c r="D716" s="29" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.45">
@@ -23575,7 +23576,7 @@
         <v>1415</v>
       </c>
       <c r="D717" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.45">
@@ -23589,7 +23590,7 @@
         <v>1418</v>
       </c>
       <c r="D718" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.45">
@@ -23603,7 +23604,7 @@
         <v>1419</v>
       </c>
       <c r="D719" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.45">
@@ -23617,7 +23618,7 @@
         <v>1420</v>
       </c>
       <c r="D720" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.45">
@@ -23631,7 +23632,7 @@
         <v>1421</v>
       </c>
       <c r="D721" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.45">
@@ -23645,7 +23646,7 @@
         <v>1422</v>
       </c>
       <c r="D722" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F722" s="26"/>
     </row>
@@ -23660,7 +23661,7 @@
         <v>1423</v>
       </c>
       <c r="D723" s="29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F723" s="26"/>
     </row>
@@ -23675,7 +23676,7 @@
         <v>1424</v>
       </c>
       <c r="D724" s="29" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F724" s="26"/>
     </row>
@@ -23690,7 +23691,7 @@
         <v>1425</v>
       </c>
       <c r="D725" s="29" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F725" s="26"/>
     </row>
@@ -23705,7 +23706,7 @@
         <v>1426</v>
       </c>
       <c r="D726" s="29" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F726" s="26"/>
     </row>
@@ -23720,7 +23721,7 @@
         <v>1427</v>
       </c>
       <c r="D727" s="29" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F727" s="26"/>
     </row>
@@ -23735,7 +23736,7 @@
         <v>1428</v>
       </c>
       <c r="D728" s="29" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F728" s="26"/>
     </row>
@@ -23750,7 +23751,7 @@
         <v>1429</v>
       </c>
       <c r="D729" s="29" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F729" s="26"/>
     </row>
@@ -23765,7 +23766,7 @@
         <v>1430</v>
       </c>
       <c r="D730" s="29" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F730" s="26"/>
     </row>
@@ -23780,7 +23781,7 @@
         <v>1431</v>
       </c>
       <c r="D731" s="29" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F731" s="26"/>
     </row>
@@ -23795,7 +23796,7 @@
         <v>1432</v>
       </c>
       <c r="D732" s="29" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F732" s="26"/>
     </row>
@@ -23810,7 +23811,7 @@
         <v>1433</v>
       </c>
       <c r="D733" s="29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F733" s="26"/>
     </row>
@@ -23825,7 +23826,7 @@
         <v>1434</v>
       </c>
       <c r="D734" s="29" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F734" s="26"/>
     </row>
@@ -23840,7 +23841,7 @@
         <v>1435</v>
       </c>
       <c r="D735" s="29" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F735" s="26"/>
     </row>
@@ -23855,7 +23856,7 @@
         <v>1436</v>
       </c>
       <c r="D736" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F736" s="26"/>
     </row>
@@ -23870,7 +23871,7 @@
         <v>1437</v>
       </c>
       <c r="D737" s="29" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F737" s="26"/>
     </row>
@@ -23885,7 +23886,7 @@
         <v>1438</v>
       </c>
       <c r="D738" s="29" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F738" s="26"/>
     </row>
@@ -23900,7 +23901,7 @@
         <v>1439</v>
       </c>
       <c r="D739" s="29" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F739" s="26"/>
     </row>
@@ -23915,7 +23916,7 @@
         <v>1440</v>
       </c>
       <c r="D740" s="29" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F740" s="26"/>
     </row>
@@ -23930,7 +23931,7 @@
         <v>1441</v>
       </c>
       <c r="D741" s="29" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F741" s="26"/>
     </row>
@@ -23945,7 +23946,7 @@
         <v>1442</v>
       </c>
       <c r="D742" s="29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F742" s="26"/>
     </row>
@@ -23960,7 +23961,7 @@
         <v>1443</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F743" s="26"/>
     </row>
@@ -23975,7 +23976,7 @@
         <v>1444</v>
       </c>
       <c r="D744" s="29" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.45">
@@ -23989,7 +23990,7 @@
         <v>1445</v>
       </c>
       <c r="D745" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.45">
@@ -24003,7 +24004,7 @@
         <v>1448</v>
       </c>
       <c r="D746" s="29" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.45">
@@ -24017,7 +24018,7 @@
         <v>1519</v>
       </c>
       <c r="D747" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.45">
@@ -24031,7 +24032,7 @@
         <v>1520</v>
       </c>
       <c r="D748" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.45">
@@ -24045,7 +24046,7 @@
         <v>1521</v>
       </c>
       <c r="D749" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.45">
@@ -24059,7 +24060,7 @@
         <v>1522</v>
       </c>
       <c r="D750" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.45">
@@ -24073,7 +24074,7 @@
         <v>1523</v>
       </c>
       <c r="D751" s="29" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.45">
@@ -24087,7 +24088,7 @@
         <v>1524</v>
       </c>
       <c r="D752" s="29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.45">
@@ -24101,7 +24102,7 @@
         <v>1525</v>
       </c>
       <c r="D753" s="29" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.45">
@@ -24115,7 +24116,7 @@
         <v>1526</v>
       </c>
       <c r="D754" s="29" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.45">
@@ -24129,7 +24130,7 @@
         <v>1527</v>
       </c>
       <c r="D755" s="29" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.45">
@@ -24143,7 +24144,7 @@
         <v>1528</v>
       </c>
       <c r="D756" s="29" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.45">
@@ -24157,7 +24158,7 @@
         <v>1529</v>
       </c>
       <c r="D757" s="29" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.45">
@@ -24171,7 +24172,7 @@
         <v>1530</v>
       </c>
       <c r="D758" s="29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.45">
@@ -24185,7 +24186,7 @@
         <v>1531</v>
       </c>
       <c r="D759" s="29" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.45">
@@ -24199,7 +24200,7 @@
         <v>1532</v>
       </c>
       <c r="D760" s="29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.45">
@@ -24213,7 +24214,7 @@
         <v>1533</v>
       </c>
       <c r="D761" s="29" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.45">
@@ -24227,7 +24228,7 @@
         <v>1534</v>
       </c>
       <c r="D762" s="29" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.45">
@@ -24241,7 +24242,7 @@
         <v>1535</v>
       </c>
       <c r="D763" s="29" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.45">
@@ -24255,7 +24256,7 @@
         <v>1536</v>
       </c>
       <c r="D764" s="29" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.45">
@@ -24269,7 +24270,7 @@
         <v>1537</v>
       </c>
       <c r="D765" s="29" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.45">
@@ -24283,7 +24284,7 @@
         <v>1538</v>
       </c>
       <c r="D766" s="29" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.45">
@@ -24297,7 +24298,7 @@
         <v>1539</v>
       </c>
       <c r="D767" s="29" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.45">
@@ -24311,7 +24312,7 @@
         <v>1540</v>
       </c>
       <c r="D768" s="29" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.45">
@@ -24325,7 +24326,7 @@
         <v>1541</v>
       </c>
       <c r="D769" s="29" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.45">
@@ -24339,7 +24340,7 @@
         <v>1542</v>
       </c>
       <c r="D770" s="29" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.45">
@@ -24353,7 +24354,7 @@
         <v>1543</v>
       </c>
       <c r="D771" s="29" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.45">
@@ -24367,7 +24368,7 @@
         <v>1544</v>
       </c>
       <c r="D772" s="29" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.45">
@@ -24381,7 +24382,7 @@
         <v>1545</v>
       </c>
       <c r="D773" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.45">
@@ -24395,7 +24396,7 @@
         <v>1546</v>
       </c>
       <c r="D774" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.45">
@@ -24409,7 +24410,7 @@
         <v>1547</v>
       </c>
       <c r="D775" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
@@ -24423,7 +24424,7 @@
         <v>1548</v>
       </c>
       <c r="D776" s="29" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.45">
@@ -24479,7 +24480,7 @@
         <v>5056</v>
       </c>
       <c r="D780" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.45">
@@ -24493,7 +24494,7 @@
         <v>5057</v>
       </c>
       <c r="D781" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.45">
@@ -24507,7 +24508,7 @@
         <v>5058</v>
       </c>
       <c r="D782" s="29" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.45">
@@ -24521,7 +24522,7 @@
         <v>5059</v>
       </c>
       <c r="D783" s="29" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.45">
@@ -24535,7 +24536,7 @@
         <v>5060</v>
       </c>
       <c r="D784" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.45">
@@ -24549,7 +24550,7 @@
         <v>5061</v>
       </c>
       <c r="D785" s="29" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.45">
@@ -24563,7 +24564,7 @@
         <v>5062</v>
       </c>
       <c r="D786" s="29" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.45">
@@ -24577,7 +24578,7 @@
         <v>5063</v>
       </c>
       <c r="D787" s="29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.45">
@@ -24591,7 +24592,7 @@
         <v>5064</v>
       </c>
       <c r="D788" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.45">
@@ -24605,7 +24606,7 @@
         <v>5065</v>
       </c>
       <c r="D789" s="29" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.45">
@@ -24619,7 +24620,7 @@
         <v>5066</v>
       </c>
       <c r="D790" s="29" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.45">
@@ -24633,7 +24634,7 @@
         <v>5067</v>
       </c>
       <c r="D791" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.45">
@@ -24647,7 +24648,7 @@
         <v>5068</v>
       </c>
       <c r="D792" s="29" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.45">
@@ -24661,7 +24662,7 @@
         <v>5069</v>
       </c>
       <c r="D793" s="29" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.45">
@@ -24675,7 +24676,7 @@
         <v>5070</v>
       </c>
       <c r="D794" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.45">
@@ -24689,7 +24690,7 @@
         <v>5071</v>
       </c>
       <c r="D795" s="29" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.45">
@@ -24703,7 +24704,7 @@
         <v>5072</v>
       </c>
       <c r="D796" s="29" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.45">
@@ -24717,7 +24718,7 @@
         <v>5073</v>
       </c>
       <c r="D797" s="29" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.45">
@@ -24731,7 +24732,7 @@
         <v>5074</v>
       </c>
       <c r="D798" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.45">
@@ -24745,7 +24746,7 @@
         <v>5075</v>
       </c>
       <c r="D799" s="29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.45">
@@ -24759,7 +24760,7 @@
         <v>5076</v>
       </c>
       <c r="D800" s="29" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.45">
@@ -24773,7 +24774,7 @@
         <v>5077</v>
       </c>
       <c r="D801" s="29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.45">
@@ -24787,7 +24788,7 @@
         <v>5078</v>
       </c>
       <c r="D802" s="29" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.45">
@@ -24801,7 +24802,7 @@
         <v>5079</v>
       </c>
       <c r="D803" s="29" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.45">
@@ -24815,7 +24816,7 @@
         <v>5080</v>
       </c>
       <c r="D804" s="29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.45">
@@ -24843,7 +24844,7 @@
         <v>5082</v>
       </c>
       <c r="D806" s="29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.45">
@@ -24871,7 +24872,7 @@
         <v>5084</v>
       </c>
       <c r="D808" s="29" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.45">
@@ -24885,7 +24886,7 @@
         <v>5085</v>
       </c>
       <c r="D809" s="29" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.45">
@@ -24899,7 +24900,7 @@
         <v>5097</v>
       </c>
       <c r="D810" s="29" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.45">
@@ -24913,7 +24914,7 @@
         <v>5153</v>
       </c>
       <c r="D811" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -24927,7 +24928,7 @@
         <v>5154</v>
       </c>
       <c r="D812" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.45">
@@ -24941,7 +24942,7 @@
         <v>5155</v>
       </c>
       <c r="D813" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.45">
@@ -24955,7 +24956,7 @@
         <v>5156</v>
       </c>
       <c r="D814" s="29" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.45">
@@ -24969,7 +24970,7 @@
         <v>5157</v>
       </c>
       <c r="D815" s="29" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.45">
@@ -24983,7 +24984,7 @@
         <v>5158</v>
       </c>
       <c r="D816" s="29" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.45">
@@ -24997,7 +24998,7 @@
         <v>5159</v>
       </c>
       <c r="D817" s="29" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.45">
@@ -25011,7 +25012,7 @@
         <v>5160</v>
       </c>
       <c r="D818" s="29" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.45">
@@ -25025,7 +25026,7 @@
         <v>5161</v>
       </c>
       <c r="D819" s="29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.45">
@@ -25039,7 +25040,7 @@
         <v>5162</v>
       </c>
       <c r="D820" s="29" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.45">
@@ -25053,7 +25054,7 @@
         <v>5163</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.45">
@@ -25067,7 +25068,7 @@
         <v>5164</v>
       </c>
       <c r="D822" s="29" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.45">
@@ -25081,7 +25082,7 @@
         <v>5165</v>
       </c>
       <c r="D823" s="29" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.45">
@@ -25095,7 +25096,7 @@
         <v>5166</v>
       </c>
       <c r="D824" s="29" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.45">
@@ -25109,7 +25110,7 @@
         <v>5167</v>
       </c>
       <c r="D825" s="29" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.45">
@@ -25123,7 +25124,7 @@
         <v>5168</v>
       </c>
       <c r="D826" s="29" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.45">
@@ -25137,7 +25138,7 @@
         <v>5169</v>
       </c>
       <c r="D827" s="29" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.45">
@@ -25151,7 +25152,7 @@
         <v>5170</v>
       </c>
       <c r="D828" s="29" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.45">
@@ -25165,7 +25166,7 @@
         <v>5171</v>
       </c>
       <c r="D829" s="29" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.45">
@@ -25179,7 +25180,7 @@
         <v>5172</v>
       </c>
       <c r="D830" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.45">
@@ -25193,7 +25194,7 @@
         <v>5173</v>
       </c>
       <c r="D831" s="29" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.45">
@@ -25207,7 +25208,7 @@
         <v>5174</v>
       </c>
       <c r="D832" s="29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.45">
@@ -25221,7 +25222,7 @@
         <v>5175</v>
       </c>
       <c r="D833" s="29" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.45">
@@ -25235,7 +25236,7 @@
         <v>5176</v>
       </c>
       <c r="D834" s="29" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.45">
@@ -25249,7 +25250,7 @@
         <v>5177</v>
       </c>
       <c r="D835" s="29" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.45">
@@ -25263,7 +25264,7 @@
         <v>5178</v>
       </c>
       <c r="D836" s="29" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.45">
@@ -25277,7 +25278,7 @@
         <v>5179</v>
       </c>
       <c r="D837" s="29" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.45">
@@ -25291,7 +25292,7 @@
         <v>5180</v>
       </c>
       <c r="D838" s="29" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.45">
@@ -25305,7 +25306,7 @@
         <v>5181</v>
       </c>
       <c r="D839" s="29" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.45">
@@ -25319,7 +25320,7 @@
         <v>5182</v>
       </c>
       <c r="D840" s="29" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.45">
@@ -25333,7 +25334,7 @@
         <v>5183</v>
       </c>
       <c r="D841" s="29" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.45">
@@ -25347,7 +25348,7 @@
         <v>5184</v>
       </c>
       <c r="D842" s="29" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.45">
@@ -25361,7 +25362,7 @@
         <v>5185</v>
       </c>
       <c r="D843" s="29" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.45">
@@ -25375,7 +25376,7 @@
         <v>5197</v>
       </c>
       <c r="D844" s="29" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.45">
@@ -25389,7 +25390,7 @@
         <v>5253</v>
       </c>
       <c r="D845" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25403,7 +25404,7 @@
         <v>5254</v>
       </c>
       <c r="D846" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.45">
@@ -25431,7 +25432,7 @@
         <v>5256</v>
       </c>
       <c r="D848" s="29" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.45">
@@ -25445,7 +25446,7 @@
         <v>5257</v>
       </c>
       <c r="D849" s="29" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.45">
@@ -25459,7 +25460,7 @@
         <v>5258</v>
       </c>
       <c r="D850" s="29" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.45">
@@ -25473,7 +25474,7 @@
         <v>5259</v>
       </c>
       <c r="D851" s="29" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.45">
@@ -25487,7 +25488,7 @@
         <v>5260</v>
       </c>
       <c r="D852" s="29" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.45">
@@ -25501,7 +25502,7 @@
         <v>5261</v>
       </c>
       <c r="D853" s="29" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.45">
@@ -25515,7 +25516,7 @@
         <v>5262</v>
       </c>
       <c r="D854" s="29" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.45">
@@ -25529,7 +25530,7 @@
         <v>5263</v>
       </c>
       <c r="D855" s="29" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.45">
@@ -25543,7 +25544,7 @@
         <v>5264</v>
       </c>
       <c r="D856" s="29" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.45">
@@ -25557,7 +25558,7 @@
         <v>5265</v>
       </c>
       <c r="D857" s="29" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.45">
@@ -25571,7 +25572,7 @@
         <v>5266</v>
       </c>
       <c r="D858" s="29" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.45">
@@ -25585,7 +25586,7 @@
         <v>5267</v>
       </c>
       <c r="D859" s="29" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.45">
@@ -25599,7 +25600,7 @@
         <v>5268</v>
       </c>
       <c r="D860" s="29" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.45">
@@ -25613,7 +25614,7 @@
         <v>5269</v>
       </c>
       <c r="D861" s="29" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.45">
@@ -25627,7 +25628,7 @@
         <v>5270</v>
       </c>
       <c r="D862" s="29" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.45">
@@ -25641,7 +25642,7 @@
         <v>5271</v>
       </c>
       <c r="D863" s="29" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.45">
@@ -25655,7 +25656,7 @@
         <v>5272</v>
       </c>
       <c r="D864" s="29" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.45">
@@ -25669,7 +25670,7 @@
         <v>5273</v>
       </c>
       <c r="D865" s="29" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.45">
@@ -25683,7 +25684,7 @@
         <v>5274</v>
       </c>
       <c r="D866" s="29" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.45">
@@ -25697,7 +25698,7 @@
         <v>5275</v>
       </c>
       <c r="D867" s="29" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.45">
@@ -25711,7 +25712,7 @@
         <v>5276</v>
       </c>
       <c r="D868" s="29" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.45">
@@ -25725,7 +25726,7 @@
         <v>5277</v>
       </c>
       <c r="D869" s="29" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.45">
@@ -25739,7 +25740,7 @@
         <v>5278</v>
       </c>
       <c r="D870" s="29" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.45">
@@ -25753,7 +25754,7 @@
         <v>5279</v>
       </c>
       <c r="D871" s="29" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.45">
@@ -25767,7 +25768,7 @@
         <v>5280</v>
       </c>
       <c r="D872" s="29" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.45">
@@ -25795,7 +25796,7 @@
         <v>5282</v>
       </c>
       <c r="D874" s="29" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.45">
@@ -25823,7 +25824,7 @@
         <v>5284</v>
       </c>
       <c r="D876" s="29" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.45">
@@ -25837,7 +25838,7 @@
         <v>5285</v>
       </c>
       <c r="D877" s="29" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
@@ -25851,7 +25852,7 @@
         <v>5297</v>
       </c>
       <c r="D878" s="29" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
@@ -26453,7 +26454,7 @@
         <v>65</v>
       </c>
       <c r="D921" s="29" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.45">
@@ -26467,7 +26468,7 @@
         <v>66</v>
       </c>
       <c r="D922" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.45">
@@ -26481,7 +26482,7 @@
         <v>101</v>
       </c>
       <c r="D923" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.45">
@@ -26495,7 +26496,7 @@
         <v>102</v>
       </c>
       <c r="D924" s="29" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.45">
@@ -26509,7 +26510,7 @@
         <v>103</v>
       </c>
       <c r="D925" s="29" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.45">
@@ -26523,7 +26524,7 @@
         <v>104</v>
       </c>
       <c r="D926" s="29" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.45">
@@ -26537,7 +26538,7 @@
         <v>105</v>
       </c>
       <c r="D927" s="29" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.45">
@@ -26551,7 +26552,7 @@
         <v>106</v>
       </c>
       <c r="D928" s="29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.45">
@@ -26565,7 +26566,7 @@
         <v>107</v>
       </c>
       <c r="D929" s="29" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.45">
@@ -26579,7 +26580,7 @@
         <v>108</v>
       </c>
       <c r="D930" s="29" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.45">
@@ -26593,7 +26594,7 @@
         <v>109</v>
       </c>
       <c r="D931" s="29" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.45">
@@ -26607,7 +26608,7 @@
         <v>110</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.45">
@@ -26621,7 +26622,7 @@
         <v>111</v>
       </c>
       <c r="D933" s="29" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.45">
@@ -26635,7 +26636,7 @@
         <v>112</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.45">
@@ -26649,7 +26650,7 @@
         <v>113</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.45">
@@ -26663,7 +26664,7 @@
         <v>114</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.45">
@@ -26677,7 +26678,7 @@
         <v>115</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.45">
@@ -26691,7 +26692,7 @@
         <v>116</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.45">
@@ -26705,7 +26706,7 @@
         <v>117</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.45">
@@ -26719,7 +26720,7 @@
         <v>118</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.45">
@@ -26733,7 +26734,7 @@
         <v>119</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.45">
@@ -26747,7 +26748,7 @@
         <v>120</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.45">
@@ -26761,7 +26762,7 @@
         <v>121</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.45">
@@ -26775,7 +26776,7 @@
         <v>122</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.45">
@@ -26789,7 +26790,7 @@
         <v>123</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.45">
@@ -26803,7 +26804,7 @@
         <v>124</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.45">
@@ -26817,7 +26818,7 @@
         <v>125</v>
       </c>
       <c r="D947" s="29" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.45">
@@ -26831,7 +26832,7 @@
         <v>126</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.45">
@@ -26845,7 +26846,7 @@
         <v>127</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.45">
@@ -26859,7 +26860,7 @@
         <v>128</v>
       </c>
       <c r="D950" s="29" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.45">
@@ -26873,7 +26874,7 @@
         <v>129</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.45">
@@ -26887,7 +26888,7 @@
         <v>130</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.45">
@@ -26901,7 +26902,7 @@
         <v>131</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.45">
@@ -26915,7 +26916,7 @@
         <v>132</v>
       </c>
       <c r="D954" s="29" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.45">
@@ -26929,7 +26930,7 @@
         <v>133</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.45">
@@ -26943,7 +26944,7 @@
         <v>134</v>
       </c>
       <c r="D956" s="29" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.45">
@@ -26957,7 +26958,7 @@
         <v>135</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.45">
@@ -26971,7 +26972,7 @@
         <v>136</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -26985,7 +26986,7 @@
         <v>901</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E959" s="3"/>
     </row>
@@ -27000,7 +27001,7 @@
         <v>902</v>
       </c>
       <c r="D960" s="28" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E960" s="3"/>
     </row>
@@ -27015,7 +27016,7 @@
         <v>903</v>
       </c>
       <c r="D961" s="28" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E961" s="3"/>
     </row>
@@ -27030,7 +27031,7 @@
         <v>904</v>
       </c>
       <c r="D962" s="28" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E962" s="3"/>
     </row>
@@ -27045,7 +27046,7 @@
         <v>905</v>
       </c>
       <c r="D963" s="28" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E963" s="3"/>
     </row>
@@ -27060,7 +27061,7 @@
         <v>906</v>
       </c>
       <c r="D964" s="28" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E964" s="3"/>
     </row>
@@ -27075,7 +27076,7 @@
         <v>907</v>
       </c>
       <c r="D965" s="28" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E965" s="3"/>
     </row>
@@ -27090,7 +27091,7 @@
         <v>908</v>
       </c>
       <c r="D966" s="28" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E966" s="3"/>
     </row>
@@ -27105,7 +27106,7 @@
         <v>909</v>
       </c>
       <c r="D967" s="28" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E967" s="3"/>
     </row>
@@ -27120,7 +27121,7 @@
         <v>910</v>
       </c>
       <c r="D968" s="28" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E968" s="3"/>
     </row>
@@ -27135,7 +27136,7 @@
         <v>911</v>
       </c>
       <c r="D969" s="28" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E969" s="3"/>
     </row>
@@ -27150,7 +27151,7 @@
         <v>912</v>
       </c>
       <c r="D970" s="28" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E970" s="3"/>
     </row>
@@ -27165,7 +27166,7 @@
         <v>913</v>
       </c>
       <c r="D971" s="28" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E971" s="3"/>
     </row>
@@ -27180,7 +27181,7 @@
         <v>914</v>
       </c>
       <c r="D972" s="28" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E972" s="3"/>
     </row>
@@ -27195,7 +27196,7 @@
         <v>915</v>
       </c>
       <c r="D973" s="28" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E973" s="3"/>
     </row>
@@ -27210,7 +27211,7 @@
         <v>916</v>
       </c>
       <c r="D974" s="28" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E974" s="3"/>
     </row>
@@ -27225,7 +27226,7 @@
         <v>917</v>
       </c>
       <c r="D975" s="28" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E975" s="3"/>
     </row>
@@ -27240,7 +27241,7 @@
         <v>918</v>
       </c>
       <c r="D976" s="28" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E976" s="3"/>
     </row>
@@ -27255,7 +27256,7 @@
         <v>919</v>
       </c>
       <c r="D977" s="28" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E977" s="3"/>
     </row>
@@ -27270,7 +27271,7 @@
         <v>920</v>
       </c>
       <c r="D978" s="29" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E978" s="3"/>
     </row>
@@ -27285,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="D979" s="29" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.45">
@@ -27299,7 +27300,7 @@
         <v>1</v>
       </c>
       <c r="D980" s="29" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.45">
@@ -27391,13 +27392,13 @@
         <v>35</v>
       </c>
       <c r="B987" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C987" s="29">
         <v>1</v>
       </c>
       <c r="D987" s="29" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.45">
@@ -27405,13 +27406,13 @@
         <v>35</v>
       </c>
       <c r="B988" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C988" s="29">
         <v>2</v>
       </c>
       <c r="D988" s="29" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.45">
@@ -28167,7 +28168,7 @@
         <v>53</v>
       </c>
       <c r="D1042" s="29" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.45">
@@ -28181,7 +28182,7 @@
         <v>54</v>
       </c>
       <c r="D1043" s="29" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.45">
@@ -28195,7 +28196,7 @@
         <v>55</v>
       </c>
       <c r="D1044" s="29" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.45">
@@ -28391,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="D1058" s="29" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.45">
@@ -28433,7 +28434,7 @@
         <v>3</v>
       </c>
       <c r="D1061" s="29" t="s">
-        <v>1456</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28447,7 +28448,7 @@
         <v>4</v>
       </c>
       <c r="D1062" s="29" t="s">
-        <v>1457</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.45">
@@ -28458,38 +28459,38 @@
         <v>71</v>
       </c>
       <c r="C1063" s="29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1064">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1064" t="s">
-        <v>738</v>
-      </c>
-      <c r="C1064">
-        <v>0</v>
-      </c>
-      <c r="D1064" t="s">
-        <v>460</v>
+        <v>71</v>
+      </c>
+      <c r="C1064" s="29">
+        <v>6</v>
+      </c>
+      <c r="D1064" s="29" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1065">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1065" t="s">
-        <v>738</v>
-      </c>
-      <c r="C1065">
-        <v>1</v>
-      </c>
-      <c r="D1065" t="s">
-        <v>461</v>
+        <v>71</v>
+      </c>
+      <c r="C1065" s="29">
+        <v>9</v>
+      </c>
+      <c r="D1065" s="29" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.45">
@@ -28500,38 +28501,38 @@
         <v>738</v>
       </c>
       <c r="C1066">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D1066" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1067">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1067" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C1067">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1067" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1068">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1068" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C1068">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1068" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.45">
@@ -28542,38 +28543,38 @@
         <v>739</v>
       </c>
       <c r="C1069">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1069" t="s">
-        <v>740</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1070">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1070" t="s">
-        <v>192</v>
+        <v>739</v>
       </c>
       <c r="C1070">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D1070" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1071">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1071" t="s">
-        <v>192</v>
+        <v>739</v>
       </c>
       <c r="C1071">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1071" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.45">
@@ -28584,10 +28585,10 @@
         <v>192</v>
       </c>
       <c r="C1072">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1072" t="s">
-        <v>743</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.45">
@@ -28598,38 +28599,38 @@
         <v>192</v>
       </c>
       <c r="C1073">
+        <v>0</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1074">
+        <v>46</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1074">
+        <v>1</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1075">
+        <v>46</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1075">
         <v>99</v>
       </c>
-      <c r="D1073" t="s">
+      <c r="D1075" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1074" s="29">
-        <v>47</v>
-      </c>
-      <c r="B1074" s="29" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C1074" s="29">
-        <v>0</v>
-      </c>
-      <c r="D1074" s="29" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1075" s="29">
-        <v>47</v>
-      </c>
-      <c r="B1075" s="29" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C1075" s="29">
-        <v>1</v>
-      </c>
-      <c r="D1075" s="29" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.45">
@@ -28637,41 +28638,41 @@
         <v>47</v>
       </c>
       <c r="B1076" s="29" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1076" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1076" s="29" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1077" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1077" s="29" t="s">
-        <v>76</v>
+        <v>1083</v>
       </c>
       <c r="C1077" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1077" s="29" t="s">
-        <v>1453</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1078" s="29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1078" s="29" t="s">
-        <v>76</v>
+        <v>1083</v>
       </c>
       <c r="C1078" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1078" s="29" t="s">
-        <v>400</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.45">
@@ -28682,14 +28683,42 @@
         <v>76</v>
       </c>
       <c r="C1079" s="29">
+        <v>0</v>
+      </c>
+      <c r="D1079" s="29" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1080" s="29">
+        <v>48</v>
+      </c>
+      <c r="B1080" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1080" s="29">
+        <v>1</v>
+      </c>
+      <c r="D1080" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1081" s="29">
+        <v>48</v>
+      </c>
+      <c r="B1081" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1081" s="29">
         <v>2</v>
       </c>
-      <c r="D1079" s="29" t="s">
-        <v>1454</v>
+      <c r="D1081" s="29" t="s">
+        <v>1453</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFB1079" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}"/>
+  <autoFilter ref="A1:XFB1081" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C219:D255">
     <sortCondition ref="C219:C255"/>
   </sortState>
@@ -28791,7 +28820,7 @@
         <v>698</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -28817,7 +28846,7 @@
         <v>698</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -28843,7 +28872,7 @@
         <v>698</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -28869,7 +28898,7 @@
         <v>698</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28895,7 +28924,7 @@
         <v>698</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -28921,7 +28950,7 @@
         <v>698</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -28947,7 +28976,7 @@
         <v>698</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -28973,7 +29002,7 @@
         <v>698</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -28999,7 +29028,7 @@
         <v>698</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -29641,7 +29670,7 @@
         <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>692</v>
@@ -29667,7 +29696,7 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>692</v>
@@ -29723,7 +29752,7 @@
         <v>698</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30093,7 +30122,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C58" s="36" t="s">
         <v>692</v>
@@ -30119,7 +30148,7 @@
         <v>102</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C59" s="36" t="s">
         <v>692</v>
@@ -30145,7 +30174,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>692</v>
@@ -30171,7 +30200,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>692</v>
@@ -30197,7 +30226,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>692</v>
@@ -30223,7 +30252,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>692</v>
@@ -30249,7 +30278,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>692</v>
@@ -30275,7 +30304,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>692</v>
@@ -30301,7 +30330,7 @@
         <v>109</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>692</v>
@@ -30327,7 +30356,7 @@
         <v>110</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>692</v>
@@ -30353,7 +30382,7 @@
         <v>111</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>692</v>
@@ -30379,7 +30408,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>692</v>
@@ -30405,7 +30434,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>692</v>
@@ -30431,7 +30460,7 @@
         <v>114</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>692</v>
@@ -30457,7 +30486,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>692</v>
@@ -30483,7 +30512,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>692</v>
@@ -30509,7 +30538,7 @@
         <v>117</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>692</v>
@@ -30535,7 +30564,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>692</v>
@@ -30561,7 +30590,7 @@
         <v>119</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>692</v>
@@ -30587,7 +30616,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>692</v>
@@ -30613,7 +30642,7 @@
         <v>121</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>692</v>
@@ -30639,7 +30668,7 @@
         <v>122</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>692</v>
@@ -30665,7 +30694,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C80" s="36" t="s">
         <v>692</v>
@@ -30691,7 +30720,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C81" s="36" t="s">
         <v>692</v>
@@ -30717,7 +30746,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C82" s="36" t="s">
         <v>692</v>
@@ -30743,7 +30772,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>692</v>
@@ -30769,7 +30798,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>692</v>
@@ -30795,7 +30824,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C85" s="36" t="s">
         <v>692</v>
@@ -30821,7 +30850,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>692</v>
@@ -30847,7 +30876,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>692</v>
@@ -30873,7 +30902,7 @@
         <v>131</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C88" s="36" t="s">
         <v>692</v>
@@ -30899,7 +30928,7 @@
         <v>132</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C89" s="36" t="s">
         <v>692</v>
@@ -30925,7 +30954,7 @@
         <v>133</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C90" s="36" t="s">
         <v>692</v>
@@ -30951,7 +30980,7 @@
         <v>134</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C91" s="36" t="s">
         <v>692</v>
@@ -30977,7 +31006,7 @@
         <v>135</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C92" s="36" t="s">
         <v>692</v>
@@ -31003,7 +31032,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C93" s="36" t="s">
         <v>692</v>
@@ -31059,7 +31088,7 @@
         <v>698</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -31085,7 +31114,7 @@
         <v>698</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -31111,7 +31140,7 @@
         <v>698</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31201,7 +31230,7 @@
         <v>698</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -31227,7 +31256,7 @@
         <v>698</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -31253,7 +31282,7 @@
         <v>698</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31325,7 +31354,7 @@
         <v>901</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
@@ -31351,7 +31380,7 @@
         <v>902</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C108" s="11">
         <v>1</v>
@@ -31377,7 +31406,7 @@
         <v>903</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
@@ -31403,7 +31432,7 @@
         <v>904</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C110" s="11">
         <v>1</v>
@@ -31429,7 +31458,7 @@
         <v>905</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
@@ -31455,7 +31484,7 @@
         <v>906</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C112" s="11">
         <v>1</v>
@@ -31481,7 +31510,7 @@
         <v>907</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C113" s="11">
         <v>1</v>
@@ -31507,7 +31536,7 @@
         <v>908</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C114" s="11">
         <v>1</v>
@@ -31533,7 +31562,7 @@
         <v>909</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C115" s="11">
         <v>1</v>
@@ -31559,7 +31588,7 @@
         <v>910</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C116" s="11">
         <v>1</v>
@@ -31585,7 +31614,7 @@
         <v>911</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C117" s="11">
         <v>1</v>
@@ -31611,7 +31640,7 @@
         <v>912</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C118" s="11">
         <v>1</v>
@@ -31637,7 +31666,7 @@
         <v>913</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
@@ -31663,7 +31692,7 @@
         <v>914</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
@@ -31689,7 +31718,7 @@
         <v>915</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C121" s="11">
         <v>1</v>
@@ -31715,7 +31744,7 @@
         <v>916</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C122" s="11">
         <v>1</v>
@@ -31741,7 +31770,7 @@
         <v>917</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C123" s="11">
         <v>1</v>
@@ -31767,7 +31796,7 @@
         <v>918</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C124" s="11">
         <v>1</v>
@@ -31793,7 +31822,7 @@
         <v>919</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C125" s="11">
         <v>1</v>
@@ -31819,7 +31848,7 @@
         <v>920</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C126" s="11">
         <v>1</v>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C4A03D-0F1D-4DF5-B7DC-DBC0C9E5CA66}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0215F4-80CF-4900-8FF8-C909054AA9D6}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6315" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
@@ -4962,6 +4962,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5509,9 +5513,9 @@
   <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
+      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11564,7 +11568,7 @@
         <v>18</v>
       </c>
       <c r="C213" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>325</v>
@@ -11590,7 +11594,7 @@
         <v>18</v>
       </c>
       <c r="C214" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>497</v>
@@ -11616,7 +11620,7 @@
         <v>18</v>
       </c>
       <c r="C215" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>326</v>
@@ -11643,7 +11647,7 @@
         <v>18</v>
       </c>
       <c r="C216" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>312</v>
@@ -11667,7 +11671,7 @@
         <v>18</v>
       </c>
       <c r="C217" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>313</v>
@@ -11691,7 +11695,7 @@
         <v>18</v>
       </c>
       <c r="C218" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>314</v>
@@ -11718,7 +11722,7 @@
         <v>18</v>
       </c>
       <c r="C219" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>315</v>
@@ -11745,7 +11749,7 @@
         <v>18</v>
       </c>
       <c r="C220" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>316</v>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0215F4-80CF-4900-8FF8-C909054AA9D6}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFDB58D-6031-4A3B-AB89-8A78F9934C7D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6315" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1557">
   <si>
     <t>File ID</t>
   </si>
@@ -5512,10 +5512,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+      <selection pane="bottomLeft" activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10285,7 +10285,9 @@
       <c r="G166" s="3">
         <v>0</v>
       </c>
-      <c r="H166" s="3"/>
+      <c r="H166" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3">
         <v>10</v>
@@ -13457,8 +13459,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N1081"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1045" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1062" sqref="K1062"/>
     </sheetView>
   </sheetViews>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFDB58D-6031-4A3B-AB89-8A78F9934C7D}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E21F5D5-FDBB-4547-8131-9C9028ADDD3E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1558">
   <si>
     <t>File ID</t>
   </si>
@@ -2405,9 +2405,6 @@
     <t>A count of distinct HMIS EnrollmentIDs with exits in the report period with missing or invalid values for Destination</t>
   </si>
   <si>
-    <t>Max Length in HDX 2.0 (2022)</t>
-  </si>
-  <si>
     <t>Safe Haven</t>
   </si>
   <si>
@@ -4729,6 +4726,12 @@
   </si>
   <si>
     <t>RaceEthnicity</t>
+  </si>
+  <si>
+    <t>Max Length in HDX 2.0 (2023)</t>
+  </si>
+  <si>
+    <t>Must match a ProjectID in Project.csv</t>
   </si>
 </sst>
 </file>
@@ -5291,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5325,7 +5328,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -5342,7 +5345,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -5356,10 +5359,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -5407,10 +5410,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
@@ -5458,7 +5461,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>528</v>
@@ -5472,16 +5475,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>1075</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
@@ -5489,16 +5492,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1075</v>
-      </c>
       <c r="E13" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -5512,10 +5515,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H166" sqref="H166"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5558,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>782</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -5682,7 +5685,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -5708,7 +5711,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5734,7 +5737,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5760,7 +5763,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5786,7 +5789,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -6528,7 +6531,7 @@
         <v>364</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
@@ -6615,10 +6618,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -6635,7 +6638,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>38</v>
@@ -6647,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>1504</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>1505</v>
       </c>
       <c r="J41" s="28">
         <v>7</v>
@@ -6885,7 +6888,7 @@
         <v>92</v>
       </c>
       <c r="J49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -6943,7 +6946,7 @@
         <v>96</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -7033,7 +7036,7 @@
         <v>102</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
@@ -7239,7 +7242,7 @@
         <v>116</v>
       </c>
       <c r="J61" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -7326,7 +7329,7 @@
         <v>122</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -7416,7 +7419,7 @@
         <v>128</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
@@ -7622,7 +7625,7 @@
         <v>142</v>
       </c>
       <c r="J74" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -7709,7 +7712,7 @@
         <v>148</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
@@ -7799,7 +7802,7 @@
         <v>154</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
@@ -8280,7 +8283,7 @@
         <v>65</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E97" s="28" t="s">
         <v>38</v>
@@ -8292,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J97" s="28">
         <v>2</v>
@@ -8312,7 +8315,7 @@
         <v>66</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E98" s="28" t="s">
         <v>38</v>
@@ -8324,10 +8327,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J98" s="28">
         <v>2</v>
@@ -8408,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J101" s="28">
         <v>7</v>
@@ -8428,7 +8431,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>38</v>
@@ -8440,10 +8443,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="J102" s="28">
         <v>7</v>
@@ -8501,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J104" s="3">
         <v>2</v>
@@ -9997,7 +10000,7 @@
         <v>57</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>38</v>
@@ -10009,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="28"/>
@@ -10025,7 +10028,7 @@
         <v>58</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>38</v>
@@ -10037,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="28"/>
@@ -10053,7 +10056,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>38</v>
@@ -10065,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="28"/>
@@ -10081,7 +10084,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>38</v>
@@ -10093,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="28"/>
@@ -10109,7 +10112,7 @@
         <v>61</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>38</v>
@@ -10121,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="28"/>
@@ -10137,7 +10140,7 @@
         <v>62</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>38</v>
@@ -10149,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="28"/>
@@ -10165,7 +10168,7 @@
         <v>63</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>38</v>
@@ -10177,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="28"/>
@@ -10193,7 +10196,7 @@
         <v>64</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E163" s="28" t="s">
         <v>38</v>
@@ -10205,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="28"/>
@@ -10221,7 +10224,7 @@
         <v>65</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>38</v>
@@ -10233,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="28"/>
@@ -10249,7 +10252,7 @@
         <v>66</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>38</v>
@@ -10261,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="28"/>
@@ -10432,7 +10435,7 @@
         <v>296</v>
       </c>
       <c r="J171" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -10548,7 +10551,7 @@
         <v>364</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J175" s="3">
         <v>1</v>
@@ -10609,7 +10612,7 @@
         <v>363</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J177" s="3">
         <v>1</v>
@@ -10626,7 +10629,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>38</v>
@@ -10638,10 +10641,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I178" s="7" t="s">
         <v>1520</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>1521</v>
       </c>
       <c r="J178" s="28">
         <v>7</v>
@@ -10959,7 +10962,7 @@
         <v>307</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -10994,10 +10997,10 @@
         <v>0</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J191" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -11041,7 +11044,7 @@
         <v>309</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3">
@@ -11065,14 +11068,14 @@
         <v>310</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3">
         <v>0</v>
       </c>
       <c r="I194" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J194" s="28">
         <v>200</v>
@@ -11121,7 +11124,7 @@
         <v>311</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -11131,7 +11134,7 @@
         <v>647</v>
       </c>
       <c r="I196" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J196" s="28">
         <v>200</v>
@@ -11199,7 +11202,7 @@
         <v>314</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3">
@@ -11253,7 +11256,7 @@
         <v>316</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3">
@@ -11280,7 +11283,7 @@
         <v>307</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
@@ -11304,7 +11307,7 @@
         <v>309</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
@@ -11328,14 +11331,14 @@
         <v>317</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
         <v>0</v>
       </c>
       <c r="I204" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J204" s="28">
         <v>200</v>
@@ -11355,7 +11358,7 @@
         <v>318</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
@@ -11365,7 +11368,7 @@
         <v>647</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J205" s="28">
         <v>200</v>
@@ -11509,7 +11512,7 @@
         <v>10</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E211" s="28" t="s">
         <v>38</v>
@@ -11521,10 +11524,10 @@
         <v>1</v>
       </c>
       <c r="H211" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I211" s="7" t="s">
         <v>1067</v>
-      </c>
-      <c r="I211" s="7" t="s">
-        <v>1068</v>
       </c>
       <c r="J211" s="28">
         <v>1</v>
@@ -11553,10 +11556,10 @@
         <v>1</v>
       </c>
       <c r="H212" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I212" s="7" t="s">
         <v>1069</v>
-      </c>
-      <c r="I212" s="7" t="s">
-        <v>1070</v>
       </c>
       <c r="J212" s="3">
         <v>1</v>
@@ -11703,7 +11706,7 @@
         <v>314</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3">
@@ -11757,7 +11760,7 @@
         <v>316</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3">
@@ -11784,7 +11787,7 @@
         <v>327</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3">
@@ -11808,7 +11811,7 @@
         <v>307</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -11841,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J223" s="3">
         <v>2</v>
@@ -11861,13 +11864,13 @@
         <v>328</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J224" s="28">
         <v>100</v>
@@ -11887,7 +11890,7 @@
         <v>329</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
@@ -11896,7 +11899,7 @@
         <v>647</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J225" s="28">
         <v>100</v>
@@ -12008,7 +12011,7 @@
         <v>314</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -12060,7 +12063,7 @@
         <v>316</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
@@ -12086,7 +12089,7 @@
         <v>332</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G233" s="3">
         <v>0</v>
@@ -12109,7 +12112,7 @@
         <v>307</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G234" s="3">
         <v>0</v>
@@ -12132,7 +12135,7 @@
         <v>333</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G235" s="3">
         <v>0</v>
@@ -12158,7 +12161,7 @@
         <v>334</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G236" s="3">
         <v>0</v>
@@ -12181,7 +12184,7 @@
         <v>335</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
@@ -12204,7 +12207,7 @@
         <v>336</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G238" s="3">
         <v>1</v>
@@ -12227,7 +12230,7 @@
         <v>337</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G239" s="3">
         <v>1</v>
@@ -12250,7 +12253,7 @@
         <v>338</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G240" s="3">
         <v>1</v>
@@ -12273,7 +12276,7 @@
         <v>339</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12368,7 +12371,7 @@
         <v>314</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -12420,7 +12423,7 @@
         <v>316</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G247" s="3">
         <v>0</v>
@@ -12446,7 +12449,7 @@
         <v>341</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -12469,7 +12472,7 @@
         <v>307</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -12492,7 +12495,7 @@
         <v>333</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G250" s="3">
         <v>0</v>
@@ -12895,7 +12898,7 @@
         <v>314</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G267" s="3">
         <v>1</v>
@@ -12947,7 +12950,7 @@
         <v>316</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G269" s="3">
         <v>0</v>
@@ -12964,16 +12967,16 @@
         <v>15</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C270" s="30">
         <v>1</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E270" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="28">
@@ -12990,7 +12993,7 @@
         <v>15</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C271" s="30">
         <v>2</v>
@@ -12999,14 +13002,14 @@
         <v>307</v>
       </c>
       <c r="E271" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="28">
         <v>0</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>1081</v>
+        <v>1557</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="28">
@@ -13018,13 +13021,13 @@
         <v>15</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C272" s="30">
         <v>3</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E272" s="28" t="s">
         <v>38</v>
@@ -13046,13 +13049,13 @@
         <v>15</v>
       </c>
       <c r="B273" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C273" s="30">
         <v>4</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E273" s="28" t="s">
         <v>41</v>
@@ -13072,13 +13075,13 @@
         <v>15</v>
       </c>
       <c r="B274" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C274" s="30">
         <v>5</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E274" s="28" t="s">
         <v>41</v>
@@ -13098,7 +13101,7 @@
         <v>15</v>
       </c>
       <c r="B275" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C275" s="30">
         <v>6</v>
@@ -13124,7 +13127,7 @@
         <v>15</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C276" s="30">
         <v>7</v>
@@ -13150,7 +13153,7 @@
         <v>15</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C277" s="30">
         <v>8</v>
@@ -13159,7 +13162,7 @@
         <v>314</v>
       </c>
       <c r="E277" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="28">
@@ -13178,7 +13181,7 @@
         <v>15</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C278" s="30">
         <v>9</v>
@@ -13206,7 +13209,7 @@
         <v>15</v>
       </c>
       <c r="B279" s="28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C279" s="30">
         <v>10</v>
@@ -13215,7 +13218,7 @@
         <v>316</v>
       </c>
       <c r="E279" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="28">
@@ -13234,16 +13237,16 @@
         <v>16</v>
       </c>
       <c r="B280" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C280" s="30">
         <v>1</v>
       </c>
       <c r="D280" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E280" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="28">
@@ -13260,7 +13263,7 @@
         <v>16</v>
       </c>
       <c r="B281" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C281" s="30">
         <v>2</v>
@@ -13269,14 +13272,14 @@
         <v>307</v>
       </c>
       <c r="E281" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="28">
         <v>0</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="28">
@@ -13288,23 +13291,23 @@
         <v>16</v>
       </c>
       <c r="B282" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C282" s="30">
         <v>3</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E282" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="28">
         <v>0</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I282" s="7"/>
       <c r="J282" s="28">
@@ -13316,7 +13319,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C283" s="30">
         <v>4</v>
@@ -13342,7 +13345,7 @@
         <v>16</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C284" s="30">
         <v>5</v>
@@ -13368,7 +13371,7 @@
         <v>16</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C285" s="30">
         <v>6</v>
@@ -13377,7 +13380,7 @@
         <v>314</v>
       </c>
       <c r="E285" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="28">
@@ -13396,7 +13399,7 @@
         <v>16</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C286" s="30">
         <v>7</v>
@@ -13424,7 +13427,7 @@
         <v>16</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C287" s="30">
         <v>8</v>
@@ -13433,7 +13436,7 @@
         <v>316</v>
       </c>
       <c r="E287" s="28" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="28">
@@ -13459,8 +13462,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A897" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1062" sqref="K1062"/>
     </sheetView>
   </sheetViews>
@@ -13784,7 +13787,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -13798,7 +13801,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C24" s="29">
         <v>2</v>
@@ -13812,7 +13815,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C25" s="29">
         <v>3</v>
@@ -13826,7 +13829,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C26" s="29">
         <v>4</v>
@@ -13840,7 +13843,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C27" s="29">
         <v>5</v>
@@ -13854,13 +13857,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C28" s="29">
         <v>6</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -13868,13 +13871,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C29" s="29">
         <v>7</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -13882,13 +13885,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -13896,13 +13899,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C31" s="29">
         <v>13</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -13910,13 +13913,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C32" s="29">
         <v>14</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -13924,13 +13927,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C33" s="29">
         <v>15</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -13938,13 +13941,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C34" s="29">
         <v>16</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -13952,13 +13955,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C35" s="29">
         <v>17</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -13966,13 +13969,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C36" s="29">
         <v>23</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -13980,13 +13983,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C37" s="29">
         <v>24</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -13994,13 +13997,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C38" s="29">
         <v>25</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -14008,13 +14011,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C39" s="29">
         <v>26</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -14022,13 +14025,13 @@
         <v>6</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C40" s="29">
         <v>27</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -14036,13 +14039,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C41" s="29">
         <v>34</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -14050,13 +14053,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C42" s="29">
         <v>35</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -14064,13 +14067,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C43" s="29">
         <v>36</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -14078,13 +14081,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C44" s="29">
         <v>37</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -14092,13 +14095,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C45" s="29">
         <v>45</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -14106,13 +14109,13 @@
         <v>6</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C46" s="29">
         <v>46</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -14120,13 +14123,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C47" s="29">
         <v>47</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -14134,13 +14137,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C48" s="29">
         <v>56</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -14148,13 +14151,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C49" s="29">
         <v>57</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -14162,13 +14165,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C50" s="29">
         <v>67</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -14176,13 +14179,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C51" s="29">
         <v>98</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -14190,13 +14193,13 @@
         <v>6</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C52" s="29">
         <v>99</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -14204,13 +14207,13 @@
         <v>6</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C53" s="29">
         <v>123</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -14218,13 +14221,13 @@
         <v>6</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C54" s="29">
         <v>124</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -14232,13 +14235,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C55" s="29">
         <v>125</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -14246,13 +14249,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C56" s="29">
         <v>126</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -14260,13 +14263,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C57" s="29">
         <v>127</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -14274,13 +14277,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C58" s="29">
         <v>134</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -14288,13 +14291,13 @@
         <v>6</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C59" s="29">
         <v>135</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -14302,13 +14305,13 @@
         <v>6</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C60" s="29">
         <v>136</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -14316,13 +14319,13 @@
         <v>6</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C61" s="29">
         <v>137</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -14330,13 +14333,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C62" s="29">
         <v>145</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -14344,13 +14347,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C63" s="29">
         <v>146</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -14358,13 +14361,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C64" s="29">
         <v>147</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -14372,13 +14375,13 @@
         <v>6</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C65" s="29">
         <v>156</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -14386,13 +14389,13 @@
         <v>6</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C66" s="29">
         <v>157</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -14400,13 +14403,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C67" s="29">
         <v>167</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -14414,13 +14417,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C68" s="29">
         <v>234</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -14428,13 +14431,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C69" s="29">
         <v>235</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -14442,13 +14445,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C70" s="29">
         <v>236</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
@@ -14456,13 +14459,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C71" s="29">
         <v>237</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -14470,13 +14473,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C72" s="29">
         <v>245</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
@@ -14484,13 +14487,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C73" s="29">
         <v>246</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
@@ -14498,13 +14501,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C74" s="29">
         <v>247</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
@@ -14512,13 +14515,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C75" s="29">
         <v>256</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
@@ -14526,13 +14529,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C76" s="29">
         <v>257</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
@@ -14540,13 +14543,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C77" s="29">
         <v>267</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
@@ -14554,13 +14557,13 @@
         <v>6</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C78" s="29">
         <v>345</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
@@ -14568,13 +14571,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C79" s="29">
         <v>346</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -14582,13 +14585,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C80" s="29">
         <v>347</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -14596,13 +14599,13 @@
         <v>6</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C81" s="29">
         <v>356</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -14610,13 +14613,13 @@
         <v>6</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C82" s="29">
         <v>357</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -14624,13 +14627,13 @@
         <v>6</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C83" s="29">
         <v>367</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -14638,13 +14641,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C84" s="29">
         <v>456</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
@@ -14652,13 +14655,13 @@
         <v>6</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C85" s="29">
         <v>457</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -14666,13 +14669,13 @@
         <v>6</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C86" s="29">
         <v>467</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
@@ -14680,13 +14683,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C87" s="29">
         <v>567</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -14694,13 +14697,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C88" s="29">
         <v>1234</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
@@ -14708,13 +14711,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C89" s="29">
         <v>1235</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
@@ -14722,13 +14725,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C90" s="29">
         <v>1236</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
@@ -14736,13 +14739,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C91" s="29">
         <v>1237</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -14750,13 +14753,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C92" s="29">
         <v>1245</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -14764,13 +14767,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C93" s="29">
         <v>1246</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -14778,13 +14781,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C94" s="29">
         <v>1247</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
@@ -14792,13 +14795,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C95" s="29">
         <v>1256</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
@@ -14806,13 +14809,13 @@
         <v>6</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C96" s="29">
         <v>1257</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
@@ -14820,13 +14823,13 @@
         <v>6</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C97" s="29">
         <v>1267</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
@@ -14834,13 +14837,13 @@
         <v>6</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C98" s="29">
         <v>1345</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
@@ -14848,13 +14851,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C99" s="29">
         <v>1346</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
@@ -14862,13 +14865,13 @@
         <v>6</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C100" s="29">
         <v>1347</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
@@ -14876,13 +14879,13 @@
         <v>6</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C101" s="29">
         <v>1356</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
@@ -14890,13 +14893,13 @@
         <v>6</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C102" s="29">
         <v>1357</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
@@ -14904,13 +14907,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C103" s="29">
         <v>1367</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
@@ -14918,13 +14921,13 @@
         <v>6</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C104" s="29">
         <v>1456</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
@@ -14932,13 +14935,13 @@
         <v>6</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C105" s="29">
         <v>1457</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
@@ -14946,13 +14949,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C106" s="29">
         <v>1467</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
@@ -14960,13 +14963,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C107" s="29">
         <v>1567</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
@@ -14974,13 +14977,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C108" s="29">
         <v>2345</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
@@ -14988,13 +14991,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C109" s="29">
         <v>2346</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
@@ -15002,13 +15005,13 @@
         <v>6</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C110" s="29">
         <v>2347</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
@@ -15016,13 +15019,13 @@
         <v>6</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C111" s="29">
         <v>2356</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
@@ -15030,13 +15033,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C112" s="29">
         <v>2357</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
@@ -15044,13 +15047,13 @@
         <v>6</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C113" s="29">
         <v>2367</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -15058,13 +15061,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C114" s="29">
         <v>2456</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
@@ -15072,13 +15075,13 @@
         <v>6</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C115" s="29">
         <v>2457</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
@@ -15086,13 +15089,13 @@
         <v>6</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C116" s="29">
         <v>2467</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
@@ -15100,13 +15103,13 @@
         <v>6</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C117" s="29">
         <v>2567</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -15114,13 +15117,13 @@
         <v>6</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C118" s="29">
         <v>3456</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -15128,13 +15131,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C119" s="29">
         <v>3457</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
@@ -15142,13 +15145,13 @@
         <v>6</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C120" s="29">
         <v>3467</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
@@ -15156,13 +15159,13 @@
         <v>6</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C121" s="29">
         <v>3567</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -15170,13 +15173,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C122" s="29">
         <v>4567</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
@@ -15184,13 +15187,13 @@
         <v>6</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C123" s="29">
         <v>12345</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
@@ -15198,13 +15201,13 @@
         <v>6</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C124" s="29">
         <v>12346</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
@@ -15212,13 +15215,13 @@
         <v>6</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C125" s="29">
         <v>12347</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
@@ -15226,13 +15229,13 @@
         <v>6</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C126" s="29">
         <v>12356</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -15240,13 +15243,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C127" s="29">
         <v>12357</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
@@ -15254,13 +15257,13 @@
         <v>6</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C128" s="29">
         <v>12367</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
@@ -15268,13 +15271,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C129" s="29">
         <v>12456</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
@@ -15282,13 +15285,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C130" s="29">
         <v>12457</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
@@ -15296,13 +15299,13 @@
         <v>6</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C131" s="29">
         <v>12467</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
@@ -15310,13 +15313,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C132" s="29">
         <v>12567</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
@@ -15324,13 +15327,13 @@
         <v>6</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C133" s="29">
         <v>13456</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
@@ -15338,13 +15341,13 @@
         <v>6</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C134" s="29">
         <v>13457</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
@@ -15352,13 +15355,13 @@
         <v>6</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C135" s="29">
         <v>13467</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -15366,13 +15369,13 @@
         <v>6</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C136" s="29">
         <v>13567</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
@@ -15380,13 +15383,13 @@
         <v>6</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C137" s="29">
         <v>14567</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
@@ -15394,13 +15397,13 @@
         <v>6</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C138" s="29">
         <v>23456</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
@@ -15408,13 +15411,13 @@
         <v>6</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C139" s="29">
         <v>23457</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
@@ -15422,13 +15425,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C140" s="29">
         <v>23467</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
@@ -15436,13 +15439,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C141" s="29">
         <v>23567</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
@@ -15450,13 +15453,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C142" s="29">
         <v>24567</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
@@ -15464,13 +15467,13 @@
         <v>6</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C143" s="29">
         <v>34567</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
@@ -15478,13 +15481,13 @@
         <v>6</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C144" s="29">
         <v>123456</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
@@ -15492,13 +15495,13 @@
         <v>6</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C145" s="29">
         <v>123457</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
@@ -15506,13 +15509,13 @@
         <v>6</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C146" s="29">
         <v>123467</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
@@ -15520,13 +15523,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C147" s="29">
         <v>123567</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
@@ -15534,13 +15537,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C148" s="29">
         <v>124567</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
@@ -15548,13 +15551,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C149" s="29">
         <v>134567</v>
       </c>
       <c r="D149" s="29" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
@@ -15562,13 +15565,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C150" s="29">
         <v>234567</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
@@ -15576,13 +15579,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C151" s="29">
         <v>1234567</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
@@ -16100,7 +16103,7 @@
         <v>98</v>
       </c>
       <c r="D188" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
@@ -16114,7 +16117,7 @@
         <v>99</v>
       </c>
       <c r="D189" s="29" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
@@ -16128,7 +16131,7 @@
         <v>101</v>
       </c>
       <c r="D190" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
@@ -16142,7 +16145,7 @@
         <v>116</v>
       </c>
       <c r="D191" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
@@ -16156,7 +16159,7 @@
         <v>118</v>
       </c>
       <c r="D192" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
@@ -16170,7 +16173,7 @@
         <v>204</v>
       </c>
       <c r="D193" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
@@ -16184,7 +16187,7 @@
         <v>205</v>
       </c>
       <c r="D194" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
@@ -16198,7 +16201,7 @@
         <v>206</v>
       </c>
       <c r="D195" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
@@ -16212,7 +16215,7 @@
         <v>207</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
@@ -16226,7 +16229,7 @@
         <v>215</v>
       </c>
       <c r="D197" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
@@ -16240,7 +16243,7 @@
         <v>225</v>
       </c>
       <c r="D198" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
@@ -16254,7 +16257,7 @@
         <v>302</v>
       </c>
       <c r="D199" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
@@ -16268,7 +16271,7 @@
         <v>314</v>
       </c>
       <c r="D200" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
@@ -16282,7 +16285,7 @@
         <v>329</v>
       </c>
       <c r="D201" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
@@ -16296,7 +16299,7 @@
         <v>332</v>
       </c>
       <c r="D202" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
@@ -16310,7 +16313,7 @@
         <v>335</v>
       </c>
       <c r="D203" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
@@ -16324,7 +16327,7 @@
         <v>336</v>
       </c>
       <c r="D204" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
@@ -16338,7 +16341,7 @@
         <v>410</v>
       </c>
       <c r="D205" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
@@ -16352,7 +16355,7 @@
         <v>411</v>
       </c>
       <c r="D206" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
@@ -16366,7 +16369,7 @@
         <v>419</v>
       </c>
       <c r="D207" s="29" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
@@ -16380,7 +16383,7 @@
         <v>420</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -16394,7 +16397,7 @@
         <v>421</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
@@ -16408,7 +16411,7 @@
         <v>428</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
@@ -16422,7 +16425,7 @@
         <v>431</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -16436,7 +16439,7 @@
         <v>433</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -16450,7 +16453,7 @@
         <v>434</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -16464,7 +16467,7 @@
         <v>436</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -16478,7 +16481,7 @@
         <v>437</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -16492,7 +16495,7 @@
         <v>438</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -16506,7 +16509,7 @@
         <v>439</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -16520,7 +16523,7 @@
         <v>440</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -16562,7 +16565,7 @@
         <v>98</v>
       </c>
       <c r="D221" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
@@ -16576,7 +16579,7 @@
         <v>99</v>
       </c>
       <c r="D222" s="29" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
@@ -16590,7 +16593,7 @@
         <v>101</v>
       </c>
       <c r="D223" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
@@ -16604,7 +16607,7 @@
         <v>116</v>
       </c>
       <c r="D224" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
@@ -16618,7 +16621,7 @@
         <v>118</v>
       </c>
       <c r="D225" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
@@ -16632,7 +16635,7 @@
         <v>204</v>
       </c>
       <c r="D226" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
@@ -16646,7 +16649,7 @@
         <v>205</v>
       </c>
       <c r="D227" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
@@ -16660,7 +16663,7 @@
         <v>206</v>
       </c>
       <c r="D228" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
@@ -16674,7 +16677,7 @@
         <v>207</v>
       </c>
       <c r="D229" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
@@ -16688,7 +16691,7 @@
         <v>215</v>
       </c>
       <c r="D230" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.45">
@@ -16702,7 +16705,7 @@
         <v>225</v>
       </c>
       <c r="D231" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
@@ -16716,7 +16719,7 @@
         <v>302</v>
       </c>
       <c r="D232" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
@@ -16730,7 +16733,7 @@
         <v>312</v>
       </c>
       <c r="D233" s="29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
@@ -16744,7 +16747,7 @@
         <v>313</v>
       </c>
       <c r="D234" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
@@ -16758,7 +16761,7 @@
         <v>314</v>
       </c>
       <c r="D235" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
@@ -16772,7 +16775,7 @@
         <v>327</v>
       </c>
       <c r="D236" s="29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
@@ -16786,7 +16789,7 @@
         <v>329</v>
       </c>
       <c r="D237" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
@@ -16800,7 +16803,7 @@
         <v>332</v>
       </c>
       <c r="D238" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
@@ -16814,7 +16817,7 @@
         <v>410</v>
       </c>
       <c r="D239" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
@@ -16828,7 +16831,7 @@
         <v>411</v>
       </c>
       <c r="D240" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
@@ -16842,7 +16845,7 @@
         <v>419</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.45">
@@ -16856,7 +16859,7 @@
         <v>420</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -16870,7 +16873,7 @@
         <v>421</v>
       </c>
       <c r="D243" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
@@ -16884,7 +16887,7 @@
         <v>422</v>
       </c>
       <c r="D244" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
@@ -16898,7 +16901,7 @@
         <v>423</v>
       </c>
       <c r="D245" s="29" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
@@ -16912,7 +16915,7 @@
         <v>426</v>
       </c>
       <c r="D246" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
@@ -16926,7 +16929,7 @@
         <v>428</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
@@ -16940,7 +16943,7 @@
         <v>431</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -16954,7 +16957,7 @@
         <v>433</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -16968,7 +16971,7 @@
         <v>434</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -16982,7 +16985,7 @@
         <v>436</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -16996,7 +16999,7 @@
         <v>437</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -17010,7 +17013,7 @@
         <v>438</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -17024,7 +17027,7 @@
         <v>439</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -17038,7 +17041,7 @@
         <v>440</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -17556,7 +17559,7 @@
         <v>98</v>
       </c>
       <c r="D292" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
@@ -17570,7 +17573,7 @@
         <v>99</v>
       </c>
       <c r="D293" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
@@ -17584,7 +17587,7 @@
         <v>0</v>
       </c>
       <c r="D294" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
@@ -17598,7 +17601,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
@@ -17612,7 +17615,7 @@
         <v>2</v>
       </c>
       <c r="D296" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
@@ -17626,7 +17629,7 @@
         <v>3</v>
       </c>
       <c r="D297" s="29" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
@@ -17640,7 +17643,7 @@
         <v>4</v>
       </c>
       <c r="D298" s="29" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
@@ -17682,7 +17685,7 @@
         <v>10</v>
       </c>
       <c r="D301" s="29" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
@@ -17696,7 +17699,7 @@
         <v>12</v>
       </c>
       <c r="D302" s="29" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
@@ -17710,7 +17713,7 @@
         <v>13</v>
       </c>
       <c r="D303" s="29" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
@@ -17724,7 +17727,7 @@
         <v>14</v>
       </c>
       <c r="D304" s="29" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
@@ -17738,7 +17741,7 @@
         <v>15</v>
       </c>
       <c r="D305" s="29" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
@@ -17752,7 +17755,7 @@
         <v>16</v>
       </c>
       <c r="D306" s="29" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
@@ -17766,7 +17769,7 @@
         <v>20</v>
       </c>
       <c r="D307" s="29" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
@@ -17780,7 +17783,7 @@
         <v>23</v>
       </c>
       <c r="D308" s="29" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
@@ -17794,7 +17797,7 @@
         <v>24</v>
       </c>
       <c r="D309" s="29" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
@@ -17808,7 +17811,7 @@
         <v>25</v>
       </c>
       <c r="D310" s="29" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
@@ -17822,7 +17825,7 @@
         <v>26</v>
       </c>
       <c r="D311" s="29" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
@@ -17836,7 +17839,7 @@
         <v>30</v>
       </c>
       <c r="D312" s="29" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
@@ -17850,7 +17853,7 @@
         <v>34</v>
       </c>
       <c r="D313" s="29" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
@@ -17864,7 +17867,7 @@
         <v>35</v>
       </c>
       <c r="D314" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
@@ -17878,7 +17881,7 @@
         <v>36</v>
       </c>
       <c r="D315" s="29" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
@@ -17892,7 +17895,7 @@
         <v>40</v>
       </c>
       <c r="D316" s="29" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
@@ -17906,7 +17909,7 @@
         <v>45</v>
       </c>
       <c r="D317" s="29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
@@ -17920,7 +17923,7 @@
         <v>46</v>
       </c>
       <c r="D318" s="29" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.45">
@@ -17934,7 +17937,7 @@
         <v>50</v>
       </c>
       <c r="D319" s="29" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
@@ -17948,7 +17951,7 @@
         <v>56</v>
       </c>
       <c r="D320" s="29" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
@@ -17962,7 +17965,7 @@
         <v>60</v>
       </c>
       <c r="D321" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
@@ -17976,7 +17979,7 @@
         <v>98</v>
       </c>
       <c r="D322" s="29" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
@@ -17990,7 +17993,7 @@
         <v>99</v>
       </c>
       <c r="D323" s="29" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
@@ -18004,7 +18007,7 @@
         <v>120</v>
       </c>
       <c r="D324" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
@@ -18018,7 +18021,7 @@
         <v>123</v>
       </c>
       <c r="D325" s="29" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
@@ -18032,7 +18035,7 @@
         <v>124</v>
       </c>
       <c r="D326" s="29" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
@@ -18046,7 +18049,7 @@
         <v>125</v>
       </c>
       <c r="D327" s="29" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
@@ -18060,7 +18063,7 @@
         <v>126</v>
       </c>
       <c r="D328" s="29" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
@@ -18074,7 +18077,7 @@
         <v>130</v>
       </c>
       <c r="D329" s="29" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.45">
@@ -18088,7 +18091,7 @@
         <v>134</v>
       </c>
       <c r="D330" s="29" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
@@ -18102,7 +18105,7 @@
         <v>135</v>
       </c>
       <c r="D331" s="29" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
@@ -18116,7 +18119,7 @@
         <v>136</v>
       </c>
       <c r="D332" s="29" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
@@ -18130,7 +18133,7 @@
         <v>140</v>
       </c>
       <c r="D333" s="29" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
@@ -18144,7 +18147,7 @@
         <v>145</v>
       </c>
       <c r="D334" s="29" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
@@ -18158,7 +18161,7 @@
         <v>146</v>
       </c>
       <c r="D335" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
@@ -18172,7 +18175,7 @@
         <v>150</v>
       </c>
       <c r="D336" s="29" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
@@ -18186,7 +18189,7 @@
         <v>156</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
@@ -18200,7 +18203,7 @@
         <v>160</v>
       </c>
       <c r="D338" s="29" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
@@ -18214,7 +18217,7 @@
         <v>230</v>
       </c>
       <c r="D339" s="29" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
@@ -18228,7 +18231,7 @@
         <v>234</v>
       </c>
       <c r="D340" s="29" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
@@ -18242,7 +18245,7 @@
         <v>235</v>
       </c>
       <c r="D341" s="29" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
@@ -18256,7 +18259,7 @@
         <v>236</v>
       </c>
       <c r="D342" s="29" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
@@ -18270,7 +18273,7 @@
         <v>240</v>
       </c>
       <c r="D343" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
@@ -18284,7 +18287,7 @@
         <v>245</v>
       </c>
       <c r="D344" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
@@ -18298,7 +18301,7 @@
         <v>246</v>
       </c>
       <c r="D345" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
@@ -18312,7 +18315,7 @@
         <v>250</v>
       </c>
       <c r="D346" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
@@ -18326,7 +18329,7 @@
         <v>256</v>
       </c>
       <c r="D347" s="29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
@@ -18340,7 +18343,7 @@
         <v>260</v>
       </c>
       <c r="D348" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
@@ -18354,7 +18357,7 @@
         <v>340</v>
       </c>
       <c r="D349" s="29" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
@@ -18368,7 +18371,7 @@
         <v>345</v>
       </c>
       <c r="D350" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
@@ -18382,7 +18385,7 @@
         <v>346</v>
       </c>
       <c r="D351" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.45">
@@ -18396,7 +18399,7 @@
         <v>350</v>
       </c>
       <c r="D352" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
@@ -18410,7 +18413,7 @@
         <v>356</v>
       </c>
       <c r="D353" s="29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
@@ -18424,7 +18427,7 @@
         <v>360</v>
       </c>
       <c r="D354" s="29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
@@ -18438,7 +18441,7 @@
         <v>450</v>
       </c>
       <c r="D355" s="29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
@@ -18452,7 +18455,7 @@
         <v>456</v>
       </c>
       <c r="D356" s="29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
@@ -18466,7 +18469,7 @@
         <v>460</v>
       </c>
       <c r="D357" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
@@ -18480,7 +18483,7 @@
         <v>560</v>
       </c>
       <c r="D358" s="29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
@@ -18494,7 +18497,7 @@
         <v>1230</v>
       </c>
       <c r="D359" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
@@ -18508,7 +18511,7 @@
         <v>1234</v>
       </c>
       <c r="D360" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
@@ -18522,7 +18525,7 @@
         <v>1235</v>
       </c>
       <c r="D361" s="29" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
@@ -18536,7 +18539,7 @@
         <v>1236</v>
       </c>
       <c r="D362" s="29" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
@@ -18550,7 +18553,7 @@
         <v>1240</v>
       </c>
       <c r="D363" s="29" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
@@ -18564,7 +18567,7 @@
         <v>1245</v>
       </c>
       <c r="D364" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
@@ -18578,7 +18581,7 @@
         <v>1246</v>
       </c>
       <c r="D365" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
@@ -18592,7 +18595,7 @@
         <v>1250</v>
       </c>
       <c r="D366" s="29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
@@ -18606,7 +18609,7 @@
         <v>1256</v>
       </c>
       <c r="D367" s="29" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
@@ -18620,7 +18623,7 @@
         <v>1260</v>
       </c>
       <c r="D368" s="29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
@@ -18634,7 +18637,7 @@
         <v>1340</v>
       </c>
       <c r="D369" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
@@ -18648,7 +18651,7 @@
         <v>1345</v>
       </c>
       <c r="D370" s="29" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
@@ -18662,7 +18665,7 @@
         <v>1346</v>
       </c>
       <c r="D371" s="29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
@@ -18676,7 +18679,7 @@
         <v>1350</v>
       </c>
       <c r="D372" s="29" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
@@ -18690,7 +18693,7 @@
         <v>1356</v>
       </c>
       <c r="D373" s="29" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.45">
@@ -18704,7 +18707,7 @@
         <v>1360</v>
       </c>
       <c r="D374" s="29" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
@@ -18718,7 +18721,7 @@
         <v>1450</v>
       </c>
       <c r="D375" s="29" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
@@ -18732,7 +18735,7 @@
         <v>1456</v>
       </c>
       <c r="D376" s="29" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
@@ -18746,7 +18749,7 @@
         <v>1460</v>
       </c>
       <c r="D377" s="29" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
@@ -18760,7 +18763,7 @@
         <v>1560</v>
       </c>
       <c r="D378" s="29" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
@@ -18774,7 +18777,7 @@
         <v>2340</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
@@ -18788,7 +18791,7 @@
         <v>2345</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
@@ -18802,7 +18805,7 @@
         <v>2346</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
@@ -18816,7 +18819,7 @@
         <v>2350</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
@@ -18830,7 +18833,7 @@
         <v>2356</v>
       </c>
       <c r="D383" s="29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
@@ -18844,7 +18847,7 @@
         <v>2360</v>
       </c>
       <c r="D384" s="29" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.45">
@@ -18858,7 +18861,7 @@
         <v>2450</v>
       </c>
       <c r="D385" s="29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.45">
@@ -18872,7 +18875,7 @@
         <v>2456</v>
       </c>
       <c r="D386" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
@@ -18886,7 +18889,7 @@
         <v>2460</v>
       </c>
       <c r="D387" s="29" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
@@ -18900,7 +18903,7 @@
         <v>2560</v>
       </c>
       <c r="D388" s="29" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
@@ -18914,7 +18917,7 @@
         <v>3450</v>
       </c>
       <c r="D389" s="29" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
@@ -18928,7 +18931,7 @@
         <v>3456</v>
       </c>
       <c r="D390" s="29" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.45">
@@ -18942,7 +18945,7 @@
         <v>3460</v>
       </c>
       <c r="D391" s="29" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
@@ -18956,7 +18959,7 @@
         <v>3560</v>
       </c>
       <c r="D392" s="29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.45">
@@ -18970,7 +18973,7 @@
         <v>4560</v>
       </c>
       <c r="D393" s="29" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
@@ -18984,7 +18987,7 @@
         <v>12340</v>
       </c>
       <c r="D394" s="29" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.45">
@@ -18998,7 +19001,7 @@
         <v>12345</v>
       </c>
       <c r="D395" s="29" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
@@ -19012,7 +19015,7 @@
         <v>12346</v>
       </c>
       <c r="D396" s="29" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
@@ -19026,7 +19029,7 @@
         <v>12350</v>
       </c>
       <c r="D397" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
@@ -19040,7 +19043,7 @@
         <v>12356</v>
       </c>
       <c r="D398" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
@@ -19054,7 +19057,7 @@
         <v>12360</v>
       </c>
       <c r="D399" s="29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
@@ -19068,7 +19071,7 @@
         <v>12450</v>
       </c>
       <c r="D400" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
@@ -19082,7 +19085,7 @@
         <v>12456</v>
       </c>
       <c r="D401" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
@@ -19096,7 +19099,7 @@
         <v>12460</v>
       </c>
       <c r="D402" s="29" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
@@ -19110,7 +19113,7 @@
         <v>12560</v>
       </c>
       <c r="D403" s="29" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
@@ -19124,7 +19127,7 @@
         <v>13450</v>
       </c>
       <c r="D404" s="29" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
@@ -19138,7 +19141,7 @@
         <v>13456</v>
       </c>
       <c r="D405" s="29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
@@ -19152,7 +19155,7 @@
         <v>13460</v>
       </c>
       <c r="D406" s="29" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
@@ -19166,7 +19169,7 @@
         <v>13560</v>
       </c>
       <c r="D407" s="29" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
@@ -19180,7 +19183,7 @@
         <v>14560</v>
       </c>
       <c r="D408" s="29" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
@@ -19194,7 +19197,7 @@
         <v>23450</v>
       </c>
       <c r="D409" s="29" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
@@ -19208,7 +19211,7 @@
         <v>23456</v>
       </c>
       <c r="D410" s="29" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
@@ -19222,7 +19225,7 @@
         <v>23460</v>
       </c>
       <c r="D411" s="29" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
@@ -19236,7 +19239,7 @@
         <v>23560</v>
       </c>
       <c r="D412" s="29" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
@@ -19250,7 +19253,7 @@
         <v>24560</v>
       </c>
       <c r="D413" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
@@ -19264,7 +19267,7 @@
         <v>34560</v>
       </c>
       <c r="D414" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
@@ -19278,7 +19281,7 @@
         <v>123450</v>
       </c>
       <c r="D415" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
@@ -19292,7 +19295,7 @@
         <v>123456</v>
       </c>
       <c r="D416" s="29" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
@@ -19306,7 +19309,7 @@
         <v>123460</v>
       </c>
       <c r="D417" s="29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
@@ -19320,7 +19323,7 @@
         <v>123560</v>
       </c>
       <c r="D418" s="29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
@@ -19334,7 +19337,7 @@
         <v>124560</v>
       </c>
       <c r="D419" s="29" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
@@ -19348,7 +19351,7 @@
         <v>134560</v>
       </c>
       <c r="D420" s="29" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
@@ -19362,7 +19365,7 @@
         <v>234560</v>
       </c>
       <c r="D421" s="29" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
@@ -19376,7 +19379,7 @@
         <v>1234560</v>
       </c>
       <c r="D422" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
@@ -19432,7 +19435,7 @@
         <v>98</v>
       </c>
       <c r="D426" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
@@ -19446,7 +19449,7 @@
         <v>99</v>
       </c>
       <c r="D427" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
@@ -19614,7 +19617,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="29" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -19628,7 +19631,7 @@
         <v>1</v>
       </c>
       <c r="D440" s="29" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -19642,7 +19645,7 @@
         <v>2</v>
       </c>
       <c r="D441" s="29" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -19656,7 +19659,7 @@
         <v>3</v>
       </c>
       <c r="D442" s="29" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -19670,7 +19673,7 @@
         <v>98</v>
       </c>
       <c r="D443" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
@@ -19684,7 +19687,7 @@
         <v>99</v>
       </c>
       <c r="D444" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.45">
@@ -20174,7 +20177,7 @@
         <v>9</v>
       </c>
       <c r="D479" s="29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="480" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.45">
@@ -20188,7 +20191,7 @@
         <v>10</v>
       </c>
       <c r="D480" s="29" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
@@ -20762,7 +20765,7 @@
         <v>23</v>
       </c>
       <c r="D521" s="29" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -20776,7 +20779,7 @@
         <v>24</v>
       </c>
       <c r="D522" s="29" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -20790,7 +20793,7 @@
         <v>25</v>
       </c>
       <c r="D523" s="29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -20804,7 +20807,7 @@
         <v>26</v>
       </c>
       <c r="D524" s="29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -20818,7 +20821,7 @@
         <v>27</v>
       </c>
       <c r="D525" s="29" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -20832,7 +20835,7 @@
         <v>28</v>
       </c>
       <c r="D526" s="29" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -20846,7 +20849,7 @@
         <v>29</v>
       </c>
       <c r="D527" s="29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -20860,7 +20863,7 @@
         <v>30</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -20874,7 +20877,7 @@
         <v>31</v>
       </c>
       <c r="D529" s="29" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -20888,7 +20891,7 @@
         <v>32</v>
       </c>
       <c r="D530" s="29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -20902,7 +20905,7 @@
         <v>33</v>
       </c>
       <c r="D531" s="29" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -20916,7 +20919,7 @@
         <v>34</v>
       </c>
       <c r="D532" s="29" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -20930,7 +20933,7 @@
         <v>35</v>
       </c>
       <c r="D533" s="29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -20944,7 +20947,7 @@
         <v>36</v>
       </c>
       <c r="D534" s="29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -20958,7 +20961,7 @@
         <v>37</v>
       </c>
       <c r="D535" s="29" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -20972,7 +20975,7 @@
         <v>38</v>
       </c>
       <c r="D536" s="29" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -20986,7 +20989,7 @@
         <v>39</v>
       </c>
       <c r="D537" s="29" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -21000,7 +21003,7 @@
         <v>40</v>
       </c>
       <c r="D538" s="29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -21014,7 +21017,7 @@
         <v>41</v>
       </c>
       <c r="D539" s="29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -21028,7 +21031,7 @@
         <v>42</v>
       </c>
       <c r="D540" s="29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -21042,7 +21045,7 @@
         <v>43</v>
       </c>
       <c r="D541" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -21056,7 +21059,7 @@
         <v>44</v>
       </c>
       <c r="D542" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -21112,7 +21115,7 @@
         <v>48</v>
       </c>
       <c r="D546" s="29" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
@@ -21210,7 +21213,7 @@
         <v>56</v>
       </c>
       <c r="D553" s="29" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
@@ -21224,7 +21227,7 @@
         <v>57</v>
       </c>
       <c r="D554" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.45">
@@ -21238,7 +21241,7 @@
         <v>58</v>
       </c>
       <c r="D555" s="29" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
@@ -21252,7 +21255,7 @@
         <v>59</v>
       </c>
       <c r="D556" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.45">
@@ -21266,7 +21269,7 @@
         <v>60</v>
       </c>
       <c r="D557" s="29" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
@@ -21280,7 +21283,7 @@
         <v>61</v>
       </c>
       <c r="D558" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
@@ -21294,7 +21297,7 @@
         <v>62</v>
       </c>
       <c r="D559" s="29" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
@@ -21308,7 +21311,7 @@
         <v>63</v>
       </c>
       <c r="D560" s="29" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
@@ -21322,7 +21325,7 @@
         <v>64</v>
       </c>
       <c r="D561" s="29" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
@@ -21336,7 +21339,7 @@
         <v>65</v>
       </c>
       <c r="D562" s="29" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
@@ -21350,7 +21353,7 @@
         <v>66</v>
       </c>
       <c r="D563" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.45">
@@ -21364,7 +21367,7 @@
         <v>67</v>
       </c>
       <c r="D564" s="29" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
@@ -21378,7 +21381,7 @@
         <v>68</v>
       </c>
       <c r="D565" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.45">
@@ -21392,7 +21395,7 @@
         <v>69</v>
       </c>
       <c r="D566" s="29" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
@@ -21406,7 +21409,7 @@
         <v>70</v>
       </c>
       <c r="D567" s="29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
@@ -21420,7 +21423,7 @@
         <v>71</v>
       </c>
       <c r="D568" s="29" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
@@ -21434,7 +21437,7 @@
         <v>72</v>
       </c>
       <c r="D569" s="29" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
@@ -21448,7 +21451,7 @@
         <v>73</v>
       </c>
       <c r="D570" s="29" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
@@ -21462,7 +21465,7 @@
         <v>74</v>
       </c>
       <c r="D571" s="29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
@@ -21476,7 +21479,7 @@
         <v>75</v>
       </c>
       <c r="D572" s="29" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
@@ -21490,7 +21493,7 @@
         <v>76</v>
       </c>
       <c r="D573" s="29" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
@@ -21504,7 +21507,7 @@
         <v>77</v>
       </c>
       <c r="D574" s="29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
@@ -21518,7 +21521,7 @@
         <v>78</v>
       </c>
       <c r="D575" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
@@ -21532,7 +21535,7 @@
         <v>79</v>
       </c>
       <c r="D576" s="29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.45">
@@ -21546,7 +21549,7 @@
         <v>80</v>
       </c>
       <c r="D577" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.45">
@@ -21574,7 +21577,7 @@
         <v>82</v>
       </c>
       <c r="D579" s="29" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.45">
@@ -21602,7 +21605,7 @@
         <v>84</v>
       </c>
       <c r="D581" s="29" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.45">
@@ -21616,7 +21619,7 @@
         <v>85</v>
       </c>
       <c r="D582" s="29" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.45">
@@ -21794,7 +21797,7 @@
         <v>97</v>
       </c>
       <c r="D594" s="29" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
@@ -21808,7 +21811,7 @@
         <v>1015</v>
       </c>
       <c r="D595" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
@@ -21822,7 +21825,7 @@
         <v>1018</v>
       </c>
       <c r="D596" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
@@ -21836,7 +21839,7 @@
         <v>1019</v>
       </c>
       <c r="D597" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
@@ -21850,7 +21853,7 @@
         <v>1020</v>
       </c>
       <c r="D598" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
@@ -21864,7 +21867,7 @@
         <v>1021</v>
       </c>
       <c r="D599" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
@@ -21878,7 +21881,7 @@
         <v>1022</v>
       </c>
       <c r="D600" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
@@ -21892,7 +21895,7 @@
         <v>1023</v>
       </c>
       <c r="D601" s="29" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
@@ -21906,7 +21909,7 @@
         <v>1024</v>
       </c>
       <c r="D602" s="29" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
@@ -21920,7 +21923,7 @@
         <v>1025</v>
       </c>
       <c r="D603" s="29" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
@@ -21934,7 +21937,7 @@
         <v>1026</v>
       </c>
       <c r="D604" s="29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
@@ -21948,7 +21951,7 @@
         <v>1027</v>
       </c>
       <c r="D605" s="29" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
@@ -21962,7 +21965,7 @@
         <v>1028</v>
       </c>
       <c r="D606" s="29" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
@@ -21976,7 +21979,7 @@
         <v>1029</v>
       </c>
       <c r="D607" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
@@ -21990,7 +21993,7 @@
         <v>1030</v>
       </c>
       <c r="D608" s="29" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
@@ -22004,7 +22007,7 @@
         <v>1031</v>
       </c>
       <c r="D609" s="29" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
@@ -22018,7 +22021,7 @@
         <v>1032</v>
       </c>
       <c r="D610" s="29" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
@@ -22032,7 +22035,7 @@
         <v>1033</v>
       </c>
       <c r="D611" s="29" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
@@ -22046,7 +22049,7 @@
         <v>1034</v>
       </c>
       <c r="D612" s="29" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
@@ -22060,7 +22063,7 @@
         <v>1035</v>
       </c>
       <c r="D613" s="29" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
@@ -22074,7 +22077,7 @@
         <v>1036</v>
       </c>
       <c r="D614" s="29" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
@@ -22088,7 +22091,7 @@
         <v>1037</v>
       </c>
       <c r="D615" s="29" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.45">
@@ -22102,7 +22105,7 @@
         <v>1038</v>
       </c>
       <c r="D616" s="29" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
@@ -22116,7 +22119,7 @@
         <v>1039</v>
       </c>
       <c r="D617" s="29" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
@@ -22130,7 +22133,7 @@
         <v>1040</v>
       </c>
       <c r="D618" s="29" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
@@ -22144,7 +22147,7 @@
         <v>1041</v>
       </c>
       <c r="D619" s="29" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
@@ -22158,7 +22161,7 @@
         <v>1042</v>
       </c>
       <c r="D620" s="29" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
@@ -22172,7 +22175,7 @@
         <v>1043</v>
       </c>
       <c r="D621" s="29" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
@@ -22186,7 +22189,7 @@
         <v>1044</v>
       </c>
       <c r="D622" s="29" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
@@ -22200,7 +22203,7 @@
         <v>1048</v>
       </c>
       <c r="D623" s="29" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
@@ -22214,7 +22217,7 @@
         <v>1115</v>
       </c>
       <c r="D624" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.45">
@@ -22228,7 +22231,7 @@
         <v>1118</v>
       </c>
       <c r="D625" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.45">
@@ -22242,7 +22245,7 @@
         <v>1119</v>
       </c>
       <c r="D626" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.45">
@@ -22256,7 +22259,7 @@
         <v>1120</v>
       </c>
       <c r="D627" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.45">
@@ -22270,7 +22273,7 @@
         <v>1121</v>
       </c>
       <c r="D628" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.45">
@@ -22284,7 +22287,7 @@
         <v>1122</v>
       </c>
       <c r="D629" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.45">
@@ -22298,7 +22301,7 @@
         <v>1123</v>
       </c>
       <c r="D630" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.45">
@@ -22312,7 +22315,7 @@
         <v>1124</v>
       </c>
       <c r="D631" s="29" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F631" s="26"/>
     </row>
@@ -22327,7 +22330,7 @@
         <v>1125</v>
       </c>
       <c r="D632" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F632" s="26"/>
     </row>
@@ -22342,7 +22345,7 @@
         <v>1126</v>
       </c>
       <c r="D633" s="29" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F633" s="26"/>
     </row>
@@ -22357,7 +22360,7 @@
         <v>1127</v>
       </c>
       <c r="D634" s="29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F634" s="26"/>
     </row>
@@ -22372,7 +22375,7 @@
         <v>1128</v>
       </c>
       <c r="D635" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F635" s="26"/>
     </row>
@@ -22387,7 +22390,7 @@
         <v>1129</v>
       </c>
       <c r="D636" s="29" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F636" s="26"/>
     </row>
@@ -22402,7 +22405,7 @@
         <v>1130</v>
       </c>
       <c r="D637" s="29" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F637" s="26"/>
     </row>
@@ -22417,7 +22420,7 @@
         <v>1131</v>
       </c>
       <c r="D638" s="29" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F638" s="26"/>
     </row>
@@ -22432,7 +22435,7 @@
         <v>1132</v>
       </c>
       <c r="D639" s="29" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F639" s="26"/>
     </row>
@@ -22447,7 +22450,7 @@
         <v>1133</v>
       </c>
       <c r="D640" s="29" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F640" s="26"/>
     </row>
@@ -22462,7 +22465,7 @@
         <v>1134</v>
       </c>
       <c r="D641" s="29" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F641" s="26"/>
     </row>
@@ -22477,7 +22480,7 @@
         <v>1135</v>
       </c>
       <c r="D642" s="29" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F642" s="26"/>
     </row>
@@ -22492,7 +22495,7 @@
         <v>1136</v>
       </c>
       <c r="D643" s="29" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F643" s="26"/>
     </row>
@@ -22507,7 +22510,7 @@
         <v>1137</v>
       </c>
       <c r="D644" s="29" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F644" s="26"/>
     </row>
@@ -22522,7 +22525,7 @@
         <v>1138</v>
       </c>
       <c r="D645" s="29" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F645" s="26"/>
     </row>
@@ -22537,7 +22540,7 @@
         <v>1139</v>
       </c>
       <c r="D646" s="29" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F646" s="26"/>
     </row>
@@ -22552,7 +22555,7 @@
         <v>1140</v>
       </c>
       <c r="D647" s="29" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F647" s="26"/>
     </row>
@@ -22567,7 +22570,7 @@
         <v>1141</v>
       </c>
       <c r="D648" s="29" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F648" s="26"/>
     </row>
@@ -22582,7 +22585,7 @@
         <v>1142</v>
       </c>
       <c r="D649" s="29" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F649" s="26"/>
     </row>
@@ -22597,7 +22600,7 @@
         <v>1143</v>
       </c>
       <c r="D650" s="29" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F650" s="26"/>
     </row>
@@ -22612,7 +22615,7 @@
         <v>1144</v>
       </c>
       <c r="D651" s="29" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F651" s="26"/>
     </row>
@@ -22627,7 +22630,7 @@
         <v>1148</v>
       </c>
       <c r="D652" s="29" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.45">
@@ -22670,7 +22673,7 @@
         <v>1215</v>
       </c>
       <c r="D655" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.45">
@@ -22684,7 +22687,7 @@
         <v>1218</v>
       </c>
       <c r="D656" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.45">
@@ -22698,7 +22701,7 @@
         <v>1219</v>
       </c>
       <c r="D657" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.45">
@@ -22712,7 +22715,7 @@
         <v>1220</v>
       </c>
       <c r="D658" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.45">
@@ -22726,7 +22729,7 @@
         <v>1221</v>
       </c>
       <c r="D659" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.45">
@@ -22740,7 +22743,7 @@
         <v>1222</v>
       </c>
       <c r="D660" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F660" s="26"/>
     </row>
@@ -22755,7 +22758,7 @@
         <v>1223</v>
       </c>
       <c r="D661" s="29" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F661" s="26"/>
     </row>
@@ -22770,7 +22773,7 @@
         <v>1224</v>
       </c>
       <c r="D662" s="29" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F662" s="26"/>
     </row>
@@ -22785,7 +22788,7 @@
         <v>1225</v>
       </c>
       <c r="D663" s="29" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F663" s="26"/>
     </row>
@@ -22800,7 +22803,7 @@
         <v>1226</v>
       </c>
       <c r="D664" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F664" s="26"/>
     </row>
@@ -22815,7 +22818,7 @@
         <v>1227</v>
       </c>
       <c r="D665" s="29" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F665" s="26"/>
     </row>
@@ -22830,7 +22833,7 @@
         <v>1228</v>
       </c>
       <c r="D666" s="29" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F666" s="26"/>
     </row>
@@ -22845,7 +22848,7 @@
         <v>1229</v>
       </c>
       <c r="D667" s="29" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F667" s="26"/>
     </row>
@@ -22860,7 +22863,7 @@
         <v>1230</v>
       </c>
       <c r="D668" s="29" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F668" s="26"/>
     </row>
@@ -22875,7 +22878,7 @@
         <v>1231</v>
       </c>
       <c r="D669" s="29" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F669" s="26"/>
     </row>
@@ -22890,7 +22893,7 @@
         <v>1232</v>
       </c>
       <c r="D670" s="29" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F670" s="26"/>
     </row>
@@ -22905,7 +22908,7 @@
         <v>1233</v>
       </c>
       <c r="D671" s="29" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F671" s="26"/>
     </row>
@@ -22920,7 +22923,7 @@
         <v>1234</v>
       </c>
       <c r="D672" s="29" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F672" s="26"/>
     </row>
@@ -22935,7 +22938,7 @@
         <v>1235</v>
       </c>
       <c r="D673" s="29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F673" s="26"/>
     </row>
@@ -22950,7 +22953,7 @@
         <v>1236</v>
       </c>
       <c r="D674" s="29" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F674" s="26"/>
     </row>
@@ -22965,7 +22968,7 @@
         <v>1237</v>
       </c>
       <c r="D675" s="29" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F675" s="26"/>
     </row>
@@ -22980,7 +22983,7 @@
         <v>1238</v>
       </c>
       <c r="D676" s="29" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F676" s="26"/>
     </row>
@@ -22995,7 +22998,7 @@
         <v>1239</v>
       </c>
       <c r="D677" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F677" s="26"/>
     </row>
@@ -23010,7 +23013,7 @@
         <v>1240</v>
       </c>
       <c r="D678" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F678" s="26"/>
     </row>
@@ -23025,7 +23028,7 @@
         <v>1241</v>
       </c>
       <c r="D679" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F679" s="26"/>
     </row>
@@ -23040,7 +23043,7 @@
         <v>1242</v>
       </c>
       <c r="D680" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F680" s="26"/>
     </row>
@@ -23055,7 +23058,7 @@
         <v>1243</v>
       </c>
       <c r="D681" s="29" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F681" s="26"/>
     </row>
@@ -23070,7 +23073,7 @@
         <v>1244</v>
       </c>
       <c r="D682" s="29" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.45">
@@ -23084,7 +23087,7 @@
         <v>1248</v>
       </c>
       <c r="D683" s="29" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.45">
@@ -23126,7 +23129,7 @@
         <v>1315</v>
       </c>
       <c r="D686" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.45">
@@ -23140,7 +23143,7 @@
         <v>1318</v>
       </c>
       <c r="D687" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.45">
@@ -23154,7 +23157,7 @@
         <v>1319</v>
       </c>
       <c r="D688" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.45">
@@ -23168,7 +23171,7 @@
         <v>1320</v>
       </c>
       <c r="D689" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.45">
@@ -23182,7 +23185,7 @@
         <v>1321</v>
       </c>
       <c r="D690" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.45">
@@ -23196,7 +23199,7 @@
         <v>1322</v>
       </c>
       <c r="D691" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F691" s="26"/>
     </row>
@@ -23211,7 +23214,7 @@
         <v>1323</v>
       </c>
       <c r="D692" s="29" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F692" s="26"/>
     </row>
@@ -23226,7 +23229,7 @@
         <v>1324</v>
       </c>
       <c r="D693" s="29" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F693" s="26"/>
     </row>
@@ -23241,7 +23244,7 @@
         <v>1325</v>
       </c>
       <c r="D694" s="29" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F694" s="26"/>
     </row>
@@ -23256,7 +23259,7 @@
         <v>1326</v>
       </c>
       <c r="D695" s="29" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F695" s="26"/>
     </row>
@@ -23271,7 +23274,7 @@
         <v>1327</v>
       </c>
       <c r="D696" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F696" s="26"/>
     </row>
@@ -23286,7 +23289,7 @@
         <v>1328</v>
       </c>
       <c r="D697" s="29" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F697" s="26"/>
     </row>
@@ -23301,7 +23304,7 @@
         <v>1329</v>
       </c>
       <c r="D698" s="29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F698" s="26"/>
     </row>
@@ -23316,7 +23319,7 @@
         <v>1330</v>
       </c>
       <c r="D699" s="29" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F699" s="26"/>
     </row>
@@ -23331,7 +23334,7 @@
         <v>1331</v>
       </c>
       <c r="D700" s="29" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F700" s="26"/>
     </row>
@@ -23346,7 +23349,7 @@
         <v>1332</v>
       </c>
       <c r="D701" s="29" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F701" s="26"/>
     </row>
@@ -23361,7 +23364,7 @@
         <v>1333</v>
       </c>
       <c r="D702" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F702" s="26"/>
     </row>
@@ -23376,7 +23379,7 @@
         <v>1334</v>
       </c>
       <c r="D703" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F703" s="26"/>
     </row>
@@ -23391,7 +23394,7 @@
         <v>1335</v>
       </c>
       <c r="D704" s="29" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F704" s="26"/>
     </row>
@@ -23406,7 +23409,7 @@
         <v>1336</v>
       </c>
       <c r="D705" s="29" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F705" s="26"/>
     </row>
@@ -23421,7 +23424,7 @@
         <v>1337</v>
       </c>
       <c r="D706" s="29" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F706" s="26"/>
     </row>
@@ -23436,7 +23439,7 @@
         <v>1338</v>
       </c>
       <c r="D707" s="29" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F707" s="26"/>
     </row>
@@ -23451,7 +23454,7 @@
         <v>1339</v>
       </c>
       <c r="D708" s="29" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F708" s="26"/>
     </row>
@@ -23466,7 +23469,7 @@
         <v>1340</v>
       </c>
       <c r="D709" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F709" s="26"/>
     </row>
@@ -23481,7 +23484,7 @@
         <v>1341</v>
       </c>
       <c r="D710" s="29" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F710" s="26"/>
     </row>
@@ -23496,7 +23499,7 @@
         <v>1342</v>
       </c>
       <c r="D711" s="29" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F711" s="26"/>
     </row>
@@ -23511,7 +23514,7 @@
         <v>1343</v>
       </c>
       <c r="D712" s="29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F712" s="26"/>
     </row>
@@ -23526,7 +23529,7 @@
         <v>1344</v>
       </c>
       <c r="D713" s="29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.45">
@@ -23540,7 +23543,7 @@
         <v>1345</v>
       </c>
       <c r="D714" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.45">
@@ -23554,7 +23557,7 @@
         <v>1347</v>
       </c>
       <c r="D715" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.45">
@@ -23568,7 +23571,7 @@
         <v>1348</v>
       </c>
       <c r="D716" s="29" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.45">
@@ -23582,7 +23585,7 @@
         <v>1415</v>
       </c>
       <c r="D717" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.45">
@@ -23596,7 +23599,7 @@
         <v>1418</v>
       </c>
       <c r="D718" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.45">
@@ -23610,7 +23613,7 @@
         <v>1419</v>
       </c>
       <c r="D719" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.45">
@@ -23624,7 +23627,7 @@
         <v>1420</v>
       </c>
       <c r="D720" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.45">
@@ -23638,7 +23641,7 @@
         <v>1421</v>
       </c>
       <c r="D721" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.45">
@@ -23652,7 +23655,7 @@
         <v>1422</v>
       </c>
       <c r="D722" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F722" s="26"/>
     </row>
@@ -23667,7 +23670,7 @@
         <v>1423</v>
       </c>
       <c r="D723" s="29" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F723" s="26"/>
     </row>
@@ -23682,7 +23685,7 @@
         <v>1424</v>
       </c>
       <c r="D724" s="29" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F724" s="26"/>
     </row>
@@ -23697,7 +23700,7 @@
         <v>1425</v>
       </c>
       <c r="D725" s="29" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F725" s="26"/>
     </row>
@@ -23712,7 +23715,7 @@
         <v>1426</v>
       </c>
       <c r="D726" s="29" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F726" s="26"/>
     </row>
@@ -23727,7 +23730,7 @@
         <v>1427</v>
       </c>
       <c r="D727" s="29" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F727" s="26"/>
     </row>
@@ -23742,7 +23745,7 @@
         <v>1428</v>
       </c>
       <c r="D728" s="29" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F728" s="26"/>
     </row>
@@ -23757,7 +23760,7 @@
         <v>1429</v>
       </c>
       <c r="D729" s="29" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F729" s="26"/>
     </row>
@@ -23772,7 +23775,7 @@
         <v>1430</v>
       </c>
       <c r="D730" s="29" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F730" s="26"/>
     </row>
@@ -23787,7 +23790,7 @@
         <v>1431</v>
       </c>
       <c r="D731" s="29" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F731" s="26"/>
     </row>
@@ -23802,7 +23805,7 @@
         <v>1432</v>
       </c>
       <c r="D732" s="29" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F732" s="26"/>
     </row>
@@ -23817,7 +23820,7 @@
         <v>1433</v>
       </c>
       <c r="D733" s="29" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F733" s="26"/>
     </row>
@@ -23832,7 +23835,7 @@
         <v>1434</v>
       </c>
       <c r="D734" s="29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F734" s="26"/>
     </row>
@@ -23847,7 +23850,7 @@
         <v>1435</v>
       </c>
       <c r="D735" s="29" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F735" s="26"/>
     </row>
@@ -23862,7 +23865,7 @@
         <v>1436</v>
       </c>
       <c r="D736" s="29" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F736" s="26"/>
     </row>
@@ -23877,7 +23880,7 @@
         <v>1437</v>
       </c>
       <c r="D737" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F737" s="26"/>
     </row>
@@ -23892,7 +23895,7 @@
         <v>1438</v>
       </c>
       <c r="D738" s="29" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F738" s="26"/>
     </row>
@@ -23907,7 +23910,7 @@
         <v>1439</v>
       </c>
       <c r="D739" s="29" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F739" s="26"/>
     </row>
@@ -23922,7 +23925,7 @@
         <v>1440</v>
       </c>
       <c r="D740" s="29" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F740" s="26"/>
     </row>
@@ -23937,7 +23940,7 @@
         <v>1441</v>
       </c>
       <c r="D741" s="29" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F741" s="26"/>
     </row>
@@ -23952,7 +23955,7 @@
         <v>1442</v>
       </c>
       <c r="D742" s="29" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F742" s="26"/>
     </row>
@@ -23967,7 +23970,7 @@
         <v>1443</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F743" s="26"/>
     </row>
@@ -23982,7 +23985,7 @@
         <v>1444</v>
       </c>
       <c r="D744" s="29" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.45">
@@ -23996,7 +23999,7 @@
         <v>1445</v>
       </c>
       <c r="D745" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.45">
@@ -24010,7 +24013,7 @@
         <v>1448</v>
       </c>
       <c r="D746" s="29" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.45">
@@ -24024,7 +24027,7 @@
         <v>1519</v>
       </c>
       <c r="D747" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.45">
@@ -24038,7 +24041,7 @@
         <v>1520</v>
       </c>
       <c r="D748" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.45">
@@ -24052,7 +24055,7 @@
         <v>1521</v>
       </c>
       <c r="D749" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.45">
@@ -24066,7 +24069,7 @@
         <v>1522</v>
       </c>
       <c r="D750" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.45">
@@ -24080,7 +24083,7 @@
         <v>1523</v>
       </c>
       <c r="D751" s="29" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.45">
@@ -24094,7 +24097,7 @@
         <v>1524</v>
       </c>
       <c r="D752" s="29" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.45">
@@ -24108,7 +24111,7 @@
         <v>1525</v>
       </c>
       <c r="D753" s="29" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.45">
@@ -24122,7 +24125,7 @@
         <v>1526</v>
       </c>
       <c r="D754" s="29" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.45">
@@ -24136,7 +24139,7 @@
         <v>1527</v>
       </c>
       <c r="D755" s="29" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.45">
@@ -24150,7 +24153,7 @@
         <v>1528</v>
       </c>
       <c r="D756" s="29" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.45">
@@ -24164,7 +24167,7 @@
         <v>1529</v>
       </c>
       <c r="D757" s="29" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.45">
@@ -24178,7 +24181,7 @@
         <v>1530</v>
       </c>
       <c r="D758" s="29" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.45">
@@ -24192,7 +24195,7 @@
         <v>1531</v>
       </c>
       <c r="D759" s="29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.45">
@@ -24206,7 +24209,7 @@
         <v>1532</v>
       </c>
       <c r="D760" s="29" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.45">
@@ -24220,7 +24223,7 @@
         <v>1533</v>
       </c>
       <c r="D761" s="29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.45">
@@ -24234,7 +24237,7 @@
         <v>1534</v>
       </c>
       <c r="D762" s="29" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.45">
@@ -24248,7 +24251,7 @@
         <v>1535</v>
       </c>
       <c r="D763" s="29" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.45">
@@ -24262,7 +24265,7 @@
         <v>1536</v>
       </c>
       <c r="D764" s="29" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.45">
@@ -24276,7 +24279,7 @@
         <v>1537</v>
       </c>
       <c r="D765" s="29" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.45">
@@ -24290,7 +24293,7 @@
         <v>1538</v>
       </c>
       <c r="D766" s="29" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.45">
@@ -24304,7 +24307,7 @@
         <v>1539</v>
       </c>
       <c r="D767" s="29" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.45">
@@ -24318,7 +24321,7 @@
         <v>1540</v>
       </c>
       <c r="D768" s="29" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.45">
@@ -24332,7 +24335,7 @@
         <v>1541</v>
       </c>
       <c r="D769" s="29" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.45">
@@ -24346,7 +24349,7 @@
         <v>1542</v>
       </c>
       <c r="D770" s="29" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.45">
@@ -24360,7 +24363,7 @@
         <v>1543</v>
       </c>
       <c r="D771" s="29" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.45">
@@ -24374,7 +24377,7 @@
         <v>1544</v>
       </c>
       <c r="D772" s="29" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.45">
@@ -24388,7 +24391,7 @@
         <v>1545</v>
       </c>
       <c r="D773" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.45">
@@ -24402,7 +24405,7 @@
         <v>1546</v>
       </c>
       <c r="D774" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.45">
@@ -24416,7 +24419,7 @@
         <v>1547</v>
       </c>
       <c r="D775" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
@@ -24430,7 +24433,7 @@
         <v>1548</v>
       </c>
       <c r="D776" s="29" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.45">
@@ -24486,7 +24489,7 @@
         <v>5056</v>
       </c>
       <c r="D780" s="29" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.45">
@@ -24500,7 +24503,7 @@
         <v>5057</v>
       </c>
       <c r="D781" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.45">
@@ -24514,7 +24517,7 @@
         <v>5058</v>
       </c>
       <c r="D782" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.45">
@@ -24528,7 +24531,7 @@
         <v>5059</v>
       </c>
       <c r="D783" s="29" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.45">
@@ -24542,7 +24545,7 @@
         <v>5060</v>
       </c>
       <c r="D784" s="29" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.45">
@@ -24556,7 +24559,7 @@
         <v>5061</v>
       </c>
       <c r="D785" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.45">
@@ -24570,7 +24573,7 @@
         <v>5062</v>
       </c>
       <c r="D786" s="29" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.45">
@@ -24584,7 +24587,7 @@
         <v>5063</v>
       </c>
       <c r="D787" s="29" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.45">
@@ -24598,7 +24601,7 @@
         <v>5064</v>
       </c>
       <c r="D788" s="29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.45">
@@ -24612,7 +24615,7 @@
         <v>5065</v>
       </c>
       <c r="D789" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.45">
@@ -24626,7 +24629,7 @@
         <v>5066</v>
       </c>
       <c r="D790" s="29" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.45">
@@ -24640,7 +24643,7 @@
         <v>5067</v>
       </c>
       <c r="D791" s="29" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.45">
@@ -24654,7 +24657,7 @@
         <v>5068</v>
       </c>
       <c r="D792" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.45">
@@ -24668,7 +24671,7 @@
         <v>5069</v>
       </c>
       <c r="D793" s="29" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.45">
@@ -24682,7 +24685,7 @@
         <v>5070</v>
       </c>
       <c r="D794" s="29" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.45">
@@ -24696,7 +24699,7 @@
         <v>5071</v>
       </c>
       <c r="D795" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.45">
@@ -24710,7 +24713,7 @@
         <v>5072</v>
       </c>
       <c r="D796" s="29" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.45">
@@ -24724,7 +24727,7 @@
         <v>5073</v>
       </c>
       <c r="D797" s="29" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.45">
@@ -24738,7 +24741,7 @@
         <v>5074</v>
       </c>
       <c r="D798" s="29" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.45">
@@ -24752,7 +24755,7 @@
         <v>5075</v>
       </c>
       <c r="D799" s="29" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.45">
@@ -24766,7 +24769,7 @@
         <v>5076</v>
       </c>
       <c r="D800" s="29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.45">
@@ -24780,7 +24783,7 @@
         <v>5077</v>
       </c>
       <c r="D801" s="29" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.45">
@@ -24794,7 +24797,7 @@
         <v>5078</v>
       </c>
       <c r="D802" s="29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.45">
@@ -24808,7 +24811,7 @@
         <v>5079</v>
       </c>
       <c r="D803" s="29" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.45">
@@ -24822,7 +24825,7 @@
         <v>5080</v>
       </c>
       <c r="D804" s="29" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.45">
@@ -24850,7 +24853,7 @@
         <v>5082</v>
       </c>
       <c r="D806" s="29" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.45">
@@ -24878,7 +24881,7 @@
         <v>5084</v>
       </c>
       <c r="D808" s="29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.45">
@@ -24892,7 +24895,7 @@
         <v>5085</v>
       </c>
       <c r="D809" s="29" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.45">
@@ -24906,7 +24909,7 @@
         <v>5097</v>
       </c>
       <c r="D810" s="29" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.45">
@@ -24920,7 +24923,7 @@
         <v>5153</v>
       </c>
       <c r="D811" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -24934,7 +24937,7 @@
         <v>5154</v>
       </c>
       <c r="D812" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.45">
@@ -24948,7 +24951,7 @@
         <v>5155</v>
       </c>
       <c r="D813" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.45">
@@ -24962,7 +24965,7 @@
         <v>5156</v>
       </c>
       <c r="D814" s="29" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.45">
@@ -24976,7 +24979,7 @@
         <v>5157</v>
       </c>
       <c r="D815" s="29" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.45">
@@ -24990,7 +24993,7 @@
         <v>5158</v>
       </c>
       <c r="D816" s="29" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.45">
@@ -25004,7 +25007,7 @@
         <v>5159</v>
       </c>
       <c r="D817" s="29" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.45">
@@ -25018,7 +25021,7 @@
         <v>5160</v>
       </c>
       <c r="D818" s="29" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.45">
@@ -25032,7 +25035,7 @@
         <v>5161</v>
       </c>
       <c r="D819" s="29" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.45">
@@ -25046,7 +25049,7 @@
         <v>5162</v>
       </c>
       <c r="D820" s="29" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.45">
@@ -25060,7 +25063,7 @@
         <v>5163</v>
       </c>
       <c r="D821" s="29" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.45">
@@ -25074,7 +25077,7 @@
         <v>5164</v>
       </c>
       <c r="D822" s="29" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.45">
@@ -25088,7 +25091,7 @@
         <v>5165</v>
       </c>
       <c r="D823" s="29" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.45">
@@ -25102,7 +25105,7 @@
         <v>5166</v>
       </c>
       <c r="D824" s="29" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.45">
@@ -25116,7 +25119,7 @@
         <v>5167</v>
       </c>
       <c r="D825" s="29" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.45">
@@ -25130,7 +25133,7 @@
         <v>5168</v>
       </c>
       <c r="D826" s="29" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.45">
@@ -25144,7 +25147,7 @@
         <v>5169</v>
       </c>
       <c r="D827" s="29" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.45">
@@ -25158,7 +25161,7 @@
         <v>5170</v>
       </c>
       <c r="D828" s="29" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.45">
@@ -25172,7 +25175,7 @@
         <v>5171</v>
       </c>
       <c r="D829" s="29" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.45">
@@ -25186,7 +25189,7 @@
         <v>5172</v>
       </c>
       <c r="D830" s="29" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.45">
@@ -25200,7 +25203,7 @@
         <v>5173</v>
       </c>
       <c r="D831" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.45">
@@ -25214,7 +25217,7 @@
         <v>5174</v>
       </c>
       <c r="D832" s="29" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.45">
@@ -25228,7 +25231,7 @@
         <v>5175</v>
       </c>
       <c r="D833" s="29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.45">
@@ -25242,7 +25245,7 @@
         <v>5176</v>
       </c>
       <c r="D834" s="29" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.45">
@@ -25256,7 +25259,7 @@
         <v>5177</v>
       </c>
       <c r="D835" s="29" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.45">
@@ -25270,7 +25273,7 @@
         <v>5178</v>
       </c>
       <c r="D836" s="29" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.45">
@@ -25284,7 +25287,7 @@
         <v>5179</v>
       </c>
       <c r="D837" s="29" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.45">
@@ -25298,7 +25301,7 @@
         <v>5180</v>
       </c>
       <c r="D838" s="29" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.45">
@@ -25312,7 +25315,7 @@
         <v>5181</v>
       </c>
       <c r="D839" s="29" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.45">
@@ -25326,7 +25329,7 @@
         <v>5182</v>
       </c>
       <c r="D840" s="29" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.45">
@@ -25340,7 +25343,7 @@
         <v>5183</v>
       </c>
       <c r="D841" s="29" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.45">
@@ -25354,7 +25357,7 @@
         <v>5184</v>
       </c>
       <c r="D842" s="29" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.45">
@@ -25368,7 +25371,7 @@
         <v>5185</v>
       </c>
       <c r="D843" s="29" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.45">
@@ -25382,7 +25385,7 @@
         <v>5197</v>
       </c>
       <c r="D844" s="29" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.45">
@@ -25396,7 +25399,7 @@
         <v>5253</v>
       </c>
       <c r="D845" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25410,7 +25413,7 @@
         <v>5254</v>
       </c>
       <c r="D846" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.45">
@@ -25438,7 +25441,7 @@
         <v>5256</v>
       </c>
       <c r="D848" s="29" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.45">
@@ -25452,7 +25455,7 @@
         <v>5257</v>
       </c>
       <c r="D849" s="29" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.45">
@@ -25466,7 +25469,7 @@
         <v>5258</v>
       </c>
       <c r="D850" s="29" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.45">
@@ -25480,7 +25483,7 @@
         <v>5259</v>
       </c>
       <c r="D851" s="29" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.45">
@@ -25494,7 +25497,7 @@
         <v>5260</v>
       </c>
       <c r="D852" s="29" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.45">
@@ -25508,7 +25511,7 @@
         <v>5261</v>
       </c>
       <c r="D853" s="29" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.45">
@@ -25522,7 +25525,7 @@
         <v>5262</v>
       </c>
       <c r="D854" s="29" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.45">
@@ -25536,7 +25539,7 @@
         <v>5263</v>
       </c>
       <c r="D855" s="29" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.45">
@@ -25550,7 +25553,7 @@
         <v>5264</v>
       </c>
       <c r="D856" s="29" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.45">
@@ -25564,7 +25567,7 @@
         <v>5265</v>
       </c>
       <c r="D857" s="29" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.45">
@@ -25578,7 +25581,7 @@
         <v>5266</v>
       </c>
       <c r="D858" s="29" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.45">
@@ -25592,7 +25595,7 @@
         <v>5267</v>
       </c>
       <c r="D859" s="29" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.45">
@@ -25606,7 +25609,7 @@
         <v>5268</v>
       </c>
       <c r="D860" s="29" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.45">
@@ -25620,7 +25623,7 @@
         <v>5269</v>
       </c>
       <c r="D861" s="29" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.45">
@@ -25634,7 +25637,7 @@
         <v>5270</v>
       </c>
       <c r="D862" s="29" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.45">
@@ -25648,7 +25651,7 @@
         <v>5271</v>
       </c>
       <c r="D863" s="29" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.45">
@@ -25662,7 +25665,7 @@
         <v>5272</v>
       </c>
       <c r="D864" s="29" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.45">
@@ -25676,7 +25679,7 @@
         <v>5273</v>
       </c>
       <c r="D865" s="29" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.45">
@@ -25690,7 +25693,7 @@
         <v>5274</v>
       </c>
       <c r="D866" s="29" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.45">
@@ -25704,7 +25707,7 @@
         <v>5275</v>
       </c>
       <c r="D867" s="29" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.45">
@@ -25718,7 +25721,7 @@
         <v>5276</v>
       </c>
       <c r="D868" s="29" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.45">
@@ -25732,7 +25735,7 @@
         <v>5277</v>
       </c>
       <c r="D869" s="29" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.45">
@@ -25746,7 +25749,7 @@
         <v>5278</v>
       </c>
       <c r="D870" s="29" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.45">
@@ -25760,7 +25763,7 @@
         <v>5279</v>
       </c>
       <c r="D871" s="29" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.45">
@@ -25774,7 +25777,7 @@
         <v>5280</v>
       </c>
       <c r="D872" s="29" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.45">
@@ -25802,7 +25805,7 @@
         <v>5282</v>
       </c>
       <c r="D874" s="29" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.45">
@@ -25830,7 +25833,7 @@
         <v>5284</v>
       </c>
       <c r="D876" s="29" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.45">
@@ -25844,7 +25847,7 @@
         <v>5285</v>
       </c>
       <c r="D877" s="29" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
@@ -25858,7 +25861,7 @@
         <v>5297</v>
       </c>
       <c r="D878" s="29" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
@@ -26460,7 +26463,7 @@
         <v>65</v>
       </c>
       <c r="D921" s="29" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.45">
@@ -26474,7 +26477,7 @@
         <v>66</v>
       </c>
       <c r="D922" s="29" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.45">
@@ -26488,7 +26491,7 @@
         <v>101</v>
       </c>
       <c r="D923" s="29" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.45">
@@ -26502,7 +26505,7 @@
         <v>102</v>
       </c>
       <c r="D924" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.45">
@@ -26516,7 +26519,7 @@
         <v>103</v>
       </c>
       <c r="D925" s="29" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.45">
@@ -26530,7 +26533,7 @@
         <v>104</v>
       </c>
       <c r="D926" s="29" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.45">
@@ -26544,7 +26547,7 @@
         <v>105</v>
       </c>
       <c r="D927" s="29" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.45">
@@ -26558,7 +26561,7 @@
         <v>106</v>
       </c>
       <c r="D928" s="29" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.45">
@@ -26572,7 +26575,7 @@
         <v>107</v>
       </c>
       <c r="D929" s="29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.45">
@@ -26586,7 +26589,7 @@
         <v>108</v>
       </c>
       <c r="D930" s="29" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.45">
@@ -26600,7 +26603,7 @@
         <v>109</v>
       </c>
       <c r="D931" s="29" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.45">
@@ -26614,7 +26617,7 @@
         <v>110</v>
       </c>
       <c r="D932" s="29" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.45">
@@ -26628,7 +26631,7 @@
         <v>111</v>
       </c>
       <c r="D933" s="29" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.45">
@@ -26642,7 +26645,7 @@
         <v>112</v>
       </c>
       <c r="D934" s="29" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.45">
@@ -26656,7 +26659,7 @@
         <v>113</v>
       </c>
       <c r="D935" s="29" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.45">
@@ -26670,7 +26673,7 @@
         <v>114</v>
       </c>
       <c r="D936" s="29" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.45">
@@ -26684,7 +26687,7 @@
         <v>115</v>
       </c>
       <c r="D937" s="29" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.45">
@@ -26698,7 +26701,7 @@
         <v>116</v>
       </c>
       <c r="D938" s="29" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.45">
@@ -26712,7 +26715,7 @@
         <v>117</v>
       </c>
       <c r="D939" s="29" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.45">
@@ -26726,7 +26729,7 @@
         <v>118</v>
       </c>
       <c r="D940" s="29" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.45">
@@ -26740,7 +26743,7 @@
         <v>119</v>
       </c>
       <c r="D941" s="29" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.45">
@@ -26754,7 +26757,7 @@
         <v>120</v>
       </c>
       <c r="D942" s="29" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.45">
@@ -26768,7 +26771,7 @@
         <v>121</v>
       </c>
       <c r="D943" s="29" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.45">
@@ -26782,7 +26785,7 @@
         <v>122</v>
       </c>
       <c r="D944" s="29" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.45">
@@ -26796,7 +26799,7 @@
         <v>123</v>
       </c>
       <c r="D945" s="29" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.45">
@@ -26810,7 +26813,7 @@
         <v>124</v>
       </c>
       <c r="D946" s="29" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.45">
@@ -26824,7 +26827,7 @@
         <v>125</v>
       </c>
       <c r="D947" s="29" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.45">
@@ -26838,7 +26841,7 @@
         <v>126</v>
       </c>
       <c r="D948" s="29" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.45">
@@ -26852,7 +26855,7 @@
         <v>127</v>
       </c>
       <c r="D949" s="29" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.45">
@@ -26866,7 +26869,7 @@
         <v>128</v>
       </c>
       <c r="D950" s="29" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.45">
@@ -26880,7 +26883,7 @@
         <v>129</v>
       </c>
       <c r="D951" s="29" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.45">
@@ -26894,7 +26897,7 @@
         <v>130</v>
       </c>
       <c r="D952" s="29" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.45">
@@ -26908,7 +26911,7 @@
         <v>131</v>
       </c>
       <c r="D953" s="29" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.45">
@@ -26922,7 +26925,7 @@
         <v>132</v>
       </c>
       <c r="D954" s="29" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.45">
@@ -26936,7 +26939,7 @@
         <v>133</v>
       </c>
       <c r="D955" s="29" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.45">
@@ -26950,7 +26953,7 @@
         <v>134</v>
       </c>
       <c r="D956" s="29" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.45">
@@ -26964,7 +26967,7 @@
         <v>135</v>
       </c>
       <c r="D957" s="29" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.45">
@@ -26978,7 +26981,7 @@
         <v>136</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -26992,7 +26995,7 @@
         <v>901</v>
       </c>
       <c r="D959" s="29" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E959" s="3"/>
     </row>
@@ -27007,7 +27010,7 @@
         <v>902</v>
       </c>
       <c r="D960" s="28" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E960" s="3"/>
     </row>
@@ -27022,7 +27025,7 @@
         <v>903</v>
       </c>
       <c r="D961" s="28" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E961" s="3"/>
     </row>
@@ -27037,7 +27040,7 @@
         <v>904</v>
       </c>
       <c r="D962" s="28" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E962" s="3"/>
     </row>
@@ -27052,7 +27055,7 @@
         <v>905</v>
       </c>
       <c r="D963" s="28" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E963" s="3"/>
     </row>
@@ -27067,7 +27070,7 @@
         <v>906</v>
       </c>
       <c r="D964" s="28" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E964" s="3"/>
     </row>
@@ -27082,7 +27085,7 @@
         <v>907</v>
       </c>
       <c r="D965" s="28" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E965" s="3"/>
     </row>
@@ -27097,7 +27100,7 @@
         <v>908</v>
       </c>
       <c r="D966" s="28" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E966" s="3"/>
     </row>
@@ -27112,7 +27115,7 @@
         <v>909</v>
       </c>
       <c r="D967" s="28" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E967" s="3"/>
     </row>
@@ -27127,7 +27130,7 @@
         <v>910</v>
       </c>
       <c r="D968" s="28" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E968" s="3"/>
     </row>
@@ -27142,7 +27145,7 @@
         <v>911</v>
       </c>
       <c r="D969" s="28" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E969" s="3"/>
     </row>
@@ -27157,7 +27160,7 @@
         <v>912</v>
       </c>
       <c r="D970" s="28" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E970" s="3"/>
     </row>
@@ -27172,7 +27175,7 @@
         <v>913</v>
       </c>
       <c r="D971" s="28" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E971" s="3"/>
     </row>
@@ -27187,7 +27190,7 @@
         <v>914</v>
       </c>
       <c r="D972" s="28" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E972" s="3"/>
     </row>
@@ -27202,7 +27205,7 @@
         <v>915</v>
       </c>
       <c r="D973" s="28" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E973" s="3"/>
     </row>
@@ -27217,7 +27220,7 @@
         <v>916</v>
       </c>
       <c r="D974" s="28" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E974" s="3"/>
     </row>
@@ -27232,7 +27235,7 @@
         <v>917</v>
       </c>
       <c r="D975" s="28" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E975" s="3"/>
     </row>
@@ -27247,7 +27250,7 @@
         <v>918</v>
       </c>
       <c r="D976" s="28" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E976" s="3"/>
     </row>
@@ -27262,7 +27265,7 @@
         <v>919</v>
       </c>
       <c r="D977" s="28" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E977" s="3"/>
     </row>
@@ -27277,7 +27280,7 @@
         <v>920</v>
       </c>
       <c r="D978" s="29" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E978" s="3"/>
     </row>
@@ -27292,7 +27295,7 @@
         <v>0</v>
       </c>
       <c r="D979" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.45">
@@ -27306,7 +27309,7 @@
         <v>1</v>
       </c>
       <c r="D980" s="29" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.45">
@@ -27398,13 +27401,13 @@
         <v>35</v>
       </c>
       <c r="B987" s="29" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C987" s="29">
         <v>1</v>
       </c>
       <c r="D987" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.45">
@@ -27412,13 +27415,13 @@
         <v>35</v>
       </c>
       <c r="B988" s="29" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C988" s="29">
         <v>2</v>
       </c>
       <c r="D988" s="29" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.45">
@@ -28174,7 +28177,7 @@
         <v>53</v>
       </c>
       <c r="D1042" s="29" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.45">
@@ -28188,7 +28191,7 @@
         <v>54</v>
       </c>
       <c r="D1043" s="29" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.45">
@@ -28202,7 +28205,7 @@
         <v>55</v>
       </c>
       <c r="D1044" s="29" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.45">
@@ -28398,7 +28401,7 @@
         <v>0</v>
       </c>
       <c r="D1058" s="29" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.45">
@@ -28440,7 +28443,7 @@
         <v>3</v>
       </c>
       <c r="D1061" s="29" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28468,7 +28471,7 @@
         <v>5</v>
       </c>
       <c r="D1063" s="29" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.45">
@@ -28482,7 +28485,7 @@
         <v>6</v>
       </c>
       <c r="D1064" s="29" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.45">
@@ -28496,7 +28499,7 @@
         <v>9</v>
       </c>
       <c r="D1065" s="29" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.45">
@@ -28644,13 +28647,13 @@
         <v>47</v>
       </c>
       <c r="B1076" s="29" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1076" s="29">
         <v>0</v>
       </c>
       <c r="D1076" s="29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.45">
@@ -28658,13 +28661,13 @@
         <v>47</v>
       </c>
       <c r="B1077" s="29" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1077" s="29">
         <v>1</v>
       </c>
       <c r="D1077" s="29" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.45">
@@ -28672,13 +28675,13 @@
         <v>47</v>
       </c>
       <c r="B1078" s="29" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1078" s="29">
         <v>2</v>
       </c>
       <c r="D1078" s="29" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.45">
@@ -28692,7 +28695,7 @@
         <v>0</v>
       </c>
       <c r="D1079" s="29" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.45">
@@ -28720,7 +28723,7 @@
         <v>2</v>
       </c>
       <c r="D1081" s="29" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
@@ -28826,7 +28829,7 @@
         <v>698</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -28852,7 +28855,7 @@
         <v>698</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -28878,7 +28881,7 @@
         <v>698</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -28904,7 +28907,7 @@
         <v>698</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28930,7 +28933,7 @@
         <v>698</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -28956,7 +28959,7 @@
         <v>698</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -28982,7 +28985,7 @@
         <v>698</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -29008,7 +29011,7 @@
         <v>698</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -29034,7 +29037,7 @@
         <v>698</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -29676,7 +29679,7 @@
         <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>692</v>
@@ -29702,7 +29705,7 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>692</v>
@@ -29758,7 +29761,7 @@
         <v>698</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30128,7 +30131,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C58" s="36" t="s">
         <v>692</v>
@@ -30154,7 +30157,7 @@
         <v>102</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C59" s="36" t="s">
         <v>692</v>
@@ -30180,7 +30183,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>692</v>
@@ -30206,7 +30209,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>692</v>
@@ -30232,7 +30235,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>692</v>
@@ -30258,7 +30261,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>692</v>
@@ -30284,7 +30287,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>692</v>
@@ -30310,7 +30313,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>692</v>
@@ -30336,7 +30339,7 @@
         <v>109</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C66" s="36" t="s">
         <v>692</v>
@@ -30362,7 +30365,7 @@
         <v>110</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>692</v>
@@ -30388,7 +30391,7 @@
         <v>111</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C68" s="36" t="s">
         <v>692</v>
@@ -30414,7 +30417,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>692</v>
@@ -30440,7 +30443,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>692</v>
@@ -30466,7 +30469,7 @@
         <v>114</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>692</v>
@@ -30492,7 +30495,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C72" s="36" t="s">
         <v>692</v>
@@ -30518,7 +30521,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C73" s="36" t="s">
         <v>692</v>
@@ -30544,7 +30547,7 @@
         <v>117</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>692</v>
@@ -30570,7 +30573,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>692</v>
@@ -30596,7 +30599,7 @@
         <v>119</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>692</v>
@@ -30622,7 +30625,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>692</v>
@@ -30648,7 +30651,7 @@
         <v>121</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>692</v>
@@ -30674,7 +30677,7 @@
         <v>122</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>692</v>
@@ -30700,7 +30703,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C80" s="36" t="s">
         <v>692</v>
@@ -30726,7 +30729,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C81" s="36" t="s">
         <v>692</v>
@@ -30752,7 +30755,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C82" s="36" t="s">
         <v>692</v>
@@ -30778,7 +30781,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>692</v>
@@ -30804,7 +30807,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C84" s="36" t="s">
         <v>692</v>
@@ -30830,7 +30833,7 @@
         <v>128</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C85" s="36" t="s">
         <v>692</v>
@@ -30856,7 +30859,7 @@
         <v>129</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C86" s="36" t="s">
         <v>692</v>
@@ -30882,7 +30885,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>692</v>
@@ -30908,7 +30911,7 @@
         <v>131</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C88" s="36" t="s">
         <v>692</v>
@@ -30934,7 +30937,7 @@
         <v>132</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C89" s="36" t="s">
         <v>692</v>
@@ -30960,7 +30963,7 @@
         <v>133</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C90" s="36" t="s">
         <v>692</v>
@@ -30986,7 +30989,7 @@
         <v>134</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C91" s="36" t="s">
         <v>692</v>
@@ -31012,7 +31015,7 @@
         <v>135</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C92" s="36" t="s">
         <v>692</v>
@@ -31038,7 +31041,7 @@
         <v>136</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C93" s="36" t="s">
         <v>692</v>
@@ -31094,7 +31097,7 @@
         <v>698</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -31120,7 +31123,7 @@
         <v>698</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -31146,7 +31149,7 @@
         <v>698</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31236,7 +31239,7 @@
         <v>698</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -31262,7 +31265,7 @@
         <v>698</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -31288,7 +31291,7 @@
         <v>698</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31360,7 +31363,7 @@
         <v>901</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C107" s="11">
         <v>1</v>
@@ -31386,7 +31389,7 @@
         <v>902</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C108" s="11">
         <v>1</v>
@@ -31412,7 +31415,7 @@
         <v>903</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C109" s="11">
         <v>1</v>
@@ -31438,7 +31441,7 @@
         <v>904</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C110" s="11">
         <v>1</v>
@@ -31464,7 +31467,7 @@
         <v>905</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C111" s="11">
         <v>1</v>
@@ -31490,7 +31493,7 @@
         <v>906</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C112" s="11">
         <v>1</v>
@@ -31516,7 +31519,7 @@
         <v>907</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C113" s="11">
         <v>1</v>
@@ -31542,7 +31545,7 @@
         <v>908</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C114" s="11">
         <v>1</v>
@@ -31568,7 +31571,7 @@
         <v>909</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C115" s="11">
         <v>1</v>
@@ -31594,7 +31597,7 @@
         <v>910</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C116" s="11">
         <v>1</v>
@@ -31620,7 +31623,7 @@
         <v>911</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C117" s="11">
         <v>1</v>
@@ -31646,7 +31649,7 @@
         <v>912</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C118" s="11">
         <v>1</v>
@@ -31672,7 +31675,7 @@
         <v>913</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C119" s="11">
         <v>1</v>
@@ -31698,7 +31701,7 @@
         <v>914</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C120" s="11">
         <v>1</v>
@@ -31724,7 +31727,7 @@
         <v>915</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C121" s="11">
         <v>1</v>
@@ -31750,7 +31753,7 @@
         <v>916</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C122" s="11">
         <v>1</v>
@@ -31776,7 +31779,7 @@
         <v>917</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C123" s="11">
         <v>1</v>
@@ -31802,7 +31805,7 @@
         <v>918</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C124" s="11">
         <v>1</v>
@@ -31828,7 +31831,7 @@
         <v>919</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C125" s="11">
         <v>1</v>
@@ -31854,7 +31857,7 @@
         <v>920</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C126" s="11">
         <v>1</v>

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E21F5D5-FDBB-4547-8131-9C9028ADDD3E}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50A267D-A1E4-4FD7-AD69-763ABB4066B0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-28920" yWindow="-6315" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1559">
   <si>
     <t>File ID</t>
   </si>
@@ -4732,6 +4732,9 @@
   </si>
   <si>
     <t>Must match a ProjectID in Project.csv</t>
+  </si>
+  <si>
+    <t>Long-Term Homeless with Disability</t>
   </si>
 </sst>
 </file>
@@ -5515,7 +5518,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
@@ -13462,9 +13465,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N1081"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1062" sqref="K1062"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1051" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1060" sqref="D1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28429,7 +28432,7 @@
         <v>2</v>
       </c>
       <c r="D1060" s="29" t="s">
-        <v>691</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.45">

--- a/LSA Data Dictionary FY2023.xlsx
+++ b/LSA Data Dictionary FY2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D50A267D-A1E4-4FD7-AD69-763ABB4066B0}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{84A0A88E-B7F7-4E6A-BAE7-02FF3B7B69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD399D4-67FE-4C0F-AA7F-0BFBC99BAF31}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6315" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -4707,9 +4707,6 @@
     <t>For all Project IDs in Project.csv active during the report period where RRHSubType = 1 and ResidentialAffiliation = 1, all records of HMIS field 2.02B Residential Affiliation , exported in the HMIS CSV format.</t>
   </si>
   <si>
-    <t>50-97, 1190, 1191, 1290, 1291, subpops 53-85 of pops 50-52</t>
-  </si>
-  <si>
     <t>50, 53, 1190, 1191, 1290, 1291</t>
   </si>
   <si>
@@ -4735,6 +4732,9 @@
   </si>
   <si>
     <t>Long-Term Homeless with Disability</t>
+  </si>
+  <si>
+    <t>50-97, 1190, 1191, 1290, 1291, subpops 53-85 &amp; 97 of pops 50-52</t>
   </si>
 </sst>
 </file>
@@ -5567,7 +5567,7 @@
         <v>1055</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -8434,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>38</v>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J104" s="3">
         <v>2</v>
@@ -12976,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="28" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E270" s="28" t="s">
         <v>1507</v>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="28">
@@ -13465,7 +13465,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1051" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1060" sqref="D1060"/>
     </sheetView>
@@ -26984,7 +26984,7 @@
         <v>136</v>
       </c>
       <c r="D958" s="29" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -28432,7 +28432,7 @@
         <v>2</v>
       </c>
       <c r="D1060" s="29" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.45">
@@ -28446,7 +28446,7 @@
         <v>3</v>
       </c>
       <c r="D1061" s="29" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28744,9 +28744,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31152,7 +31152,7 @@
         <v>698</v>
       </c>
       <c r="H97" s="35" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31294,7 +31294,7 @@
         <v>698</v>
       </c>
       <c r="H103" s="35" t="s">
-        <v>1549</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
